--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,18 @@
     <t>['71', '90+2']</t>
   </si>
   <si>
+    <t>['43', '74']</t>
+  </si>
+  <si>
+    <t>['35', '63']</t>
+  </si>
+  <si>
+    <t>['43', '52']</t>
+  </si>
+  <si>
+    <t>['75', '84']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -689,6 +701,24 @@
   </si>
   <si>
     <t>['67', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['85', '90+7']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['35', '43']</t>
+  </si>
+  <si>
+    <t>['35', '68', '90+2']</t>
+  </si>
+  <si>
+    <t>['22', '45+3', '70']</t>
+  </si>
+  <si>
+    <t>['4', '31']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT2">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1485,7 +1515,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1572,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT3">
         <v>1.91</v>
@@ -1766,7 +1796,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1867,7 +1897,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2058,7 +2088,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2145,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2249,7 +2279,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2339,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2530,7 +2560,7 @@
         <v>1.78</v>
       </c>
       <c r="AT8">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2631,7 +2661,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2721,7 +2751,7 @@
         <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2909,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT10">
         <v>0.8</v>
@@ -3100,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
         <v>0.11</v>
@@ -3204,7 +3234,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3395,7 +3425,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3586,7 +3616,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3676,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU14">
         <v>1.33</v>
@@ -3777,7 +3807,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4055,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT16">
         <v>2.11</v>
@@ -4437,10 +4467,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT18">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU18">
         <v>1.15</v>
@@ -4541,7 +4571,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4628,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT19">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>1.08</v>
@@ -4819,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
         <v>0.11</v>
@@ -4923,7 +4953,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5010,10 +5040,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5305,7 +5335,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5392,10 +5422,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT23">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5496,7 +5526,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5586,7 +5616,7 @@
         <v>1.56</v>
       </c>
       <c r="AT24">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5687,7 +5717,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6069,7 +6099,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6159,7 +6189,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -6347,10 +6377,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU28">
         <v>1.74</v>
@@ -6451,7 +6481,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6729,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT30">
         <v>1.6</v>
@@ -6833,7 +6863,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6920,10 +6950,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT31">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7024,7 +7054,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7111,10 +7141,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT32">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -7215,7 +7245,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7305,7 +7335,7 @@
         <v>1.78</v>
       </c>
       <c r="AT33">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7406,7 +7436,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7496,7 +7526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -8066,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
         <v>1.91</v>
@@ -8260,7 +8290,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU38">
         <v>1.66</v>
@@ -8361,7 +8391,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8451,7 +8481,7 @@
         <v>1.89</v>
       </c>
       <c r="AT39">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU39">
         <v>1.95</v>
@@ -8639,7 +8669,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
         <v>1.6</v>
@@ -8830,7 +8860,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT41">
         <v>2.11</v>
@@ -9125,7 +9155,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9212,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT43">
         <v>2</v>
@@ -9316,7 +9346,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9507,7 +9537,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9785,10 +9815,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>2.31</v>
@@ -9976,7 +10006,7 @@
         <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
         <v>1.91</v>
@@ -10170,7 +10200,7 @@
         <v>1.89</v>
       </c>
       <c r="AT48">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU48">
         <v>2.15</v>
@@ -10271,7 +10301,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10358,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT49">
         <v>0.22</v>
@@ -10462,7 +10492,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10653,7 +10683,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10934,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU52">
         <v>1.25</v>
@@ -11035,7 +11065,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11122,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>2.11</v>
@@ -11226,7 +11256,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11316,7 +11346,7 @@
         <v>1.36</v>
       </c>
       <c r="AT54">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU54">
         <v>1.23</v>
@@ -11504,10 +11534,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU55">
         <v>1.35</v>
@@ -11886,7 +11916,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT57">
         <v>0.22</v>
@@ -11990,7 +12020,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12077,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT58">
         <v>0.11</v>
@@ -12271,7 +12301,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>1.42</v>
@@ -12372,7 +12402,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12563,7 +12593,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12653,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU61">
         <v>1.11</v>
@@ -12754,7 +12784,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12945,7 +12975,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13032,10 +13062,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT63">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.17</v>
@@ -13136,7 +13166,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13327,7 +13357,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13414,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT65">
         <v>1.6</v>
@@ -13605,10 +13635,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT66">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13709,7 +13739,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13796,10 +13826,10 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT67">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -13987,7 +14017,7 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT68">
         <v>2.11</v>
@@ -14178,7 +14208,7 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT69">
         <v>1.6</v>
@@ -14282,7 +14312,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14473,7 +14503,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14563,7 +14593,7 @@
         <v>1.78</v>
       </c>
       <c r="AT71">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU71">
         <v>1.45</v>
@@ -14664,7 +14694,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14855,7 +14885,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14945,7 +14975,7 @@
         <v>1.2</v>
       </c>
       <c r="AT73">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15046,7 +15076,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15327,7 +15357,7 @@
         <v>1.89</v>
       </c>
       <c r="AT75">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU75">
         <v>1.98</v>
@@ -15428,7 +15458,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15515,10 +15545,10 @@
         <v>1.4</v>
       </c>
       <c r="AS76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU76">
         <v>1.35</v>
@@ -15619,7 +15649,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15706,10 +15736,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT77">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15810,7 +15840,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15897,7 +15927,7 @@
         <v>2.6</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>2</v>
@@ -16192,7 +16222,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16279,10 +16309,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT80">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16383,7 +16413,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16470,7 +16500,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT81">
         <v>0.8</v>
@@ -16664,7 +16694,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16855,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -16956,7 +16986,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17043,7 +17073,7 @@
         <v>1.71</v>
       </c>
       <c r="AS84">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT84">
         <v>1.91</v>
@@ -17237,7 +17267,7 @@
         <v>1.89</v>
       </c>
       <c r="AT85">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU85">
         <v>1.94</v>
@@ -17529,7 +17559,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17720,7 +17750,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17810,7 +17840,7 @@
         <v>1.2</v>
       </c>
       <c r="AT88">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -17998,7 +18028,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT89">
         <v>0.8</v>
@@ -18102,7 +18132,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18189,7 +18219,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT90">
         <v>1.6</v>
@@ -18484,7 +18514,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18571,7 +18601,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT92">
         <v>2.11</v>
@@ -18762,10 +18792,10 @@
         <v>1.29</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18866,7 +18896,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18956,7 +18986,7 @@
         <v>1.56</v>
       </c>
       <c r="AT94">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19057,7 +19087,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19144,10 +19174,10 @@
         <v>0.83</v>
       </c>
       <c r="AS95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT95">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU95">
         <v>1.29</v>
@@ -19248,7 +19278,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19529,7 +19559,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19630,7 +19660,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19908,7 +19938,7 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT99">
         <v>0.8</v>
@@ -20099,7 +20129,7 @@
         <v>2.29</v>
       </c>
       <c r="AS100">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT100">
         <v>2</v>
@@ -20203,7 +20233,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20394,7 +20424,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20484,7 +20514,7 @@
         <v>1.36</v>
       </c>
       <c r="AT102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU102">
         <v>1.37</v>
@@ -20585,7 +20615,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20776,7 +20806,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20863,10 +20893,10 @@
         <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -20967,7 +20997,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21057,7 +21087,7 @@
         <v>1.2</v>
       </c>
       <c r="AT105">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21158,7 +21188,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21436,7 +21466,7 @@
         <v>0.29</v>
       </c>
       <c r="AS107">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
         <v>0.22</v>
@@ -21540,7 +21570,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21627,10 +21657,10 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU108">
         <v>1.3</v>
@@ -21731,7 +21761,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21821,7 +21851,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU109">
         <v>1.23</v>
@@ -21922,7 +21952,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22009,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT110">
         <v>1.91</v>
@@ -22113,7 +22143,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22203,7 +22233,7 @@
         <v>1.78</v>
       </c>
       <c r="AT111">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22304,7 +22334,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22495,7 +22525,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22582,7 +22612,7 @@
         <v>0.78</v>
       </c>
       <c r="AS113">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT113">
         <v>0.8</v>
@@ -22776,7 +22806,7 @@
         <v>1.36</v>
       </c>
       <c r="AT114">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU114">
         <v>1.38</v>
@@ -22877,7 +22907,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23068,7 +23098,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23158,7 +23188,7 @@
         <v>1.36</v>
       </c>
       <c r="AT116">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU116">
         <v>1.37</v>
@@ -23346,7 +23376,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AT117">
         <v>1.6</v>
@@ -23450,7 +23480,7 @@
         <v>155</v>
       </c>
       <c r="P118" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23537,7 +23567,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT118">
         <v>0.22</v>
@@ -23832,7 +23862,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23919,10 +23949,10 @@
         <v>1.13</v>
       </c>
       <c r="AS120">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU120">
         <v>1.31</v>
@@ -24165,6 +24195,1152 @@
       </c>
       <c r="BK121">
         <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5242370</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45122.29166666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>66</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>158</v>
+      </c>
+      <c r="P122" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+      <c r="R122">
+        <v>6</v>
+      </c>
+      <c r="S122">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>3.82</v>
+      </c>
+      <c r="U122">
+        <v>2.01</v>
+      </c>
+      <c r="V122">
+        <v>2.79</v>
+      </c>
+      <c r="W122">
+        <v>1.44</v>
+      </c>
+      <c r="X122">
+        <v>2.65</v>
+      </c>
+      <c r="Y122">
+        <v>3.1</v>
+      </c>
+      <c r="Z122">
+        <v>1.34</v>
+      </c>
+      <c r="AA122">
+        <v>8.1</v>
+      </c>
+      <c r="AB122">
+        <v>1.06</v>
+      </c>
+      <c r="AC122">
+        <v>3.01</v>
+      </c>
+      <c r="AD122">
+        <v>3.2</v>
+      </c>
+      <c r="AE122">
+        <v>2.22</v>
+      </c>
+      <c r="AF122">
+        <v>1.03</v>
+      </c>
+      <c r="AG122">
+        <v>7.9</v>
+      </c>
+      <c r="AH122">
+        <v>1.34</v>
+      </c>
+      <c r="AI122">
+        <v>2.88</v>
+      </c>
+      <c r="AJ122">
+        <v>2.25</v>
+      </c>
+      <c r="AK122">
+        <v>1.57</v>
+      </c>
+      <c r="AL122">
+        <v>1.83</v>
+      </c>
+      <c r="AM122">
+        <v>1.83</v>
+      </c>
+      <c r="AN122">
+        <v>1.62</v>
+      </c>
+      <c r="AO122">
+        <v>1.31</v>
+      </c>
+      <c r="AP122">
+        <v>1.32</v>
+      </c>
+      <c r="AQ122">
+        <v>0.22</v>
+      </c>
+      <c r="AR122">
+        <v>1.13</v>
+      </c>
+      <c r="AS122">
+        <v>0.3</v>
+      </c>
+      <c r="AT122">
+        <v>1.11</v>
+      </c>
+      <c r="AU122">
+        <v>1.11</v>
+      </c>
+      <c r="AV122">
+        <v>1.15</v>
+      </c>
+      <c r="AW122">
+        <v>2.26</v>
+      </c>
+      <c r="AX122">
+        <v>1.88</v>
+      </c>
+      <c r="AY122">
+        <v>7.9</v>
+      </c>
+      <c r="AZ122">
+        <v>2.18</v>
+      </c>
+      <c r="BA122">
+        <v>1.44</v>
+      </c>
+      <c r="BB122">
+        <v>1.8</v>
+      </c>
+      <c r="BC122">
+        <v>2.34</v>
+      </c>
+      <c r="BD122">
+        <v>3.28</v>
+      </c>
+      <c r="BE122">
+        <v>5</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>2</v>
+      </c>
+      <c r="BI122">
+        <v>5</v>
+      </c>
+      <c r="BJ122">
+        <v>8</v>
+      </c>
+      <c r="BK122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5242371</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45122.3125</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>159</v>
+      </c>
+      <c r="P123" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>4.8</v>
+      </c>
+      <c r="U123">
+        <v>2.05</v>
+      </c>
+      <c r="V123">
+        <v>2.45</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>2.66</v>
+      </c>
+      <c r="Y123">
+        <v>3.04</v>
+      </c>
+      <c r="Z123">
+        <v>1.35</v>
+      </c>
+      <c r="AA123">
+        <v>7.9</v>
+      </c>
+      <c r="AB123">
+        <v>1.06</v>
+      </c>
+      <c r="AC123">
+        <v>4.03</v>
+      </c>
+      <c r="AD123">
+        <v>3.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.87</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>11</v>
+      </c>
+      <c r="AH123">
+        <v>1.32</v>
+      </c>
+      <c r="AI123">
+        <v>3.1</v>
+      </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
+      <c r="AK123">
+        <v>1.75</v>
+      </c>
+      <c r="AL123">
+        <v>1.87</v>
+      </c>
+      <c r="AM123">
+        <v>1.89</v>
+      </c>
+      <c r="AN123">
+        <v>1.86</v>
+      </c>
+      <c r="AO123">
+        <v>1.28</v>
+      </c>
+      <c r="AP123">
+        <v>1.22</v>
+      </c>
+      <c r="AQ123">
+        <v>1.22</v>
+      </c>
+      <c r="AR123">
+        <v>2.11</v>
+      </c>
+      <c r="AS123">
+        <v>1.4</v>
+      </c>
+      <c r="AT123">
+        <v>1.9</v>
+      </c>
+      <c r="AU123">
+        <v>1.32</v>
+      </c>
+      <c r="AV123">
+        <v>1.49</v>
+      </c>
+      <c r="AW123">
+        <v>2.81</v>
+      </c>
+      <c r="AX123">
+        <v>2.39</v>
+      </c>
+      <c r="AY123">
+        <v>8.5</v>
+      </c>
+      <c r="AZ123">
+        <v>1.72</v>
+      </c>
+      <c r="BA123">
+        <v>1.31</v>
+      </c>
+      <c r="BB123">
+        <v>1.57</v>
+      </c>
+      <c r="BC123">
+        <v>1.95</v>
+      </c>
+      <c r="BD123">
+        <v>2.6</v>
+      </c>
+      <c r="BE123">
+        <v>3.56</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>6</v>
+      </c>
+      <c r="BH123">
+        <v>3</v>
+      </c>
+      <c r="BI123">
+        <v>7</v>
+      </c>
+      <c r="BJ123">
+        <v>7</v>
+      </c>
+      <c r="BK123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5242372</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45122.3125</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>71</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>80</v>
+      </c>
+      <c r="P124" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>10</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+      <c r="T124">
+        <v>3.8</v>
+      </c>
+      <c r="U124">
+        <v>2.07</v>
+      </c>
+      <c r="V124">
+        <v>2.7</v>
+      </c>
+      <c r="W124">
+        <v>1.41</v>
+      </c>
+      <c r="X124">
+        <v>2.77</v>
+      </c>
+      <c r="Y124">
+        <v>2.9</v>
+      </c>
+      <c r="Z124">
+        <v>1.38</v>
+      </c>
+      <c r="AA124">
+        <v>7.4</v>
+      </c>
+      <c r="AB124">
+        <v>1.07</v>
+      </c>
+      <c r="AC124">
+        <v>3.06</v>
+      </c>
+      <c r="AD124">
+        <v>3.3</v>
+      </c>
+      <c r="AE124">
+        <v>2.15</v>
+      </c>
+      <c r="AF124">
+        <v>1.02</v>
+      </c>
+      <c r="AG124">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH124">
+        <v>1.29</v>
+      </c>
+      <c r="AI124">
+        <v>3.18</v>
+      </c>
+      <c r="AJ124">
+        <v>1.94</v>
+      </c>
+      <c r="AK124">
+        <v>1.77</v>
+      </c>
+      <c r="AL124">
+        <v>1.75</v>
+      </c>
+      <c r="AM124">
+        <v>1.92</v>
+      </c>
+      <c r="AN124">
+        <v>1.65</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.31</v>
+      </c>
+      <c r="AQ124">
+        <v>0.89</v>
+      </c>
+      <c r="AR124">
+        <v>1.56</v>
+      </c>
+      <c r="AS124">
+        <v>0.8</v>
+      </c>
+      <c r="AT124">
+        <v>1.7</v>
+      </c>
+      <c r="AU124">
+        <v>1.6</v>
+      </c>
+      <c r="AV124">
+        <v>1.29</v>
+      </c>
+      <c r="AW124">
+        <v>2.89</v>
+      </c>
+      <c r="AX124">
+        <v>1.9</v>
+      </c>
+      <c r="AY124">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ124">
+        <v>2.13</v>
+      </c>
+      <c r="BA124">
+        <v>1.32</v>
+      </c>
+      <c r="BB124">
+        <v>1.59</v>
+      </c>
+      <c r="BC124">
+        <v>2.01</v>
+      </c>
+      <c r="BD124">
+        <v>2.67</v>
+      </c>
+      <c r="BE124">
+        <v>3.74</v>
+      </c>
+      <c r="BF124">
+        <v>3</v>
+      </c>
+      <c r="BG124">
+        <v>4</v>
+      </c>
+      <c r="BH124">
+        <v>5</v>
+      </c>
+      <c r="BI124">
+        <v>10</v>
+      </c>
+      <c r="BJ124">
+        <v>8</v>
+      </c>
+      <c r="BK124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5242373</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45122.33333333334</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>69</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>160</v>
+      </c>
+      <c r="P125" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>4.27</v>
+      </c>
+      <c r="U125">
+        <v>1.97</v>
+      </c>
+      <c r="V125">
+        <v>2.76</v>
+      </c>
+      <c r="W125">
+        <v>1.48</v>
+      </c>
+      <c r="X125">
+        <v>2.54</v>
+      </c>
+      <c r="Y125">
+        <v>3.26</v>
+      </c>
+      <c r="Z125">
+        <v>1.31</v>
+      </c>
+      <c r="AA125">
+        <v>8.6</v>
+      </c>
+      <c r="AB125">
+        <v>1.05</v>
+      </c>
+      <c r="AC125">
+        <v>3.27</v>
+      </c>
+      <c r="AD125">
+        <v>3.15</v>
+      </c>
+      <c r="AE125">
+        <v>2.12</v>
+      </c>
+      <c r="AF125">
+        <v>1.05</v>
+      </c>
+      <c r="AG125">
+        <v>7.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.4</v>
+      </c>
+      <c r="AI125">
+        <v>2.8</v>
+      </c>
+      <c r="AJ125">
+        <v>2.19</v>
+      </c>
+      <c r="AK125">
+        <v>1.6</v>
+      </c>
+      <c r="AL125">
+        <v>1.91</v>
+      </c>
+      <c r="AM125">
+        <v>1.85</v>
+      </c>
+      <c r="AN125">
+        <v>1.66</v>
+      </c>
+      <c r="AO125">
+        <v>1.31</v>
+      </c>
+      <c r="AP125">
+        <v>1.29</v>
+      </c>
+      <c r="AQ125">
+        <v>1.67</v>
+      </c>
+      <c r="AR125">
+        <v>1.89</v>
+      </c>
+      <c r="AS125">
+        <v>1.5</v>
+      </c>
+      <c r="AT125">
+        <v>2</v>
+      </c>
+      <c r="AU125">
+        <v>1.33</v>
+      </c>
+      <c r="AV125">
+        <v>1.74</v>
+      </c>
+      <c r="AW125">
+        <v>3.07</v>
+      </c>
+      <c r="AX125">
+        <v>2.06</v>
+      </c>
+      <c r="AY125">
+        <v>7.9</v>
+      </c>
+      <c r="AZ125">
+        <v>1.98</v>
+      </c>
+      <c r="BA125">
+        <v>1.48</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>2.48</v>
+      </c>
+      <c r="BD125">
+        <v>3.42</v>
+      </c>
+      <c r="BE125">
+        <v>5.1</v>
+      </c>
+      <c r="BF125">
+        <v>6</v>
+      </c>
+      <c r="BG125">
+        <v>7</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>10</v>
+      </c>
+      <c r="BK125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5242374</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126" t="s">
+        <v>161</v>
+      </c>
+      <c r="P126" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q126">
+        <v>9</v>
+      </c>
+      <c r="R126">
+        <v>7</v>
+      </c>
+      <c r="S126">
+        <v>16</v>
+      </c>
+      <c r="T126">
+        <v>2.57</v>
+      </c>
+      <c r="U126">
+        <v>1.99</v>
+      </c>
+      <c r="V126">
+        <v>4.69</v>
+      </c>
+      <c r="W126">
+        <v>1.47</v>
+      </c>
+      <c r="X126">
+        <v>2.57</v>
+      </c>
+      <c r="Y126">
+        <v>3.2</v>
+      </c>
+      <c r="Z126">
+        <v>1.32</v>
+      </c>
+      <c r="AA126">
+        <v>8.6</v>
+      </c>
+      <c r="AB126">
+        <v>1.05</v>
+      </c>
+      <c r="AC126">
+        <v>2</v>
+      </c>
+      <c r="AD126">
+        <v>3.32</v>
+      </c>
+      <c r="AE126">
+        <v>3.72</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>9.25</v>
+      </c>
+      <c r="AH126">
+        <v>1.38</v>
+      </c>
+      <c r="AI126">
+        <v>2.8</v>
+      </c>
+      <c r="AJ126">
+        <v>2.28</v>
+      </c>
+      <c r="AK126">
+        <v>1.58</v>
+      </c>
+      <c r="AL126">
+        <v>1.94</v>
+      </c>
+      <c r="AM126">
+        <v>1.82</v>
+      </c>
+      <c r="AN126">
+        <v>1.24</v>
+      </c>
+      <c r="AO126">
+        <v>1.3</v>
+      </c>
+      <c r="AP126">
+        <v>1.78</v>
+      </c>
+      <c r="AQ126">
+        <v>1.63</v>
+      </c>
+      <c r="AR126">
+        <v>1.11</v>
+      </c>
+      <c r="AS126">
+        <v>1.44</v>
+      </c>
+      <c r="AT126">
+        <v>1.3</v>
+      </c>
+      <c r="AU126">
+        <v>1.55</v>
+      </c>
+      <c r="AV126">
+        <v>1.45</v>
+      </c>
+      <c r="AW126">
+        <v>3</v>
+      </c>
+      <c r="AX126">
+        <v>1.69</v>
+      </c>
+      <c r="AY126">
+        <v>8.1</v>
+      </c>
+      <c r="AZ126">
+        <v>2.48</v>
+      </c>
+      <c r="BA126">
+        <v>1.42</v>
+      </c>
+      <c r="BB126">
+        <v>1.76</v>
+      </c>
+      <c r="BC126">
+        <v>2.28</v>
+      </c>
+      <c r="BD126">
+        <v>3.14</v>
+      </c>
+      <c r="BE126">
+        <v>4.8</v>
+      </c>
+      <c r="BF126">
+        <v>7</v>
+      </c>
+      <c r="BG126">
+        <v>5</v>
+      </c>
+      <c r="BH126">
+        <v>6</v>
+      </c>
+      <c r="BI126">
+        <v>6</v>
+      </c>
+      <c r="BJ126">
+        <v>13</v>
+      </c>
+      <c r="BK126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5242375</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45123.33333333334</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>65</v>
+      </c>
+      <c r="H127" t="s">
+        <v>67</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>80</v>
+      </c>
+      <c r="P127" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q127">
+        <v>7</v>
+      </c>
+      <c r="R127">
+        <v>5</v>
+      </c>
+      <c r="S127">
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <v>2.55</v>
+      </c>
+      <c r="U127">
+        <v>2.2</v>
+      </c>
+      <c r="V127">
+        <v>3.75</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127">
+        <v>2.62</v>
+      </c>
+      <c r="Z127">
+        <v>1.44</v>
+      </c>
+      <c r="AA127">
+        <v>5.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.12</v>
+      </c>
+      <c r="AC127">
+        <v>2.06</v>
+      </c>
+      <c r="AD127">
+        <v>3.52</v>
+      </c>
+      <c r="AE127">
+        <v>3.33</v>
+      </c>
+      <c r="AF127">
+        <v>1.04</v>
+      </c>
+      <c r="AG127">
+        <v>10</v>
+      </c>
+      <c r="AH127">
+        <v>1.22</v>
+      </c>
+      <c r="AI127">
+        <v>4</v>
+      </c>
+      <c r="AJ127">
+        <v>1.68</v>
+      </c>
+      <c r="AK127">
+        <v>2.1</v>
+      </c>
+      <c r="AL127">
+        <v>1.6</v>
+      </c>
+      <c r="AM127">
+        <v>2.25</v>
+      </c>
+      <c r="AN127">
+        <v>1.3</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1.75</v>
+      </c>
+      <c r="AQ127">
+        <v>1.89</v>
+      </c>
+      <c r="AR127">
+        <v>1.11</v>
+      </c>
+      <c r="AS127">
+        <v>1.7</v>
+      </c>
+      <c r="AT127">
+        <v>1.3</v>
+      </c>
+      <c r="AU127">
+        <v>1.83</v>
+      </c>
+      <c r="AV127">
+        <v>1.56</v>
+      </c>
+      <c r="AW127">
+        <v>3.39</v>
+      </c>
+      <c r="AX127">
+        <v>1.7</v>
+      </c>
+      <c r="AY127">
+        <v>8.6</v>
+      </c>
+      <c r="AZ127">
+        <v>2.42</v>
+      </c>
+      <c r="BA127">
+        <v>1.27</v>
+      </c>
+      <c r="BB127">
+        <v>1.51</v>
+      </c>
+      <c r="BC127">
+        <v>1.85</v>
+      </c>
+      <c r="BD127">
+        <v>2.45</v>
+      </c>
+      <c r="BE127">
+        <v>3.34</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>10</v>
+      </c>
+      <c r="BH127">
+        <v>9</v>
+      </c>
+      <c r="BI127">
+        <v>8</v>
+      </c>
+      <c r="BJ127">
+        <v>15</v>
+      </c>
+      <c r="BK127">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1080,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT7">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT8">
         <v>1.3</v>
@@ -3133,7 +3133,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>1.6</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT14">
         <v>1.3</v>
@@ -4852,7 +4852,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU20">
         <v>1.52</v>
@@ -5043,7 +5043,7 @@
         <v>1.7</v>
       </c>
       <c r="AT21">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT22">
         <v>0.22</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
         <v>1.3</v>
@@ -5807,7 +5807,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
         <v>1.53</v>
@@ -5995,7 +5995,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
         <v>0.8</v>
@@ -6189,7 +6189,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -7332,7 +7332,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT33">
         <v>2</v>
@@ -7717,7 +7717,7 @@
         <v>1.36</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU35">
         <v>1.15</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
         <v>0.22</v>
@@ -8290,7 +8290,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU38">
         <v>1.66</v>
@@ -9054,7 +9054,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9245,7 +9245,7 @@
         <v>0.8</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU43">
         <v>1.16</v>
@@ -9624,7 +9624,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT45">
         <v>1.6</v>
@@ -10579,10 +10579,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU50">
         <v>1.42</v>
@@ -10961,7 +10961,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT52">
         <v>1.9</v>
@@ -12110,7 +12110,7 @@
         <v>1.7</v>
       </c>
       <c r="AT58">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU58">
         <v>2.23</v>
@@ -12298,10 +12298,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU59">
         <v>1.42</v>
@@ -12492,7 +12492,7 @@
         <v>1.89</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU60">
         <v>2.14</v>
@@ -12680,7 +12680,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT61">
         <v>1.3</v>
@@ -13253,7 +13253,7 @@
         <v>0.8</v>
       </c>
       <c r="AS64">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT64">
         <v>0.8</v>
@@ -14402,7 +14402,7 @@
         <v>1.36</v>
       </c>
       <c r="AT70">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14590,7 +14590,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT71">
         <v>1.3</v>
@@ -14781,7 +14781,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT72">
         <v>1.91</v>
@@ -15163,10 +15163,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT74">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15930,7 +15930,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU78">
         <v>1.34</v>
@@ -16691,7 +16691,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>1.3</v>
@@ -16882,7 +16882,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT83">
         <v>1.7</v>
@@ -17267,7 +17267,7 @@
         <v>1.89</v>
       </c>
       <c r="AT85">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU85">
         <v>1.94</v>
@@ -17458,7 +17458,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -18410,10 +18410,10 @@
         <v>2.67</v>
       </c>
       <c r="AS91">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -18983,7 +18983,7 @@
         <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>1.7</v>
@@ -19177,7 +19177,7 @@
         <v>1.4</v>
       </c>
       <c r="AT95">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU95">
         <v>1.29</v>
@@ -19365,7 +19365,7 @@
         <v>1.88</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT96">
         <v>1.91</v>
@@ -20132,7 +20132,7 @@
         <v>1.44</v>
       </c>
       <c r="AT100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU100">
         <v>1.47</v>
@@ -20320,10 +20320,10 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT101">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU101">
         <v>1.44</v>
@@ -20896,7 +20896,7 @@
         <v>1.44</v>
       </c>
       <c r="AT104">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21278,7 +21278,7 @@
         <v>1.89</v>
       </c>
       <c r="AT106">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21848,7 +21848,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT109">
         <v>2</v>
@@ -22230,7 +22230,7 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT111">
         <v>1.9</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
         <v>2.11</v>
@@ -23761,7 +23761,7 @@
         <v>1.2</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU119">
         <v>1.5</v>
@@ -24334,7 +24334,7 @@
         <v>0.3</v>
       </c>
       <c r="AT122">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU122">
         <v>1.11</v>
@@ -25341,6 +25341,579 @@
       </c>
       <c r="BK127">
         <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5242376</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45125.29166666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>72</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>80</v>
+      </c>
+      <c r="P128" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>3</v>
+      </c>
+      <c r="T128">
+        <v>2.4</v>
+      </c>
+      <c r="U128">
+        <v>2.1</v>
+      </c>
+      <c r="V128">
+        <v>4.33</v>
+      </c>
+      <c r="W128">
+        <v>1.43</v>
+      </c>
+      <c r="X128">
+        <v>2.65</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>7</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>1.82</v>
+      </c>
+      <c r="AD128">
+        <v>3.45</v>
+      </c>
+      <c r="AE128">
+        <v>4.4</v>
+      </c>
+      <c r="AF128">
+        <v>1.07</v>
+      </c>
+      <c r="AG128">
+        <v>7.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.36</v>
+      </c>
+      <c r="AI128">
+        <v>3</v>
+      </c>
+      <c r="AJ128">
+        <v>2.01</v>
+      </c>
+      <c r="AK128">
+        <v>1.73</v>
+      </c>
+      <c r="AL128">
+        <v>1.95</v>
+      </c>
+      <c r="AM128">
+        <v>1.8</v>
+      </c>
+      <c r="AN128">
+        <v>1.18</v>
+      </c>
+      <c r="AO128">
+        <v>1.22</v>
+      </c>
+      <c r="AP128">
+        <v>1.9</v>
+      </c>
+      <c r="AQ128">
+        <v>1.78</v>
+      </c>
+      <c r="AR128">
+        <v>1.11</v>
+      </c>
+      <c r="AS128">
+        <v>1.7</v>
+      </c>
+      <c r="AT128">
+        <v>1.1</v>
+      </c>
+      <c r="AU128">
+        <v>1.36</v>
+      </c>
+      <c r="AV128">
+        <v>1.19</v>
+      </c>
+      <c r="AW128">
+        <v>2.55</v>
+      </c>
+      <c r="AX128">
+        <v>1.51</v>
+      </c>
+      <c r="AY128">
+        <v>7.8</v>
+      </c>
+      <c r="AZ128">
+        <v>3.05</v>
+      </c>
+      <c r="BA128">
+        <v>1.49</v>
+      </c>
+      <c r="BB128">
+        <v>1.82</v>
+      </c>
+      <c r="BC128">
+        <v>2.25</v>
+      </c>
+      <c r="BD128">
+        <v>3.08</v>
+      </c>
+      <c r="BE128">
+        <v>3.8</v>
+      </c>
+      <c r="BF128">
+        <v>2</v>
+      </c>
+      <c r="BG128">
+        <v>6</v>
+      </c>
+      <c r="BH128">
+        <v>3</v>
+      </c>
+      <c r="BI128">
+        <v>2</v>
+      </c>
+      <c r="BJ128">
+        <v>5</v>
+      </c>
+      <c r="BK128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5242377</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45125.29166666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>70</v>
+      </c>
+      <c r="H129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>80</v>
+      </c>
+      <c r="P129" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q129">
+        <v>3</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>3.75</v>
+      </c>
+      <c r="W129">
+        <v>1.43</v>
+      </c>
+      <c r="X129">
+        <v>2.65</v>
+      </c>
+      <c r="Y129">
+        <v>2.75</v>
+      </c>
+      <c r="Z129">
+        <v>1.4</v>
+      </c>
+      <c r="AA129">
+        <v>7</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>2.14</v>
+      </c>
+      <c r="AD129">
+        <v>3.2</v>
+      </c>
+      <c r="AE129">
+        <v>3.4</v>
+      </c>
+      <c r="AF129">
+        <v>1.07</v>
+      </c>
+      <c r="AG129">
+        <v>7.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.36</v>
+      </c>
+      <c r="AI129">
+        <v>3</v>
+      </c>
+      <c r="AJ129">
+        <v>2.27</v>
+      </c>
+      <c r="AK129">
+        <v>1.59</v>
+      </c>
+      <c r="AL129">
+        <v>1.85</v>
+      </c>
+      <c r="AM129">
+        <v>1.9</v>
+      </c>
+      <c r="AN129">
+        <v>1.25</v>
+      </c>
+      <c r="AO129">
+        <v>1.25</v>
+      </c>
+      <c r="AP129">
+        <v>1.68</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>2</v>
+      </c>
+      <c r="AS129">
+        <v>0.9</v>
+      </c>
+      <c r="AT129">
+        <v>2.1</v>
+      </c>
+      <c r="AU129">
+        <v>1.22</v>
+      </c>
+      <c r="AV129">
+        <v>1.34</v>
+      </c>
+      <c r="AW129">
+        <v>2.56</v>
+      </c>
+      <c r="AX129">
+        <v>1.66</v>
+      </c>
+      <c r="AY129">
+        <v>7.3</v>
+      </c>
+      <c r="AZ129">
+        <v>2.64</v>
+      </c>
+      <c r="BA129">
+        <v>1.62</v>
+      </c>
+      <c r="BB129">
+        <v>2.01</v>
+      </c>
+      <c r="BC129">
+        <v>2.55</v>
+      </c>
+      <c r="BD129">
+        <v>3.56</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>5</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>10</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+      <c r="BJ129">
+        <v>15</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5242378</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45125.3125</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>66</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>82</v>
+      </c>
+      <c r="P130" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q130">
+        <v>4</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>6</v>
+      </c>
+      <c r="T130">
+        <v>1.68</v>
+      </c>
+      <c r="U130">
+        <v>2.5</v>
+      </c>
+      <c r="V130">
+        <v>8</v>
+      </c>
+      <c r="W130">
+        <v>1.3</v>
+      </c>
+      <c r="X130">
+        <v>3.4</v>
+      </c>
+      <c r="Y130">
+        <v>2.5</v>
+      </c>
+      <c r="Z130">
+        <v>1.48</v>
+      </c>
+      <c r="AA130">
+        <v>5</v>
+      </c>
+      <c r="AB130">
+        <v>1.14</v>
+      </c>
+      <c r="AC130">
+        <v>1.27</v>
+      </c>
+      <c r="AD130">
+        <v>5.4</v>
+      </c>
+      <c r="AE130">
+        <v>11</v>
+      </c>
+      <c r="AF130">
+        <v>1.04</v>
+      </c>
+      <c r="AG130">
+        <v>10</v>
+      </c>
+      <c r="AH130">
+        <v>1.22</v>
+      </c>
+      <c r="AI130">
+        <v>4</v>
+      </c>
+      <c r="AJ130">
+        <v>1.71</v>
+      </c>
+      <c r="AK130">
+        <v>2.04</v>
+      </c>
+      <c r="AL130">
+        <v>2.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.6</v>
+      </c>
+      <c r="AN130">
+        <v>1.02</v>
+      </c>
+      <c r="AO130">
+        <v>1.1</v>
+      </c>
+      <c r="AP130">
+        <v>3.3</v>
+      </c>
+      <c r="AQ130">
+        <v>1.56</v>
+      </c>
+      <c r="AR130">
+        <v>0.11</v>
+      </c>
+      <c r="AS130">
+        <v>1.5</v>
+      </c>
+      <c r="AT130">
+        <v>0.2</v>
+      </c>
+      <c r="AU130">
+        <v>1.61</v>
+      </c>
+      <c r="AV130">
+        <v>1.26</v>
+      </c>
+      <c r="AW130">
+        <v>2.87</v>
+      </c>
+      <c r="AX130">
+        <v>1.2</v>
+      </c>
+      <c r="AY130">
+        <v>7.75</v>
+      </c>
+      <c r="AZ130">
+        <v>5.5</v>
+      </c>
+      <c r="BA130">
+        <v>1.34</v>
+      </c>
+      <c r="BB130">
+        <v>1.69</v>
+      </c>
+      <c r="BC130">
+        <v>2.09</v>
+      </c>
+      <c r="BD130">
+        <v>2.71</v>
+      </c>
+      <c r="BE130">
+        <v>3.74</v>
+      </c>
+      <c r="BF130">
+        <v>5</v>
+      </c>
+      <c r="BG130">
+        <v>5</v>
+      </c>
+      <c r="BH130">
+        <v>2</v>
+      </c>
+      <c r="BI130">
+        <v>2</v>
+      </c>
+      <c r="BJ130">
+        <v>7</v>
+      </c>
+      <c r="BK130">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,15 @@
     <t>['75', '84']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['8', '30', '43', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['17', '38', '67']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -719,6 +728,12 @@
   </si>
   <si>
     <t>['4', '31']</t>
+  </si>
+  <si>
+    <t>['19', '90+2']</t>
+  </si>
+  <si>
+    <t>['53', '89']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1530,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1793,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -1897,7 +1912,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1984,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2088,7 +2103,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2279,7 +2294,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2661,7 +2676,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2942,7 +2957,7 @@
         <v>0.8</v>
       </c>
       <c r="AT10">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3234,7 +3249,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3425,7 +3440,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3512,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>1.39</v>
@@ -3616,7 +3631,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3807,7 +3822,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4088,7 +4103,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>2.17</v>
@@ -4276,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU17">
         <v>2.25</v>
@@ -4571,7 +4586,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4953,7 +4968,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5234,7 +5249,7 @@
         <v>1.7</v>
       </c>
       <c r="AT22">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU22">
         <v>1.19</v>
@@ -5335,7 +5350,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5526,7 +5541,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5717,7 +5732,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5804,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT25">
         <v>2.1</v>
@@ -5998,7 +6013,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6099,7 +6114,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6186,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT27">
         <v>1.1</v>
@@ -6481,7 +6496,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6568,10 +6583,10 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6863,7 +6878,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7054,7 +7069,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7245,7 +7260,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7436,7 +7451,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7523,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT34">
         <v>1.3</v>
@@ -7908,7 +7923,7 @@
         <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8287,7 +8302,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
         <v>1.1</v>
@@ -8391,7 +8406,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8478,7 +8493,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>1.7</v>
@@ -8863,7 +8878,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.46</v>
@@ -9051,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT42">
         <v>0.2</v>
@@ -9155,7 +9170,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9346,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9436,7 +9451,7 @@
         <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9537,7 +9552,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10197,7 +10212,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>1.3</v>
@@ -10301,7 +10316,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10391,7 +10406,7 @@
         <v>0.3</v>
       </c>
       <c r="AT49">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU49">
         <v>1.13</v>
@@ -10492,7 +10507,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10683,7 +10698,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10770,7 +10785,7 @@
         <v>1.25</v>
       </c>
       <c r="AS51">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT51">
         <v>1.91</v>
@@ -11065,7 +11080,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11155,7 +11170,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU53">
         <v>1.35</v>
@@ -11256,7 +11271,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11725,10 +11740,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT56">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -11919,7 +11934,7 @@
         <v>1.44</v>
       </c>
       <c r="AT57">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU57">
         <v>1.35</v>
@@ -12020,7 +12035,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12402,7 +12417,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12489,7 +12504,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>2.1</v>
@@ -12593,7 +12608,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12784,7 +12799,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12871,7 +12886,7 @@
         <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT62">
         <v>1.91</v>
@@ -12975,7 +12990,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13166,7 +13181,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13256,7 +13271,7 @@
         <v>1.7</v>
       </c>
       <c r="AT64">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13357,7 +13372,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13739,7 +13754,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14020,7 +14035,7 @@
         <v>0.8</v>
       </c>
       <c r="AT68">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU68">
         <v>1.52</v>
@@ -14312,7 +14327,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14503,7 +14518,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14694,7 +14709,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14885,7 +14900,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14972,7 +14987,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT73">
         <v>1.9</v>
@@ -15076,7 +15091,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15354,7 +15369,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>2</v>
@@ -15458,7 +15473,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15649,7 +15664,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15840,7 +15855,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16121,7 +16136,7 @@
         <v>1.36</v>
       </c>
       <c r="AT79">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16222,7 +16237,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16413,7 +16428,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16503,7 +16518,7 @@
         <v>0.3</v>
       </c>
       <c r="AT81">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16986,7 +17001,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17264,7 +17279,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>1.1</v>
@@ -17455,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT86">
         <v>0.2</v>
@@ -17559,7 +17574,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17649,7 +17664,7 @@
         <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -17750,7 +17765,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17837,7 +17852,7 @@
         <v>1.83</v>
       </c>
       <c r="AS88">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT88">
         <v>2</v>
@@ -18031,7 +18046,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18132,7 +18147,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18514,7 +18529,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18604,7 +18619,7 @@
         <v>0.3</v>
       </c>
       <c r="AT92">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.16</v>
@@ -18896,7 +18911,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19087,7 +19102,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19278,7 +19293,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19556,7 +19571,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
         <v>1.9</v>
@@ -19660,7 +19675,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19747,10 +19762,10 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT98">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU98">
         <v>1.8</v>
@@ -19941,7 +19956,7 @@
         <v>1.7</v>
       </c>
       <c r="AT99">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU99">
         <v>1.93</v>
@@ -20233,7 +20248,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20424,7 +20439,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20615,7 +20630,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20702,7 +20717,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT103">
         <v>1.6</v>
@@ -20806,7 +20821,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20997,7 +21012,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21084,7 +21099,7 @@
         <v>1.38</v>
       </c>
       <c r="AS105">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT105">
         <v>1.7</v>
@@ -21188,7 +21203,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21275,7 +21290,7 @@
         <v>0.13</v>
       </c>
       <c r="AS106">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>0.2</v>
@@ -21469,7 +21484,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21570,7 +21585,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21761,7 +21776,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21952,7 +21967,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22143,7 +22158,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22334,7 +22349,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22424,7 +22439,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22525,7 +22540,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22615,7 +22630,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22907,7 +22922,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -22994,7 +23009,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT115">
         <v>1.6</v>
@@ -23098,7 +23113,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23480,7 +23495,7 @@
         <v>155</v>
       </c>
       <c r="P118" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23570,7 +23585,7 @@
         <v>1.7</v>
       </c>
       <c r="AT118">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AU118">
         <v>1.85</v>
@@ -23758,7 +23773,7 @@
         <v>2.13</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT119">
         <v>2.1</v>
@@ -23862,7 +23877,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24140,7 +24155,7 @@
         <v>2.1</v>
       </c>
       <c r="AS121">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>1.91</v>
@@ -24244,7 +24259,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24435,7 +24450,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24626,7 +24641,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24817,7 +24832,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25008,7 +25023,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25199,7 +25214,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25522,16 +25537,16 @@
         <v>6</v>
       </c>
       <c r="BH128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK128">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:63">
@@ -25581,7 +25596,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25914,6 +25929,579 @@
       </c>
       <c r="BK130">
         <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5242379</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45126.29166666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" t="s">
+        <v>65</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>162</v>
+      </c>
+      <c r="P131" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>8</v>
+      </c>
+      <c r="S131">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>3.3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.48</v>
+      </c>
+      <c r="X131">
+        <v>2.5</v>
+      </c>
+      <c r="Y131">
+        <v>3</v>
+      </c>
+      <c r="Z131">
+        <v>1.36</v>
+      </c>
+      <c r="AA131">
+        <v>7.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.07</v>
+      </c>
+      <c r="AC131">
+        <v>2.7</v>
+      </c>
+      <c r="AD131">
+        <v>3.2</v>
+      </c>
+      <c r="AE131">
+        <v>2.6</v>
+      </c>
+      <c r="AF131">
+        <v>1.08</v>
+      </c>
+      <c r="AG131">
+        <v>7</v>
+      </c>
+      <c r="AH131">
+        <v>1.36</v>
+      </c>
+      <c r="AI131">
+        <v>2.95</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.61</v>
+      </c>
+      <c r="AL131">
+        <v>1.83</v>
+      </c>
+      <c r="AM131">
+        <v>1.9</v>
+      </c>
+      <c r="AN131">
+        <v>1.4</v>
+      </c>
+      <c r="AO131">
+        <v>1.28</v>
+      </c>
+      <c r="AP131">
+        <v>1.38</v>
+      </c>
+      <c r="AQ131">
+        <v>1.2</v>
+      </c>
+      <c r="AR131">
+        <v>2.11</v>
+      </c>
+      <c r="AS131">
+        <v>1.18</v>
+      </c>
+      <c r="AT131">
+        <v>2</v>
+      </c>
+      <c r="AU131">
+        <v>1.49</v>
+      </c>
+      <c r="AV131">
+        <v>1.49</v>
+      </c>
+      <c r="AW131">
+        <v>2.98</v>
+      </c>
+      <c r="AX131">
+        <v>1.69</v>
+      </c>
+      <c r="AY131">
+        <v>7.3</v>
+      </c>
+      <c r="AZ131">
+        <v>2.57</v>
+      </c>
+      <c r="BA131">
+        <v>1.2</v>
+      </c>
+      <c r="BB131">
+        <v>1.39</v>
+      </c>
+      <c r="BC131">
+        <v>1.69</v>
+      </c>
+      <c r="BD131">
+        <v>1.95</v>
+      </c>
+      <c r="BE131">
+        <v>2.88</v>
+      </c>
+      <c r="BF131">
+        <v>7</v>
+      </c>
+      <c r="BG131">
+        <v>6</v>
+      </c>
+      <c r="BH131">
+        <v>10</v>
+      </c>
+      <c r="BI131">
+        <v>13</v>
+      </c>
+      <c r="BJ131">
+        <v>17</v>
+      </c>
+      <c r="BK131">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5242380</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45126.29166666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>67</v>
+      </c>
+      <c r="H132" t="s">
+        <v>73</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>5</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>7</v>
+      </c>
+      <c r="O132" t="s">
+        <v>163</v>
+      </c>
+      <c r="P132" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q132">
+        <v>5</v>
+      </c>
+      <c r="R132">
+        <v>4</v>
+      </c>
+      <c r="S132">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>2.15</v>
+      </c>
+      <c r="V132">
+        <v>5</v>
+      </c>
+      <c r="W132">
+        <v>1.38</v>
+      </c>
+      <c r="X132">
+        <v>2.8</v>
+      </c>
+      <c r="Y132">
+        <v>2.75</v>
+      </c>
+      <c r="Z132">
+        <v>1.4</v>
+      </c>
+      <c r="AA132">
+        <v>7.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.08</v>
+      </c>
+      <c r="AC132">
+        <v>1.7</v>
+      </c>
+      <c r="AD132">
+        <v>3.7</v>
+      </c>
+      <c r="AE132">
+        <v>4.8</v>
+      </c>
+      <c r="AF132">
+        <v>1.05</v>
+      </c>
+      <c r="AG132">
+        <v>11.5</v>
+      </c>
+      <c r="AH132">
+        <v>1.28</v>
+      </c>
+      <c r="AI132">
+        <v>3.3</v>
+      </c>
+      <c r="AJ132">
+        <v>1.92</v>
+      </c>
+      <c r="AK132">
+        <v>1.85</v>
+      </c>
+      <c r="AL132">
+        <v>1.83</v>
+      </c>
+      <c r="AM132">
+        <v>1.93</v>
+      </c>
+      <c r="AN132">
+        <v>1.18</v>
+      </c>
+      <c r="AO132">
+        <v>1.23</v>
+      </c>
+      <c r="AP132">
+        <v>2.1</v>
+      </c>
+      <c r="AQ132">
+        <v>1.5</v>
+      </c>
+      <c r="AR132">
+        <v>0.22</v>
+      </c>
+      <c r="AS132">
+        <v>1.64</v>
+      </c>
+      <c r="AT132">
+        <v>0.2</v>
+      </c>
+      <c r="AU132">
+        <v>1.64</v>
+      </c>
+      <c r="AV132">
+        <v>1.42</v>
+      </c>
+      <c r="AW132">
+        <v>3.06</v>
+      </c>
+      <c r="AX132">
+        <v>1.54</v>
+      </c>
+      <c r="AY132">
+        <v>7.9</v>
+      </c>
+      <c r="AZ132">
+        <v>2.92</v>
+      </c>
+      <c r="BA132">
+        <v>1.37</v>
+      </c>
+      <c r="BB132">
+        <v>1.68</v>
+      </c>
+      <c r="BC132">
+        <v>2.14</v>
+      </c>
+      <c r="BD132">
+        <v>2.88</v>
+      </c>
+      <c r="BE132">
+        <v>4.2</v>
+      </c>
+      <c r="BF132">
+        <v>13</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>6</v>
+      </c>
+      <c r="BI132">
+        <v>5</v>
+      </c>
+      <c r="BJ132">
+        <v>19</v>
+      </c>
+      <c r="BK132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5242381</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45126.3125</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>77</v>
+      </c>
+      <c r="H133" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>164</v>
+      </c>
+      <c r="P133" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>7</v>
+      </c>
+      <c r="T133">
+        <v>2.06</v>
+      </c>
+      <c r="U133">
+        <v>2.22</v>
+      </c>
+      <c r="V133">
+        <v>5.9</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>3</v>
+      </c>
+      <c r="Y133">
+        <v>2.75</v>
+      </c>
+      <c r="Z133">
+        <v>1.4</v>
+      </c>
+      <c r="AA133">
+        <v>6</v>
+      </c>
+      <c r="AB133">
+        <v>1.11</v>
+      </c>
+      <c r="AC133">
+        <v>1.65</v>
+      </c>
+      <c r="AD133">
+        <v>3.85</v>
+      </c>
+      <c r="AE133">
+        <v>4.68</v>
+      </c>
+      <c r="AF133">
+        <v>1.05</v>
+      </c>
+      <c r="AG133">
+        <v>9</v>
+      </c>
+      <c r="AH133">
+        <v>1.28</v>
+      </c>
+      <c r="AI133">
+        <v>3.5</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>1.81</v>
+      </c>
+      <c r="AL133">
+        <v>1.95</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1.08</v>
+      </c>
+      <c r="AO133">
+        <v>1.18</v>
+      </c>
+      <c r="AP133">
+        <v>2.3</v>
+      </c>
+      <c r="AQ133">
+        <v>1.89</v>
+      </c>
+      <c r="AR133">
+        <v>0.8</v>
+      </c>
+      <c r="AS133">
+        <v>2</v>
+      </c>
+      <c r="AT133">
+        <v>0.73</v>
+      </c>
+      <c r="AU133">
+        <v>1.87</v>
+      </c>
+      <c r="AV133">
+        <v>1.27</v>
+      </c>
+      <c r="AW133">
+        <v>3.14</v>
+      </c>
+      <c r="AX133">
+        <v>1.56</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>2.84</v>
+      </c>
+      <c r="BA133">
+        <v>1.3</v>
+      </c>
+      <c r="BB133">
+        <v>1.54</v>
+      </c>
+      <c r="BC133">
+        <v>1.83</v>
+      </c>
+      <c r="BD133">
+        <v>2.51</v>
+      </c>
+      <c r="BE133">
+        <v>3.42</v>
+      </c>
+      <c r="BF133">
+        <v>6</v>
+      </c>
+      <c r="BG133">
+        <v>7</v>
+      </c>
+      <c r="BH133">
+        <v>8</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>14</v>
+      </c>
+      <c r="BK133">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,15 @@
     <t>['17', '38', '67']</t>
   </si>
   <si>
+    <t>['61', '67']</t>
+  </si>
+  <si>
+    <t>['1', '27', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+6']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -734,6 +743,15 @@
   </si>
   <si>
     <t>['53', '89']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['36', '47']</t>
+  </si>
+  <si>
+    <t>['15', '62']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT2">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1530,7 +1548,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1617,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT3">
         <v>1.91</v>
@@ -1811,7 +1829,7 @@
         <v>1.64</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1912,7 +1930,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2002,7 +2020,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2103,7 +2121,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2190,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2294,7 +2312,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2575,7 +2593,7 @@
         <v>1.7</v>
       </c>
       <c r="AT8">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2676,7 +2694,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2763,10 +2781,10 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3145,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT11">
         <v>0.2</v>
@@ -3249,7 +3267,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3339,7 +3357,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3440,7 +3458,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3631,7 +3649,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3822,7 +3840,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3909,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1.91</v>
@@ -4100,7 +4118,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -4485,7 +4503,7 @@
         <v>0.8</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU18">
         <v>1.15</v>
@@ -4586,7 +4604,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4673,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>1.08</v>
@@ -4864,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT20">
         <v>0.2</v>
@@ -4968,7 +4986,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5055,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT21">
         <v>1.1</v>
@@ -5249,7 +5267,7 @@
         <v>1.7</v>
       </c>
       <c r="AT22">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU22">
         <v>1.19</v>
@@ -5350,7 +5368,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5437,10 +5455,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5541,7 +5559,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5631,7 +5649,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5732,7 +5750,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6114,7 +6132,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6392,10 +6410,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT28">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU28">
         <v>1.74</v>
@@ -6496,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6774,10 +6792,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -6878,7 +6896,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6965,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT31">
         <v>1.3</v>
@@ -7069,7 +7087,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7156,10 +7174,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -7260,7 +7278,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7350,7 +7368,7 @@
         <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7451,7 +7469,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7541,7 +7559,7 @@
         <v>1.64</v>
       </c>
       <c r="AT34">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -7729,7 +7747,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>2.1</v>
@@ -7923,7 +7941,7 @@
         <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8111,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
         <v>1.91</v>
@@ -8406,7 +8424,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8496,7 +8514,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU39">
         <v>1.95</v>
@@ -8684,10 +8702,10 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU40">
         <v>1.42</v>
@@ -8875,7 +8893,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT41">
         <v>2</v>
@@ -9170,7 +9188,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9361,7 +9379,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9448,7 +9466,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>0.73</v>
@@ -9552,7 +9570,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9642,7 +9660,7 @@
         <v>1.7</v>
       </c>
       <c r="AT45">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -9830,10 +9848,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU46">
         <v>2.31</v>
@@ -10021,7 +10039,7 @@
         <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
         <v>1.91</v>
@@ -10316,7 +10334,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10403,10 +10421,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT49">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU49">
         <v>1.13</v>
@@ -10507,7 +10525,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10698,7 +10716,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10979,7 +10997,7 @@
         <v>0.9</v>
       </c>
       <c r="AT52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU52">
         <v>1.25</v>
@@ -11080,7 +11098,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11167,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT53">
         <v>2</v>
@@ -11271,7 +11289,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11358,10 +11376,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU54">
         <v>1.23</v>
@@ -11931,10 +11949,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT57">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU57">
         <v>1.35</v>
@@ -12035,7 +12053,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12122,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT58">
         <v>0.2</v>
@@ -12417,7 +12435,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12608,7 +12626,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12698,7 +12716,7 @@
         <v>0.9</v>
       </c>
       <c r="AT61">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU61">
         <v>1.11</v>
@@ -12799,7 +12817,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12990,7 +13008,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13077,10 +13095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU63">
         <v>1.17</v>
@@ -13181,7 +13199,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13372,7 +13390,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13459,10 +13477,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT65">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU65">
         <v>2.02</v>
@@ -13650,10 +13668,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13754,7 +13772,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13844,7 +13862,7 @@
         <v>0.8</v>
       </c>
       <c r="AT67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14223,10 +14241,10 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU69">
         <v>1.33</v>
@@ -14327,7 +14345,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14414,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>0.2</v>
@@ -14518,7 +14536,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14709,7 +14727,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14900,7 +14918,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14990,7 +15008,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15091,7 +15109,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15372,7 +15390,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU75">
         <v>1.98</v>
@@ -15473,7 +15491,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15560,10 +15578,10 @@
         <v>1.4</v>
       </c>
       <c r="AS76">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU76">
         <v>1.35</v>
@@ -15664,7 +15682,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15751,10 +15769,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15855,7 +15873,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15942,7 +15960,7 @@
         <v>2.6</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT78">
         <v>2.1</v>
@@ -16133,10 +16151,10 @@
         <v>0.4</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16237,7 +16255,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16327,7 +16345,7 @@
         <v>0.8</v>
       </c>
       <c r="AT80">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16428,7 +16446,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16515,7 +16533,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT81">
         <v>0.73</v>
@@ -16900,7 +16918,7 @@
         <v>0.9</v>
       </c>
       <c r="AT83">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -17001,7 +17019,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17088,7 +17106,7 @@
         <v>1.71</v>
       </c>
       <c r="AS84">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT84">
         <v>1.91</v>
@@ -17574,7 +17592,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17661,7 +17679,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17765,7 +17783,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17855,7 +17873,7 @@
         <v>1.18</v>
       </c>
       <c r="AT88">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18043,7 +18061,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
         <v>0.73</v>
@@ -18147,7 +18165,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18237,7 +18255,7 @@
         <v>0.8</v>
       </c>
       <c r="AT90">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18529,7 +18547,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18616,7 +18634,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT92">
         <v>2</v>
@@ -18807,10 +18825,10 @@
         <v>1.29</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18911,7 +18929,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19001,7 +19019,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19102,7 +19120,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19189,7 +19207,7 @@
         <v>0.83</v>
       </c>
       <c r="AS95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT95">
         <v>1.1</v>
@@ -19293,7 +19311,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19574,7 +19592,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19675,7 +19693,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19765,7 +19783,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU98">
         <v>1.8</v>
@@ -19953,7 +19971,7 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
         <v>0.73</v>
@@ -20144,7 +20162,7 @@
         <v>2.29</v>
       </c>
       <c r="AS100">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT100">
         <v>2.1</v>
@@ -20248,7 +20266,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20439,7 +20457,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20526,7 +20544,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
         <v>1.3</v>
@@ -20630,7 +20648,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20720,7 +20738,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -20821,7 +20839,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20908,7 +20926,7 @@
         <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
         <v>1.1</v>
@@ -21012,7 +21030,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21102,7 +21120,7 @@
         <v>1.18</v>
       </c>
       <c r="AT105">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21203,7 +21221,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21481,10 +21499,10 @@
         <v>0.29</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21585,7 +21603,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21672,7 +21690,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
         <v>1.3</v>
@@ -21776,7 +21794,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21866,7 +21884,7 @@
         <v>0.9</v>
       </c>
       <c r="AT109">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU109">
         <v>1.23</v>
@@ -21967,7 +21985,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22158,7 +22176,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22248,7 +22266,7 @@
         <v>1.7</v>
       </c>
       <c r="AT111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22349,7 +22367,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22540,7 +22558,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22627,7 +22645,7 @@
         <v>0.78</v>
       </c>
       <c r="AS113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT113">
         <v>0.73</v>
@@ -22818,10 +22836,10 @@
         <v>1.13</v>
       </c>
       <c r="AS114">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU114">
         <v>1.38</v>
@@ -22922,7 +22940,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23012,7 +23030,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU115">
         <v>1.54</v>
@@ -23113,7 +23131,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23200,10 +23218,10 @@
         <v>2.13</v>
       </c>
       <c r="AS116">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU116">
         <v>1.37</v>
@@ -23391,10 +23409,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT117">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23495,7 +23513,7 @@
         <v>155</v>
       </c>
       <c r="P118" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23582,10 +23600,10 @@
         <v>0.25</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT118">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU118">
         <v>1.85</v>
@@ -23877,7 +23895,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23964,7 +23982,7 @@
         <v>1.13</v>
       </c>
       <c r="AS120">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT120">
         <v>1.3</v>
@@ -24259,7 +24277,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24346,7 +24364,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AT122">
         <v>1.1</v>
@@ -24450,7 +24468,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24537,10 +24555,10 @@
         <v>2.11</v>
       </c>
       <c r="AS123">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.32</v>
@@ -24641,7 +24659,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24731,7 +24749,7 @@
         <v>0.8</v>
       </c>
       <c r="AT124">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU124">
         <v>1.6</v>
@@ -24832,7 +24850,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -24919,10 +24937,10 @@
         <v>1.89</v>
       </c>
       <c r="AS125">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT125">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU125">
         <v>1.33</v>
@@ -25023,7 +25041,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25110,10 +25128,10 @@
         <v>1.11</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT126">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25214,7 +25232,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25301,7 +25319,7 @@
         <v>1.11</v>
       </c>
       <c r="AS127">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT127">
         <v>1.3</v>
@@ -25596,7 +25614,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25978,7 +25996,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26169,7 +26187,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26259,7 +26277,7 @@
         <v>1.64</v>
       </c>
       <c r="AT132">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU132">
         <v>1.64</v>
@@ -26360,7 +26378,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26502,6 +26520,1152 @@
       </c>
       <c r="BK133">
         <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5242382</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45130.29166666666</v>
+      </c>
+      <c r="F134">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134" t="s">
+        <v>70</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>165</v>
+      </c>
+      <c r="P134" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>3.5</v>
+      </c>
+      <c r="U134">
+        <v>2.05</v>
+      </c>
+      <c r="V134">
+        <v>2.95</v>
+      </c>
+      <c r="W134">
+        <v>1.42</v>
+      </c>
+      <c r="X134">
+        <v>2.65</v>
+      </c>
+      <c r="Y134">
+        <v>2.9</v>
+      </c>
+      <c r="Z134">
+        <v>1.35</v>
+      </c>
+      <c r="AA134">
+        <v>8.25</v>
+      </c>
+      <c r="AB134">
+        <v>1.07</v>
+      </c>
+      <c r="AC134">
+        <v>2.9</v>
+      </c>
+      <c r="AD134">
+        <v>3.1</v>
+      </c>
+      <c r="AE134">
+        <v>2.29</v>
+      </c>
+      <c r="AF134">
+        <v>1.06</v>
+      </c>
+      <c r="AG134">
+        <v>10</v>
+      </c>
+      <c r="AH134">
+        <v>1.32</v>
+      </c>
+      <c r="AI134">
+        <v>3.15</v>
+      </c>
+      <c r="AJ134">
+        <v>1.91</v>
+      </c>
+      <c r="AK134">
+        <v>1.73</v>
+      </c>
+      <c r="AL134">
+        <v>1.78</v>
+      </c>
+      <c r="AM134">
+        <v>1.95</v>
+      </c>
+      <c r="AN134">
+        <v>1.55</v>
+      </c>
+      <c r="AO134">
+        <v>1.3</v>
+      </c>
+      <c r="AP134">
+        <v>1.38</v>
+      </c>
+      <c r="AQ134">
+        <v>1.36</v>
+      </c>
+      <c r="AR134">
+        <v>1.6</v>
+      </c>
+      <c r="AS134">
+        <v>1.5</v>
+      </c>
+      <c r="AT134">
+        <v>1.45</v>
+      </c>
+      <c r="AU134">
+        <v>1.35</v>
+      </c>
+      <c r="AV134">
+        <v>1.23</v>
+      </c>
+      <c r="AW134">
+        <v>2.58</v>
+      </c>
+      <c r="AX134">
+        <v>2.34</v>
+      </c>
+      <c r="AY134">
+        <v>7.9</v>
+      </c>
+      <c r="AZ134">
+        <v>1.81</v>
+      </c>
+      <c r="BA134">
+        <v>1.57</v>
+      </c>
+      <c r="BB134">
+        <v>1.93</v>
+      </c>
+      <c r="BC134">
+        <v>2.42</v>
+      </c>
+      <c r="BD134">
+        <v>3.42</v>
+      </c>
+      <c r="BE134">
+        <v>5.1</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>2</v>
+      </c>
+      <c r="BI134">
+        <v>4</v>
+      </c>
+      <c r="BJ134">
+        <v>7</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5242383</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45130.3125</v>
+      </c>
+      <c r="F135">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>65</v>
+      </c>
+      <c r="H135" t="s">
+        <v>77</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>80</v>
+      </c>
+      <c r="P135" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>9</v>
+      </c>
+      <c r="S135">
+        <v>15</v>
+      </c>
+      <c r="T135">
+        <v>3.2</v>
+      </c>
+      <c r="U135">
+        <v>2.2</v>
+      </c>
+      <c r="V135">
+        <v>2.8</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>2.86</v>
+      </c>
+      <c r="Y135">
+        <v>2.68</v>
+      </c>
+      <c r="Z135">
+        <v>1.42</v>
+      </c>
+      <c r="AA135">
+        <v>6</v>
+      </c>
+      <c r="AB135">
+        <v>1.11</v>
+      </c>
+      <c r="AC135">
+        <v>2.41</v>
+      </c>
+      <c r="AD135">
+        <v>3.15</v>
+      </c>
+      <c r="AE135">
+        <v>2.75</v>
+      </c>
+      <c r="AF135">
+        <v>1.05</v>
+      </c>
+      <c r="AG135">
+        <v>9</v>
+      </c>
+      <c r="AH135">
+        <v>1.25</v>
+      </c>
+      <c r="AI135">
+        <v>3.75</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>1.95</v>
+      </c>
+      <c r="AL135">
+        <v>1.67</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>1.55</v>
+      </c>
+      <c r="AO135">
+        <v>1.29</v>
+      </c>
+      <c r="AP135">
+        <v>1.4</v>
+      </c>
+      <c r="AQ135">
+        <v>1.7</v>
+      </c>
+      <c r="AR135">
+        <v>1.9</v>
+      </c>
+      <c r="AS135">
+        <v>1.55</v>
+      </c>
+      <c r="AT135">
+        <v>2</v>
+      </c>
+      <c r="AU135">
+        <v>1.82</v>
+      </c>
+      <c r="AV135">
+        <v>1.54</v>
+      </c>
+      <c r="AW135">
+        <v>3.36</v>
+      </c>
+      <c r="AX135">
+        <v>2.1</v>
+      </c>
+      <c r="AY135">
+        <v>8.9</v>
+      </c>
+      <c r="AZ135">
+        <v>1.89</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1.3</v>
+      </c>
+      <c r="BC135">
+        <v>1.63</v>
+      </c>
+      <c r="BD135">
+        <v>1.99</v>
+      </c>
+      <c r="BE135">
+        <v>2.47</v>
+      </c>
+      <c r="BF135">
+        <v>2</v>
+      </c>
+      <c r="BG135">
+        <v>7</v>
+      </c>
+      <c r="BH135">
+        <v>14</v>
+      </c>
+      <c r="BI135">
+        <v>10</v>
+      </c>
+      <c r="BJ135">
+        <v>16</v>
+      </c>
+      <c r="BK135">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5242384</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45130.3125</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>69</v>
+      </c>
+      <c r="H136" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>145</v>
+      </c>
+      <c r="P136" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q136">
+        <v>3</v>
+      </c>
+      <c r="R136">
+        <v>7</v>
+      </c>
+      <c r="S136">
+        <v>10</v>
+      </c>
+      <c r="T136">
+        <v>3.1</v>
+      </c>
+      <c r="U136">
+        <v>2.12</v>
+      </c>
+      <c r="V136">
+        <v>3.77</v>
+      </c>
+      <c r="W136">
+        <v>1.49</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>3.41</v>
+      </c>
+      <c r="Z136">
+        <v>1.23</v>
+      </c>
+      <c r="AA136">
+        <v>7</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>2.36</v>
+      </c>
+      <c r="AD136">
+        <v>3.3</v>
+      </c>
+      <c r="AE136">
+        <v>3.05</v>
+      </c>
+      <c r="AF136">
+        <v>1.07</v>
+      </c>
+      <c r="AG136">
+        <v>7.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.33</v>
+      </c>
+      <c r="AI136">
+        <v>3.25</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.73</v>
+      </c>
+      <c r="AL136">
+        <v>1.8</v>
+      </c>
+      <c r="AM136">
+        <v>1.91</v>
+      </c>
+      <c r="AN136">
+        <v>1.33</v>
+      </c>
+      <c r="AO136">
+        <v>1.3</v>
+      </c>
+      <c r="AP136">
+        <v>1.62</v>
+      </c>
+      <c r="AQ136">
+        <v>1.5</v>
+      </c>
+      <c r="AR136">
+        <v>1.7</v>
+      </c>
+      <c r="AS136">
+        <v>1.64</v>
+      </c>
+      <c r="AT136">
+        <v>1.55</v>
+      </c>
+      <c r="AU136">
+        <v>1.33</v>
+      </c>
+      <c r="AV136">
+        <v>1.33</v>
+      </c>
+      <c r="AW136">
+        <v>2.66</v>
+      </c>
+      <c r="AX136">
+        <v>1.67</v>
+      </c>
+      <c r="AY136">
+        <v>8.1</v>
+      </c>
+      <c r="AZ136">
+        <v>2.53</v>
+      </c>
+      <c r="BA136">
+        <v>1.56</v>
+      </c>
+      <c r="BB136">
+        <v>1.93</v>
+      </c>
+      <c r="BC136">
+        <v>2.41</v>
+      </c>
+      <c r="BD136">
+        <v>3.42</v>
+      </c>
+      <c r="BE136">
+        <v>5.1</v>
+      </c>
+      <c r="BF136">
+        <v>2</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>8</v>
+      </c>
+      <c r="BI136">
+        <v>5</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5242385</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45130.33333333334</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>66</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>166</v>
+      </c>
+      <c r="P137" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>4.05</v>
+      </c>
+      <c r="U137">
+        <v>2.19</v>
+      </c>
+      <c r="V137">
+        <v>2.79</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>2.6</v>
+      </c>
+      <c r="Y137">
+        <v>3.17</v>
+      </c>
+      <c r="Z137">
+        <v>1.28</v>
+      </c>
+      <c r="AA137">
+        <v>7.1</v>
+      </c>
+      <c r="AB137">
+        <v>1.06</v>
+      </c>
+      <c r="AC137">
+        <v>3.35</v>
+      </c>
+      <c r="AD137">
+        <v>3.3</v>
+      </c>
+      <c r="AE137">
+        <v>2.03</v>
+      </c>
+      <c r="AF137">
+        <v>1.08</v>
+      </c>
+      <c r="AG137">
+        <v>7</v>
+      </c>
+      <c r="AH137">
+        <v>1.4</v>
+      </c>
+      <c r="AI137">
+        <v>2.75</v>
+      </c>
+      <c r="AJ137">
+        <v>2.05</v>
+      </c>
+      <c r="AK137">
+        <v>1.61</v>
+      </c>
+      <c r="AL137">
+        <v>1.81</v>
+      </c>
+      <c r="AM137">
+        <v>1.95</v>
+      </c>
+      <c r="AN137">
+        <v>1.7</v>
+      </c>
+      <c r="AO137">
+        <v>1.3</v>
+      </c>
+      <c r="AP137">
+        <v>1.28</v>
+      </c>
+      <c r="AQ137">
+        <v>0.3</v>
+      </c>
+      <c r="AR137">
+        <v>1.3</v>
+      </c>
+      <c r="AS137">
+        <v>0.55</v>
+      </c>
+      <c r="AT137">
+        <v>1.18</v>
+      </c>
+      <c r="AU137">
+        <v>1.14</v>
+      </c>
+      <c r="AV137">
+        <v>1.45</v>
+      </c>
+      <c r="AW137">
+        <v>2.59</v>
+      </c>
+      <c r="AX137">
+        <v>2.42</v>
+      </c>
+      <c r="AY137">
+        <v>8.1</v>
+      </c>
+      <c r="AZ137">
+        <v>1.72</v>
+      </c>
+      <c r="BA137">
+        <v>1.48</v>
+      </c>
+      <c r="BB137">
+        <v>1.81</v>
+      </c>
+      <c r="BC137">
+        <v>2.25</v>
+      </c>
+      <c r="BD137">
+        <v>3.08</v>
+      </c>
+      <c r="BE137">
+        <v>4.4</v>
+      </c>
+      <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>11</v>
+      </c>
+      <c r="BH137">
+        <v>8</v>
+      </c>
+      <c r="BI137">
+        <v>9</v>
+      </c>
+      <c r="BJ137">
+        <v>13</v>
+      </c>
+      <c r="BK137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5242386</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45131.29166666666</v>
+      </c>
+      <c r="F138">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>80</v>
+      </c>
+      <c r="P138" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q138">
+        <v>6</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>8</v>
+      </c>
+      <c r="T138">
+        <v>2.47</v>
+      </c>
+      <c r="U138">
+        <v>2.24</v>
+      </c>
+      <c r="V138">
+        <v>5</v>
+      </c>
+      <c r="W138">
+        <v>1.42</v>
+      </c>
+      <c r="X138">
+        <v>2.92</v>
+      </c>
+      <c r="Y138">
+        <v>3.08</v>
+      </c>
+      <c r="Z138">
+        <v>1.38</v>
+      </c>
+      <c r="AA138">
+        <v>7.4</v>
+      </c>
+      <c r="AB138">
+        <v>1.07</v>
+      </c>
+      <c r="AC138">
+        <v>1.81</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>3.6</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>8</v>
+      </c>
+      <c r="AH138">
+        <v>1.33</v>
+      </c>
+      <c r="AI138">
+        <v>3.25</v>
+      </c>
+      <c r="AJ138">
+        <v>1.98</v>
+      </c>
+      <c r="AK138">
+        <v>1.82</v>
+      </c>
+      <c r="AL138">
+        <v>1.83</v>
+      </c>
+      <c r="AM138">
+        <v>1.93</v>
+      </c>
+      <c r="AN138">
+        <v>1.2</v>
+      </c>
+      <c r="AO138">
+        <v>1.27</v>
+      </c>
+      <c r="AP138">
+        <v>1.92</v>
+      </c>
+      <c r="AQ138">
+        <v>1.4</v>
+      </c>
+      <c r="AR138">
+        <v>0.2</v>
+      </c>
+      <c r="AS138">
+        <v>1.27</v>
+      </c>
+      <c r="AT138">
+        <v>0.45</v>
+      </c>
+      <c r="AU138">
+        <v>1.3</v>
+      </c>
+      <c r="AV138">
+        <v>1.42</v>
+      </c>
+      <c r="AW138">
+        <v>2.72</v>
+      </c>
+      <c r="AX138">
+        <v>1.55</v>
+      </c>
+      <c r="AY138">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ138">
+        <v>2.85</v>
+      </c>
+      <c r="BA138">
+        <v>1.54</v>
+      </c>
+      <c r="BB138">
+        <v>1.93</v>
+      </c>
+      <c r="BC138">
+        <v>2.38</v>
+      </c>
+      <c r="BD138">
+        <v>3.48</v>
+      </c>
+      <c r="BE138">
+        <v>5.2</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>8</v>
+      </c>
+      <c r="BI138">
+        <v>3</v>
+      </c>
+      <c r="BJ138">
+        <v>14</v>
+      </c>
+      <c r="BK138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5242387</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45131.3125</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>167</v>
+      </c>
+      <c r="P139" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>4</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>3.5</v>
+      </c>
+      <c r="U139">
+        <v>2.16</v>
+      </c>
+      <c r="V139">
+        <v>3.32</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>2.83</v>
+      </c>
+      <c r="Y139">
+        <v>3.19</v>
+      </c>
+      <c r="Z139">
+        <v>1.36</v>
+      </c>
+      <c r="AA139">
+        <v>8.75</v>
+      </c>
+      <c r="AB139">
+        <v>1.07</v>
+      </c>
+      <c r="AC139">
+        <v>2.53</v>
+      </c>
+      <c r="AD139">
+        <v>3.05</v>
+      </c>
+      <c r="AE139">
+        <v>2.51</v>
+      </c>
+      <c r="AF139">
+        <v>1.06</v>
+      </c>
+      <c r="AG139">
+        <v>10</v>
+      </c>
+      <c r="AH139">
+        <v>1.32</v>
+      </c>
+      <c r="AI139">
+        <v>3.05</v>
+      </c>
+      <c r="AJ139">
+        <v>2.1</v>
+      </c>
+      <c r="AK139">
+        <v>1.68</v>
+      </c>
+      <c r="AL139">
+        <v>1.82</v>
+      </c>
+      <c r="AM139">
+        <v>1.9</v>
+      </c>
+      <c r="AN139">
+        <v>1.48</v>
+      </c>
+      <c r="AO139">
+        <v>1.28</v>
+      </c>
+      <c r="AP139">
+        <v>1.45</v>
+      </c>
+      <c r="AQ139">
+        <v>1.44</v>
+      </c>
+      <c r="AR139">
+        <v>2</v>
+      </c>
+      <c r="AS139">
+        <v>1.6</v>
+      </c>
+      <c r="AT139">
+        <v>1.82</v>
+      </c>
+      <c r="AU139">
+        <v>1.58</v>
+      </c>
+      <c r="AV139">
+        <v>1.72</v>
+      </c>
+      <c r="AW139">
+        <v>3.3</v>
+      </c>
+      <c r="AX139">
+        <v>1.91</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>2.13</v>
+      </c>
+      <c r="BA139">
+        <v>1.41</v>
+      </c>
+      <c r="BB139">
+        <v>1.78</v>
+      </c>
+      <c r="BC139">
+        <v>2.22</v>
+      </c>
+      <c r="BD139">
+        <v>3.08</v>
+      </c>
+      <c r="BE139">
+        <v>4.5</v>
+      </c>
+      <c r="BF139">
+        <v>6</v>
+      </c>
+      <c r="BG139">
+        <v>7</v>
+      </c>
+      <c r="BH139">
+        <v>3</v>
+      </c>
+      <c r="BI139">
+        <v>2</v>
+      </c>
+      <c r="BJ139">
+        <v>9</v>
+      </c>
+      <c r="BK139">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['45+2', '90+6']</t>
   </si>
   <si>
+    <t>['2', '45']</t>
+  </si>
+  <si>
+    <t>['80', '90+1']</t>
+  </si>
+  <si>
+    <t>['60', '68']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -752,6 +761,9 @@
   </si>
   <si>
     <t>['15', '62']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>1.55</v>
@@ -1548,7 +1560,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1638,7 +1650,7 @@
         <v>0.55</v>
       </c>
       <c r="AT3">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1930,7 +1942,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2017,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>0.45</v>
@@ -2121,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2211,7 +2223,7 @@
         <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2312,7 +2324,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2399,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT7">
         <v>1.1</v>
@@ -2590,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT8">
         <v>1.18</v>
@@ -2694,7 +2706,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2784,7 +2796,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2972,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3166,7 +3178,7 @@
         <v>1.27</v>
       </c>
       <c r="AT11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3267,7 +3279,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3354,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT12">
         <v>1.45</v>
@@ -3458,7 +3470,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3649,7 +3661,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3736,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT14">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU14">
         <v>1.33</v>
@@ -3840,7 +3852,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3930,7 +3942,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU15">
         <v>1.03</v>
@@ -4309,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU17">
         <v>2.25</v>
@@ -4500,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>1.82</v>
@@ -4604,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4885,7 +4897,7 @@
         <v>1.64</v>
       </c>
       <c r="AT20">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU20">
         <v>1.52</v>
@@ -4986,7 +4998,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5073,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>1.1</v>
@@ -5264,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT22">
         <v>0.45</v>
@@ -5368,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5458,7 +5470,7 @@
         <v>1.6</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5559,7 +5571,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5646,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
         <v>1.18</v>
@@ -5750,7 +5762,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5840,7 +5852,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.53</v>
@@ -6028,10 +6040,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6132,7 +6144,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6219,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="AS27">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>1.1</v>
@@ -6514,7 +6526,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6896,7 +6908,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6986,7 +6998,7 @@
         <v>0.55</v>
       </c>
       <c r="AT31">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7087,7 +7099,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7177,7 +7189,7 @@
         <v>0.55</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -7278,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7365,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT33">
         <v>1.82</v>
@@ -7469,7 +7481,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7750,7 +7762,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.15</v>
@@ -7938,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT36">
         <v>0.45</v>
@@ -8132,7 +8144,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU37">
         <v>1.39</v>
@@ -8424,7 +8436,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -9084,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9188,7 +9200,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9275,10 +9287,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT43">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.16</v>
@@ -9379,7 +9391,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9469,7 +9481,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9570,7 +9582,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9657,7 +9669,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT45">
         <v>1.45</v>
@@ -9848,7 +9860,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
         <v>1.82</v>
@@ -10042,7 +10054,7 @@
         <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10233,7 +10245,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU48">
         <v>2.15</v>
@@ -10334,7 +10346,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10525,7 +10537,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10612,10 +10624,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT50">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>1.42</v>
@@ -10716,7 +10728,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10803,10 +10815,10 @@
         <v>1.25</v>
       </c>
       <c r="AS51">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU51">
         <v>1.68</v>
@@ -10994,10 +11006,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU52">
         <v>1.25</v>
@@ -11098,7 +11110,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11289,7 +11301,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11567,10 +11579,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU55">
         <v>1.35</v>
@@ -11761,7 +11773,7 @@
         <v>1.64</v>
       </c>
       <c r="AT56">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -12053,7 +12065,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12140,10 +12152,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU58">
         <v>2.23</v>
@@ -12331,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT59">
         <v>1.1</v>
@@ -12435,7 +12447,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12525,7 +12537,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>2.14</v>
@@ -12626,7 +12638,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12713,7 +12725,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT61">
         <v>1.18</v>
@@ -12817,7 +12829,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12907,7 +12919,7 @@
         <v>1.64</v>
       </c>
       <c r="AT62">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13008,7 +13020,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13199,7 +13211,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13286,10 +13298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS64">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT64">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13390,7 +13402,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13477,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
         <v>1.45</v>
@@ -13772,7 +13784,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13859,10 +13871,10 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14050,7 +14062,7 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT68">
         <v>2</v>
@@ -14345,7 +14357,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14435,7 +14447,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14536,7 +14548,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14623,10 +14635,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT71">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU71">
         <v>1.45</v>
@@ -14727,7 +14739,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14814,10 +14826,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT72">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU72">
         <v>1.52</v>
@@ -14918,7 +14930,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15005,10 +15017,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15109,7 +15121,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15196,10 +15208,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT74">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15491,7 +15503,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15682,7 +15694,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15769,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
         <v>1.18</v>
@@ -15873,7 +15885,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15963,7 +15975,7 @@
         <v>1.64</v>
       </c>
       <c r="AT78">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>1.34</v>
@@ -16255,7 +16267,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16342,7 +16354,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT80">
         <v>1.18</v>
@@ -16446,7 +16458,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16536,7 +16548,7 @@
         <v>0.55</v>
       </c>
       <c r="AT81">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16724,10 +16736,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16915,7 +16927,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT83">
         <v>1.55</v>
@@ -17019,7 +17031,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17106,10 +17118,10 @@
         <v>1.71</v>
       </c>
       <c r="AS84">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU84">
         <v>1.95</v>
@@ -17491,7 +17503,7 @@
         <v>1.64</v>
       </c>
       <c r="AT86">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17592,7 +17604,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17783,7 +17795,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17870,7 +17882,7 @@
         <v>1.83</v>
       </c>
       <c r="AS88">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
         <v>1.82</v>
@@ -18064,7 +18076,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18165,7 +18177,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18252,7 +18264,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT90">
         <v>1.45</v>
@@ -18443,10 +18455,10 @@
         <v>2.67</v>
       </c>
       <c r="AS91">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT91">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -18547,7 +18559,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18929,7 +18941,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19016,7 +19028,7 @@
         <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT94">
         <v>1.55</v>
@@ -19120,7 +19132,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19311,7 +19323,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19398,10 +19410,10 @@
         <v>1.88</v>
       </c>
       <c r="AS96">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT96">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU96">
         <v>1.23</v>
@@ -19592,7 +19604,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19693,7 +19705,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19971,10 +19983,10 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.93</v>
@@ -20165,7 +20177,7 @@
         <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>1.47</v>
@@ -20266,7 +20278,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20353,10 +20365,10 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU101">
         <v>1.44</v>
@@ -20457,7 +20469,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20547,7 +20559,7 @@
         <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU102">
         <v>1.37</v>
@@ -20648,7 +20660,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20735,7 +20747,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>1.45</v>
@@ -20839,7 +20851,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21030,7 +21042,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21117,7 +21129,7 @@
         <v>1.38</v>
       </c>
       <c r="AS105">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>1.55</v>
@@ -21221,7 +21233,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21311,7 +21323,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21603,7 +21615,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21693,7 +21705,7 @@
         <v>1.27</v>
       </c>
       <c r="AT108">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU108">
         <v>1.3</v>
@@ -21794,7 +21806,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21881,7 +21893,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT109">
         <v>1.82</v>
@@ -21985,7 +21997,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22072,10 +22084,10 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT110">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU110">
         <v>1.66</v>
@@ -22176,7 +22188,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22263,10 +22275,10 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT111">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22367,7 +22379,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22454,7 +22466,7 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
         <v>2</v>
@@ -22558,7 +22570,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22648,7 +22660,7 @@
         <v>1.27</v>
       </c>
       <c r="AT113">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22940,7 +22952,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23131,7 +23143,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23513,7 +23525,7 @@
         <v>155</v>
       </c>
       <c r="P118" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23600,7 +23612,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT118">
         <v>0.45</v>
@@ -23791,10 +23803,10 @@
         <v>2.13</v>
       </c>
       <c r="AS119">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU119">
         <v>1.5</v>
@@ -23895,7 +23907,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23985,7 +23997,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU120">
         <v>1.31</v>
@@ -24176,7 +24188,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU121">
         <v>1.83</v>
@@ -24277,7 +24289,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24468,7 +24480,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24558,7 +24570,7 @@
         <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU123">
         <v>1.32</v>
@@ -24659,7 +24671,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24746,7 +24758,7 @@
         <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT124">
         <v>1.55</v>
@@ -24850,7 +24862,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25041,7 +25053,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25232,7 +25244,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25319,10 +25331,10 @@
         <v>1.11</v>
       </c>
       <c r="AS127">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT127">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU127">
         <v>1.83</v>
@@ -25510,7 +25522,7 @@
         <v>1.11</v>
       </c>
       <c r="AS128">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT128">
         <v>1.1</v>
@@ -25614,7 +25626,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25701,10 +25713,10 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU129">
         <v>1.22</v>
@@ -25892,10 +25904,10 @@
         <v>0.11</v>
       </c>
       <c r="AS130">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT130">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU130">
         <v>1.61</v>
@@ -25996,7 +26008,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26083,7 +26095,7 @@
         <v>2.11</v>
       </c>
       <c r="AS131">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
         <v>2</v>
@@ -26187,7 +26199,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26378,7 +26390,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26468,7 +26480,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26569,7 +26581,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26760,7 +26772,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26847,10 +26859,10 @@
         <v>1.9</v>
       </c>
       <c r="AS135">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT135">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU135">
         <v>1.82</v>
@@ -27142,7 +27154,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27524,7 +27536,7 @@
         <v>167</v>
       </c>
       <c r="P139" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27666,6 +27678,1152 @@
       </c>
       <c r="BK139">
         <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5242388</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45136.29166666666</v>
+      </c>
+      <c r="F140">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>80</v>
+      </c>
+      <c r="P140" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>2.7</v>
+      </c>
+      <c r="U140">
+        <v>2.1</v>
+      </c>
+      <c r="V140">
+        <v>3.6</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>2.75</v>
+      </c>
+      <c r="Y140">
+        <v>2.75</v>
+      </c>
+      <c r="Z140">
+        <v>1.4</v>
+      </c>
+      <c r="AA140">
+        <v>6.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.1</v>
+      </c>
+      <c r="AC140">
+        <v>2.2</v>
+      </c>
+      <c r="AD140">
+        <v>3.32</v>
+      </c>
+      <c r="AE140">
+        <v>3.19</v>
+      </c>
+      <c r="AF140">
+        <v>1.06</v>
+      </c>
+      <c r="AG140">
+        <v>8</v>
+      </c>
+      <c r="AH140">
+        <v>1.33</v>
+      </c>
+      <c r="AI140">
+        <v>3.25</v>
+      </c>
+      <c r="AJ140">
+        <v>1.9</v>
+      </c>
+      <c r="AK140">
+        <v>1.8</v>
+      </c>
+      <c r="AL140">
+        <v>1.8</v>
+      </c>
+      <c r="AM140">
+        <v>1.91</v>
+      </c>
+      <c r="AN140">
+        <v>1.33</v>
+      </c>
+      <c r="AO140">
+        <v>1.3</v>
+      </c>
+      <c r="AP140">
+        <v>1.62</v>
+      </c>
+      <c r="AQ140">
+        <v>1.55</v>
+      </c>
+      <c r="AR140">
+        <v>2.1</v>
+      </c>
+      <c r="AS140">
+        <v>1.5</v>
+      </c>
+      <c r="AT140">
+        <v>2</v>
+      </c>
+      <c r="AU140">
+        <v>1.81</v>
+      </c>
+      <c r="AV140">
+        <v>1.33</v>
+      </c>
+      <c r="AW140">
+        <v>3.14</v>
+      </c>
+      <c r="AX140">
+        <v>1.55</v>
+      </c>
+      <c r="AY140">
+        <v>5.75</v>
+      </c>
+      <c r="AZ140">
+        <v>2.8</v>
+      </c>
+      <c r="BA140">
+        <v>1.33</v>
+      </c>
+      <c r="BB140">
+        <v>1.68</v>
+      </c>
+      <c r="BC140">
+        <v>2.07</v>
+      </c>
+      <c r="BD140">
+        <v>2.67</v>
+      </c>
+      <c r="BE140">
+        <v>3.74</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>2</v>
+      </c>
+      <c r="BI140">
+        <v>4</v>
+      </c>
+      <c r="BJ140">
+        <v>5</v>
+      </c>
+      <c r="BK140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5242389</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45136.3125</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" t="s">
+        <v>67</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>168</v>
+      </c>
+      <c r="P141" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>3</v>
+      </c>
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <v>3.27</v>
+      </c>
+      <c r="U141">
+        <v>2.27</v>
+      </c>
+      <c r="V141">
+        <v>3.39</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>2.84</v>
+      </c>
+      <c r="Y141">
+        <v>2.84</v>
+      </c>
+      <c r="Z141">
+        <v>1.36</v>
+      </c>
+      <c r="AA141">
+        <v>6.75</v>
+      </c>
+      <c r="AB141">
+        <v>1.09</v>
+      </c>
+      <c r="AC141">
+        <v>2.54</v>
+      </c>
+      <c r="AD141">
+        <v>3.3</v>
+      </c>
+      <c r="AE141">
+        <v>2.64</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>12</v>
+      </c>
+      <c r="AH141">
+        <v>1.25</v>
+      </c>
+      <c r="AI141">
+        <v>3.5</v>
+      </c>
+      <c r="AJ141">
+        <v>1.85</v>
+      </c>
+      <c r="AK141">
+        <v>1.85</v>
+      </c>
+      <c r="AL141">
+        <v>1.64</v>
+      </c>
+      <c r="AM141">
+        <v>2.2</v>
+      </c>
+      <c r="AN141">
+        <v>1.44</v>
+      </c>
+      <c r="AO141">
+        <v>1.3</v>
+      </c>
+      <c r="AP141">
+        <v>1.47</v>
+      </c>
+      <c r="AQ141">
+        <v>1.18</v>
+      </c>
+      <c r="AR141">
+        <v>1.3</v>
+      </c>
+      <c r="AS141">
+        <v>1.33</v>
+      </c>
+      <c r="AT141">
+        <v>1.18</v>
+      </c>
+      <c r="AU141">
+        <v>1.53</v>
+      </c>
+      <c r="AV141">
+        <v>1.61</v>
+      </c>
+      <c r="AW141">
+        <v>3.14</v>
+      </c>
+      <c r="AX141">
+        <v>1.6</v>
+      </c>
+      <c r="AY141">
+        <v>5.75</v>
+      </c>
+      <c r="AZ141">
+        <v>2.65</v>
+      </c>
+      <c r="BA141">
+        <v>1.36</v>
+      </c>
+      <c r="BB141">
+        <v>1.74</v>
+      </c>
+      <c r="BC141">
+        <v>2</v>
+      </c>
+      <c r="BD141">
+        <v>2.84</v>
+      </c>
+      <c r="BE141">
+        <v>4.2</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>2</v>
+      </c>
+      <c r="BH141">
+        <v>12</v>
+      </c>
+      <c r="BI141">
+        <v>1</v>
+      </c>
+      <c r="BJ141">
+        <v>19</v>
+      </c>
+      <c r="BK141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5242390</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45137.29166666666</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>80</v>
+      </c>
+      <c r="P142" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q142">
+        <v>9</v>
+      </c>
+      <c r="R142">
+        <v>6</v>
+      </c>
+      <c r="S142">
+        <v>15</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
+        <v>3.1</v>
+      </c>
+      <c r="W142">
+        <v>1.41</v>
+      </c>
+      <c r="X142">
+        <v>2.7</v>
+      </c>
+      <c r="Y142">
+        <v>2.99</v>
+      </c>
+      <c r="Z142">
+        <v>1.36</v>
+      </c>
+      <c r="AA142">
+        <v>7.7</v>
+      </c>
+      <c r="AB142">
+        <v>1.06</v>
+      </c>
+      <c r="AC142">
+        <v>2.75</v>
+      </c>
+      <c r="AD142">
+        <v>3.1</v>
+      </c>
+      <c r="AE142">
+        <v>2.45</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>10</v>
+      </c>
+      <c r="AH142">
+        <v>1.33</v>
+      </c>
+      <c r="AI142">
+        <v>3.1</v>
+      </c>
+      <c r="AJ142">
+        <v>2.07</v>
+      </c>
+      <c r="AK142">
+        <v>1.69</v>
+      </c>
+      <c r="AL142">
+        <v>1.8</v>
+      </c>
+      <c r="AM142">
+        <v>1.95</v>
+      </c>
+      <c r="AN142">
+        <v>1.42</v>
+      </c>
+      <c r="AO142">
+        <v>1.25</v>
+      </c>
+      <c r="AP142">
+        <v>1.4</v>
+      </c>
+      <c r="AQ142">
+        <v>1.7</v>
+      </c>
+      <c r="AR142">
+        <v>1.91</v>
+      </c>
+      <c r="AS142">
+        <v>1.64</v>
+      </c>
+      <c r="AT142">
+        <v>1.83</v>
+      </c>
+      <c r="AU142">
+        <v>1.31</v>
+      </c>
+      <c r="AV142">
+        <v>1.5</v>
+      </c>
+      <c r="AW142">
+        <v>2.81</v>
+      </c>
+      <c r="AX142">
+        <v>1.95</v>
+      </c>
+      <c r="AY142">
+        <v>5</v>
+      </c>
+      <c r="AZ142">
+        <v>2.15</v>
+      </c>
+      <c r="BA142">
+        <v>1.51</v>
+      </c>
+      <c r="BB142">
+        <v>1.93</v>
+      </c>
+      <c r="BC142">
+        <v>2.3</v>
+      </c>
+      <c r="BD142">
+        <v>3.2</v>
+      </c>
+      <c r="BE142">
+        <v>4.7</v>
+      </c>
+      <c r="BF142">
+        <v>6</v>
+      </c>
+      <c r="BG142">
+        <v>6</v>
+      </c>
+      <c r="BH142">
+        <v>5</v>
+      </c>
+      <c r="BI142">
+        <v>8</v>
+      </c>
+      <c r="BJ142">
+        <v>11</v>
+      </c>
+      <c r="BK142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5242391</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45137.3125</v>
+      </c>
+      <c r="F143">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" t="s">
+        <v>66</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>169</v>
+      </c>
+      <c r="P143" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <v>2.9</v>
+      </c>
+      <c r="U143">
+        <v>2.23</v>
+      </c>
+      <c r="V143">
+        <v>3.88</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>3.01</v>
+      </c>
+      <c r="Y143">
+        <v>2.97</v>
+      </c>
+      <c r="Z143">
+        <v>1.4</v>
+      </c>
+      <c r="AA143">
+        <v>7</v>
+      </c>
+      <c r="AB143">
+        <v>1.08</v>
+      </c>
+      <c r="AC143">
+        <v>2.1</v>
+      </c>
+      <c r="AD143">
+        <v>3.3</v>
+      </c>
+      <c r="AE143">
+        <v>3.1</v>
+      </c>
+      <c r="AF143">
+        <v>1.05</v>
+      </c>
+      <c r="AG143">
+        <v>11.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.3</v>
+      </c>
+      <c r="AI143">
+        <v>3.3</v>
+      </c>
+      <c r="AJ143">
+        <v>1.93</v>
+      </c>
+      <c r="AK143">
+        <v>1.88</v>
+      </c>
+      <c r="AL143">
+        <v>1.7</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.33</v>
+      </c>
+      <c r="AO143">
+        <v>1.28</v>
+      </c>
+      <c r="AP143">
+        <v>1.65</v>
+      </c>
+      <c r="AQ143">
+        <v>0.8</v>
+      </c>
+      <c r="AR143">
+        <v>0.2</v>
+      </c>
+      <c r="AS143">
+        <v>1</v>
+      </c>
+      <c r="AT143">
+        <v>0.18</v>
+      </c>
+      <c r="AU143">
+        <v>1.54</v>
+      </c>
+      <c r="AV143">
+        <v>1.24</v>
+      </c>
+      <c r="AW143">
+        <v>2.78</v>
+      </c>
+      <c r="AX143">
+        <v>1.58</v>
+      </c>
+      <c r="AY143">
+        <v>5.75</v>
+      </c>
+      <c r="AZ143">
+        <v>2.75</v>
+      </c>
+      <c r="BA143">
+        <v>1.41</v>
+      </c>
+      <c r="BB143">
+        <v>1.85</v>
+      </c>
+      <c r="BC143">
+        <v>2.2</v>
+      </c>
+      <c r="BD143">
+        <v>3.08</v>
+      </c>
+      <c r="BE143">
+        <v>4.4</v>
+      </c>
+      <c r="BF143">
+        <v>6</v>
+      </c>
+      <c r="BG143">
+        <v>7</v>
+      </c>
+      <c r="BH143">
+        <v>1</v>
+      </c>
+      <c r="BI143">
+        <v>13</v>
+      </c>
+      <c r="BJ143">
+        <v>7</v>
+      </c>
+      <c r="BK143">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5242392</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45138.29166666666</v>
+      </c>
+      <c r="F144">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>69</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>80</v>
+      </c>
+      <c r="P144" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>3.1</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>3.4</v>
+      </c>
+      <c r="W144">
+        <v>1.48</v>
+      </c>
+      <c r="X144">
+        <v>2.5</v>
+      </c>
+      <c r="Y144">
+        <v>3.25</v>
+      </c>
+      <c r="Z144">
+        <v>1.33</v>
+      </c>
+      <c r="AA144">
+        <v>8</v>
+      </c>
+      <c r="AB144">
+        <v>1.06</v>
+      </c>
+      <c r="AC144">
+        <v>2.3</v>
+      </c>
+      <c r="AD144">
+        <v>3</v>
+      </c>
+      <c r="AE144">
+        <v>2.75</v>
+      </c>
+      <c r="AF144">
+        <v>1.08</v>
+      </c>
+      <c r="AG144">
+        <v>7</v>
+      </c>
+      <c r="AH144">
+        <v>1.42</v>
+      </c>
+      <c r="AI144">
+        <v>2.75</v>
+      </c>
+      <c r="AJ144">
+        <v>2.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.57</v>
+      </c>
+      <c r="AL144">
+        <v>1.95</v>
+      </c>
+      <c r="AM144">
+        <v>1.8</v>
+      </c>
+      <c r="AN144">
+        <v>1.36</v>
+      </c>
+      <c r="AO144">
+        <v>1.28</v>
+      </c>
+      <c r="AP144">
+        <v>1.45</v>
+      </c>
+      <c r="AQ144">
+        <v>0.9</v>
+      </c>
+      <c r="AR144">
+        <v>0.73</v>
+      </c>
+      <c r="AS144">
+        <v>0.91</v>
+      </c>
+      <c r="AT144">
+        <v>0.75</v>
+      </c>
+      <c r="AU144">
+        <v>1.29</v>
+      </c>
+      <c r="AV144">
+        <v>1.33</v>
+      </c>
+      <c r="AW144">
+        <v>2.62</v>
+      </c>
+      <c r="AX144">
+        <v>1.72</v>
+      </c>
+      <c r="AY144">
+        <v>7.8</v>
+      </c>
+      <c r="AZ144">
+        <v>2.53</v>
+      </c>
+      <c r="BA144">
+        <v>1.63</v>
+      </c>
+      <c r="BB144">
+        <v>2.04</v>
+      </c>
+      <c r="BC144">
+        <v>2.51</v>
+      </c>
+      <c r="BD144">
+        <v>3.98</v>
+      </c>
+      <c r="BE144">
+        <v>5.9</v>
+      </c>
+      <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>6</v>
+      </c>
+      <c r="BI144">
+        <v>7</v>
+      </c>
+      <c r="BJ144">
+        <v>10</v>
+      </c>
+      <c r="BK144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5242393</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45138.3125</v>
+      </c>
+      <c r="F145">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>170</v>
+      </c>
+      <c r="P145" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q145">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <v>8</v>
+      </c>
+      <c r="T145">
+        <v>3.1</v>
+      </c>
+      <c r="U145">
+        <v>2.1</v>
+      </c>
+      <c r="V145">
+        <v>3.1</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>3</v>
+      </c>
+      <c r="Y145">
+        <v>2.75</v>
+      </c>
+      <c r="Z145">
+        <v>1.4</v>
+      </c>
+      <c r="AA145">
+        <v>6.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.1</v>
+      </c>
+      <c r="AC145">
+        <v>2.4</v>
+      </c>
+      <c r="AD145">
+        <v>3.25</v>
+      </c>
+      <c r="AE145">
+        <v>2.45</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>9</v>
+      </c>
+      <c r="AH145">
+        <v>1.28</v>
+      </c>
+      <c r="AI145">
+        <v>3.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.9</v>
+      </c>
+      <c r="AL145">
+        <v>1.68</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>1.44</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.47</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>2</v>
+      </c>
+      <c r="AS145">
+        <v>1.64</v>
+      </c>
+      <c r="AT145">
+        <v>1.83</v>
+      </c>
+      <c r="AU145">
+        <v>1.58</v>
+      </c>
+      <c r="AV145">
+        <v>1.59</v>
+      </c>
+      <c r="AW145">
+        <v>3.17</v>
+      </c>
+      <c r="AX145">
+        <v>1.87</v>
+      </c>
+      <c r="AY145">
+        <v>9</v>
+      </c>
+      <c r="AZ145">
+        <v>2.12</v>
+      </c>
+      <c r="BA145">
+        <v>1.17</v>
+      </c>
+      <c r="BB145">
+        <v>1.5</v>
+      </c>
+      <c r="BC145">
+        <v>1.69</v>
+      </c>
+      <c r="BD145">
+        <v>1.83</v>
+      </c>
+      <c r="BE145">
+        <v>2.48</v>
+      </c>
+      <c r="BF145">
+        <v>6</v>
+      </c>
+      <c r="BG145">
+        <v>3</v>
+      </c>
+      <c r="BH145">
+        <v>5</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>11</v>
+      </c>
+      <c r="BK145">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,9 @@
     <t>['60', '68']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -608,9 +611,6 @@
   </si>
   <si>
     <t>['24', '48', '62', '72']</t>
-  </si>
-  <si>
-    <t>['84']</t>
   </si>
   <si>
     <t>['29', '76']</t>
@@ -1125,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1838,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2324,7 +2324,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2706,7 +2706,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT11">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3661,7 +3661,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3852,7 +3852,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4130,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU18">
         <v>1.15</v>
@@ -4616,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4706,7 +4706,7 @@
         <v>0.55</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU19">
         <v>1.08</v>
@@ -4897,7 +4897,7 @@
         <v>1.64</v>
       </c>
       <c r="AT20">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU20">
         <v>1.52</v>
@@ -4998,7 +4998,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5380,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5467,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT23">
         <v>1.83</v>
@@ -5571,7 +5571,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5762,7 +5762,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
         <v>2</v>
@@ -6144,7 +6144,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6422,10 +6422,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT28">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU28">
         <v>1.74</v>
@@ -6526,7 +6526,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6804,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT30">
         <v>1.45</v>
@@ -6908,7 +6908,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7099,7 +7099,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7290,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7380,7 +7380,7 @@
         <v>1.64</v>
       </c>
       <c r="AT33">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7481,7 +7481,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
         <v>1.18</v>
@@ -8332,7 +8332,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT38">
         <v>1.1</v>
@@ -8436,7 +8436,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8526,7 +8526,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU39">
         <v>1.95</v>
@@ -8905,7 +8905,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT41">
         <v>2</v>
@@ -9099,7 +9099,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9200,7 +9200,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9391,7 +9391,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9582,7 +9582,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9863,7 +9863,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU46">
         <v>2.31</v>
@@ -10051,7 +10051,7 @@
         <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT47">
         <v>1.83</v>
@@ -10346,7 +10346,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10537,7 +10537,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10728,7 +10728,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11110,7 +11110,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11301,7 +11301,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU54">
         <v>1.23</v>
@@ -11770,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT56">
         <v>0.75</v>
@@ -11961,7 +11961,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT57">
         <v>0.45</v>
@@ -12065,7 +12065,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12155,7 +12155,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU58">
         <v>2.23</v>
@@ -12916,7 +12916,7 @@
         <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT62">
         <v>1.83</v>
@@ -13110,7 +13110,7 @@
         <v>0.55</v>
       </c>
       <c r="AT63">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU63">
         <v>1.17</v>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT66">
         <v>1.18</v>
@@ -14253,7 +14253,7 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
         <v>1.45</v>
@@ -14447,7 +14447,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -15211,7 +15211,7 @@
         <v>0.91</v>
       </c>
       <c r="AT74">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU75">
         <v>1.98</v>
@@ -15590,10 +15590,10 @@
         <v>1.4</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT76">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU76">
         <v>1.35</v>
@@ -16930,7 +16930,7 @@
         <v>0.91</v>
       </c>
       <c r="AT83">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -17500,10 +17500,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17885,7 +17885,7 @@
         <v>1.33</v>
       </c>
       <c r="AT88">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18073,7 +18073,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT89">
         <v>0.75</v>
@@ -19031,7 +19031,7 @@
         <v>1.64</v>
       </c>
       <c r="AT94">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19219,7 +19219,7 @@
         <v>0.83</v>
       </c>
       <c r="AS95">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT95">
         <v>1.1</v>
@@ -19601,7 +19601,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT97">
         <v>1.83</v>
@@ -20174,7 +20174,7 @@
         <v>2.29</v>
       </c>
       <c r="AS100">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT100">
         <v>2</v>
@@ -20368,7 +20368,7 @@
         <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU101">
         <v>1.44</v>
@@ -20469,7 +20469,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20938,7 +20938,7 @@
         <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT104">
         <v>1.1</v>
@@ -21132,7 +21132,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21323,7 +21323,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21702,7 +21702,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT108">
         <v>1.18</v>
@@ -21896,7 +21896,7 @@
         <v>0.91</v>
       </c>
       <c r="AT109">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU109">
         <v>1.23</v>
@@ -22657,7 +22657,7 @@
         <v>0.78</v>
       </c>
       <c r="AS113">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT113">
         <v>0.75</v>
@@ -23039,7 +23039,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT115">
         <v>1.45</v>
@@ -23143,7 +23143,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU116">
         <v>1.37</v>
@@ -23525,7 +23525,7 @@
         <v>155</v>
       </c>
       <c r="P118" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -24567,7 +24567,7 @@
         <v>2.11</v>
       </c>
       <c r="AS123">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT123">
         <v>1.83</v>
@@ -24761,7 +24761,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU124">
         <v>1.6</v>
@@ -24952,7 +24952,7 @@
         <v>1.64</v>
       </c>
       <c r="AT125">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU125">
         <v>1.33</v>
@@ -25140,7 +25140,7 @@
         <v>1.11</v>
       </c>
       <c r="AS126">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT126">
         <v>1.18</v>
@@ -25907,7 +25907,7 @@
         <v>1.64</v>
       </c>
       <c r="AT130">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU130">
         <v>1.61</v>
@@ -26286,7 +26286,7 @@
         <v>0.22</v>
       </c>
       <c r="AS132">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT132">
         <v>0.45</v>
@@ -27053,7 +27053,7 @@
         <v>1.64</v>
       </c>
       <c r="AT136">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27432,7 +27432,7 @@
         <v>0.2</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT138">
         <v>0.45</v>
@@ -27536,7 +27536,7 @@
         <v>167</v>
       </c>
       <c r="P139" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27623,10 +27623,10 @@
         <v>2</v>
       </c>
       <c r="AS139">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT139">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU139">
         <v>1.58</v>
@@ -28390,7 +28390,7 @@
         <v>1</v>
       </c>
       <c r="AT143">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU143">
         <v>1.54</v>
@@ -28824,6 +28824,579 @@
       </c>
       <c r="BK145">
         <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5242394</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45143.29166666666</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>67</v>
+      </c>
+      <c r="H146" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>150</v>
+      </c>
+      <c r="P146" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>10</v>
+      </c>
+      <c r="T146">
+        <v>2.7</v>
+      </c>
+      <c r="U146">
+        <v>2.1</v>
+      </c>
+      <c r="V146">
+        <v>3.6</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>2.75</v>
+      </c>
+      <c r="Z146">
+        <v>1.4</v>
+      </c>
+      <c r="AA146">
+        <v>6.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.1</v>
+      </c>
+      <c r="AC146">
+        <v>2.34</v>
+      </c>
+      <c r="AD146">
+        <v>3.4</v>
+      </c>
+      <c r="AE146">
+        <v>3.12</v>
+      </c>
+      <c r="AF146">
+        <v>1.04</v>
+      </c>
+      <c r="AG146">
+        <v>12</v>
+      </c>
+      <c r="AH146">
+        <v>1.28</v>
+      </c>
+      <c r="AI146">
+        <v>3.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.93</v>
+      </c>
+      <c r="AK146">
+        <v>1.86</v>
+      </c>
+      <c r="AL146">
+        <v>1.72</v>
+      </c>
+      <c r="AM146">
+        <v>2.05</v>
+      </c>
+      <c r="AN146">
+        <v>1.28</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.7</v>
+      </c>
+      <c r="AQ146">
+        <v>1.64</v>
+      </c>
+      <c r="AR146">
+        <v>1.55</v>
+      </c>
+      <c r="AS146">
+        <v>1.75</v>
+      </c>
+      <c r="AT146">
+        <v>1.42</v>
+      </c>
+      <c r="AU146">
+        <v>1.73</v>
+      </c>
+      <c r="AV146">
+        <v>1.32</v>
+      </c>
+      <c r="AW146">
+        <v>3.05</v>
+      </c>
+      <c r="AX146">
+        <v>1.87</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>2.18</v>
+      </c>
+      <c r="BA146">
+        <v>1.39</v>
+      </c>
+      <c r="BB146">
+        <v>1.7</v>
+      </c>
+      <c r="BC146">
+        <v>2.19</v>
+      </c>
+      <c r="BD146">
+        <v>2.98</v>
+      </c>
+      <c r="BE146">
+        <v>3.85</v>
+      </c>
+      <c r="BF146">
+        <v>6</v>
+      </c>
+      <c r="BG146">
+        <v>3</v>
+      </c>
+      <c r="BH146">
+        <v>6</v>
+      </c>
+      <c r="BI146">
+        <v>1</v>
+      </c>
+      <c r="BJ146">
+        <v>12</v>
+      </c>
+      <c r="BK146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5242395</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45143.3125</v>
+      </c>
+      <c r="F147">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147" t="s">
+        <v>66</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>119</v>
+      </c>
+      <c r="P147" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q147">
+        <v>3</v>
+      </c>
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <v>6</v>
+      </c>
+      <c r="T147">
+        <v>1.95</v>
+      </c>
+      <c r="U147">
+        <v>2.3</v>
+      </c>
+      <c r="V147">
+        <v>6</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>3</v>
+      </c>
+      <c r="Y147">
+        <v>2.6</v>
+      </c>
+      <c r="Z147">
+        <v>1.45</v>
+      </c>
+      <c r="AA147">
+        <v>6.75</v>
+      </c>
+      <c r="AB147">
+        <v>1.11</v>
+      </c>
+      <c r="AC147">
+        <v>1.47</v>
+      </c>
+      <c r="AD147">
+        <v>4.53</v>
+      </c>
+      <c r="AE147">
+        <v>6.75</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>9</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.75</v>
+      </c>
+      <c r="AJ147">
+        <v>1.79</v>
+      </c>
+      <c r="AK147">
+        <v>2</v>
+      </c>
+      <c r="AL147">
+        <v>1.95</v>
+      </c>
+      <c r="AM147">
+        <v>1.8</v>
+      </c>
+      <c r="AN147">
+        <v>1.06</v>
+      </c>
+      <c r="AO147">
+        <v>1.16</v>
+      </c>
+      <c r="AP147">
+        <v>2.5</v>
+      </c>
+      <c r="AQ147">
+        <v>1.6</v>
+      </c>
+      <c r="AR147">
+        <v>0.18</v>
+      </c>
+      <c r="AS147">
+        <v>1.73</v>
+      </c>
+      <c r="AT147">
+        <v>0.17</v>
+      </c>
+      <c r="AU147">
+        <v>1.57</v>
+      </c>
+      <c r="AV147">
+        <v>1.34</v>
+      </c>
+      <c r="AW147">
+        <v>2.91</v>
+      </c>
+      <c r="AX147">
+        <v>1.36</v>
+      </c>
+      <c r="AY147">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ147">
+        <v>3.74</v>
+      </c>
+      <c r="BA147">
+        <v>1.52</v>
+      </c>
+      <c r="BB147">
+        <v>1.91</v>
+      </c>
+      <c r="BC147">
+        <v>2.54</v>
+      </c>
+      <c r="BD147">
+        <v>3.56</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>7</v>
+      </c>
+      <c r="BH147">
+        <v>2</v>
+      </c>
+      <c r="BI147">
+        <v>7</v>
+      </c>
+      <c r="BJ147">
+        <v>8</v>
+      </c>
+      <c r="BK147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5242396</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45143.33333333334</v>
+      </c>
+      <c r="F148">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>171</v>
+      </c>
+      <c r="P148" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q148">
+        <v>2</v>
+      </c>
+      <c r="R148">
+        <v>5</v>
+      </c>
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>3.75</v>
+      </c>
+      <c r="U148">
+        <v>2.05</v>
+      </c>
+      <c r="V148">
+        <v>2.75</v>
+      </c>
+      <c r="W148">
+        <v>1.43</v>
+      </c>
+      <c r="X148">
+        <v>2.65</v>
+      </c>
+      <c r="Y148">
+        <v>2.65</v>
+      </c>
+      <c r="Z148">
+        <v>1.43</v>
+      </c>
+      <c r="AA148">
+        <v>7</v>
+      </c>
+      <c r="AB148">
+        <v>1.08</v>
+      </c>
+      <c r="AC148">
+        <v>3.15</v>
+      </c>
+      <c r="AD148">
+        <v>3.35</v>
+      </c>
+      <c r="AE148">
+        <v>2.25</v>
+      </c>
+      <c r="AF148">
+        <v>1.05</v>
+      </c>
+      <c r="AG148">
+        <v>10.5</v>
+      </c>
+      <c r="AH148">
+        <v>1.36</v>
+      </c>
+      <c r="AI148">
+        <v>3</v>
+      </c>
+      <c r="AJ148">
+        <v>2.05</v>
+      </c>
+      <c r="AK148">
+        <v>1.61</v>
+      </c>
+      <c r="AL148">
+        <v>1.85</v>
+      </c>
+      <c r="AM148">
+        <v>1.9</v>
+      </c>
+      <c r="AN148">
+        <v>1.63</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.25</v>
+      </c>
+      <c r="AQ148">
+        <v>1.27</v>
+      </c>
+      <c r="AR148">
+        <v>1.82</v>
+      </c>
+      <c r="AS148">
+        <v>1.42</v>
+      </c>
+      <c r="AT148">
+        <v>1.67</v>
+      </c>
+      <c r="AU148">
+        <v>1.35</v>
+      </c>
+      <c r="AV148">
+        <v>1.69</v>
+      </c>
+      <c r="AW148">
+        <v>3.04</v>
+      </c>
+      <c r="AX148">
+        <v>2.25</v>
+      </c>
+      <c r="AY148">
+        <v>7.5</v>
+      </c>
+      <c r="AZ148">
+        <v>1.85</v>
+      </c>
+      <c r="BA148">
+        <v>1.75</v>
+      </c>
+      <c r="BB148">
+        <v>2.28</v>
+      </c>
+      <c r="BC148">
+        <v>2.47</v>
+      </c>
+      <c r="BD148">
+        <v>4.5</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>3</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>4</v>
+      </c>
+      <c r="BI148">
+        <v>4</v>
+      </c>
+      <c r="BJ148">
+        <v>7</v>
+      </c>
+      <c r="BK148">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['31', '56', '85', '88']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -764,6 +770,12 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['67', '71']</t>
+  </si>
+  <si>
+    <t>['54', '66']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1572,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1942,7 +1954,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2133,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2324,7 +2336,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2411,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT7">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2605,7 +2617,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2706,7 +2718,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2984,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT10">
         <v>0.75</v>
@@ -3279,7 +3291,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3470,7 +3482,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3560,7 +3572,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU13">
         <v>1.39</v>
@@ -3661,7 +3673,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3748,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT14">
         <v>1.18</v>
@@ -3852,7 +3864,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4133,7 +4145,7 @@
         <v>1.42</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU16">
         <v>2.17</v>
@@ -4512,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT18">
         <v>1.67</v>
@@ -4616,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4998,7 +5010,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5088,7 +5100,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5380,7 +5392,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5571,7 +5583,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5661,7 +5673,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5762,7 +5774,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6144,7 +6156,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6234,7 +6246,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -6526,7 +6538,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6613,10 +6625,10 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6908,7 +6920,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7099,7 +7111,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7290,7 +7302,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7481,7 +7493,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7571,7 +7583,7 @@
         <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -7950,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT36">
         <v>0.45</v>
@@ -8335,7 +8347,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>1.66</v>
@@ -8436,7 +8448,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8523,7 +8535,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT39">
         <v>1.42</v>
@@ -8908,7 +8920,7 @@
         <v>1.73</v>
       </c>
       <c r="AT41">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU41">
         <v>1.46</v>
@@ -9200,7 +9212,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9287,7 +9299,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT43">
         <v>2</v>
@@ -9391,7 +9403,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9582,7 +9594,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10242,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT48">
         <v>1.18</v>
@@ -10346,7 +10358,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10537,7 +10549,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10728,7 +10740,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11006,7 +11018,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT52">
         <v>1.83</v>
@@ -11110,7 +11122,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11200,7 +11212,7 @@
         <v>1.64</v>
       </c>
       <c r="AT53">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU53">
         <v>1.35</v>
@@ -11301,7 +11313,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11579,7 +11591,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT55">
         <v>1.18</v>
@@ -12346,7 +12358,7 @@
         <v>1.64</v>
       </c>
       <c r="AT59">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU59">
         <v>1.42</v>
@@ -12447,7 +12459,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12534,7 +12546,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -12638,7 +12650,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12725,10 +12737,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT61">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU61">
         <v>1.11</v>
@@ -12829,7 +12841,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13020,7 +13032,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13211,7 +13223,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13402,7 +13414,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13683,7 +13695,7 @@
         <v>1.42</v>
       </c>
       <c r="AT66">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13784,7 +13796,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13871,7 +13883,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT67">
         <v>1.83</v>
@@ -14062,10 +14074,10 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU68">
         <v>1.52</v>
@@ -14357,7 +14369,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14548,7 +14560,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14739,7 +14751,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14930,7 +14942,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15121,7 +15133,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15208,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT74">
         <v>0.17</v>
@@ -15399,7 +15411,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT75">
         <v>1.67</v>
@@ -15503,7 +15515,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15694,7 +15706,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15784,7 +15796,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15885,7 +15897,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16267,7 +16279,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16354,10 +16366,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16458,7 +16470,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16927,7 +16939,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT83">
         <v>1.42</v>
@@ -17031,7 +17043,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17309,10 +17321,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT85">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU85">
         <v>1.94</v>
@@ -17604,7 +17616,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17694,7 +17706,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -17795,7 +17807,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18177,7 +18189,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18264,7 +18276,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT90">
         <v>1.45</v>
@@ -18559,7 +18571,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18649,7 +18661,7 @@
         <v>0.55</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU92">
         <v>1.16</v>
@@ -18840,7 +18852,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18941,7 +18953,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19132,7 +19144,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19222,7 +19234,7 @@
         <v>1.42</v>
       </c>
       <c r="AT95">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.29</v>
@@ -19323,7 +19335,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19410,7 +19422,7 @@
         <v>1.88</v>
       </c>
       <c r="AS96">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT96">
         <v>1.83</v>
@@ -19705,7 +19717,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19792,7 +19804,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT98">
         <v>0.45</v>
@@ -20278,7 +20290,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20469,7 +20481,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20660,7 +20672,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20851,7 +20863,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20941,7 +20953,7 @@
         <v>1.73</v>
       </c>
       <c r="AT104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21042,7 +21054,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21233,7 +21245,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21320,7 +21332,7 @@
         <v>0.13</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT106">
         <v>0.17</v>
@@ -21615,7 +21627,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21806,7 +21818,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21893,7 +21905,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT109">
         <v>1.67</v>
@@ -21997,7 +22009,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22084,7 +22096,7 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT110">
         <v>1.83</v>
@@ -22188,7 +22200,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22379,7 +22391,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22469,7 +22481,7 @@
         <v>1.64</v>
       </c>
       <c r="AT112">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22570,7 +22582,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22851,7 +22863,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>1.38</v>
@@ -22952,7 +22964,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23143,7 +23155,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23907,7 +23919,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24185,7 +24197,7 @@
         <v>2.1</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT121">
         <v>1.83</v>
@@ -24289,7 +24301,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24379,7 +24391,7 @@
         <v>0.55</v>
       </c>
       <c r="AT122">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.11</v>
@@ -24480,7 +24492,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24671,7 +24683,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24758,7 +24770,7 @@
         <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT124">
         <v>1.42</v>
@@ -24862,7 +24874,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25053,7 +25065,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25143,7 +25155,7 @@
         <v>1.73</v>
       </c>
       <c r="AT126">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25244,7 +25256,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25525,7 +25537,7 @@
         <v>1.64</v>
       </c>
       <c r="AT128">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU128">
         <v>1.36</v>
@@ -25626,7 +25638,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25713,7 +25725,7 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT129">
         <v>2</v>
@@ -26008,7 +26020,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26098,7 +26110,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU131">
         <v>1.49</v>
@@ -26199,7 +26211,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26390,7 +26402,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26477,7 +26489,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT133">
         <v>0.75</v>
@@ -26581,7 +26593,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26772,7 +26784,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27154,7 +27166,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27244,7 +27256,7 @@
         <v>0.55</v>
       </c>
       <c r="AT137">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU137">
         <v>1.14</v>
@@ -28300,7 +28312,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28387,7 +28399,7 @@
         <v>0.2</v>
       </c>
       <c r="AS143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT143">
         <v>0.17</v>
@@ -28578,7 +28590,7 @@
         <v>0.73</v>
       </c>
       <c r="AS144">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT144">
         <v>0.75</v>
@@ -29397,6 +29409,579 @@
       </c>
       <c r="BK148">
         <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5242397</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>70</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>172</v>
+      </c>
+      <c r="P149" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>7</v>
+      </c>
+      <c r="S149">
+        <v>11</v>
+      </c>
+      <c r="T149">
+        <v>3.1</v>
+      </c>
+      <c r="U149">
+        <v>2.15</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>1.39</v>
+      </c>
+      <c r="X149">
+        <v>2.8</v>
+      </c>
+      <c r="Y149">
+        <v>2.7</v>
+      </c>
+      <c r="Z149">
+        <v>1.41</v>
+      </c>
+      <c r="AA149">
+        <v>6.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.1</v>
+      </c>
+      <c r="AC149">
+        <v>3.1</v>
+      </c>
+      <c r="AD149">
+        <v>3.25</v>
+      </c>
+      <c r="AE149">
+        <v>2.1</v>
+      </c>
+      <c r="AF149">
+        <v>1.05</v>
+      </c>
+      <c r="AG149">
+        <v>9</v>
+      </c>
+      <c r="AH149">
+        <v>1.28</v>
+      </c>
+      <c r="AI149">
+        <v>3.5</v>
+      </c>
+      <c r="AJ149">
+        <v>1.8</v>
+      </c>
+      <c r="AK149">
+        <v>1.91</v>
+      </c>
+      <c r="AL149">
+        <v>1.68</v>
+      </c>
+      <c r="AM149">
+        <v>2.1</v>
+      </c>
+      <c r="AN149">
+        <v>1.44</v>
+      </c>
+      <c r="AO149">
+        <v>1.22</v>
+      </c>
+      <c r="AP149">
+        <v>1.42</v>
+      </c>
+      <c r="AQ149">
+        <v>0.91</v>
+      </c>
+      <c r="AR149">
+        <v>2</v>
+      </c>
+      <c r="AS149">
+        <v>0.83</v>
+      </c>
+      <c r="AT149">
+        <v>2.09</v>
+      </c>
+      <c r="AU149">
+        <v>1.3</v>
+      </c>
+      <c r="AV149">
+        <v>1.55</v>
+      </c>
+      <c r="AW149">
+        <v>2.85</v>
+      </c>
+      <c r="AX149">
+        <v>1.71</v>
+      </c>
+      <c r="AY149">
+        <v>5.5</v>
+      </c>
+      <c r="AZ149">
+        <v>2.45</v>
+      </c>
+      <c r="BA149">
+        <v>1.32</v>
+      </c>
+      <c r="BB149">
+        <v>1.64</v>
+      </c>
+      <c r="BC149">
+        <v>2.06</v>
+      </c>
+      <c r="BD149">
+        <v>2.25</v>
+      </c>
+      <c r="BE149">
+        <v>3.65</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>9</v>
+      </c>
+      <c r="BH149">
+        <v>5</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>10</v>
+      </c>
+      <c r="BK149">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5242398</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45144.3125</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
+        <v>77</v>
+      </c>
+      <c r="H150" t="s">
+        <v>68</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>173</v>
+      </c>
+      <c r="P150" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>2.29</v>
+      </c>
+      <c r="U150">
+        <v>2.38</v>
+      </c>
+      <c r="V150">
+        <v>5.14</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>3</v>
+      </c>
+      <c r="Y150">
+        <v>2.55</v>
+      </c>
+      <c r="Z150">
+        <v>1.46</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.11</v>
+      </c>
+      <c r="AC150">
+        <v>1.57</v>
+      </c>
+      <c r="AD150">
+        <v>3.75</v>
+      </c>
+      <c r="AE150">
+        <v>4.75</v>
+      </c>
+      <c r="AF150">
+        <v>1.05</v>
+      </c>
+      <c r="AG150">
+        <v>9</v>
+      </c>
+      <c r="AH150">
+        <v>1.25</v>
+      </c>
+      <c r="AI150">
+        <v>3.75</v>
+      </c>
+      <c r="AJ150">
+        <v>1.75</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.76</v>
+      </c>
+      <c r="AM150">
+        <v>2.01</v>
+      </c>
+      <c r="AN150">
+        <v>1.15</v>
+      </c>
+      <c r="AO150">
+        <v>1.23</v>
+      </c>
+      <c r="AP150">
+        <v>2.17</v>
+      </c>
+      <c r="AQ150">
+        <v>2</v>
+      </c>
+      <c r="AR150">
+        <v>1.18</v>
+      </c>
+      <c r="AS150">
+        <v>2.09</v>
+      </c>
+      <c r="AT150">
+        <v>1.08</v>
+      </c>
+      <c r="AU150">
+        <v>1.87</v>
+      </c>
+      <c r="AV150">
+        <v>1.54</v>
+      </c>
+      <c r="AW150">
+        <v>3.41</v>
+      </c>
+      <c r="AX150">
+        <v>1.37</v>
+      </c>
+      <c r="AY150">
+        <v>6.75</v>
+      </c>
+      <c r="AZ150">
+        <v>3.4</v>
+      </c>
+      <c r="BA150">
+        <v>1.21</v>
+      </c>
+      <c r="BB150">
+        <v>1.53</v>
+      </c>
+      <c r="BC150">
+        <v>1.88</v>
+      </c>
+      <c r="BD150">
+        <v>2.33</v>
+      </c>
+      <c r="BE150">
+        <v>2.84</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>6</v>
+      </c>
+      <c r="BI150">
+        <v>9</v>
+      </c>
+      <c r="BJ150">
+        <v>11</v>
+      </c>
+      <c r="BK150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5242399</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45146.3125</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>80</v>
+      </c>
+      <c r="P151" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>3.6</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>2.75</v>
+      </c>
+      <c r="W151">
+        <v>1.38</v>
+      </c>
+      <c r="X151">
+        <v>2.9</v>
+      </c>
+      <c r="Y151">
+        <v>2.73</v>
+      </c>
+      <c r="Z151">
+        <v>1.42</v>
+      </c>
+      <c r="AA151">
+        <v>6.85</v>
+      </c>
+      <c r="AB151">
+        <v>1.08</v>
+      </c>
+      <c r="AC151">
+        <v>2.78</v>
+      </c>
+      <c r="AD151">
+        <v>3.25</v>
+      </c>
+      <c r="AE151">
+        <v>2.05</v>
+      </c>
+      <c r="AF151">
+        <v>1.01</v>
+      </c>
+      <c r="AG151">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH151">
+        <v>1.28</v>
+      </c>
+      <c r="AI151">
+        <v>3.5</v>
+      </c>
+      <c r="AJ151">
+        <v>1.79</v>
+      </c>
+      <c r="AK151">
+        <v>1.81</v>
+      </c>
+      <c r="AL151">
+        <v>1.73</v>
+      </c>
+      <c r="AM151">
+        <v>2</v>
+      </c>
+      <c r="AN151">
+        <v>1.6</v>
+      </c>
+      <c r="AO151">
+        <v>1.3</v>
+      </c>
+      <c r="AP151">
+        <v>1.36</v>
+      </c>
+      <c r="AQ151">
+        <v>1</v>
+      </c>
+      <c r="AR151">
+        <v>1.1</v>
+      </c>
+      <c r="AS151">
+        <v>0.92</v>
+      </c>
+      <c r="AT151">
+        <v>1.27</v>
+      </c>
+      <c r="AU151">
+        <v>1.5</v>
+      </c>
+      <c r="AV151">
+        <v>1.21</v>
+      </c>
+      <c r="AW151">
+        <v>2.71</v>
+      </c>
+      <c r="AX151">
+        <v>2.06</v>
+      </c>
+      <c r="AY151">
+        <v>8</v>
+      </c>
+      <c r="AZ151">
+        <v>1.97</v>
+      </c>
+      <c r="BA151">
+        <v>1.4</v>
+      </c>
+      <c r="BB151">
+        <v>1.73</v>
+      </c>
+      <c r="BC151">
+        <v>2.23</v>
+      </c>
+      <c r="BD151">
+        <v>3.04</v>
+      </c>
+      <c r="BE151">
+        <v>4.5</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>2</v>
+      </c>
+      <c r="BH151">
+        <v>2</v>
+      </c>
+      <c r="BI151">
+        <v>4</v>
+      </c>
+      <c r="BJ151">
+        <v>5</v>
+      </c>
+      <c r="BK151">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -29843,13 +29843,13 @@
         <v>253</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T151">
         <v>3.6</v>
@@ -29966,22 +29966,22 @@
         <v>4.5</v>
       </c>
       <c r="BF151">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI151">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ151">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK151">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>['31', '56', '85', '88']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
   <si>
     <t>['7', '11', '40']</t>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,7 +1575,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1954,7 +1957,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2044,7 +2047,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2145,7 +2148,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2336,7 +2339,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2718,7 +2721,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3291,7 +3294,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3378,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT12">
         <v>1.45</v>
@@ -3482,7 +3485,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3673,7 +3676,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3864,7 +3867,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4628,7 +4631,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5010,7 +5013,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5291,7 +5294,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU22">
         <v>1.19</v>
@@ -5392,7 +5395,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5583,7 +5586,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5670,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT24">
         <v>1.08</v>
@@ -5774,7 +5777,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6052,7 +6055,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT26">
         <v>0.75</v>
@@ -6156,7 +6159,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6538,7 +6541,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6920,7 +6923,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7111,7 +7114,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7302,7 +7305,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7493,7 +7496,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7965,7 +7968,7 @@
         <v>0.83</v>
       </c>
       <c r="AT36">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8448,7 +8451,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -9212,7 +9215,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9403,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9594,7 +9597,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10358,7 +10361,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10448,7 +10451,7 @@
         <v>0.55</v>
       </c>
       <c r="AT49">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU49">
         <v>1.13</v>
@@ -10549,7 +10552,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10636,7 +10639,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -10740,7 +10743,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11122,7 +11125,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11313,7 +11316,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11976,7 +11979,7 @@
         <v>1.73</v>
       </c>
       <c r="AT57">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU57">
         <v>1.35</v>
@@ -12355,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT59">
         <v>1.27</v>
@@ -12459,7 +12462,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12650,7 +12653,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12841,7 +12844,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13032,7 +13035,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13223,7 +13226,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13414,7 +13417,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13796,7 +13799,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14369,7 +14372,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14560,7 +14563,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14751,7 +14754,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14838,7 +14841,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT72">
         <v>1.83</v>
@@ -14942,7 +14945,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15133,7 +15136,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15515,7 +15518,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15706,7 +15709,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15897,7 +15900,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16178,7 +16181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16279,7 +16282,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16470,7 +16473,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16748,7 +16751,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT82">
         <v>1.18</v>
@@ -17043,7 +17046,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17616,7 +17619,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17807,7 +17810,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18189,7 +18192,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18571,7 +18574,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18953,7 +18956,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19040,7 +19043,7 @@
         <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT94">
         <v>1.42</v>
@@ -19144,7 +19147,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19335,7 +19338,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19717,7 +19720,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19807,7 +19810,7 @@
         <v>2.09</v>
       </c>
       <c r="AT98">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU98">
         <v>1.8</v>
@@ -20290,7 +20293,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20481,7 +20484,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20672,7 +20675,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20863,7 +20866,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21054,7 +21057,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21245,7 +21248,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21526,7 +21529,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21627,7 +21630,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21818,7 +21821,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22009,7 +22012,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22200,7 +22203,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22391,7 +22394,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22478,7 +22481,7 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT112">
         <v>2.09</v>
@@ -22582,7 +22585,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22964,7 +22967,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23155,7 +23158,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23627,7 +23630,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU118">
         <v>1.85</v>
@@ -23919,7 +23922,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24301,7 +24304,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24492,7 +24495,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24683,7 +24686,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24874,7 +24877,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25065,7 +25068,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25256,7 +25259,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25638,7 +25641,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25916,7 +25919,7 @@
         <v>0.11</v>
       </c>
       <c r="AS130">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
         <v>0.17</v>
@@ -26020,7 +26023,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26211,7 +26214,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26301,7 +26304,7 @@
         <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.64</v>
@@ -26402,7 +26405,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26593,7 +26596,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26784,7 +26787,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27166,7 +27169,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27447,7 +27450,7 @@
         <v>1.42</v>
       </c>
       <c r="AT138">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU138">
         <v>1.3</v>
@@ -28312,7 +28315,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28781,7 +28784,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT145">
         <v>1.83</v>
@@ -29458,7 +29461,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29840,7 +29843,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -29982,6 +29985,197 @@
       </c>
       <c r="BK151">
         <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5242400</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F152">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>75</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>174</v>
+      </c>
+      <c r="P152" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q152">
+        <v>6</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152">
+        <v>7</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.3</v>
+      </c>
+      <c r="V152">
+        <v>5.75</v>
+      </c>
+      <c r="W152">
+        <v>1.27</v>
+      </c>
+      <c r="X152">
+        <v>3.2</v>
+      </c>
+      <c r="Y152">
+        <v>2.47</v>
+      </c>
+      <c r="Z152">
+        <v>1.37</v>
+      </c>
+      <c r="AA152">
+        <v>5.75</v>
+      </c>
+      <c r="AB152">
+        <v>1.11</v>
+      </c>
+      <c r="AC152">
+        <v>1.4</v>
+      </c>
+      <c r="AD152">
+        <v>4.2</v>
+      </c>
+      <c r="AE152">
+        <v>5.75</v>
+      </c>
+      <c r="AF152">
+        <v>1</v>
+      </c>
+      <c r="AG152">
+        <v>15</v>
+      </c>
+      <c r="AH152">
+        <v>1.18</v>
+      </c>
+      <c r="AI152">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152">
+        <v>1.7</v>
+      </c>
+      <c r="AK152">
+        <v>2</v>
+      </c>
+      <c r="AL152">
+        <v>1.88</v>
+      </c>
+      <c r="AM152">
+        <v>1.82</v>
+      </c>
+      <c r="AN152">
+        <v>1.08</v>
+      </c>
+      <c r="AO152">
+        <v>1.18</v>
+      </c>
+      <c r="AP152">
+        <v>2.6</v>
+      </c>
+      <c r="AQ152">
+        <v>1.64</v>
+      </c>
+      <c r="AR152">
+        <v>0.45</v>
+      </c>
+      <c r="AS152">
+        <v>1.58</v>
+      </c>
+      <c r="AT152">
+        <v>0.5</v>
+      </c>
+      <c r="AU152">
+        <v>1.57</v>
+      </c>
+      <c r="AV152">
+        <v>1.37</v>
+      </c>
+      <c r="AW152">
+        <v>2.94</v>
+      </c>
+      <c r="AX152">
+        <v>1.22</v>
+      </c>
+      <c r="AY152">
+        <v>6.75</v>
+      </c>
+      <c r="AZ152">
+        <v>5</v>
+      </c>
+      <c r="BA152">
+        <v>1.36</v>
+      </c>
+      <c r="BB152">
+        <v>1.74</v>
+      </c>
+      <c r="BC152">
+        <v>2.16</v>
+      </c>
+      <c r="BD152">
+        <v>2.84</v>
+      </c>
+      <c r="BE152">
+        <v>4.2</v>
+      </c>
+      <c r="BF152">
+        <v>4</v>
+      </c>
+      <c r="BG152">
+        <v>3</v>
+      </c>
+      <c r="BH152">
+        <v>15</v>
+      </c>
+      <c r="BI152">
+        <v>3</v>
+      </c>
+      <c r="BJ152">
+        <v>19</v>
+      </c>
+      <c r="BK152">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['41', '90+1']</t>
   </si>
   <si>
     <t>['7', '11', '40']</t>
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,7 +1578,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1957,7 +1960,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2148,7 +2151,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2339,7 +2342,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2617,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT8">
         <v>1.08</v>
@@ -2721,7 +2724,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3294,7 +3297,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3485,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3575,7 +3578,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU13">
         <v>1.39</v>
@@ -3676,7 +3679,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3867,7 +3870,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4148,7 +4151,7 @@
         <v>1.42</v>
       </c>
       <c r="AT16">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU16">
         <v>2.17</v>
@@ -4631,7 +4634,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5013,7 +5016,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5291,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT22">
         <v>0.5</v>
@@ -5395,7 +5398,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5586,7 +5589,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5777,7 +5780,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6159,7 +6162,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6541,7 +6544,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6631,7 +6634,7 @@
         <v>2.09</v>
       </c>
       <c r="AT29">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6923,7 +6926,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7114,7 +7117,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7305,7 +7308,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7392,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
         <v>1.67</v>
@@ -7496,7 +7499,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8451,7 +8454,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8923,7 +8926,7 @@
         <v>1.73</v>
       </c>
       <c r="AT41">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU41">
         <v>1.46</v>
@@ -9215,7 +9218,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9406,7 +9409,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9597,7 +9600,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9684,7 +9687,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
         <v>1.45</v>
@@ -10361,7 +10364,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10552,7 +10555,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10743,7 +10746,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11125,7 +11128,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11215,7 +11218,7 @@
         <v>1.64</v>
       </c>
       <c r="AT53">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU53">
         <v>1.35</v>
@@ -11316,7 +11319,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12462,7 +12465,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12653,7 +12656,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12844,7 +12847,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13035,7 +13038,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13226,7 +13229,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13313,7 +13316,7 @@
         <v>0.8</v>
       </c>
       <c r="AS64">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT64">
         <v>0.75</v>
@@ -13417,7 +13420,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13799,7 +13802,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14080,7 +14083,7 @@
         <v>0.92</v>
       </c>
       <c r="AT68">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU68">
         <v>1.52</v>
@@ -14372,7 +14375,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14563,7 +14566,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14650,7 +14653,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
         <v>1.18</v>
@@ -14754,7 +14757,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14945,7 +14948,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15136,7 +15139,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15518,7 +15521,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15709,7 +15712,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15900,7 +15903,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16282,7 +16285,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16473,7 +16476,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17046,7 +17049,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17619,7 +17622,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17709,7 +17712,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -17810,7 +17813,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18192,7 +18195,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18470,7 +18473,7 @@
         <v>2.67</v>
       </c>
       <c r="AS91">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT91">
         <v>2</v>
@@ -18574,7 +18577,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18664,7 +18667,7 @@
         <v>0.55</v>
       </c>
       <c r="AT92">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU92">
         <v>1.16</v>
@@ -18956,7 +18959,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19147,7 +19150,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19338,7 +19341,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19720,7 +19723,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20293,7 +20296,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20380,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
         <v>0.17</v>
@@ -20484,7 +20487,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20675,7 +20678,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20866,7 +20869,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21057,7 +21060,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21248,7 +21251,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21630,7 +21633,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21821,7 +21824,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22012,7 +22015,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22203,7 +22206,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22290,7 +22293,7 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT111">
         <v>1.83</v>
@@ -22394,7 +22397,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22484,7 +22487,7 @@
         <v>1.58</v>
       </c>
       <c r="AT112">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22585,7 +22588,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22967,7 +22970,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23158,7 +23161,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23922,7 +23925,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24304,7 +24307,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24495,7 +24498,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24686,7 +24689,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24877,7 +24880,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25068,7 +25071,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25259,7 +25262,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25537,7 +25540,7 @@
         <v>1.11</v>
       </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT128">
         <v>1.27</v>
@@ -25641,7 +25644,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26023,7 +26026,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26113,7 +26116,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU131">
         <v>1.49</v>
@@ -26214,7 +26217,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26405,7 +26408,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26596,7 +26599,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26787,7 +26790,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27169,7 +27172,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -28211,7 +28214,7 @@
         <v>1.91</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT142">
         <v>1.83</v>
@@ -28315,7 +28318,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -29461,7 +29464,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29551,7 +29554,7 @@
         <v>0.83</v>
       </c>
       <c r="AT149">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU149">
         <v>1.3</v>
@@ -29843,7 +29846,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30176,6 +30179,197 @@
       </c>
       <c r="BK152">
         <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5242402</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45152.29166666666</v>
+      </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>175</v>
+      </c>
+      <c r="P153" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>13</v>
+      </c>
+      <c r="S153">
+        <v>17</v>
+      </c>
+      <c r="T153">
+        <v>3.25</v>
+      </c>
+      <c r="U153">
+        <v>2.2</v>
+      </c>
+      <c r="V153">
+        <v>3.25</v>
+      </c>
+      <c r="W153">
+        <v>1.38</v>
+      </c>
+      <c r="X153">
+        <v>2.9</v>
+      </c>
+      <c r="Y153">
+        <v>2.73</v>
+      </c>
+      <c r="Z153">
+        <v>1.42</v>
+      </c>
+      <c r="AA153">
+        <v>6.85</v>
+      </c>
+      <c r="AB153">
+        <v>1.08</v>
+      </c>
+      <c r="AC153">
+        <v>2.55</v>
+      </c>
+      <c r="AD153">
+        <v>3.25</v>
+      </c>
+      <c r="AE153">
+        <v>2.55</v>
+      </c>
+      <c r="AF153">
+        <v>1.01</v>
+      </c>
+      <c r="AG153">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH153">
+        <v>1.26</v>
+      </c>
+      <c r="AI153">
+        <v>3.34</v>
+      </c>
+      <c r="AJ153">
+        <v>1.91</v>
+      </c>
+      <c r="AK153">
+        <v>1.85</v>
+      </c>
+      <c r="AL153">
+        <v>1.67</v>
+      </c>
+      <c r="AM153">
+        <v>2.03</v>
+      </c>
+      <c r="AN153">
+        <v>1.47</v>
+      </c>
+      <c r="AO153">
+        <v>1.29</v>
+      </c>
+      <c r="AP153">
+        <v>1.46</v>
+      </c>
+      <c r="AQ153">
+        <v>1.64</v>
+      </c>
+      <c r="AR153">
+        <v>2.09</v>
+      </c>
+      <c r="AS153">
+        <v>1.75</v>
+      </c>
+      <c r="AT153">
+        <v>1.92</v>
+      </c>
+      <c r="AU153">
+        <v>1.35</v>
+      </c>
+      <c r="AV153">
+        <v>1.58</v>
+      </c>
+      <c r="AW153">
+        <v>2.93</v>
+      </c>
+      <c r="AX153">
+        <v>2.05</v>
+      </c>
+      <c r="AY153">
+        <v>5.5</v>
+      </c>
+      <c r="AZ153">
+        <v>2</v>
+      </c>
+      <c r="BA153">
+        <v>1.26</v>
+      </c>
+      <c r="BB153">
+        <v>1.48</v>
+      </c>
+      <c r="BC153">
+        <v>1.83</v>
+      </c>
+      <c r="BD153">
+        <v>2.38</v>
+      </c>
+      <c r="BE153">
+        <v>3.2</v>
+      </c>
+      <c r="BF153">
+        <v>4</v>
+      </c>
+      <c r="BG153">
+        <v>3</v>
+      </c>
+      <c r="BH153">
+        <v>3</v>
+      </c>
+      <c r="BI153">
+        <v>9</v>
+      </c>
+      <c r="BJ153">
+        <v>7</v>
+      </c>
+      <c r="BK153">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['41', '90+1']</t>
   </si>
   <si>
+    <t>['40', '64', '90+8', '90+11']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -782,6 +785,9 @@
   </si>
   <si>
     <t>['54', '66']</t>
+  </si>
+  <si>
+    <t>['48', '56']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,7 +1584,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT3">
         <v>1.83</v>
@@ -1960,7 +1966,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2151,7 +2157,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2342,7 +2348,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2724,7 +2730,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3297,7 +3303,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3387,7 +3393,7 @@
         <v>1.58</v>
       </c>
       <c r="AT12">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3488,7 +3494,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3679,7 +3685,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3769,7 +3775,7 @@
         <v>0.83</v>
       </c>
       <c r="AT14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU14">
         <v>1.33</v>
@@ -3870,7 +3876,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4634,7 +4640,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4721,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT19">
         <v>1.42</v>
@@ -5016,7 +5022,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5398,7 +5404,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5485,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT23">
         <v>1.83</v>
@@ -5589,7 +5595,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5780,7 +5786,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5870,7 +5876,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU25">
         <v>1.53</v>
@@ -6162,7 +6168,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6544,7 +6550,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6631,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT29">
         <v>1.92</v>
@@ -6822,10 +6828,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT30">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -6926,7 +6932,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7013,10 +7019,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT31">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7117,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7204,7 +7210,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT32">
         <v>1.83</v>
@@ -7308,7 +7314,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7499,7 +7505,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7780,7 +7786,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU35">
         <v>1.15</v>
@@ -8454,7 +8460,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8541,7 +8547,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT39">
         <v>1.42</v>
@@ -8735,7 +8741,7 @@
         <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>1.42</v>
@@ -8923,7 +8929,7 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT41">
         <v>1.92</v>
@@ -9218,7 +9224,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9308,7 +9314,7 @@
         <v>0.92</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU43">
         <v>1.16</v>
@@ -9409,7 +9415,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9600,7 +9606,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9690,7 +9696,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -10260,10 +10266,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT48">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU48">
         <v>2.15</v>
@@ -10364,7 +10370,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10451,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT49">
         <v>0.5</v>
@@ -10555,7 +10561,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10645,7 +10651,7 @@
         <v>1.58</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU50">
         <v>1.42</v>
@@ -10746,7 +10752,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11128,7 +11134,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11319,7 +11325,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11600,7 +11606,7 @@
         <v>0.92</v>
       </c>
       <c r="AT55">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU55">
         <v>1.35</v>
@@ -11979,7 +11985,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT57">
         <v>0.5</v>
@@ -12465,7 +12471,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12552,10 +12558,10 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU60">
         <v>2.14</v>
@@ -12656,7 +12662,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12847,7 +12853,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13038,7 +13044,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13125,7 +13131,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT63">
         <v>1.67</v>
@@ -13229,7 +13235,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13420,7 +13426,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13510,7 +13516,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU65">
         <v>2.02</v>
@@ -13802,7 +13808,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14274,7 +14280,7 @@
         <v>1.42</v>
       </c>
       <c r="AT69">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.33</v>
@@ -14375,7 +14381,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14566,7 +14572,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14656,7 +14662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU71">
         <v>1.45</v>
@@ -14757,7 +14763,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14948,7 +14954,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15139,7 +15145,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15417,7 +15423,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT75">
         <v>1.67</v>
@@ -15521,7 +15527,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15608,7 +15614,7 @@
         <v>1.4</v>
       </c>
       <c r="AS76">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT76">
         <v>1.42</v>
@@ -15712,7 +15718,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15903,7 +15909,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15993,7 +15999,7 @@
         <v>1.64</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU78">
         <v>1.34</v>
@@ -16285,7 +16291,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16476,7 +16482,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16563,7 +16569,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT81">
         <v>0.75</v>
@@ -16757,7 +16763,7 @@
         <v>1.58</v>
       </c>
       <c r="AT82">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -17049,7 +17055,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17327,7 +17333,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT85">
         <v>1.27</v>
@@ -17622,7 +17628,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17813,7 +17819,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18091,7 +18097,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT89">
         <v>0.75</v>
@@ -18195,7 +18201,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18285,7 +18291,7 @@
         <v>0.92</v>
       </c>
       <c r="AT90">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18476,7 +18482,7 @@
         <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -18577,7 +18583,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18664,7 +18670,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT92">
         <v>1.92</v>
@@ -18959,7 +18965,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19150,7 +19156,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19341,7 +19347,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19723,7 +19729,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19810,7 +19816,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT98">
         <v>0.5</v>
@@ -20192,10 +20198,10 @@
         <v>2.29</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU100">
         <v>1.47</v>
@@ -20296,7 +20302,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20487,7 +20493,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20577,7 +20583,7 @@
         <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU102">
         <v>1.37</v>
@@ -20678,7 +20684,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20768,7 +20774,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -20869,7 +20875,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20956,7 +20962,7 @@
         <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT104">
         <v>1.27</v>
@@ -21060,7 +21066,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21251,7 +21257,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21338,7 +21344,7 @@
         <v>0.13</v>
       </c>
       <c r="AS106">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT106">
         <v>0.17</v>
@@ -21633,7 +21639,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21723,7 +21729,7 @@
         <v>1.42</v>
       </c>
       <c r="AT108">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU108">
         <v>1.3</v>
@@ -21824,7 +21830,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22015,7 +22021,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22206,7 +22212,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22397,7 +22403,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22588,7 +22594,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22970,7 +22976,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23060,7 +23066,7 @@
         <v>1.75</v>
       </c>
       <c r="AT115">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU115">
         <v>1.54</v>
@@ -23161,7 +23167,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23439,10 +23445,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT117">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23824,7 +23830,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU119">
         <v>1.5</v>
@@ -23925,7 +23931,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24015,7 +24021,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU120">
         <v>1.31</v>
@@ -24203,7 +24209,7 @@
         <v>2.1</v>
       </c>
       <c r="AS121">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT121">
         <v>1.83</v>
@@ -24307,7 +24313,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24394,7 +24400,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT122">
         <v>1.27</v>
@@ -24498,7 +24504,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24689,7 +24695,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24880,7 +24886,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25071,7 +25077,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25158,7 +25164,7 @@
         <v>1.11</v>
       </c>
       <c r="AS126">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT126">
         <v>1.08</v>
@@ -25262,7 +25268,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25352,7 +25358,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU127">
         <v>1.83</v>
@@ -25644,7 +25650,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25734,7 +25740,7 @@
         <v>0.83</v>
       </c>
       <c r="AT129">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU129">
         <v>1.22</v>
@@ -26026,7 +26032,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26217,7 +26223,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26408,7 +26414,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26495,7 +26501,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT133">
         <v>0.75</v>
@@ -26599,7 +26605,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26689,7 +26695,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26790,7 +26796,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27172,7 +27178,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27259,7 +27265,7 @@
         <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AT137">
         <v>1.08</v>
@@ -27641,7 +27647,7 @@
         <v>2</v>
       </c>
       <c r="AS139">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT139">
         <v>1.67</v>
@@ -27835,7 +27841,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU140">
         <v>1.81</v>
@@ -28026,7 +28032,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU141">
         <v>1.53</v>
@@ -28318,7 +28324,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -29169,7 +29175,7 @@
         <v>0.18</v>
       </c>
       <c r="AS147">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT147">
         <v>0.17</v>
@@ -29464,7 +29470,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29742,7 +29748,7 @@
         <v>1.18</v>
       </c>
       <c r="AS150">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT150">
         <v>1.08</v>
@@ -29846,7 +29852,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30370,6 +30376,579 @@
       </c>
       <c r="BK153">
         <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5242403</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45152.3125</v>
+      </c>
+      <c r="F154">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>66</v>
+      </c>
+      <c r="H154" t="s">
+        <v>74</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>80</v>
+      </c>
+      <c r="P154" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>7</v>
+      </c>
+      <c r="T154">
+        <v>4.33</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>2.88</v>
+      </c>
+      <c r="W154">
+        <v>1.5</v>
+      </c>
+      <c r="X154">
+        <v>2.48</v>
+      </c>
+      <c r="Y154">
+        <v>3.32</v>
+      </c>
+      <c r="Z154">
+        <v>1.3</v>
+      </c>
+      <c r="AA154">
+        <v>9</v>
+      </c>
+      <c r="AB154">
+        <v>1.04</v>
+      </c>
+      <c r="AC154">
+        <v>3.35</v>
+      </c>
+      <c r="AD154">
+        <v>3.1</v>
+      </c>
+      <c r="AE154">
+        <v>2.15</v>
+      </c>
+      <c r="AF154">
+        <v>1.05</v>
+      </c>
+      <c r="AG154">
+        <v>7.2</v>
+      </c>
+      <c r="AH154">
+        <v>1.4</v>
+      </c>
+      <c r="AI154">
+        <v>2.64</v>
+      </c>
+      <c r="AJ154">
+        <v>2.55</v>
+      </c>
+      <c r="AK154">
+        <v>1.48</v>
+      </c>
+      <c r="AL154">
+        <v>1.97</v>
+      </c>
+      <c r="AM154">
+        <v>1.71</v>
+      </c>
+      <c r="AN154">
+        <v>1.71</v>
+      </c>
+      <c r="AO154">
+        <v>1.31</v>
+      </c>
+      <c r="AP154">
+        <v>1.26</v>
+      </c>
+      <c r="AQ154">
+        <v>0.55</v>
+      </c>
+      <c r="AR154">
+        <v>2</v>
+      </c>
+      <c r="AS154">
+        <v>0.5</v>
+      </c>
+      <c r="AT154">
+        <v>2.08</v>
+      </c>
+      <c r="AU154">
+        <v>1.17</v>
+      </c>
+      <c r="AV154">
+        <v>1.34</v>
+      </c>
+      <c r="AW154">
+        <v>2.51</v>
+      </c>
+      <c r="AX154">
+        <v>2.4</v>
+      </c>
+      <c r="AY154">
+        <v>5.25</v>
+      </c>
+      <c r="AZ154">
+        <v>1.76</v>
+      </c>
+      <c r="BA154">
+        <v>1.86</v>
+      </c>
+      <c r="BB154">
+        <v>2.36</v>
+      </c>
+      <c r="BC154">
+        <v>3.34</v>
+      </c>
+      <c r="BD154">
+        <v>5.1</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>6</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>3</v>
+      </c>
+      <c r="BI154">
+        <v>3</v>
+      </c>
+      <c r="BJ154">
+        <v>9</v>
+      </c>
+      <c r="BK154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5242404</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45153.29166666666</v>
+      </c>
+      <c r="F155">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>176</v>
+      </c>
+      <c r="P155" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>6</v>
+      </c>
+      <c r="T155">
+        <v>2.05</v>
+      </c>
+      <c r="U155">
+        <v>2.3</v>
+      </c>
+      <c r="V155">
+        <v>5</v>
+      </c>
+      <c r="W155">
+        <v>1.3</v>
+      </c>
+      <c r="X155">
+        <v>3.2</v>
+      </c>
+      <c r="Y155">
+        <v>2.55</v>
+      </c>
+      <c r="Z155">
+        <v>1.45</v>
+      </c>
+      <c r="AA155">
+        <v>5.8</v>
+      </c>
+      <c r="AB155">
+        <v>1.1</v>
+      </c>
+      <c r="AC155">
+        <v>1.53</v>
+      </c>
+      <c r="AD155">
+        <v>3.75</v>
+      </c>
+      <c r="AE155">
+        <v>5.25</v>
+      </c>
+      <c r="AF155">
+        <v>1.04</v>
+      </c>
+      <c r="AG155">
+        <v>8.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.2</v>
+      </c>
+      <c r="AI155">
+        <v>3.9</v>
+      </c>
+      <c r="AJ155">
+        <v>1.67</v>
+      </c>
+      <c r="AK155">
+        <v>2</v>
+      </c>
+      <c r="AL155">
+        <v>1.8</v>
+      </c>
+      <c r="AM155">
+        <v>1.95</v>
+      </c>
+      <c r="AN155">
+        <v>1.09</v>
+      </c>
+      <c r="AO155">
+        <v>1.22</v>
+      </c>
+      <c r="AP155">
+        <v>2.35</v>
+      </c>
+      <c r="AQ155">
+        <v>2.09</v>
+      </c>
+      <c r="AR155">
+        <v>1.45</v>
+      </c>
+      <c r="AS155">
+        <v>2.17</v>
+      </c>
+      <c r="AT155">
+        <v>1.33</v>
+      </c>
+      <c r="AU155">
+        <v>1.84</v>
+      </c>
+      <c r="AV155">
+        <v>1.23</v>
+      </c>
+      <c r="AW155">
+        <v>3.07</v>
+      </c>
+      <c r="AX155">
+        <v>1.5</v>
+      </c>
+      <c r="AY155">
+        <v>7.5</v>
+      </c>
+      <c r="AZ155">
+        <v>3.3</v>
+      </c>
+      <c r="BA155">
+        <v>1.26</v>
+      </c>
+      <c r="BB155">
+        <v>1.54</v>
+      </c>
+      <c r="BC155">
+        <v>1.91</v>
+      </c>
+      <c r="BD155">
+        <v>2.34</v>
+      </c>
+      <c r="BE155">
+        <v>3.2</v>
+      </c>
+      <c r="BF155">
+        <v>8</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>10</v>
+      </c>
+      <c r="BI155">
+        <v>8</v>
+      </c>
+      <c r="BJ155">
+        <v>18</v>
+      </c>
+      <c r="BK155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5242405</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45153.3125</v>
+      </c>
+      <c r="F156">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>67</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>171</v>
+      </c>
+      <c r="P156" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q156">
+        <v>4</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156">
+        <v>7</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>2.2</v>
+      </c>
+      <c r="V156">
+        <v>3.75</v>
+      </c>
+      <c r="W156">
+        <v>1.36</v>
+      </c>
+      <c r="X156">
+        <v>3</v>
+      </c>
+      <c r="Y156">
+        <v>2.7</v>
+      </c>
+      <c r="Z156">
+        <v>1.41</v>
+      </c>
+      <c r="AA156">
+        <v>6.5</v>
+      </c>
+      <c r="AB156">
+        <v>1.1</v>
+      </c>
+      <c r="AC156">
+        <v>1.95</v>
+      </c>
+      <c r="AD156">
+        <v>3.25</v>
+      </c>
+      <c r="AE156">
+        <v>3.4</v>
+      </c>
+      <c r="AF156">
+        <v>1.05</v>
+      </c>
+      <c r="AG156">
+        <v>9</v>
+      </c>
+      <c r="AH156">
+        <v>1.28</v>
+      </c>
+      <c r="AI156">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156">
+        <v>1.75</v>
+      </c>
+      <c r="AK156">
+        <v>1.87</v>
+      </c>
+      <c r="AL156">
+        <v>1.72</v>
+      </c>
+      <c r="AM156">
+        <v>2.05</v>
+      </c>
+      <c r="AN156">
+        <v>1.2</v>
+      </c>
+      <c r="AO156">
+        <v>1.27</v>
+      </c>
+      <c r="AP156">
+        <v>1.83</v>
+      </c>
+      <c r="AQ156">
+        <v>1.73</v>
+      </c>
+      <c r="AR156">
+        <v>1.18</v>
+      </c>
+      <c r="AS156">
+        <v>1.83</v>
+      </c>
+      <c r="AT156">
+        <v>1.08</v>
+      </c>
+      <c r="AU156">
+        <v>1.56</v>
+      </c>
+      <c r="AV156">
+        <v>1.54</v>
+      </c>
+      <c r="AW156">
+        <v>3.1</v>
+      </c>
+      <c r="AX156">
+        <v>1.7</v>
+      </c>
+      <c r="AY156">
+        <v>7</v>
+      </c>
+      <c r="AZ156">
+        <v>2.7</v>
+      </c>
+      <c r="BA156">
+        <v>1.49</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>2.28</v>
+      </c>
+      <c r="BD156">
+        <v>3.14</v>
+      </c>
+      <c r="BE156">
+        <v>4.6</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>5</v>
+      </c>
+      <c r="BH156">
+        <v>6</v>
+      </c>
+      <c r="BI156">
+        <v>10</v>
+      </c>
+      <c r="BJ156">
+        <v>10</v>
+      </c>
+      <c r="BK156">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['40', '64', '90+8', '90+11']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -778,9 +781,6 @@
     <t>['15', '62']</t>
   </si>
   <si>
-    <t>['86']</t>
-  </si>
-  <si>
     <t>['67', '71']</t>
   </si>
   <si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>['48', '56']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1584,7 +1587,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1966,7 +1969,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2157,7 +2160,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2348,7 +2351,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2730,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2817,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT9">
         <v>1.83</v>
@@ -3008,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
+        <v>0.85</v>
+      </c>
+      <c r="AT10">
         <v>0.92</v>
-      </c>
-      <c r="AT10">
-        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3303,7 +3306,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3494,7 +3497,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3685,7 +3688,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3876,7 +3879,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3963,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT15">
         <v>1.83</v>
@@ -4348,7 +4351,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU17">
         <v>2.25</v>
@@ -4536,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT18">
         <v>1.67</v>
@@ -4640,7 +4643,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5022,7 +5025,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5404,7 +5407,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5595,7 +5598,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5786,7 +5789,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5876,7 +5879,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU25">
         <v>1.53</v>
@@ -6067,7 +6070,7 @@
         <v>1.58</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6168,7 +6171,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6550,7 +6553,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6932,7 +6935,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7123,7 +7126,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7314,7 +7317,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7505,7 +7508,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7783,10 +7786,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT35">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU35">
         <v>1.15</v>
@@ -8460,7 +8463,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -9224,7 +9227,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9311,10 +9314,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT43">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU43">
         <v>1.16</v>
@@ -9415,7 +9418,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9502,10 +9505,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9606,7 +9609,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10370,7 +10373,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10561,7 +10564,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10651,7 +10654,7 @@
         <v>1.58</v>
       </c>
       <c r="AT50">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU50">
         <v>1.42</v>
@@ -10752,7 +10755,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11134,7 +11137,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11325,7 +11328,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11412,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT54">
         <v>1.42</v>
@@ -11603,7 +11606,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT55">
         <v>1.08</v>
@@ -11797,7 +11800,7 @@
         <v>1.75</v>
       </c>
       <c r="AT56">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -12471,7 +12474,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12561,7 +12564,7 @@
         <v>2.17</v>
       </c>
       <c r="AT60">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU60">
         <v>2.14</v>
@@ -12662,7 +12665,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12853,7 +12856,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13044,7 +13047,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13235,7 +13238,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13325,7 +13328,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13426,7 +13429,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13808,7 +13811,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13895,7 +13898,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT67">
         <v>1.83</v>
@@ -14086,7 +14089,7 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT68">
         <v>1.92</v>
@@ -14381,7 +14384,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14468,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT70">
         <v>0.17</v>
@@ -14572,7 +14575,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14763,7 +14766,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14954,7 +14957,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15145,7 +15148,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15527,7 +15530,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15718,7 +15721,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15909,7 +15912,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15999,7 +16002,7 @@
         <v>1.64</v>
       </c>
       <c r="AT78">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU78">
         <v>1.34</v>
@@ -16187,7 +16190,7 @@
         <v>0.4</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT79">
         <v>0.5</v>
@@ -16291,7 +16294,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16378,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT80">
         <v>1.08</v>
@@ -16482,7 +16485,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16572,7 +16575,7 @@
         <v>0.5</v>
       </c>
       <c r="AT81">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -17055,7 +17058,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17628,7 +17631,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17715,7 +17718,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT87">
         <v>1.92</v>
@@ -17819,7 +17822,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18100,7 +18103,7 @@
         <v>1.83</v>
       </c>
       <c r="AT89">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18201,7 +18204,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18288,7 +18291,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT90">
         <v>1.33</v>
@@ -18482,7 +18485,7 @@
         <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -18583,7 +18586,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18965,7 +18968,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19156,7 +19159,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19347,7 +19350,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19729,7 +19732,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20010,7 +20013,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU99">
         <v>1.93</v>
@@ -20201,7 +20204,7 @@
         <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU100">
         <v>1.47</v>
@@ -20302,7 +20305,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20493,7 +20496,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20580,7 +20583,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT102">
         <v>1.08</v>
@@ -20684,7 +20687,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20875,7 +20878,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21066,7 +21069,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21257,7 +21260,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21639,7 +21642,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21830,7 +21833,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22021,7 +22024,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22108,7 +22111,7 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT110">
         <v>1.83</v>
@@ -22212,7 +22215,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22403,7 +22406,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22594,7 +22597,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22684,7 +22687,7 @@
         <v>1.42</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22872,7 +22875,7 @@
         <v>1.13</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT114">
         <v>1.08</v>
@@ -22976,7 +22979,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23167,7 +23170,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23254,7 +23257,7 @@
         <v>2.13</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT116">
         <v>1.67</v>
@@ -23830,7 +23833,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU119">
         <v>1.5</v>
@@ -23931,7 +23934,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24313,7 +24316,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24504,7 +24507,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24695,7 +24698,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24782,7 +24785,7 @@
         <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT124">
         <v>1.42</v>
@@ -24886,7 +24889,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25077,7 +25080,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25268,7 +25271,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25650,7 +25653,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25740,7 +25743,7 @@
         <v>0.83</v>
       </c>
       <c r="AT129">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU129">
         <v>1.22</v>
@@ -26032,7 +26035,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26223,7 +26226,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26414,7 +26417,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26504,7 +26507,7 @@
         <v>2.17</v>
       </c>
       <c r="AT133">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26605,7 +26608,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26692,7 +26695,7 @@
         <v>1.6</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -26796,7 +26799,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27178,7 +27181,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27841,7 +27844,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU140">
         <v>1.81</v>
@@ -28324,7 +28327,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28411,7 +28414,7 @@
         <v>0.2</v>
       </c>
       <c r="AS143">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT143">
         <v>0.17</v>
@@ -28605,7 +28608,7 @@
         <v>0.83</v>
       </c>
       <c r="AT144">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -29939,7 +29942,7 @@
         <v>1.1</v>
       </c>
       <c r="AS151">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT151">
         <v>1.27</v>
@@ -30515,7 +30518,7 @@
         <v>0.5</v>
       </c>
       <c r="AT154">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU154">
         <v>1.17</v>
@@ -30949,6 +30952,388 @@
       </c>
       <c r="BK156">
         <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5242406</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F157">
+        <v>27</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>69</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>80</v>
+      </c>
+      <c r="P157" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>9</v>
+      </c>
+      <c r="S157">
+        <v>9</v>
+      </c>
+      <c r="T157">
+        <v>4</v>
+      </c>
+      <c r="U157">
+        <v>2.1</v>
+      </c>
+      <c r="V157">
+        <v>2.5</v>
+      </c>
+      <c r="W157">
+        <v>1.42</v>
+      </c>
+      <c r="X157">
+        <v>2.73</v>
+      </c>
+      <c r="Y157">
+        <v>2.94</v>
+      </c>
+      <c r="Z157">
+        <v>1.37</v>
+      </c>
+      <c r="AA157">
+        <v>7.6</v>
+      </c>
+      <c r="AB157">
+        <v>1.07</v>
+      </c>
+      <c r="AC157">
+        <v>3.64</v>
+      </c>
+      <c r="AD157">
+        <v>3.42</v>
+      </c>
+      <c r="AE157">
+        <v>1.97</v>
+      </c>
+      <c r="AF157">
+        <v>1.06</v>
+      </c>
+      <c r="AG157">
+        <v>8</v>
+      </c>
+      <c r="AH157">
+        <v>1.33</v>
+      </c>
+      <c r="AI157">
+        <v>3.25</v>
+      </c>
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>1.79</v>
+      </c>
+      <c r="AL157">
+        <v>1.85</v>
+      </c>
+      <c r="AM157">
+        <v>1.85</v>
+      </c>
+      <c r="AN157">
+        <v>1.8</v>
+      </c>
+      <c r="AO157">
+        <v>1.3</v>
+      </c>
+      <c r="AP157">
+        <v>1.25</v>
+      </c>
+      <c r="AQ157">
+        <v>0.92</v>
+      </c>
+      <c r="AR157">
+        <v>0.75</v>
+      </c>
+      <c r="AS157">
+        <v>0.85</v>
+      </c>
+      <c r="AT157">
+        <v>0.92</v>
+      </c>
+      <c r="AU157">
+        <v>1.48</v>
+      </c>
+      <c r="AV157">
+        <v>1.31</v>
+      </c>
+      <c r="AW157">
+        <v>2.79</v>
+      </c>
+      <c r="AX157">
+        <v>2.54</v>
+      </c>
+      <c r="AY157">
+        <v>8.1</v>
+      </c>
+      <c r="AZ157">
+        <v>1.7</v>
+      </c>
+      <c r="BA157">
+        <v>1.56</v>
+      </c>
+      <c r="BB157">
+        <v>1.9</v>
+      </c>
+      <c r="BC157">
+        <v>2.42</v>
+      </c>
+      <c r="BD157">
+        <v>3.42</v>
+      </c>
+      <c r="BE157">
+        <v>5.1</v>
+      </c>
+      <c r="BF157">
+        <v>2</v>
+      </c>
+      <c r="BG157">
+        <v>8</v>
+      </c>
+      <c r="BH157">
+        <v>3</v>
+      </c>
+      <c r="BI157">
+        <v>1</v>
+      </c>
+      <c r="BJ157">
+        <v>5</v>
+      </c>
+      <c r="BK157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5242407</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45157.3125</v>
+      </c>
+      <c r="F158">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s">
+        <v>74</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>177</v>
+      </c>
+      <c r="P158" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
+        <v>4</v>
+      </c>
+      <c r="S158">
+        <v>6</v>
+      </c>
+      <c r="T158">
+        <v>3.76</v>
+      </c>
+      <c r="U158">
+        <v>1.93</v>
+      </c>
+      <c r="V158">
+        <v>3.12</v>
+      </c>
+      <c r="W158">
+        <v>1.51</v>
+      </c>
+      <c r="X158">
+        <v>2.45</v>
+      </c>
+      <c r="Y158">
+        <v>3.4</v>
+      </c>
+      <c r="Z158">
+        <v>1.29</v>
+      </c>
+      <c r="AA158">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB158">
+        <v>1.04</v>
+      </c>
+      <c r="AC158">
+        <v>2.85</v>
+      </c>
+      <c r="AD158">
+        <v>3.1</v>
+      </c>
+      <c r="AE158">
+        <v>2.45</v>
+      </c>
+      <c r="AF158">
+        <v>1.1</v>
+      </c>
+      <c r="AG158">
+        <v>6.5</v>
+      </c>
+      <c r="AH158">
+        <v>1.42</v>
+      </c>
+      <c r="AI158">
+        <v>2.75</v>
+      </c>
+      <c r="AJ158">
+        <v>2.25</v>
+      </c>
+      <c r="AK158">
+        <v>1.6</v>
+      </c>
+      <c r="AL158">
+        <v>1.95</v>
+      </c>
+      <c r="AM158">
+        <v>1.81</v>
+      </c>
+      <c r="AN158">
+        <v>1.5</v>
+      </c>
+      <c r="AO158">
+        <v>1.33</v>
+      </c>
+      <c r="AP158">
+        <v>1.33</v>
+      </c>
+      <c r="AQ158">
+        <v>1.5</v>
+      </c>
+      <c r="AR158">
+        <v>2.08</v>
+      </c>
+      <c r="AS158">
+        <v>1.62</v>
+      </c>
+      <c r="AT158">
+        <v>1.92</v>
+      </c>
+      <c r="AU158">
+        <v>1.31</v>
+      </c>
+      <c r="AV158">
+        <v>1.33</v>
+      </c>
+      <c r="AW158">
+        <v>2.64</v>
+      </c>
+      <c r="AX158">
+        <v>2.1</v>
+      </c>
+      <c r="AY158">
+        <v>5</v>
+      </c>
+      <c r="AZ158">
+        <v>1.95</v>
+      </c>
+      <c r="BA158">
+        <v>1.88</v>
+      </c>
+      <c r="BB158">
+        <v>2.37</v>
+      </c>
+      <c r="BC158">
+        <v>3.2</v>
+      </c>
+      <c r="BD158">
+        <v>4.9</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>3</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>7</v>
+      </c>
+      <c r="BI158">
+        <v>7</v>
+      </c>
+      <c r="BJ158">
+        <v>10</v>
+      </c>
+      <c r="BK158">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,18 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['36', '71']</t>
+  </si>
+  <si>
+    <t>['18', '56']</t>
+  </si>
+  <si>
+    <t>['38', '71']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -791,6 +803,12 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['59', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT2">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1587,7 +1605,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1677,7 +1695,7 @@
         <v>0.5</v>
       </c>
       <c r="AT3">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1865,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT4">
         <v>1.67</v>
@@ -1969,7 +1987,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2056,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT5">
         <v>0.5</v>
@@ -2160,7 +2178,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2250,7 +2268,7 @@
         <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2351,7 +2369,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2438,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>1.27</v>
@@ -2733,7 +2751,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2823,7 +2841,7 @@
         <v>1.62</v>
       </c>
       <c r="AT9">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3205,7 +3223,7 @@
         <v>1.42</v>
       </c>
       <c r="AT11">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3306,7 +3324,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3497,7 +3515,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3584,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT13">
         <v>1.92</v>
@@ -3688,7 +3706,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3775,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>1.08</v>
@@ -3879,7 +3897,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3969,7 +3987,7 @@
         <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU15">
         <v>1.03</v>
@@ -4348,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT17">
         <v>0.92</v>
@@ -4643,7 +4661,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4733,7 +4751,7 @@
         <v>0.5</v>
       </c>
       <c r="AT19">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>1.08</v>
@@ -4924,7 +4942,7 @@
         <v>1.64</v>
       </c>
       <c r="AT20">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU20">
         <v>1.52</v>
@@ -5025,7 +5043,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5112,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT21">
         <v>1.27</v>
@@ -5407,7 +5425,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5497,7 +5515,7 @@
         <v>1.83</v>
       </c>
       <c r="AT23">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5598,7 +5616,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5789,7 +5807,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5876,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT25">
         <v>1.92</v>
@@ -6171,7 +6189,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6258,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT27">
         <v>1.27</v>
@@ -6452,7 +6470,7 @@
         <v>1.42</v>
       </c>
       <c r="AT28">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU28">
         <v>1.74</v>
@@ -6553,7 +6571,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6935,7 +6953,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7126,7 +7144,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7216,7 +7234,7 @@
         <v>0.5</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -7317,7 +7335,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7508,7 +7526,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7595,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
         <v>1.08</v>
@@ -7977,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT36">
         <v>0.5</v>
@@ -8171,7 +8189,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU37">
         <v>1.39</v>
@@ -8359,7 +8377,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT38">
         <v>1.27</v>
@@ -8463,7 +8481,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8553,7 +8571,7 @@
         <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU39">
         <v>1.95</v>
@@ -9123,10 +9141,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT42">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9227,7 +9245,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9418,7 +9436,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9609,7 +9627,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9887,7 +9905,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT46">
         <v>1.67</v>
@@ -10081,7 +10099,7 @@
         <v>1.42</v>
       </c>
       <c r="AT47">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10373,7 +10391,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10564,7 +10582,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10755,7 +10773,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10842,10 +10860,10 @@
         <v>1.25</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT51">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU51">
         <v>1.68</v>
@@ -11033,10 +11051,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU52">
         <v>1.25</v>
@@ -11137,7 +11155,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11328,7 +11346,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11418,7 +11436,7 @@
         <v>1.62</v>
       </c>
       <c r="AT54">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU54">
         <v>1.23</v>
@@ -11797,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT56">
         <v>0.92</v>
@@ -12179,10 +12197,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU58">
         <v>2.23</v>
@@ -12474,7 +12492,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12665,7 +12683,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12752,7 +12770,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>1.08</v>
@@ -12856,7 +12874,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12943,10 +12961,10 @@
         <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT62">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13047,7 +13065,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13238,7 +13256,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13429,7 +13447,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13516,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT65">
         <v>1.33</v>
@@ -13811,7 +13829,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13901,7 +13919,7 @@
         <v>0.85</v>
       </c>
       <c r="AT67">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14384,7 +14402,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14474,7 +14492,7 @@
         <v>1.62</v>
       </c>
       <c r="AT70">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14575,7 +14593,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14766,7 +14784,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14856,7 +14874,7 @@
         <v>1.58</v>
       </c>
       <c r="AT72">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU72">
         <v>1.52</v>
@@ -14957,7 +14975,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15044,10 +15062,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT73">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15148,7 +15166,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15235,10 +15253,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15530,7 +15548,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15620,7 +15638,7 @@
         <v>1.83</v>
       </c>
       <c r="AT76">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>1.35</v>
@@ -15721,7 +15739,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15808,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
         <v>1.08</v>
@@ -15912,7 +15930,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16294,7 +16312,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16485,7 +16503,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16954,10 +16972,10 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -17058,7 +17076,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17145,10 +17163,10 @@
         <v>1.71</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT84">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU84">
         <v>1.95</v>
@@ -17527,10 +17545,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT86">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17631,7 +17649,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17822,7 +17840,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17909,7 +17927,7 @@
         <v>1.83</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT88">
         <v>1.67</v>
@@ -18204,7 +18222,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18586,7 +18604,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18968,7 +18986,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19058,7 +19076,7 @@
         <v>1.58</v>
       </c>
       <c r="AT94">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19159,7 +19177,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19350,7 +19368,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19437,10 +19455,10 @@
         <v>1.88</v>
       </c>
       <c r="AS96">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU96">
         <v>1.23</v>
@@ -19628,10 +19646,10 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT97">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19732,7 +19750,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20010,7 +20028,7 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT99">
         <v>0.92</v>
@@ -20305,7 +20323,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20395,7 +20413,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU101">
         <v>1.44</v>
@@ -20496,7 +20514,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20687,7 +20705,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20774,7 +20792,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT103">
         <v>1.33</v>
@@ -20878,7 +20896,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21069,7 +21087,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21156,10 +21174,10 @@
         <v>1.38</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT105">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21260,7 +21278,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21350,7 +21368,7 @@
         <v>2.17</v>
       </c>
       <c r="AT106">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21642,7 +21660,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21833,7 +21851,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21920,7 +21938,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>1.67</v>
@@ -22024,7 +22042,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22114,7 +22132,7 @@
         <v>0.85</v>
       </c>
       <c r="AT110">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU110">
         <v>1.66</v>
@@ -22215,7 +22233,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22305,7 +22323,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22406,7 +22424,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22597,7 +22615,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22979,7 +22997,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23066,7 +23084,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT115">
         <v>1.33</v>
@@ -23170,7 +23188,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23639,7 +23657,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT118">
         <v>0.5</v>
@@ -23830,7 +23848,7 @@
         <v>2.13</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT119">
         <v>1.92</v>
@@ -23934,7 +23952,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24215,7 +24233,7 @@
         <v>2.17</v>
       </c>
       <c r="AT121">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU121">
         <v>1.83</v>
@@ -24316,7 +24334,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24507,7 +24525,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24597,7 +24615,7 @@
         <v>1.42</v>
       </c>
       <c r="AT123">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU123">
         <v>1.32</v>
@@ -24698,7 +24716,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24788,7 +24806,7 @@
         <v>0.85</v>
       </c>
       <c r="AT124">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU124">
         <v>1.6</v>
@@ -24889,7 +24907,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25080,7 +25098,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25271,7 +25289,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25358,7 +25376,7 @@
         <v>1.11</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT127">
         <v>1.08</v>
@@ -25653,7 +25671,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25740,7 +25758,7 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT129">
         <v>1.92</v>
@@ -25934,7 +25952,7 @@
         <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU130">
         <v>1.61</v>
@@ -26035,7 +26053,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26122,7 +26140,7 @@
         <v>2.11</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT131">
         <v>1.92</v>
@@ -26226,7 +26244,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26313,7 +26331,7 @@
         <v>0.22</v>
       </c>
       <c r="AS132">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26417,7 +26435,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26608,7 +26626,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26799,7 +26817,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26886,10 +26904,10 @@
         <v>1.9</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT135">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU135">
         <v>1.82</v>
@@ -27080,7 +27098,7 @@
         <v>1.64</v>
       </c>
       <c r="AT136">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27181,7 +27199,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27841,7 +27859,7 @@
         <v>2.1</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT140">
         <v>1.92</v>
@@ -28032,7 +28050,7 @@
         <v>1.3</v>
       </c>
       <c r="AS141">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT141">
         <v>1.08</v>
@@ -28226,7 +28244,7 @@
         <v>1.75</v>
       </c>
       <c r="AT142">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU142">
         <v>1.31</v>
@@ -28417,7 +28435,7 @@
         <v>0.85</v>
       </c>
       <c r="AT143">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU143">
         <v>1.54</v>
@@ -28605,7 +28623,7 @@
         <v>0.73</v>
       </c>
       <c r="AS144">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT144">
         <v>0.92</v>
@@ -28799,7 +28817,7 @@
         <v>1.58</v>
       </c>
       <c r="AT145">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -28987,10 +29005,10 @@
         <v>1.55</v>
       </c>
       <c r="AS146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT146">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU146">
         <v>1.73</v>
@@ -29181,7 +29199,7 @@
         <v>1.83</v>
       </c>
       <c r="AT147">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AU147">
         <v>1.57</v>
@@ -29473,7 +29491,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29560,7 +29578,7 @@
         <v>2</v>
       </c>
       <c r="AS149">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT149">
         <v>1.92</v>
@@ -29855,7 +29873,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30428,7 +30446,7 @@
         <v>80</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -31001,7 +31019,7 @@
         <v>80</v>
       </c>
       <c r="P157" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31334,6 +31352,770 @@
       </c>
       <c r="BK158">
         <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5242408</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45158.27083333334</v>
+      </c>
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>178</v>
+      </c>
+      <c r="P159" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q159">
+        <v>2</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>6</v>
+      </c>
+      <c r="T159">
+        <v>3.4</v>
+      </c>
+      <c r="U159">
+        <v>2.05</v>
+      </c>
+      <c r="V159">
+        <v>2.95</v>
+      </c>
+      <c r="W159">
+        <v>1.43</v>
+      </c>
+      <c r="X159">
+        <v>2.65</v>
+      </c>
+      <c r="Y159">
+        <v>2.75</v>
+      </c>
+      <c r="Z159">
+        <v>1.4</v>
+      </c>
+      <c r="AA159">
+        <v>7</v>
+      </c>
+      <c r="AB159">
+        <v>1.08</v>
+      </c>
+      <c r="AC159">
+        <v>2.69</v>
+      </c>
+      <c r="AD159">
+        <v>3.3</v>
+      </c>
+      <c r="AE159">
+        <v>2.25</v>
+      </c>
+      <c r="AF159">
+        <v>1.06</v>
+      </c>
+      <c r="AG159">
+        <v>8</v>
+      </c>
+      <c r="AH159">
+        <v>1.33</v>
+      </c>
+      <c r="AI159">
+        <v>3.1</v>
+      </c>
+      <c r="AJ159">
+        <v>2.01</v>
+      </c>
+      <c r="AK159">
+        <v>1.79</v>
+      </c>
+      <c r="AL159">
+        <v>1.8</v>
+      </c>
+      <c r="AM159">
+        <v>1.95</v>
+      </c>
+      <c r="AN159">
+        <v>1.5</v>
+      </c>
+      <c r="AO159">
+        <v>1.25</v>
+      </c>
+      <c r="AP159">
+        <v>1.33</v>
+      </c>
+      <c r="AQ159">
+        <v>0.83</v>
+      </c>
+      <c r="AR159">
+        <v>1.83</v>
+      </c>
+      <c r="AS159">
+        <v>1</v>
+      </c>
+      <c r="AT159">
+        <v>1.69</v>
+      </c>
+      <c r="AU159">
+        <v>1.31</v>
+      </c>
+      <c r="AV159">
+        <v>1.53</v>
+      </c>
+      <c r="AW159">
+        <v>2.84</v>
+      </c>
+      <c r="AX159">
+        <v>1.76</v>
+      </c>
+      <c r="AY159">
+        <v>5.25</v>
+      </c>
+      <c r="AZ159">
+        <v>2.4</v>
+      </c>
+      <c r="BA159">
+        <v>1.54</v>
+      </c>
+      <c r="BB159">
+        <v>1.88</v>
+      </c>
+      <c r="BC159">
+        <v>2.36</v>
+      </c>
+      <c r="BD159">
+        <v>3.28</v>
+      </c>
+      <c r="BE159">
+        <v>5</v>
+      </c>
+      <c r="BF159">
+        <v>3</v>
+      </c>
+      <c r="BG159">
+        <v>8</v>
+      </c>
+      <c r="BH159">
+        <v>2</v>
+      </c>
+      <c r="BI159">
+        <v>7</v>
+      </c>
+      <c r="BJ159">
+        <v>5</v>
+      </c>
+      <c r="BK159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5242409</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45158.29166666666</v>
+      </c>
+      <c r="F160">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>179</v>
+      </c>
+      <c r="P160" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>9</v>
+      </c>
+      <c r="S160">
+        <v>13</v>
+      </c>
+      <c r="T160">
+        <v>3.75</v>
+      </c>
+      <c r="U160">
+        <v>2.25</v>
+      </c>
+      <c r="V160">
+        <v>2.45</v>
+      </c>
+      <c r="W160">
+        <v>1.33</v>
+      </c>
+      <c r="X160">
+        <v>3.13</v>
+      </c>
+      <c r="Y160">
+        <v>2.57</v>
+      </c>
+      <c r="Z160">
+        <v>1.47</v>
+      </c>
+      <c r="AA160">
+        <v>6.2</v>
+      </c>
+      <c r="AB160">
+        <v>1.1</v>
+      </c>
+      <c r="AC160">
+        <v>3.15</v>
+      </c>
+      <c r="AD160">
+        <v>3.45</v>
+      </c>
+      <c r="AE160">
+        <v>1.95</v>
+      </c>
+      <c r="AF160">
+        <v>1.04</v>
+      </c>
+      <c r="AG160">
+        <v>10</v>
+      </c>
+      <c r="AH160">
+        <v>1.22</v>
+      </c>
+      <c r="AI160">
+        <v>4</v>
+      </c>
+      <c r="AJ160">
+        <v>1.7</v>
+      </c>
+      <c r="AK160">
+        <v>2.03</v>
+      </c>
+      <c r="AL160">
+        <v>1.62</v>
+      </c>
+      <c r="AM160">
+        <v>2.2</v>
+      </c>
+      <c r="AN160">
+        <v>1.85</v>
+      </c>
+      <c r="AO160">
+        <v>1.22</v>
+      </c>
+      <c r="AP160">
+        <v>1.22</v>
+      </c>
+      <c r="AQ160">
+        <v>1.75</v>
+      </c>
+      <c r="AR160">
+        <v>1.83</v>
+      </c>
+      <c r="AS160">
+        <v>1.85</v>
+      </c>
+      <c r="AT160">
+        <v>1.69</v>
+      </c>
+      <c r="AU160">
+        <v>1.73</v>
+      </c>
+      <c r="AV160">
+        <v>1.55</v>
+      </c>
+      <c r="AW160">
+        <v>3.28</v>
+      </c>
+      <c r="AX160">
+        <v>2.28</v>
+      </c>
+      <c r="AY160">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ160">
+        <v>1.83</v>
+      </c>
+      <c r="BA160">
+        <v>1.29</v>
+      </c>
+      <c r="BB160">
+        <v>1.54</v>
+      </c>
+      <c r="BC160">
+        <v>1.78</v>
+      </c>
+      <c r="BD160">
+        <v>2.19</v>
+      </c>
+      <c r="BE160">
+        <v>3.48</v>
+      </c>
+      <c r="BF160">
+        <v>11</v>
+      </c>
+      <c r="BG160">
+        <v>3</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>2</v>
+      </c>
+      <c r="BJ160">
+        <v>15</v>
+      </c>
+      <c r="BK160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5242410</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45159.29166666666</v>
+      </c>
+      <c r="F161">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>68</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>180</v>
+      </c>
+      <c r="P161" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q161">
+        <v>7</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>8</v>
+      </c>
+      <c r="T161">
+        <v>3.1</v>
+      </c>
+      <c r="U161">
+        <v>2.05</v>
+      </c>
+      <c r="V161">
+        <v>3.75</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>2.63</v>
+      </c>
+      <c r="Y161">
+        <v>3.25</v>
+      </c>
+      <c r="Z161">
+        <v>1.33</v>
+      </c>
+      <c r="AA161">
+        <v>9</v>
+      </c>
+      <c r="AB161">
+        <v>1.07</v>
+      </c>
+      <c r="AC161">
+        <v>2.15</v>
+      </c>
+      <c r="AD161">
+        <v>3.25</v>
+      </c>
+      <c r="AE161">
+        <v>2.95</v>
+      </c>
+      <c r="AF161">
+        <v>1.08</v>
+      </c>
+      <c r="AG161">
+        <v>6.5</v>
+      </c>
+      <c r="AH161">
+        <v>1.3</v>
+      </c>
+      <c r="AI161">
+        <v>3.2</v>
+      </c>
+      <c r="AJ161">
+        <v>1.95</v>
+      </c>
+      <c r="AK161">
+        <v>1.75</v>
+      </c>
+      <c r="AL161">
+        <v>1.83</v>
+      </c>
+      <c r="AM161">
+        <v>1.83</v>
+      </c>
+      <c r="AN161">
+        <v>1.4</v>
+      </c>
+      <c r="AO161">
+        <v>1.3</v>
+      </c>
+      <c r="AP161">
+        <v>1.57</v>
+      </c>
+      <c r="AQ161">
+        <v>1.33</v>
+      </c>
+      <c r="AR161">
+        <v>1.42</v>
+      </c>
+      <c r="AS161">
+        <v>1.31</v>
+      </c>
+      <c r="AT161">
+        <v>1.38</v>
+      </c>
+      <c r="AU161">
+        <v>1.58</v>
+      </c>
+      <c r="AV161">
+        <v>1.28</v>
+      </c>
+      <c r="AW161">
+        <v>2.86</v>
+      </c>
+      <c r="AX161">
+        <v>1.5</v>
+      </c>
+      <c r="AY161">
+        <v>6</v>
+      </c>
+      <c r="AZ161">
+        <v>2.8</v>
+      </c>
+      <c r="BA161">
+        <v>1.37</v>
+      </c>
+      <c r="BB161">
+        <v>1.75</v>
+      </c>
+      <c r="BC161">
+        <v>2.27</v>
+      </c>
+      <c r="BD161">
+        <v>2.46</v>
+      </c>
+      <c r="BE161">
+        <v>4.15</v>
+      </c>
+      <c r="BF161">
+        <v>6</v>
+      </c>
+      <c r="BG161">
+        <v>9</v>
+      </c>
+      <c r="BH161">
+        <v>4</v>
+      </c>
+      <c r="BI161">
+        <v>2</v>
+      </c>
+      <c r="BJ161">
+        <v>10</v>
+      </c>
+      <c r="BK161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5242411</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45159.3125</v>
+      </c>
+      <c r="F162">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>65</v>
+      </c>
+      <c r="H162" t="s">
+        <v>66</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>181</v>
+      </c>
+      <c r="P162" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q162">
+        <v>6</v>
+      </c>
+      <c r="R162">
+        <v>8</v>
+      </c>
+      <c r="S162">
+        <v>14</v>
+      </c>
+      <c r="T162">
+        <v>2.2</v>
+      </c>
+      <c r="U162">
+        <v>2.38</v>
+      </c>
+      <c r="V162">
+        <v>5</v>
+      </c>
+      <c r="W162">
+        <v>1.33</v>
+      </c>
+      <c r="X162">
+        <v>3.25</v>
+      </c>
+      <c r="Y162">
+        <v>2.63</v>
+      </c>
+      <c r="Z162">
+        <v>1.44</v>
+      </c>
+      <c r="AA162">
+        <v>6.5</v>
+      </c>
+      <c r="AB162">
+        <v>1.11</v>
+      </c>
+      <c r="AC162">
+        <v>1.53</v>
+      </c>
+      <c r="AD162">
+        <v>4</v>
+      </c>
+      <c r="AE162">
+        <v>4.75</v>
+      </c>
+      <c r="AF162">
+        <v>1.04</v>
+      </c>
+      <c r="AG162">
+        <v>8.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.22</v>
+      </c>
+      <c r="AI162">
+        <v>3.9</v>
+      </c>
+      <c r="AJ162">
+        <v>1.65</v>
+      </c>
+      <c r="AK162">
+        <v>2.1</v>
+      </c>
+      <c r="AL162">
+        <v>1.8</v>
+      </c>
+      <c r="AM162">
+        <v>1.91</v>
+      </c>
+      <c r="AN162">
+        <v>1.17</v>
+      </c>
+      <c r="AO162">
+        <v>1.22</v>
+      </c>
+      <c r="AP162">
+        <v>2.3</v>
+      </c>
+      <c r="AQ162">
+        <v>1.5</v>
+      </c>
+      <c r="AR162">
+        <v>0.17</v>
+      </c>
+      <c r="AS162">
+        <v>1.46</v>
+      </c>
+      <c r="AT162">
+        <v>0.23</v>
+      </c>
+      <c r="AU162">
+        <v>1.75</v>
+      </c>
+      <c r="AV162">
+        <v>1.37</v>
+      </c>
+      <c r="AW162">
+        <v>3.12</v>
+      </c>
+      <c r="AX162">
+        <v>1.26</v>
+      </c>
+      <c r="AY162">
+        <v>6.5</v>
+      </c>
+      <c r="AZ162">
+        <v>4.35</v>
+      </c>
+      <c r="BA162">
+        <v>1.3</v>
+      </c>
+      <c r="BB162">
+        <v>1.56</v>
+      </c>
+      <c r="BC162">
+        <v>1.89</v>
+      </c>
+      <c r="BD162">
+        <v>2.33</v>
+      </c>
+      <c r="BE162">
+        <v>3.56</v>
+      </c>
+      <c r="BF162">
+        <v>10</v>
+      </c>
+      <c r="BG162">
+        <v>5</v>
+      </c>
+      <c r="BH162">
+        <v>8</v>
+      </c>
+      <c r="BI162">
+        <v>6</v>
+      </c>
+      <c r="BJ162">
+        <v>18</v>
+      </c>
+      <c r="BK162">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,18 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['35', '44', '47', '53']</t>
+  </si>
+  <si>
+    <t>['1', '16']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['17', '33', '49']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -809,6 +821,12 @@
   </si>
   <si>
     <t>['59', '90+1']</t>
+  </si>
+  <si>
+    <t>['75', '88']</t>
+  </si>
+  <si>
+    <t>['29', '45+4', '51']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT2">
         <v>1.38</v>
@@ -1605,7 +1623,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1692,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT3">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1987,7 +2005,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2178,7 +2196,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2369,7 +2387,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2459,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2647,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT8">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2751,7 +2769,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3032,7 +3050,7 @@
         <v>0.85</v>
       </c>
       <c r="AT10">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3220,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT11">
         <v>0.23</v>
@@ -3324,7 +3342,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3411,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3515,7 +3533,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3706,7 +3724,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3796,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>1.33</v>
@@ -3897,7 +3915,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3987,7 +4005,7 @@
         <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU15">
         <v>1.03</v>
@@ -4175,7 +4193,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT16">
         <v>1.92</v>
@@ -4369,7 +4387,7 @@
         <v>1.31</v>
       </c>
       <c r="AT17">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU17">
         <v>2.25</v>
@@ -4661,7 +4679,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4748,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT19">
         <v>1.38</v>
@@ -5043,7 +5061,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5130,10 +5148,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5321,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT22">
         <v>0.5</v>
@@ -5425,7 +5443,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5616,7 +5634,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5703,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT24">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5807,7 +5825,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6085,10 +6103,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT26">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6189,7 +6207,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6279,7 +6297,7 @@
         <v>1.31</v>
       </c>
       <c r="AT27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -6467,7 +6485,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT28">
         <v>1.38</v>
@@ -6571,7 +6589,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6658,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT29">
         <v>1.92</v>
@@ -6852,7 +6870,7 @@
         <v>1.83</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -6953,7 +6971,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7040,10 +7058,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT31">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7144,7 +7162,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7231,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT32">
         <v>1.69</v>
@@ -7335,7 +7353,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7422,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT33">
         <v>1.67</v>
@@ -7526,7 +7544,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7616,7 +7634,7 @@
         <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -8189,7 +8207,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU37">
         <v>1.39</v>
@@ -8380,7 +8398,7 @@
         <v>1.85</v>
       </c>
       <c r="AT38">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>1.66</v>
@@ -8481,7 +8499,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8568,7 +8586,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT39">
         <v>1.38</v>
@@ -8762,7 +8780,7 @@
         <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU40">
         <v>1.42</v>
@@ -9245,7 +9263,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9436,7 +9454,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9526,7 +9544,7 @@
         <v>1.62</v>
       </c>
       <c r="AT44">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9627,7 +9645,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9714,10 +9732,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -9905,7 +9923,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
         <v>1.67</v>
@@ -10096,10 +10114,10 @@
         <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT47">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10287,10 +10305,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>2.15</v>
@@ -10391,7 +10409,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10478,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT49">
         <v>0.5</v>
@@ -10582,7 +10600,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10669,7 +10687,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT50">
         <v>1.92</v>
@@ -10773,7 +10791,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10863,7 +10881,7 @@
         <v>1.31</v>
       </c>
       <c r="AT51">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU51">
         <v>1.68</v>
@@ -11155,7 +11173,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11346,7 +11364,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11627,7 +11645,7 @@
         <v>0.85</v>
       </c>
       <c r="AT55">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.35</v>
@@ -11818,7 +11836,7 @@
         <v>1.85</v>
       </c>
       <c r="AT56">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -12197,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT58">
         <v>0.23</v>
@@ -12388,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>1.42</v>
@@ -12492,7 +12510,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12579,7 +12597,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT60">
         <v>1.92</v>
@@ -12683,7 +12701,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12773,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU61">
         <v>1.11</v>
@@ -12874,7 +12892,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12964,7 +12982,7 @@
         <v>1.85</v>
       </c>
       <c r="AT62">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13065,7 +13083,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13152,7 +13170,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT63">
         <v>1.67</v>
@@ -13256,7 +13274,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13343,10 +13361,10 @@
         <v>0.8</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT64">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13447,7 +13465,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13534,10 +13552,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU65">
         <v>2.02</v>
@@ -13725,10 +13743,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT66">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13829,7 +13847,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14298,10 +14316,10 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT69">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU69">
         <v>1.33</v>
@@ -14402,7 +14420,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14593,7 +14611,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14680,10 +14698,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.45</v>
@@ -14784,7 +14802,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14871,10 +14889,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT72">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU72">
         <v>1.52</v>
@@ -14975,7 +14993,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15166,7 +15184,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15444,7 +15462,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT75">
         <v>1.67</v>
@@ -15548,7 +15566,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15739,7 +15757,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15826,10 +15844,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT77">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15930,7 +15948,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16312,7 +16330,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16402,7 +16420,7 @@
         <v>0.85</v>
       </c>
       <c r="AT80">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16503,7 +16521,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16590,10 +16608,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT81">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16781,10 +16799,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -17076,7 +17094,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17163,10 +17181,10 @@
         <v>1.71</v>
       </c>
       <c r="AS84">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT84">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU84">
         <v>1.95</v>
@@ -17354,10 +17372,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT85">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU85">
         <v>1.94</v>
@@ -17649,7 +17667,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17840,7 +17858,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18121,7 +18139,7 @@
         <v>1.83</v>
       </c>
       <c r="AT89">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18222,7 +18240,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18312,7 +18330,7 @@
         <v>0.85</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18500,7 +18518,7 @@
         <v>2.67</v>
       </c>
       <c r="AS91">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT91">
         <v>1.92</v>
@@ -18604,7 +18622,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18691,7 +18709,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT92">
         <v>1.92</v>
@@ -18885,7 +18903,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18986,7 +19004,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19073,7 +19091,7 @@
         <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT94">
         <v>1.38</v>
@@ -19177,7 +19195,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19264,10 +19282,10 @@
         <v>0.83</v>
       </c>
       <c r="AS95">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT95">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU95">
         <v>1.29</v>
@@ -19368,7 +19386,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19458,7 +19476,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU96">
         <v>1.23</v>
@@ -19750,7 +19768,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19837,7 +19855,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT98">
         <v>0.5</v>
@@ -20028,10 +20046,10 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT99">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU99">
         <v>1.93</v>
@@ -20323,7 +20341,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20410,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT101">
         <v>0.23</v>
@@ -20514,7 +20532,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20604,7 +20622,7 @@
         <v>1.62</v>
       </c>
       <c r="AT102">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.37</v>
@@ -20705,7 +20723,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20795,7 +20813,7 @@
         <v>1.31</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -20896,7 +20914,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20986,7 +21004,7 @@
         <v>1.83</v>
       </c>
       <c r="AT104">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21087,7 +21105,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21278,7 +21296,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21365,7 +21383,7 @@
         <v>0.13</v>
       </c>
       <c r="AS106">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT106">
         <v>0.23</v>
@@ -21660,7 +21678,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21747,10 +21765,10 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT108">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.3</v>
@@ -21851,7 +21869,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22042,7 +22060,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22132,7 +22150,7 @@
         <v>0.85</v>
       </c>
       <c r="AT110">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU110">
         <v>1.66</v>
@@ -22233,7 +22251,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22320,7 +22338,7 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT111">
         <v>1.69</v>
@@ -22424,7 +22442,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22511,7 +22529,7 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT112">
         <v>1.92</v>
@@ -22615,7 +22633,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22702,10 +22720,10 @@
         <v>0.78</v>
       </c>
       <c r="AS113">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT113">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22896,7 +22914,7 @@
         <v>1.62</v>
       </c>
       <c r="AT114">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU114">
         <v>1.38</v>
@@ -22997,7 +23015,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23087,7 +23105,7 @@
         <v>1.85</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU115">
         <v>1.54</v>
@@ -23188,7 +23206,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23466,10 +23484,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23657,7 +23675,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT118">
         <v>0.5</v>
@@ -23952,7 +23970,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24042,7 +24060,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.31</v>
@@ -24230,10 +24248,10 @@
         <v>2.1</v>
       </c>
       <c r="AS121">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT121">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU121">
         <v>1.83</v>
@@ -24334,7 +24352,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24421,10 +24439,10 @@
         <v>1.13</v>
       </c>
       <c r="AS122">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT122">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>1.11</v>
@@ -24525,7 +24543,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24612,7 +24630,7 @@
         <v>2.11</v>
       </c>
       <c r="AS123">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT123">
         <v>1.69</v>
@@ -24716,7 +24734,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24907,7 +24925,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25098,7 +25116,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25188,7 +25206,7 @@
         <v>1.83</v>
       </c>
       <c r="AT126">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25289,7 +25307,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25376,10 +25394,10 @@
         <v>1.11</v>
       </c>
       <c r="AS127">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT127">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.83</v>
@@ -25567,10 +25585,10 @@
         <v>1.11</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT128">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU128">
         <v>1.36</v>
@@ -25671,7 +25689,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25949,7 +25967,7 @@
         <v>0.11</v>
       </c>
       <c r="AS130">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT130">
         <v>0.23</v>
@@ -26053,7 +26071,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26244,7 +26262,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26435,7 +26453,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26522,10 +26540,10 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26626,7 +26644,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26716,7 +26734,7 @@
         <v>1.62</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26817,7 +26835,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26904,7 +26922,7 @@
         <v>1.9</v>
       </c>
       <c r="AS135">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
         <v>1.69</v>
@@ -27199,7 +27217,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27286,10 +27304,10 @@
         <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU137">
         <v>1.14</v>
@@ -27477,7 +27495,7 @@
         <v>0.2</v>
       </c>
       <c r="AS138">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT138">
         <v>0.5</v>
@@ -27859,7 +27877,7 @@
         <v>2.1</v>
       </c>
       <c r="AS140">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT140">
         <v>1.92</v>
@@ -28053,7 +28071,7 @@
         <v>1.31</v>
       </c>
       <c r="AT141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1.53</v>
@@ -28241,10 +28259,10 @@
         <v>1.91</v>
       </c>
       <c r="AS142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT142">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU142">
         <v>1.31</v>
@@ -28626,7 +28644,7 @@
         <v>1</v>
       </c>
       <c r="AT144">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -28814,7 +28832,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT145">
         <v>1.69</v>
@@ -29387,7 +29405,7 @@
         <v>1.82</v>
       </c>
       <c r="AS148">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT148">
         <v>1.67</v>
@@ -29491,7 +29509,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29769,10 +29787,10 @@
         <v>1.18</v>
       </c>
       <c r="AS150">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT150">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU150">
         <v>1.87</v>
@@ -29873,7 +29891,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -29963,7 +29981,7 @@
         <v>0.85</v>
       </c>
       <c r="AT151">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30151,7 +30169,7 @@
         <v>0.45</v>
       </c>
       <c r="AS152">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT152">
         <v>0.5</v>
@@ -30342,7 +30360,7 @@
         <v>2.09</v>
       </c>
       <c r="AS153">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT153">
         <v>1.92</v>
@@ -30446,7 +30464,7 @@
         <v>80</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30533,7 +30551,7 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AT154">
         <v>1.92</v>
@@ -30724,10 +30742,10 @@
         <v>1.45</v>
       </c>
       <c r="AS155">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT155">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU155">
         <v>1.84</v>
@@ -30918,7 +30936,7 @@
         <v>1.83</v>
       </c>
       <c r="AT156">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.56</v>
@@ -31019,7 +31037,7 @@
         <v>80</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31109,7 +31127,7 @@
         <v>0.85</v>
       </c>
       <c r="AT157">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU157">
         <v>1.48</v>
@@ -31401,7 +31419,7 @@
         <v>178</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31491,7 +31509,7 @@
         <v>1</v>
       </c>
       <c r="AT159">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU159">
         <v>1.31</v>
@@ -31592,7 +31610,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31783,7 +31801,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32061,7 +32079,7 @@
         <v>0.17</v>
       </c>
       <c r="AS162">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT162">
         <v>0.23</v>
@@ -32116,6 +32134,1152 @@
       </c>
       <c r="BK162">
         <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5242412</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F163">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
+        <v>77</v>
+      </c>
+      <c r="H163" t="s">
+        <v>69</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>182</v>
+      </c>
+      <c r="P163" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>7</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>2.18</v>
+      </c>
+      <c r="U163">
+        <v>2.19</v>
+      </c>
+      <c r="V163">
+        <v>5.26</v>
+      </c>
+      <c r="W163">
+        <v>1.37</v>
+      </c>
+      <c r="X163">
+        <v>2.94</v>
+      </c>
+      <c r="Y163">
+        <v>2.73</v>
+      </c>
+      <c r="Z163">
+        <v>1.42</v>
+      </c>
+      <c r="AA163">
+        <v>6.75</v>
+      </c>
+      <c r="AB163">
+        <v>1.09</v>
+      </c>
+      <c r="AC163">
+        <v>1.63</v>
+      </c>
+      <c r="AD163">
+        <v>4.01</v>
+      </c>
+      <c r="AE163">
+        <v>5.03</v>
+      </c>
+      <c r="AF163">
+        <v>1.01</v>
+      </c>
+      <c r="AG163">
+        <v>9.5</v>
+      </c>
+      <c r="AH163">
+        <v>1.28</v>
+      </c>
+      <c r="AI163">
+        <v>3.5</v>
+      </c>
+      <c r="AJ163">
+        <v>1.86</v>
+      </c>
+      <c r="AK163">
+        <v>1.91</v>
+      </c>
+      <c r="AL163">
+        <v>1.82</v>
+      </c>
+      <c r="AM163">
+        <v>1.94</v>
+      </c>
+      <c r="AN163">
+        <v>1.17</v>
+      </c>
+      <c r="AO163">
+        <v>1.2</v>
+      </c>
+      <c r="AP163">
+        <v>2.2</v>
+      </c>
+      <c r="AQ163">
+        <v>2.17</v>
+      </c>
+      <c r="AR163">
+        <v>0.92</v>
+      </c>
+      <c r="AS163">
+        <v>2.23</v>
+      </c>
+      <c r="AT163">
+        <v>0.86</v>
+      </c>
+      <c r="AU163">
+        <v>1.87</v>
+      </c>
+      <c r="AV163">
+        <v>1.34</v>
+      </c>
+      <c r="AW163">
+        <v>3.21</v>
+      </c>
+      <c r="AX163">
+        <v>1.43</v>
+      </c>
+      <c r="AY163">
+        <v>7.5</v>
+      </c>
+      <c r="AZ163">
+        <v>3.75</v>
+      </c>
+      <c r="BA163">
+        <v>1.29</v>
+      </c>
+      <c r="BB163">
+        <v>1.64</v>
+      </c>
+      <c r="BC163">
+        <v>1.98</v>
+      </c>
+      <c r="BD163">
+        <v>2.5</v>
+      </c>
+      <c r="BE163">
+        <v>3.48</v>
+      </c>
+      <c r="BF163">
+        <v>5</v>
+      </c>
+      <c r="BG163">
+        <v>5</v>
+      </c>
+      <c r="BH163">
+        <v>3</v>
+      </c>
+      <c r="BI163">
+        <v>7</v>
+      </c>
+      <c r="BJ163">
+        <v>8</v>
+      </c>
+      <c r="BK163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5242413</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45164.3125</v>
+      </c>
+      <c r="F164">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>65</v>
+      </c>
+      <c r="H164" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>80</v>
+      </c>
+      <c r="P164" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>5</v>
+      </c>
+      <c r="T164">
+        <v>2.95</v>
+      </c>
+      <c r="U164">
+        <v>2.15</v>
+      </c>
+      <c r="V164">
+        <v>3.25</v>
+      </c>
+      <c r="W164">
+        <v>1.35</v>
+      </c>
+      <c r="X164">
+        <v>2.95</v>
+      </c>
+      <c r="Y164">
+        <v>2.65</v>
+      </c>
+      <c r="Z164">
+        <v>1.42</v>
+      </c>
+      <c r="AA164">
+        <v>5.8</v>
+      </c>
+      <c r="AB164">
+        <v>1.1</v>
+      </c>
+      <c r="AC164">
+        <v>2.33</v>
+      </c>
+      <c r="AD164">
+        <v>3.1</v>
+      </c>
+      <c r="AE164">
+        <v>2.7</v>
+      </c>
+      <c r="AF164">
+        <v>1.04</v>
+      </c>
+      <c r="AG164">
+        <v>8.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.25</v>
+      </c>
+      <c r="AI164">
+        <v>3.6</v>
+      </c>
+      <c r="AJ164">
+        <v>1.85</v>
+      </c>
+      <c r="AK164">
+        <v>1.95</v>
+      </c>
+      <c r="AL164">
+        <v>1.66</v>
+      </c>
+      <c r="AM164">
+        <v>2.15</v>
+      </c>
+      <c r="AN164">
+        <v>1.45</v>
+      </c>
+      <c r="AO164">
+        <v>1.27</v>
+      </c>
+      <c r="AP164">
+        <v>1.55</v>
+      </c>
+      <c r="AQ164">
+        <v>1.46</v>
+      </c>
+      <c r="AR164">
+        <v>1.08</v>
+      </c>
+      <c r="AS164">
+        <v>1.36</v>
+      </c>
+      <c r="AT164">
+        <v>1.23</v>
+      </c>
+      <c r="AU164">
+        <v>1.79</v>
+      </c>
+      <c r="AV164">
+        <v>1.51</v>
+      </c>
+      <c r="AW164">
+        <v>3.3</v>
+      </c>
+      <c r="AX164">
+        <v>1.73</v>
+      </c>
+      <c r="AY164">
+        <v>7.5</v>
+      </c>
+      <c r="AZ164">
+        <v>2.6</v>
+      </c>
+      <c r="BA164">
+        <v>1.19</v>
+      </c>
+      <c r="BB164">
+        <v>1.43</v>
+      </c>
+      <c r="BC164">
+        <v>1.67</v>
+      </c>
+      <c r="BD164">
+        <v>1.88</v>
+      </c>
+      <c r="BE164">
+        <v>2.63</v>
+      </c>
+      <c r="BF164">
+        <v>4</v>
+      </c>
+      <c r="BG164">
+        <v>3</v>
+      </c>
+      <c r="BH164">
+        <v>6</v>
+      </c>
+      <c r="BI164">
+        <v>4</v>
+      </c>
+      <c r="BJ164">
+        <v>10</v>
+      </c>
+      <c r="BK164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5242414</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45164.3125</v>
+      </c>
+      <c r="F165">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>74</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>4</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165" t="s">
+        <v>183</v>
+      </c>
+      <c r="P165" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q165">
+        <v>5</v>
+      </c>
+      <c r="R165">
+        <v>8</v>
+      </c>
+      <c r="S165">
+        <v>13</v>
+      </c>
+      <c r="T165">
+        <v>4.21</v>
+      </c>
+      <c r="U165">
+        <v>2.03</v>
+      </c>
+      <c r="V165">
+        <v>3.12</v>
+      </c>
+      <c r="W165">
+        <v>1.54</v>
+      </c>
+      <c r="X165">
+        <v>2.51</v>
+      </c>
+      <c r="Y165">
+        <v>3.9</v>
+      </c>
+      <c r="Z165">
+        <v>1.23</v>
+      </c>
+      <c r="AA165">
+        <v>11</v>
+      </c>
+      <c r="AB165">
+        <v>1.02</v>
+      </c>
+      <c r="AC165">
+        <v>2.75</v>
+      </c>
+      <c r="AD165">
+        <v>3.05</v>
+      </c>
+      <c r="AE165">
+        <v>2.33</v>
+      </c>
+      <c r="AF165">
+        <v>1.08</v>
+      </c>
+      <c r="AG165">
+        <v>8</v>
+      </c>
+      <c r="AH165">
+        <v>1.49</v>
+      </c>
+      <c r="AI165">
+        <v>2.55</v>
+      </c>
+      <c r="AJ165">
+        <v>2.45</v>
+      </c>
+      <c r="AK165">
+        <v>1.5</v>
+      </c>
+      <c r="AL165">
+        <v>2.19</v>
+      </c>
+      <c r="AM165">
+        <v>1.64</v>
+      </c>
+      <c r="AN165">
+        <v>1.58</v>
+      </c>
+      <c r="AO165">
+        <v>1.36</v>
+      </c>
+      <c r="AP165">
+        <v>1.3</v>
+      </c>
+      <c r="AQ165">
+        <v>1.42</v>
+      </c>
+      <c r="AR165">
+        <v>1.69</v>
+      </c>
+      <c r="AS165">
+        <v>1.31</v>
+      </c>
+      <c r="AT165">
+        <v>1.79</v>
+      </c>
+      <c r="AU165">
+        <v>1.34</v>
+      </c>
+      <c r="AV165">
+        <v>1.58</v>
+      </c>
+      <c r="AW165">
+        <v>2.92</v>
+      </c>
+      <c r="AX165">
+        <v>2.05</v>
+      </c>
+      <c r="AY165">
+        <v>7.4</v>
+      </c>
+      <c r="AZ165">
+        <v>2.02</v>
+      </c>
+      <c r="BA165">
+        <v>1.83</v>
+      </c>
+      <c r="BB165">
+        <v>2.31</v>
+      </c>
+      <c r="BC165">
+        <v>2.57</v>
+      </c>
+      <c r="BD165">
+        <v>5.2</v>
+      </c>
+      <c r="BE165">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>6</v>
+      </c>
+      <c r="BH165">
+        <v>4</v>
+      </c>
+      <c r="BI165">
+        <v>8</v>
+      </c>
+      <c r="BJ165">
+        <v>9</v>
+      </c>
+      <c r="BK165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5242418</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45164.33333333334</v>
+      </c>
+      <c r="F166">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166" t="s">
+        <v>70</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>184</v>
+      </c>
+      <c r="P166" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q166">
+        <v>4</v>
+      </c>
+      <c r="R166">
+        <v>5</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>3.13</v>
+      </c>
+      <c r="U166">
+        <v>2.11</v>
+      </c>
+      <c r="V166">
+        <v>3.88</v>
+      </c>
+      <c r="W166">
+        <v>1.47</v>
+      </c>
+      <c r="X166">
+        <v>2.71</v>
+      </c>
+      <c r="Y166">
+        <v>3.37</v>
+      </c>
+      <c r="Z166">
+        <v>1.33</v>
+      </c>
+      <c r="AA166">
+        <v>9.25</v>
+      </c>
+      <c r="AB166">
+        <v>1.06</v>
+      </c>
+      <c r="AC166">
+        <v>2.31</v>
+      </c>
+      <c r="AD166">
+        <v>3.2</v>
+      </c>
+      <c r="AE166">
+        <v>2.68</v>
+      </c>
+      <c r="AF166">
+        <v>1.06</v>
+      </c>
+      <c r="AG166">
+        <v>9.25</v>
+      </c>
+      <c r="AH166">
+        <v>1.39</v>
+      </c>
+      <c r="AI166">
+        <v>3</v>
+      </c>
+      <c r="AJ166">
+        <v>2.3</v>
+      </c>
+      <c r="AK166">
+        <v>1.58</v>
+      </c>
+      <c r="AL166">
+        <v>1.9</v>
+      </c>
+      <c r="AM166">
+        <v>1.83</v>
+      </c>
+      <c r="AN166">
+        <v>1.25</v>
+      </c>
+      <c r="AO166">
+        <v>1.28</v>
+      </c>
+      <c r="AP166">
+        <v>1.65</v>
+      </c>
+      <c r="AQ166">
+        <v>1.75</v>
+      </c>
+      <c r="AR166">
+        <v>1.33</v>
+      </c>
+      <c r="AS166">
+        <v>1.85</v>
+      </c>
+      <c r="AT166">
+        <v>1.23</v>
+      </c>
+      <c r="AU166">
+        <v>1.33</v>
+      </c>
+      <c r="AV166">
+        <v>1.25</v>
+      </c>
+      <c r="AW166">
+        <v>2.58</v>
+      </c>
+      <c r="AX166">
+        <v>1.88</v>
+      </c>
+      <c r="AY166">
+        <v>7.7</v>
+      </c>
+      <c r="AZ166">
+        <v>2.19</v>
+      </c>
+      <c r="BA166">
+        <v>1.61</v>
+      </c>
+      <c r="BB166">
+        <v>1.88</v>
+      </c>
+      <c r="BC166">
+        <v>2.26</v>
+      </c>
+      <c r="BD166">
+        <v>3.65</v>
+      </c>
+      <c r="BE166">
+        <v>5.8</v>
+      </c>
+      <c r="BF166">
+        <v>3</v>
+      </c>
+      <c r="BG166">
+        <v>5</v>
+      </c>
+      <c r="BH166">
+        <v>4</v>
+      </c>
+      <c r="BI166">
+        <v>8</v>
+      </c>
+      <c r="BJ166">
+        <v>7</v>
+      </c>
+      <c r="BK166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5242419</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45165.29166666666</v>
+      </c>
+      <c r="F167">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>67</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>185</v>
+      </c>
+      <c r="P167" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>14</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>2.2</v>
+      </c>
+      <c r="V167">
+        <v>3.75</v>
+      </c>
+      <c r="W167">
+        <v>1.33</v>
+      </c>
+      <c r="X167">
+        <v>3</v>
+      </c>
+      <c r="Y167">
+        <v>2.65</v>
+      </c>
+      <c r="Z167">
+        <v>1.42</v>
+      </c>
+      <c r="AA167">
+        <v>5.8</v>
+      </c>
+      <c r="AB167">
+        <v>1.1</v>
+      </c>
+      <c r="AC167">
+        <v>1.75</v>
+      </c>
+      <c r="AD167">
+        <v>3.5</v>
+      </c>
+      <c r="AE167">
+        <v>4</v>
+      </c>
+      <c r="AF167">
+        <v>1.05</v>
+      </c>
+      <c r="AG167">
+        <v>8</v>
+      </c>
+      <c r="AH167">
+        <v>1.25</v>
+      </c>
+      <c r="AI167">
+        <v>3.6</v>
+      </c>
+      <c r="AJ167">
+        <v>1.83</v>
+      </c>
+      <c r="AK167">
+        <v>1.93</v>
+      </c>
+      <c r="AL167">
+        <v>1.68</v>
+      </c>
+      <c r="AM167">
+        <v>2.1</v>
+      </c>
+      <c r="AN167">
+        <v>1.25</v>
+      </c>
+      <c r="AO167">
+        <v>1.22</v>
+      </c>
+      <c r="AP167">
+        <v>1.8</v>
+      </c>
+      <c r="AQ167">
+        <v>1.58</v>
+      </c>
+      <c r="AR167">
+        <v>1.08</v>
+      </c>
+      <c r="AS167">
+        <v>1.69</v>
+      </c>
+      <c r="AT167">
+        <v>1</v>
+      </c>
+      <c r="AU167">
+        <v>1.62</v>
+      </c>
+      <c r="AV167">
+        <v>1.55</v>
+      </c>
+      <c r="AW167">
+        <v>3.17</v>
+      </c>
+      <c r="AX167">
+        <v>1.57</v>
+      </c>
+      <c r="AY167">
+        <v>8.5</v>
+      </c>
+      <c r="AZ167">
+        <v>2.85</v>
+      </c>
+      <c r="BA167">
+        <v>1.4</v>
+      </c>
+      <c r="BB167">
+        <v>1.78</v>
+      </c>
+      <c r="BC167">
+        <v>2.22</v>
+      </c>
+      <c r="BD167">
+        <v>3.04</v>
+      </c>
+      <c r="BE167">
+        <v>4.5</v>
+      </c>
+      <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
+        <v>3</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>5</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5242420</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45165.3125</v>
+      </c>
+      <c r="F168">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
+        <v>66</v>
+      </c>
+      <c r="H168" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>80</v>
+      </c>
+      <c r="P168" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>9</v>
+      </c>
+      <c r="S168">
+        <v>12</v>
+      </c>
+      <c r="T168">
+        <v>3.48</v>
+      </c>
+      <c r="U168">
+        <v>2.03</v>
+      </c>
+      <c r="V168">
+        <v>2.97</v>
+      </c>
+      <c r="W168">
+        <v>1.42</v>
+      </c>
+      <c r="X168">
+        <v>2.65</v>
+      </c>
+      <c r="Y168">
+        <v>3</v>
+      </c>
+      <c r="Z168">
+        <v>1.33</v>
+      </c>
+      <c r="AA168">
+        <v>6.8</v>
+      </c>
+      <c r="AB168">
+        <v>1.07</v>
+      </c>
+      <c r="AC168">
+        <v>2.75</v>
+      </c>
+      <c r="AD168">
+        <v>3</v>
+      </c>
+      <c r="AE168">
+        <v>2.4</v>
+      </c>
+      <c r="AF168">
+        <v>1.06</v>
+      </c>
+      <c r="AG168">
+        <v>7.2</v>
+      </c>
+      <c r="AH168">
+        <v>1.32</v>
+      </c>
+      <c r="AI168">
+        <v>3.1</v>
+      </c>
+      <c r="AJ168">
+        <v>2.2</v>
+      </c>
+      <c r="AK168">
+        <v>1.65</v>
+      </c>
+      <c r="AL168">
+        <v>1.78</v>
+      </c>
+      <c r="AM168">
+        <v>1.88</v>
+      </c>
+      <c r="AN168">
+        <v>1.52</v>
+      </c>
+      <c r="AO168">
+        <v>1.35</v>
+      </c>
+      <c r="AP168">
+        <v>1.3</v>
+      </c>
+      <c r="AQ168">
+        <v>0.5</v>
+      </c>
+      <c r="AR168">
+        <v>1.27</v>
+      </c>
+      <c r="AS168">
+        <v>0.54</v>
+      </c>
+      <c r="AT168">
+        <v>1.25</v>
+      </c>
+      <c r="AU168">
+        <v>1.19</v>
+      </c>
+      <c r="AV168">
+        <v>1.25</v>
+      </c>
+      <c r="AW168">
+        <v>2.44</v>
+      </c>
+      <c r="AX168">
+        <v>1.95</v>
+      </c>
+      <c r="AY168">
+        <v>7.8</v>
+      </c>
+      <c r="AZ168">
+        <v>2.1</v>
+      </c>
+      <c r="BA168">
+        <v>1.76</v>
+      </c>
+      <c r="BB168">
+        <v>1.8</v>
+      </c>
+      <c r="BC168">
+        <v>2.64</v>
+      </c>
+      <c r="BD168">
+        <v>3.74</v>
+      </c>
+      <c r="BE168">
+        <v>5.4</v>
+      </c>
+      <c r="BF168">
+        <v>2</v>
+      </c>
+      <c r="BG168">
+        <v>3</v>
+      </c>
+      <c r="BH168">
+        <v>7</v>
+      </c>
+      <c r="BI168">
+        <v>7</v>
+      </c>
+      <c r="BJ168">
+        <v>9</v>
+      </c>
+      <c r="BK168">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['17', '33', '49']</t>
   </si>
   <si>
+    <t>['43', '78']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -827,6 +830,12 @@
   </si>
   <si>
     <t>['29', '45+4', '51']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['4', '20']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1531,7 @@
         <v>1.36</v>
       </c>
       <c r="AT2">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1623,7 +1632,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2005,7 +2014,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2196,7 +2205,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2283,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2387,7 +2396,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2769,7 +2778,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2859,7 +2868,7 @@
         <v>1.62</v>
       </c>
       <c r="AT9">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3047,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT10">
         <v>0.86</v>
@@ -3342,7 +3351,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3533,7 +3542,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3623,7 +3632,7 @@
         <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>1.39</v>
@@ -3724,7 +3733,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3915,7 +3924,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4196,7 +4205,7 @@
         <v>1.31</v>
       </c>
       <c r="AT16">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>2.17</v>
@@ -4575,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT18">
         <v>1.67</v>
@@ -4679,7 +4688,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4769,7 +4778,7 @@
         <v>0.54</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU19">
         <v>1.08</v>
@@ -4957,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
         <v>0.23</v>
@@ -5061,7 +5070,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5443,7 +5452,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5530,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT23">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5634,7 +5643,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5825,7 +5834,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6207,7 +6216,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6488,7 +6497,7 @@
         <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>1.74</v>
@@ -6589,7 +6598,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6679,7 +6688,7 @@
         <v>2.23</v>
       </c>
       <c r="AT29">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6867,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
         <v>1.23</v>
@@ -6971,7 +6980,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7162,7 +7171,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7252,7 +7261,7 @@
         <v>0.54</v>
       </c>
       <c r="AT32">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -7353,7 +7362,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7544,7 +7553,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8204,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
         <v>1.79</v>
@@ -8499,7 +8508,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8589,7 +8598,7 @@
         <v>2.23</v>
       </c>
       <c r="AT39">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU39">
         <v>1.95</v>
@@ -8777,7 +8786,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
         <v>1.23</v>
@@ -8968,10 +8977,10 @@
         <v>2.33</v>
       </c>
       <c r="AS41">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT41">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.46</v>
@@ -9263,7 +9272,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9350,7 +9359,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT43">
         <v>1.92</v>
@@ -9454,7 +9463,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9645,7 +9654,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10409,7 +10418,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10600,7 +10609,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10791,7 +10800,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11072,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU52">
         <v>1.25</v>
@@ -11173,7 +11182,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11260,10 +11269,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU53">
         <v>1.35</v>
@@ -11364,7 +11373,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11454,7 +11463,7 @@
         <v>1.62</v>
       </c>
       <c r="AT54">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.23</v>
@@ -11642,7 +11651,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -12024,7 +12033,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT57">
         <v>0.5</v>
@@ -12510,7 +12519,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12701,7 +12710,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12892,7 +12901,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13083,7 +13092,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13274,7 +13283,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13465,7 +13474,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13847,7 +13856,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13934,10 +13943,10 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT67">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14125,10 +14134,10 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT68">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU68">
         <v>1.52</v>
@@ -14420,7 +14429,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14611,7 +14620,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14802,7 +14811,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14993,7 +15002,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15083,7 +15092,7 @@
         <v>1.31</v>
       </c>
       <c r="AT73">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15184,7 +15193,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15566,7 +15575,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15653,10 +15662,10 @@
         <v>1.4</v>
       </c>
       <c r="AS76">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT76">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU76">
         <v>1.35</v>
@@ -15757,7 +15766,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15948,7 +15957,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16035,7 +16044,7 @@
         <v>2.6</v>
       </c>
       <c r="AS78">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>1.92</v>
@@ -16330,7 +16339,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16417,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT80">
         <v>1.23</v>
@@ -16521,7 +16530,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16993,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -17094,7 +17103,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17667,7 +17676,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17757,7 +17766,7 @@
         <v>1.62</v>
       </c>
       <c r="AT87">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.38</v>
@@ -17858,7 +17867,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18136,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT89">
         <v>0.86</v>
@@ -18240,7 +18249,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18327,7 +18336,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT90">
         <v>1.23</v>
@@ -18622,7 +18631,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18712,7 +18721,7 @@
         <v>0.54</v>
       </c>
       <c r="AT92">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.16</v>
@@ -18900,7 +18909,7 @@
         <v>1.29</v>
       </c>
       <c r="AS93">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
         <v>1.23</v>
@@ -19004,7 +19013,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19094,7 +19103,7 @@
         <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19195,7 +19204,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19386,7 +19395,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19667,7 +19676,7 @@
         <v>1.85</v>
       </c>
       <c r="AT97">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU97">
         <v>1.62</v>
@@ -19768,7 +19777,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20237,7 +20246,7 @@
         <v>2.29</v>
       </c>
       <c r="AS100">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT100">
         <v>1.92</v>
@@ -20341,7 +20350,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20532,7 +20541,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20723,7 +20732,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20914,7 +20923,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21001,7 +21010,7 @@
         <v>1.14</v>
       </c>
       <c r="AS104">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT104">
         <v>1.25</v>
@@ -21105,7 +21114,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21195,7 +21204,7 @@
         <v>1.31</v>
       </c>
       <c r="AT105">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21296,7 +21305,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21574,7 +21583,7 @@
         <v>0.29</v>
       </c>
       <c r="AS107">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
         <v>0.5</v>
@@ -21678,7 +21687,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21869,7 +21878,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22060,7 +22069,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22147,7 +22156,7 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT110">
         <v>1.79</v>
@@ -22251,7 +22260,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22341,7 +22350,7 @@
         <v>1.85</v>
       </c>
       <c r="AT111">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU111">
         <v>1.4</v>
@@ -22442,7 +22451,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22532,7 +22541,7 @@
         <v>1.69</v>
       </c>
       <c r="AT112">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22633,7 +22642,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23015,7 +23024,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23206,7 +23215,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23970,7 +23979,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24057,7 +24066,7 @@
         <v>1.13</v>
       </c>
       <c r="AS120">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24352,7 +24361,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24543,7 +24552,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24633,7 +24642,7 @@
         <v>1.31</v>
       </c>
       <c r="AT123">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU123">
         <v>1.32</v>
@@ -24734,7 +24743,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24821,10 +24830,10 @@
         <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT124">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU124">
         <v>1.6</v>
@@ -24925,7 +24934,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25012,7 +25021,7 @@
         <v>1.89</v>
       </c>
       <c r="AS125">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
         <v>1.67</v>
@@ -25116,7 +25125,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25203,7 +25212,7 @@
         <v>1.11</v>
       </c>
       <c r="AS126">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT126">
         <v>1.23</v>
@@ -25307,7 +25316,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25689,7 +25698,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26071,7 +26080,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26161,7 +26170,7 @@
         <v>1.31</v>
       </c>
       <c r="AT131">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU131">
         <v>1.49</v>
@@ -26262,7 +26271,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26453,7 +26462,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26644,7 +26653,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26835,7 +26844,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26925,7 +26934,7 @@
         <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU135">
         <v>1.82</v>
@@ -27113,10 +27122,10 @@
         <v>1.7</v>
       </c>
       <c r="AS136">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT136">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27217,7 +27226,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27686,7 +27695,7 @@
         <v>2</v>
       </c>
       <c r="AS139">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT139">
         <v>1.67</v>
@@ -28450,7 +28459,7 @@
         <v>0.2</v>
       </c>
       <c r="AS143">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT143">
         <v>0.23</v>
@@ -28835,7 +28844,7 @@
         <v>1.69</v>
       </c>
       <c r="AT145">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -29026,7 +29035,7 @@
         <v>1.85</v>
       </c>
       <c r="AT146">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU146">
         <v>1.73</v>
@@ -29214,7 +29223,7 @@
         <v>0.18</v>
       </c>
       <c r="AS147">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT147">
         <v>0.23</v>
@@ -29509,7 +29518,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29599,7 +29608,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU149">
         <v>1.3</v>
@@ -29891,7 +29900,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -29978,7 +29987,7 @@
         <v>1.1</v>
       </c>
       <c r="AS151">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT151">
         <v>1.25</v>
@@ -30363,7 +30372,7 @@
         <v>1.85</v>
       </c>
       <c r="AT153">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU153">
         <v>1.35</v>
@@ -30464,7 +30473,7 @@
         <v>80</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30933,7 +30942,7 @@
         <v>1.18</v>
       </c>
       <c r="AS156">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT156">
         <v>1</v>
@@ -31037,7 +31046,7 @@
         <v>80</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31124,7 +31133,7 @@
         <v>0.75</v>
       </c>
       <c r="AS157">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT157">
         <v>0.86</v>
@@ -31419,7 +31428,7 @@
         <v>178</v>
       </c>
       <c r="P159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31610,7 +31619,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31700,7 +31709,7 @@
         <v>1.85</v>
       </c>
       <c r="AT160">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU160">
         <v>1.73</v>
@@ -31801,7 +31810,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31891,7 +31900,7 @@
         <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32374,7 +32383,7 @@
         <v>80</v>
       </c>
       <c r="P164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32565,7 +32574,7 @@
         <v>183</v>
       </c>
       <c r="P165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -33280,6 +33289,579 @@
       </c>
       <c r="BK168">
         <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5242421</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45167.29166666666</v>
+      </c>
+      <c r="F169">
+        <v>29</v>
+      </c>
+      <c r="G169" t="s">
+        <v>69</v>
+      </c>
+      <c r="H169" t="s">
+        <v>65</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>80</v>
+      </c>
+      <c r="P169" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q169">
+        <v>6</v>
+      </c>
+      <c r="R169">
+        <v>7</v>
+      </c>
+      <c r="S169">
+        <v>13</v>
+      </c>
+      <c r="T169">
+        <v>3.54</v>
+      </c>
+      <c r="U169">
+        <v>2.04</v>
+      </c>
+      <c r="V169">
+        <v>3.01</v>
+      </c>
+      <c r="W169">
+        <v>1.42</v>
+      </c>
+      <c r="X169">
+        <v>2.73</v>
+      </c>
+      <c r="Y169">
+        <v>2.97</v>
+      </c>
+      <c r="Z169">
+        <v>1.36</v>
+      </c>
+      <c r="AA169">
+        <v>7.6</v>
+      </c>
+      <c r="AB169">
+        <v>1.07</v>
+      </c>
+      <c r="AC169">
+        <v>2.41</v>
+      </c>
+      <c r="AD169">
+        <v>3.3</v>
+      </c>
+      <c r="AE169">
+        <v>2.65</v>
+      </c>
+      <c r="AF169">
+        <v>1.03</v>
+      </c>
+      <c r="AG169">
+        <v>8.4</v>
+      </c>
+      <c r="AH169">
+        <v>1.31</v>
+      </c>
+      <c r="AI169">
+        <v>3.04</v>
+      </c>
+      <c r="AJ169">
+        <v>1.98</v>
+      </c>
+      <c r="AK169">
+        <v>1.78</v>
+      </c>
+      <c r="AL169">
+        <v>1.76</v>
+      </c>
+      <c r="AM169">
+        <v>1.91</v>
+      </c>
+      <c r="AN169">
+        <v>1.51</v>
+      </c>
+      <c r="AO169">
+        <v>1.3</v>
+      </c>
+      <c r="AP169">
+        <v>1.4</v>
+      </c>
+      <c r="AQ169">
+        <v>1.64</v>
+      </c>
+      <c r="AR169">
+        <v>1.92</v>
+      </c>
+      <c r="AS169">
+        <v>1.5</v>
+      </c>
+      <c r="AT169">
+        <v>2</v>
+      </c>
+      <c r="AU169">
+        <v>1.32</v>
+      </c>
+      <c r="AV169">
+        <v>1.59</v>
+      </c>
+      <c r="AW169">
+        <v>2.91</v>
+      </c>
+      <c r="AX169">
+        <v>1.85</v>
+      </c>
+      <c r="AY169">
+        <v>7</v>
+      </c>
+      <c r="AZ169">
+        <v>2.4</v>
+      </c>
+      <c r="BA169">
+        <v>1.27</v>
+      </c>
+      <c r="BB169">
+        <v>1.57</v>
+      </c>
+      <c r="BC169">
+        <v>1.91</v>
+      </c>
+      <c r="BD169">
+        <v>2.4</v>
+      </c>
+      <c r="BE169">
+        <v>3.34</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>2</v>
+      </c>
+      <c r="BH169">
+        <v>3</v>
+      </c>
+      <c r="BI169">
+        <v>4</v>
+      </c>
+      <c r="BJ169">
+        <v>7</v>
+      </c>
+      <c r="BK169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5242422</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45167.3125</v>
+      </c>
+      <c r="F170">
+        <v>29</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>140</v>
+      </c>
+      <c r="P170" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q170">
+        <v>12</v>
+      </c>
+      <c r="R170">
+        <v>5</v>
+      </c>
+      <c r="S170">
+        <v>17</v>
+      </c>
+      <c r="T170">
+        <v>3.79</v>
+      </c>
+      <c r="U170">
+        <v>2.05</v>
+      </c>
+      <c r="V170">
+        <v>2.83</v>
+      </c>
+      <c r="W170">
+        <v>1.42</v>
+      </c>
+      <c r="X170">
+        <v>2.73</v>
+      </c>
+      <c r="Y170">
+        <v>2.94</v>
+      </c>
+      <c r="Z170">
+        <v>1.37</v>
+      </c>
+      <c r="AA170">
+        <v>7.6</v>
+      </c>
+      <c r="AB170">
+        <v>1.07</v>
+      </c>
+      <c r="AC170">
+        <v>3.15</v>
+      </c>
+      <c r="AD170">
+        <v>3.35</v>
+      </c>
+      <c r="AE170">
+        <v>2.06</v>
+      </c>
+      <c r="AF170">
+        <v>1.03</v>
+      </c>
+      <c r="AG170">
+        <v>8.4</v>
+      </c>
+      <c r="AH170">
+        <v>1.3</v>
+      </c>
+      <c r="AI170">
+        <v>3.08</v>
+      </c>
+      <c r="AJ170">
+        <v>1.98</v>
+      </c>
+      <c r="AK170">
+        <v>1.78</v>
+      </c>
+      <c r="AL170">
+        <v>1.76</v>
+      </c>
+      <c r="AM170">
+        <v>1.91</v>
+      </c>
+      <c r="AN170">
+        <v>1.59</v>
+      </c>
+      <c r="AO170">
+        <v>1.3</v>
+      </c>
+      <c r="AP170">
+        <v>1.35</v>
+      </c>
+      <c r="AQ170">
+        <v>0.85</v>
+      </c>
+      <c r="AR170">
+        <v>1.38</v>
+      </c>
+      <c r="AS170">
+        <v>0.79</v>
+      </c>
+      <c r="AT170">
+        <v>1.5</v>
+      </c>
+      <c r="AU170">
+        <v>1.43</v>
+      </c>
+      <c r="AV170">
+        <v>1.31</v>
+      </c>
+      <c r="AW170">
+        <v>2.74</v>
+      </c>
+      <c r="AX170">
+        <v>2.4</v>
+      </c>
+      <c r="AY170">
+        <v>7</v>
+      </c>
+      <c r="AZ170">
+        <v>1.85</v>
+      </c>
+      <c r="BA170">
+        <v>1.4</v>
+      </c>
+      <c r="BB170">
+        <v>1.67</v>
+      </c>
+      <c r="BC170">
+        <v>2.1</v>
+      </c>
+      <c r="BD170">
+        <v>2.63</v>
+      </c>
+      <c r="BE170">
+        <v>4.2</v>
+      </c>
+      <c r="BF170">
+        <v>9</v>
+      </c>
+      <c r="BG170">
+        <v>8</v>
+      </c>
+      <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>1</v>
+      </c>
+      <c r="BJ170">
+        <v>16</v>
+      </c>
+      <c r="BK170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5242423</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45167.3125</v>
+      </c>
+      <c r="F171">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>77</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>186</v>
+      </c>
+      <c r="P171" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q171">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171">
+        <v>3.96</v>
+      </c>
+      <c r="U171">
+        <v>2.15</v>
+      </c>
+      <c r="V171">
+        <v>2.58</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>2.99</v>
+      </c>
+      <c r="Y171">
+        <v>2.66</v>
+      </c>
+      <c r="Z171">
+        <v>1.44</v>
+      </c>
+      <c r="AA171">
+        <v>6.6</v>
+      </c>
+      <c r="AB171">
+        <v>1.09</v>
+      </c>
+      <c r="AC171">
+        <v>2.85</v>
+      </c>
+      <c r="AD171">
+        <v>3.3</v>
+      </c>
+      <c r="AE171">
+        <v>2.24</v>
+      </c>
+      <c r="AF171">
+        <v>1.01</v>
+      </c>
+      <c r="AG171">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH171">
+        <v>1.24</v>
+      </c>
+      <c r="AI171">
+        <v>3.48</v>
+      </c>
+      <c r="AJ171">
+        <v>1.93</v>
+      </c>
+      <c r="AK171">
+        <v>1.83</v>
+      </c>
+      <c r="AL171">
+        <v>1.66</v>
+      </c>
+      <c r="AM171">
+        <v>2.04</v>
+      </c>
+      <c r="AN171">
+        <v>1.71</v>
+      </c>
+      <c r="AO171">
+        <v>1.27</v>
+      </c>
+      <c r="AP171">
+        <v>1.3</v>
+      </c>
+      <c r="AQ171">
+        <v>1.83</v>
+      </c>
+      <c r="AR171">
+        <v>1.69</v>
+      </c>
+      <c r="AS171">
+        <v>1.92</v>
+      </c>
+      <c r="AT171">
+        <v>1.57</v>
+      </c>
+      <c r="AU171">
+        <v>1.53</v>
+      </c>
+      <c r="AV171">
+        <v>1.51</v>
+      </c>
+      <c r="AW171">
+        <v>3.04</v>
+      </c>
+      <c r="AX171">
+        <v>2.25</v>
+      </c>
+      <c r="AY171">
+        <v>7</v>
+      </c>
+      <c r="AZ171">
+        <v>1.95</v>
+      </c>
+      <c r="BA171">
+        <v>1.23</v>
+      </c>
+      <c r="BB171">
+        <v>1.5</v>
+      </c>
+      <c r="BC171">
+        <v>1.8</v>
+      </c>
+      <c r="BD171">
+        <v>2.25</v>
+      </c>
+      <c r="BE171">
+        <v>3.08</v>
+      </c>
+      <c r="BF171">
+        <v>6</v>
+      </c>
+      <c r="BG171">
+        <v>2</v>
+      </c>
+      <c r="BH171">
+        <v>7</v>
+      </c>
+      <c r="BI171">
+        <v>3</v>
+      </c>
+      <c r="BJ171">
+        <v>13</v>
+      </c>
+      <c r="BK171">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,15 @@
     <t>['43', '78']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['4', '67']</t>
+  </si>
+  <si>
+    <t>['62', '90+4']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -599,9 +608,6 @@
   </si>
   <si>
     <t>['82']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['57', '67', '85']</t>
@@ -836,6 +842,12 @@
   </si>
   <si>
     <t>['4', '20']</t>
+  </si>
+  <si>
+    <t>['71', '82', '87', '90+2']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,7 +1644,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1913,7 +1925,7 @@
         <v>1.85</v>
       </c>
       <c r="AT4">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2014,7 +2026,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2101,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT5">
         <v>0.5</v>
@@ -2205,7 +2217,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2396,7 +2408,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2483,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT7">
         <v>1.25</v>
@@ -2778,7 +2790,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2865,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
         <v>1.57</v>
@@ -3351,7 +3363,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3542,7 +3554,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3733,7 +3745,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3820,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU14">
         <v>1.33</v>
@@ -3924,7 +3936,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4011,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT15">
         <v>1.79</v>
@@ -4393,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT17">
         <v>0.86</v>
@@ -4587,7 +4599,7 @@
         <v>0.79</v>
       </c>
       <c r="AT18">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU18">
         <v>1.15</v>
@@ -4688,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5070,7 +5082,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5452,7 +5464,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5643,7 +5655,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5834,7 +5846,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5924,7 +5936,7 @@
         <v>1.85</v>
       </c>
       <c r="AT25">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.53</v>
@@ -6216,7 +6228,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6303,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="AS27">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT27">
         <v>1.25</v>
@@ -6598,7 +6610,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6980,7 +6992,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7070,7 +7082,7 @@
         <v>0.54</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7171,7 +7183,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7362,7 +7374,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7452,7 +7464,7 @@
         <v>1.85</v>
       </c>
       <c r="AT33">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7553,7 +7565,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7831,10 +7843,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.15</v>
@@ -8022,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT36">
         <v>0.5</v>
@@ -8508,7 +8520,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -9168,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT42">
         <v>0.23</v>
@@ -9272,7 +9284,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9362,7 +9374,7 @@
         <v>0.79</v>
       </c>
       <c r="AT43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.16</v>
@@ -9463,7 +9475,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9550,7 +9562,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT44">
         <v>0.86</v>
@@ -9654,7 +9666,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9935,7 +9947,7 @@
         <v>1.36</v>
       </c>
       <c r="AT46">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU46">
         <v>2.31</v>
@@ -10317,7 +10329,7 @@
         <v>2.23</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU48">
         <v>2.15</v>
@@ -10418,7 +10430,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10609,7 +10621,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10699,7 +10711,7 @@
         <v>1.69</v>
       </c>
       <c r="AT50">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>1.42</v>
@@ -10800,7 +10812,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10887,7 +10899,7 @@
         <v>1.25</v>
       </c>
       <c r="AS51">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT51">
         <v>1.79</v>
@@ -11078,7 +11090,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>1.57</v>
@@ -11182,7 +11194,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11373,7 +11385,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11460,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT54">
         <v>1.5</v>
@@ -11654,7 +11666,7 @@
         <v>0.79</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU55">
         <v>1.35</v>
@@ -12519,7 +12531,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12609,7 +12621,7 @@
         <v>2.23</v>
       </c>
       <c r="AT60">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>2.14</v>
@@ -12710,7 +12722,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12797,7 +12809,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT61">
         <v>1.23</v>
@@ -12901,7 +12913,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13092,7 +13104,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13182,7 +13194,7 @@
         <v>0.54</v>
       </c>
       <c r="AT63">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU63">
         <v>1.17</v>
@@ -13283,7 +13295,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13474,7 +13486,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13856,7 +13868,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14429,7 +14441,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14516,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
         <v>0.23</v>
@@ -14620,7 +14632,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14710,7 +14722,7 @@
         <v>1.85</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU71">
         <v>1.45</v>
@@ -14811,7 +14823,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15002,7 +15014,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15089,7 +15101,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT73">
         <v>1.57</v>
@@ -15193,7 +15205,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15280,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT74">
         <v>0.23</v>
@@ -15474,7 +15486,7 @@
         <v>2.23</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU75">
         <v>1.98</v>
@@ -15575,7 +15587,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15766,7 +15778,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15957,7 +15969,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16047,7 +16059,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>1.34</v>
@@ -16235,7 +16247,7 @@
         <v>0.4</v>
       </c>
       <c r="AS79">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT79">
         <v>0.5</v>
@@ -16339,7 +16351,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16530,7 +16542,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16811,7 +16823,7 @@
         <v>1.69</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16999,7 +17011,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT83">
         <v>1.5</v>
@@ -17103,7 +17115,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17676,7 +17688,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17763,7 +17775,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17867,7 +17879,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17954,10 +17966,10 @@
         <v>1.83</v>
       </c>
       <c r="AS88">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT88">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18249,7 +18261,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18530,7 +18542,7 @@
         <v>1.85</v>
       </c>
       <c r="AT91">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>1.53</v>
@@ -18631,7 +18643,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19013,7 +19025,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19204,7 +19216,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19395,7 +19407,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19482,7 +19494,7 @@
         <v>1.88</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT96">
         <v>1.79</v>
@@ -19777,7 +19789,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20249,7 +20261,7 @@
         <v>1.92</v>
       </c>
       <c r="AT100">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>1.47</v>
@@ -20350,7 +20362,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20541,7 +20553,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20628,10 +20640,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU102">
         <v>1.37</v>
@@ -20732,7 +20744,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20819,7 +20831,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT103">
         <v>1.23</v>
@@ -20923,7 +20935,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21114,7 +21126,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21201,7 +21213,7 @@
         <v>1.38</v>
       </c>
       <c r="AS105">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT105">
         <v>1.5</v>
@@ -21305,7 +21317,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21687,7 +21699,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21777,7 +21789,7 @@
         <v>1.31</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU108">
         <v>1.3</v>
@@ -21878,7 +21890,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21965,10 +21977,10 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT109">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU109">
         <v>1.23</v>
@@ -22069,7 +22081,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22260,7 +22272,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22451,7 +22463,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22642,7 +22654,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22920,7 +22932,7 @@
         <v>1.13</v>
       </c>
       <c r="AS114">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT114">
         <v>1.23</v>
@@ -23024,7 +23036,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23215,7 +23227,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23302,10 +23314,10 @@
         <v>2.13</v>
       </c>
       <c r="AS116">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT116">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU116">
         <v>1.37</v>
@@ -23875,10 +23887,10 @@
         <v>2.13</v>
       </c>
       <c r="AS119">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT119">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU119">
         <v>1.5</v>
@@ -23979,7 +23991,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24069,7 +24081,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU120">
         <v>1.31</v>
@@ -24361,7 +24373,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24552,7 +24564,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24743,7 +24755,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24934,7 +24946,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25024,7 +25036,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU125">
         <v>1.33</v>
@@ -25125,7 +25137,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25316,7 +25328,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25406,7 +25418,7 @@
         <v>1.36</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU127">
         <v>1.83</v>
@@ -25698,7 +25710,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25785,10 +25797,10 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT129">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU129">
         <v>1.22</v>
@@ -26080,7 +26092,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26167,7 +26179,7 @@
         <v>2.11</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT131">
         <v>2</v>
@@ -26271,7 +26283,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26462,7 +26474,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26653,7 +26665,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26740,7 +26752,7 @@
         <v>1.6</v>
       </c>
       <c r="AS134">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT134">
         <v>1.23</v>
@@ -26844,7 +26856,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27226,7 +27238,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27698,7 +27710,7 @@
         <v>1.92</v>
       </c>
       <c r="AT139">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU139">
         <v>1.58</v>
@@ -27889,7 +27901,7 @@
         <v>1.36</v>
       </c>
       <c r="AT140">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU140">
         <v>1.81</v>
@@ -28077,10 +28089,10 @@
         <v>1.3</v>
       </c>
       <c r="AS141">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU141">
         <v>1.53</v>
@@ -28650,7 +28662,7 @@
         <v>0.73</v>
       </c>
       <c r="AS144">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT144">
         <v>0.86</v>
@@ -29417,7 +29429,7 @@
         <v>1.31</v>
       </c>
       <c r="AT148">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU148">
         <v>1.35</v>
@@ -29518,7 +29530,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29605,7 +29617,7 @@
         <v>2</v>
       </c>
       <c r="AS149">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT149">
         <v>2</v>
@@ -29900,7 +29912,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30473,7 +30485,7 @@
         <v>80</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30563,7 +30575,7 @@
         <v>0.54</v>
       </c>
       <c r="AT154">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU154">
         <v>1.17</v>
@@ -30945,7 +30957,7 @@
         <v>1.92</v>
       </c>
       <c r="AT156">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU156">
         <v>1.56</v>
@@ -31046,7 +31058,7 @@
         <v>80</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31324,10 +31336,10 @@
         <v>2.08</v>
       </c>
       <c r="AS158">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU158">
         <v>1.31</v>
@@ -31428,7 +31440,7 @@
         <v>178</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31515,7 +31527,7 @@
         <v>1.83</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT159">
         <v>1.79</v>
@@ -31619,7 +31631,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31810,7 +31822,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31897,7 +31909,7 @@
         <v>1.42</v>
       </c>
       <c r="AS161">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT161">
         <v>1.5</v>
@@ -32383,7 +32395,7 @@
         <v>80</v>
       </c>
       <c r="P164" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32574,7 +32586,7 @@
         <v>183</v>
       </c>
       <c r="P165" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -33046,7 +33058,7 @@
         <v>1.69</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -33338,7 +33350,7 @@
         <v>80</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33470,13 +33482,13 @@
         <v>2</v>
       </c>
       <c r="BH169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI169">
         <v>4</v>
       </c>
       <c r="BJ169">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK169">
         <v>6</v>
@@ -33529,7 +33541,7 @@
         <v>140</v>
       </c>
       <c r="P170" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q170">
         <v>12</v>
@@ -33861,6 +33873,579 @@
         <v>13</v>
       </c>
       <c r="BK171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5242424</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45168.29166666666</v>
+      </c>
+      <c r="F172">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" t="s">
+        <v>67</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>187</v>
+      </c>
+      <c r="P172" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172">
+        <v>6</v>
+      </c>
+      <c r="S172">
+        <v>10</v>
+      </c>
+      <c r="T172">
+        <v>3.3</v>
+      </c>
+      <c r="U172">
+        <v>2.05</v>
+      </c>
+      <c r="V172">
+        <v>3.15</v>
+      </c>
+      <c r="W172">
+        <v>1.42</v>
+      </c>
+      <c r="X172">
+        <v>2.65</v>
+      </c>
+      <c r="Y172">
+        <v>2.9</v>
+      </c>
+      <c r="Z172">
+        <v>1.35</v>
+      </c>
+      <c r="AA172">
+        <v>8.25</v>
+      </c>
+      <c r="AB172">
+        <v>1.07</v>
+      </c>
+      <c r="AC172">
+        <v>2.55</v>
+      </c>
+      <c r="AD172">
+        <v>3.22</v>
+      </c>
+      <c r="AE172">
+        <v>2.23</v>
+      </c>
+      <c r="AF172">
+        <v>1.05</v>
+      </c>
+      <c r="AG172">
+        <v>11</v>
+      </c>
+      <c r="AH172">
+        <v>1.3</v>
+      </c>
+      <c r="AI172">
+        <v>3.15</v>
+      </c>
+      <c r="AJ172">
+        <v>1.88</v>
+      </c>
+      <c r="AK172">
+        <v>1.72</v>
+      </c>
+      <c r="AL172">
+        <v>1.78</v>
+      </c>
+      <c r="AM172">
+        <v>1.95</v>
+      </c>
+      <c r="AN172">
+        <v>1.5</v>
+      </c>
+      <c r="AO172">
+        <v>1.28</v>
+      </c>
+      <c r="AP172">
+        <v>1.45</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1</v>
+      </c>
+      <c r="AS172">
+        <v>1.14</v>
+      </c>
+      <c r="AT172">
+        <v>0.93</v>
+      </c>
+      <c r="AU172">
+        <v>1.28</v>
+      </c>
+      <c r="AV172">
+        <v>1.53</v>
+      </c>
+      <c r="AW172">
+        <v>2.81</v>
+      </c>
+      <c r="AX172">
+        <v>1.99</v>
+      </c>
+      <c r="AY172">
+        <v>7.8</v>
+      </c>
+      <c r="AZ172">
+        <v>2.05</v>
+      </c>
+      <c r="BA172">
+        <v>1.5</v>
+      </c>
+      <c r="BB172">
+        <v>1.85</v>
+      </c>
+      <c r="BC172">
+        <v>2.38</v>
+      </c>
+      <c r="BD172">
+        <v>3.34</v>
+      </c>
+      <c r="BE172">
+        <v>5.2</v>
+      </c>
+      <c r="BF172">
+        <v>9</v>
+      </c>
+      <c r="BG172">
+        <v>11</v>
+      </c>
+      <c r="BH172">
+        <v>8</v>
+      </c>
+      <c r="BI172">
+        <v>3</v>
+      </c>
+      <c r="BJ172">
+        <v>17</v>
+      </c>
+      <c r="BK172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5242425</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45168.3125</v>
+      </c>
+      <c r="F173">
+        <v>29</v>
+      </c>
+      <c r="G173" t="s">
+        <v>68</v>
+      </c>
+      <c r="H173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173">
+        <v>6</v>
+      </c>
+      <c r="O173" t="s">
+        <v>188</v>
+      </c>
+      <c r="P173" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q173">
+        <v>4</v>
+      </c>
+      <c r="R173">
+        <v>5</v>
+      </c>
+      <c r="S173">
+        <v>9</v>
+      </c>
+      <c r="T173">
+        <v>3.5</v>
+      </c>
+      <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
+        <v>3.3</v>
+      </c>
+      <c r="W173">
+        <v>1.5</v>
+      </c>
+      <c r="X173">
+        <v>2.4</v>
+      </c>
+      <c r="Y173">
+        <v>3.2</v>
+      </c>
+      <c r="Z173">
+        <v>1.3</v>
+      </c>
+      <c r="AA173">
+        <v>8</v>
+      </c>
+      <c r="AB173">
+        <v>1.05</v>
+      </c>
+      <c r="AC173">
+        <v>2.27</v>
+      </c>
+      <c r="AD173">
+        <v>2.97</v>
+      </c>
+      <c r="AE173">
+        <v>2.68</v>
+      </c>
+      <c r="AF173">
+        <v>1.07</v>
+      </c>
+      <c r="AG173">
+        <v>7</v>
+      </c>
+      <c r="AH173">
+        <v>1.38</v>
+      </c>
+      <c r="AI173">
+        <v>2.8</v>
+      </c>
+      <c r="AJ173">
+        <v>2.2</v>
+      </c>
+      <c r="AK173">
+        <v>1.62</v>
+      </c>
+      <c r="AL173">
+        <v>1.91</v>
+      </c>
+      <c r="AM173">
+        <v>1.8</v>
+      </c>
+      <c r="AN173">
+        <v>1.48</v>
+      </c>
+      <c r="AO173">
+        <v>1.35</v>
+      </c>
+      <c r="AP173">
+        <v>1.48</v>
+      </c>
+      <c r="AQ173">
+        <v>1.31</v>
+      </c>
+      <c r="AR173">
+        <v>1.92</v>
+      </c>
+      <c r="AS173">
+        <v>1.21</v>
+      </c>
+      <c r="AT173">
+        <v>2</v>
+      </c>
+      <c r="AU173">
+        <v>1.57</v>
+      </c>
+      <c r="AV173">
+        <v>1.29</v>
+      </c>
+      <c r="AW173">
+        <v>2.86</v>
+      </c>
+      <c r="AX173">
+        <v>1.83</v>
+      </c>
+      <c r="AY173">
+        <v>6.5</v>
+      </c>
+      <c r="AZ173">
+        <v>2.5</v>
+      </c>
+      <c r="BA173">
+        <v>1.57</v>
+      </c>
+      <c r="BB173">
+        <v>1.93</v>
+      </c>
+      <c r="BC173">
+        <v>2.43</v>
+      </c>
+      <c r="BD173">
+        <v>3.94</v>
+      </c>
+      <c r="BE173">
+        <v>5.9</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <v>4</v>
+      </c>
+      <c r="BI173">
+        <v>6</v>
+      </c>
+      <c r="BJ173">
+        <v>9</v>
+      </c>
+      <c r="BK173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5242426</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45168.3125</v>
+      </c>
+      <c r="F174">
+        <v>29</v>
+      </c>
+      <c r="G174" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>189</v>
+      </c>
+      <c r="P174" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q174">
+        <v>9</v>
+      </c>
+      <c r="R174">
+        <v>2</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>3.6</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
+        <v>2.8</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>2.75</v>
+      </c>
+      <c r="Y174">
+        <v>2.75</v>
+      </c>
+      <c r="Z174">
+        <v>1.4</v>
+      </c>
+      <c r="AA174">
+        <v>7</v>
+      </c>
+      <c r="AB174">
+        <v>1.08</v>
+      </c>
+      <c r="AC174">
+        <v>3.35</v>
+      </c>
+      <c r="AD174">
+        <v>3.1</v>
+      </c>
+      <c r="AE174">
+        <v>1.91</v>
+      </c>
+      <c r="AF174">
+        <v>1.05</v>
+      </c>
+      <c r="AG174">
+        <v>10.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.32</v>
+      </c>
+      <c r="AI174">
+        <v>3.05</v>
+      </c>
+      <c r="AJ174">
+        <v>2.1</v>
+      </c>
+      <c r="AK174">
+        <v>1.7</v>
+      </c>
+      <c r="AL174">
+        <v>1.82</v>
+      </c>
+      <c r="AM174">
+        <v>1.88</v>
+      </c>
+      <c r="AN174">
+        <v>1.65</v>
+      </c>
+      <c r="AO174">
+        <v>1.27</v>
+      </c>
+      <c r="AP174">
+        <v>1.35</v>
+      </c>
+      <c r="AQ174">
+        <v>1.62</v>
+      </c>
+      <c r="AR174">
+        <v>1.67</v>
+      </c>
+      <c r="AS174">
+        <v>1.71</v>
+      </c>
+      <c r="AT174">
+        <v>1.54</v>
+      </c>
+      <c r="AU174">
+        <v>1.31</v>
+      </c>
+      <c r="AV174">
+        <v>1.66</v>
+      </c>
+      <c r="AW174">
+        <v>2.97</v>
+      </c>
+      <c r="AX174">
+        <v>2.9</v>
+      </c>
+      <c r="AY174">
+        <v>6.5</v>
+      </c>
+      <c r="AZ174">
+        <v>1.65</v>
+      </c>
+      <c r="BA174">
+        <v>1.74</v>
+      </c>
+      <c r="BB174">
+        <v>2.26</v>
+      </c>
+      <c r="BC174">
+        <v>3.04</v>
+      </c>
+      <c r="BD174">
+        <v>4.1</v>
+      </c>
+      <c r="BE174">
+        <v>6.3</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
+        <v>9</v>
+      </c>
+      <c r="BI174">
+        <v>1</v>
+      </c>
+      <c r="BJ174">
+        <v>13</v>
+      </c>
+      <c r="BK174">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['62', '90+4']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['9', '90+5']</t>
+  </si>
+  <si>
     <t>['7', '11', '40']</t>
   </si>
   <si>
@@ -599,9 +605,6 @@
   </si>
   <si>
     <t>['31', '90+2']</t>
-  </si>
-  <si>
-    <t>['37']</t>
   </si>
   <si>
     <t>['16', '61', '66', '73', '79']</t>
@@ -848,6 +851,12 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1644,7 +1653,7 @@
         <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1731,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT3">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1922,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT4">
         <v>1.54</v>
@@ -2026,7 +2035,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2116,7 +2125,7 @@
         <v>1.21</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2217,7 +2226,7 @@
         <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2408,7 +2417,7 @@
         <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2498,7 +2507,7 @@
         <v>1.14</v>
       </c>
       <c r="AT7">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2686,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT8">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2790,7 +2799,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3071,7 +3080,7 @@
         <v>0.79</v>
       </c>
       <c r="AT10">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3259,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT11">
         <v>0.23</v>
@@ -3363,7 +3372,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3450,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3554,7 +3563,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3641,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3745,7 +3754,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4026,7 +4035,7 @@
         <v>1.71</v>
       </c>
       <c r="AT15">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU15">
         <v>1.03</v>
@@ -4214,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -4408,7 +4417,7 @@
         <v>1.21</v>
       </c>
       <c r="AT17">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU17">
         <v>2.25</v>
@@ -4700,7 +4709,7 @@
         <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4787,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -5082,7 +5091,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5172,7 +5181,7 @@
         <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5360,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU22">
         <v>1.19</v>
@@ -5464,7 +5473,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5655,7 +5664,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5742,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT24">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -5846,7 +5855,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5933,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT25">
         <v>2</v>
@@ -6124,10 +6133,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6228,7 +6237,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6318,7 +6327,7 @@
         <v>1.21</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -6506,7 +6515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6610,7 +6619,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6697,7 +6706,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -6891,7 +6900,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -6992,7 +7001,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7079,7 +7088,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT31">
         <v>0.93</v>
@@ -7183,7 +7192,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7270,7 +7279,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT32">
         <v>1.57</v>
@@ -7374,7 +7383,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7461,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT33">
         <v>1.54</v>
@@ -7565,7 +7574,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7652,10 +7661,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT34">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -8037,7 +8046,7 @@
         <v>1.14</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8228,7 +8237,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU37">
         <v>1.39</v>
@@ -8416,10 +8425,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU38">
         <v>1.66</v>
@@ -8520,7 +8529,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8607,7 +8616,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT39">
         <v>1.5</v>
@@ -8801,7 +8810,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU40">
         <v>1.42</v>
@@ -9284,7 +9293,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9475,7 +9484,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9565,7 +9574,7 @@
         <v>1.71</v>
       </c>
       <c r="AT44">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9666,7 +9675,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9753,10 +9762,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT45">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -10135,10 +10144,10 @@
         <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT47">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10326,7 +10335,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT48">
         <v>0.93</v>
@@ -10430,7 +10439,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10517,10 +10526,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
+        <v>0.57</v>
+      </c>
+      <c r="AT49">
         <v>0.54</v>
-      </c>
-      <c r="AT49">
-        <v>0.5</v>
       </c>
       <c r="AU49">
         <v>1.13</v>
@@ -10621,7 +10630,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10708,7 +10717,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -10812,7 +10821,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10902,7 +10911,7 @@
         <v>1.21</v>
       </c>
       <c r="AT51">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU51">
         <v>1.68</v>
@@ -11194,7 +11203,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11385,7 +11394,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11854,10 +11863,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT56">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -12048,7 +12057,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU57">
         <v>1.35</v>
@@ -12427,10 +12436,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU59">
         <v>1.42</v>
@@ -12531,7 +12540,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12618,7 +12627,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -12722,7 +12731,7 @@
         <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12812,7 +12821,7 @@
         <v>1.14</v>
       </c>
       <c r="AT61">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU61">
         <v>1.11</v>
@@ -12913,7 +12922,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13000,10 +13009,10 @@
         <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT62">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13104,7 +13113,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13191,7 +13200,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT63">
         <v>1.54</v>
@@ -13295,7 +13304,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13382,10 +13391,10 @@
         <v>0.8</v>
       </c>
       <c r="AS64">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT64">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU64">
         <v>1.47</v>
@@ -13486,7 +13495,7 @@
         <v>112</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13576,7 +13585,7 @@
         <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU65">
         <v>2.02</v>
@@ -13764,10 +13773,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13868,7 +13877,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14337,10 +14346,10 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU69">
         <v>1.33</v>
@@ -14441,7 +14450,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14632,7 +14641,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14719,7 +14728,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
         <v>0.93</v>
@@ -14823,7 +14832,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14910,10 +14919,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU72">
         <v>1.52</v>
@@ -15014,7 +15023,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15205,7 +15214,7 @@
         <v>127</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15483,7 +15492,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT75">
         <v>1.54</v>
@@ -15587,7 +15596,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15778,7 +15787,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15868,7 +15877,7 @@
         <v>1.36</v>
       </c>
       <c r="AT77">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15969,7 +15978,7 @@
         <v>80</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16250,7 +16259,7 @@
         <v>1.71</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16351,7 +16360,7 @@
         <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16441,7 +16450,7 @@
         <v>0.79</v>
       </c>
       <c r="AT80">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16542,7 +16551,7 @@
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16629,10 +16638,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT81">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16820,7 +16829,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
         <v>0.93</v>
@@ -17115,7 +17124,7 @@
         <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17205,7 +17214,7 @@
         <v>1.36</v>
       </c>
       <c r="AT84">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU84">
         <v>1.95</v>
@@ -17393,10 +17402,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT85">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU85">
         <v>1.94</v>
@@ -17584,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT86">
         <v>0.23</v>
@@ -17688,7 +17697,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17879,7 +17888,7 @@
         <v>133</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18160,7 +18169,7 @@
         <v>1.92</v>
       </c>
       <c r="AT89">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18261,7 +18270,7 @@
         <v>135</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18351,7 +18360,7 @@
         <v>0.79</v>
       </c>
       <c r="AT90">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18539,7 +18548,7 @@
         <v>2.67</v>
       </c>
       <c r="AS91">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
         <v>2</v>
@@ -18643,7 +18652,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18730,7 +18739,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT92">
         <v>2</v>
@@ -18924,7 +18933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19025,7 +19034,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19112,7 +19121,7 @@
         <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT94">
         <v>1.5</v>
@@ -19216,7 +19225,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19303,10 +19312,10 @@
         <v>0.83</v>
       </c>
       <c r="AS95">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU95">
         <v>1.29</v>
@@ -19407,7 +19416,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19497,7 +19506,7 @@
         <v>1.14</v>
       </c>
       <c r="AT96">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU96">
         <v>1.23</v>
@@ -19685,7 +19694,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT97">
         <v>1.57</v>
@@ -19789,7 +19798,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19876,10 +19885,10 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT98">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU98">
         <v>1.8</v>
@@ -20070,7 +20079,7 @@
         <v>1.36</v>
       </c>
       <c r="AT99">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU99">
         <v>1.93</v>
@@ -20362,7 +20371,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20449,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT101">
         <v>0.23</v>
@@ -20553,7 +20562,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20744,7 +20753,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20834,7 +20843,7 @@
         <v>1.21</v>
       </c>
       <c r="AT103">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -20935,7 +20944,7 @@
         <v>97</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21025,7 +21034,7 @@
         <v>1.92</v>
       </c>
       <c r="AT104">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU104">
         <v>1.56</v>
@@ -21126,7 +21135,7 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21317,7 +21326,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21404,7 +21413,7 @@
         <v>0.13</v>
       </c>
       <c r="AS106">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT106">
         <v>0.23</v>
@@ -21598,7 +21607,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21699,7 +21708,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21786,7 +21795,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT108">
         <v>0.93</v>
@@ -21890,7 +21899,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -22081,7 +22090,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22171,7 +22180,7 @@
         <v>0.79</v>
       </c>
       <c r="AT110">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU110">
         <v>1.66</v>
@@ -22272,7 +22281,7 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22359,7 +22368,7 @@
         <v>2</v>
       </c>
       <c r="AS111">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT111">
         <v>1.57</v>
@@ -22463,7 +22472,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22550,7 +22559,7 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
         <v>2</v>
@@ -22654,7 +22663,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22741,10 +22750,10 @@
         <v>0.78</v>
       </c>
       <c r="AS113">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT113">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22935,7 +22944,7 @@
         <v>1.71</v>
       </c>
       <c r="AT114">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU114">
         <v>1.38</v>
@@ -23036,7 +23045,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23123,10 +23132,10 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT115">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU115">
         <v>1.54</v>
@@ -23227,7 +23236,7 @@
         <v>154</v>
       </c>
       <c r="P116" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23505,10 +23514,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT117">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23699,7 +23708,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU118">
         <v>1.85</v>
@@ -23991,7 +24000,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24269,10 +24278,10 @@
         <v>2.1</v>
       </c>
       <c r="AS121">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT121">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU121">
         <v>1.83</v>
@@ -24373,7 +24382,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24460,10 +24469,10 @@
         <v>1.13</v>
       </c>
       <c r="AS122">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT122">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU122">
         <v>1.11</v>
@@ -24564,7 +24573,7 @@
         <v>159</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24651,7 +24660,7 @@
         <v>2.11</v>
       </c>
       <c r="AS123">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT123">
         <v>1.57</v>
@@ -24755,7 +24764,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -24946,7 +24955,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25137,7 +25146,7 @@
         <v>161</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25227,7 +25236,7 @@
         <v>1.92</v>
       </c>
       <c r="AT126">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU126">
         <v>1.55</v>
@@ -25328,7 +25337,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25606,10 +25615,10 @@
         <v>1.11</v>
       </c>
       <c r="AS128">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT128">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU128">
         <v>1.36</v>
@@ -25710,7 +25719,7 @@
         <v>80</v>
       </c>
       <c r="P129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25988,7 +25997,7 @@
         <v>0.11</v>
       </c>
       <c r="AS130">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT130">
         <v>0.23</v>
@@ -26092,7 +26101,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26283,7 +26292,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26370,10 +26379,10 @@
         <v>0.22</v>
       </c>
       <c r="AS132">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU132">
         <v>1.64</v>
@@ -26474,7 +26483,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26561,10 +26570,10 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT133">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26665,7 +26674,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -26755,7 +26764,7 @@
         <v>1.71</v>
       </c>
       <c r="AT134">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26856,7 +26865,7 @@
         <v>80</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27238,7 +27247,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27325,10 +27334,10 @@
         <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT137">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU137">
         <v>1.14</v>
@@ -27516,10 +27525,10 @@
         <v>0.2</v>
       </c>
       <c r="AS138">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT138">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU138">
         <v>1.3</v>
@@ -28280,10 +28289,10 @@
         <v>1.91</v>
       </c>
       <c r="AS142">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT142">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU142">
         <v>1.31</v>
@@ -28665,7 +28674,7 @@
         <v>1.14</v>
       </c>
       <c r="AT144">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -28853,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT145">
         <v>1.57</v>
@@ -29044,7 +29053,7 @@
         <v>1.55</v>
       </c>
       <c r="AS146">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT146">
         <v>1.5</v>
@@ -29426,7 +29435,7 @@
         <v>1.82</v>
       </c>
       <c r="AS148">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT148">
         <v>1.54</v>
@@ -29530,7 +29539,7 @@
         <v>172</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29808,10 +29817,10 @@
         <v>1.18</v>
       </c>
       <c r="AS150">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT150">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU150">
         <v>1.87</v>
@@ -29912,7 +29921,7 @@
         <v>80</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30002,7 +30011,7 @@
         <v>0.79</v>
       </c>
       <c r="AT151">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30190,10 +30199,10 @@
         <v>0.45</v>
       </c>
       <c r="AS152">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT152">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU152">
         <v>1.57</v>
@@ -30381,7 +30390,7 @@
         <v>2.09</v>
       </c>
       <c r="AS153">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT153">
         <v>2</v>
@@ -30485,7 +30494,7 @@
         <v>80</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30572,7 +30581,7 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT154">
         <v>2</v>
@@ -30763,10 +30772,10 @@
         <v>1.45</v>
       </c>
       <c r="AS155">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT155">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU155">
         <v>1.84</v>
@@ -31058,7 +31067,7 @@
         <v>80</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31148,7 +31157,7 @@
         <v>0.79</v>
       </c>
       <c r="AT157">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU157">
         <v>1.48</v>
@@ -31440,7 +31449,7 @@
         <v>178</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31530,7 +31539,7 @@
         <v>1.14</v>
       </c>
       <c r="AT159">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU159">
         <v>1.31</v>
@@ -31631,7 +31640,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31718,7 +31727,7 @@
         <v>1.83</v>
       </c>
       <c r="AS160">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT160">
         <v>1.57</v>
@@ -31822,7 +31831,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32291,10 +32300,10 @@
         <v>0.92</v>
       </c>
       <c r="AS163">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT163">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU163">
         <v>1.87</v>
@@ -32395,7 +32404,7 @@
         <v>80</v>
       </c>
       <c r="P164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32485,7 +32494,7 @@
         <v>1.36</v>
       </c>
       <c r="AT164">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU164">
         <v>1.79</v>
@@ -32586,7 +32595,7 @@
         <v>183</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32673,10 +32682,10 @@
         <v>1.69</v>
       </c>
       <c r="AS165">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT165">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU165">
         <v>1.34</v>
@@ -32864,10 +32873,10 @@
         <v>1.33</v>
       </c>
       <c r="AS166">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT166">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU166">
         <v>1.33</v>
@@ -33055,7 +33064,7 @@
         <v>1.08</v>
       </c>
       <c r="AS167">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT167">
         <v>0.93</v>
@@ -33246,10 +33255,10 @@
         <v>1.27</v>
       </c>
       <c r="AS168">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AT168">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU168">
         <v>1.19</v>
@@ -33350,7 +33359,7 @@
         <v>80</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33541,7 +33550,7 @@
         <v>140</v>
       </c>
       <c r="P170" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q170">
         <v>12</v>
@@ -34114,7 +34123,7 @@
         <v>188</v>
       </c>
       <c r="P173" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34305,7 +34314,7 @@
         <v>189</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34447,6 +34456,1152 @@
       </c>
       <c r="BK174">
         <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5242427</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45171.16666666666</v>
+      </c>
+      <c r="F175">
+        <v>30</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>116</v>
+      </c>
+      <c r="P175" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q175">
+        <v>4</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
+        <v>7</v>
+      </c>
+      <c r="T175">
+        <v>3.1</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>3.75</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>2.4</v>
+      </c>
+      <c r="Y175">
+        <v>3.35</v>
+      </c>
+      <c r="Z175">
+        <v>1.29</v>
+      </c>
+      <c r="AA175">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB175">
+        <v>1.04</v>
+      </c>
+      <c r="AC175">
+        <v>2.69</v>
+      </c>
+      <c r="AD175">
+        <v>3.23</v>
+      </c>
+      <c r="AE175">
+        <v>2.76</v>
+      </c>
+      <c r="AF175">
+        <v>1.07</v>
+      </c>
+      <c r="AG175">
+        <v>7.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.4</v>
+      </c>
+      <c r="AI175">
+        <v>2.8</v>
+      </c>
+      <c r="AJ175">
+        <v>2.25</v>
+      </c>
+      <c r="AK175">
+        <v>1.62</v>
+      </c>
+      <c r="AL175">
+        <v>1.9</v>
+      </c>
+      <c r="AM175">
+        <v>1.75</v>
+      </c>
+      <c r="AN175">
+        <v>1.38</v>
+      </c>
+      <c r="AO175">
+        <v>1.29</v>
+      </c>
+      <c r="AP175">
+        <v>1.55</v>
+      </c>
+      <c r="AQ175">
+        <v>1.85</v>
+      </c>
+      <c r="AR175">
+        <v>0.86</v>
+      </c>
+      <c r="AS175">
+        <v>1.93</v>
+      </c>
+      <c r="AT175">
+        <v>0.8</v>
+      </c>
+      <c r="AU175">
+        <v>1.31</v>
+      </c>
+      <c r="AV175">
+        <v>1.34</v>
+      </c>
+      <c r="AW175">
+        <v>2.65</v>
+      </c>
+      <c r="AX175">
+        <v>2.03</v>
+      </c>
+      <c r="AY175">
+        <v>7.7</v>
+      </c>
+      <c r="AZ175">
+        <v>2.02</v>
+      </c>
+      <c r="BA175">
+        <v>1.65</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>2.29</v>
+      </c>
+      <c r="BD175">
+        <v>3.96</v>
+      </c>
+      <c r="BE175">
+        <v>5.9</v>
+      </c>
+      <c r="BF175">
+        <v>2</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>6</v>
+      </c>
+      <c r="BI175">
+        <v>3</v>
+      </c>
+      <c r="BJ175">
+        <v>8</v>
+      </c>
+      <c r="BK175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5242428</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45171.27083333334</v>
+      </c>
+      <c r="F176">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>80</v>
+      </c>
+      <c r="P176" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q176">
+        <v>7</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>2.1</v>
+      </c>
+      <c r="U176">
+        <v>2.25</v>
+      </c>
+      <c r="V176">
+        <v>6.5</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>3</v>
+      </c>
+      <c r="Y176">
+        <v>2.5</v>
+      </c>
+      <c r="Z176">
+        <v>1.48</v>
+      </c>
+      <c r="AA176">
+        <v>6.4</v>
+      </c>
+      <c r="AB176">
+        <v>1.09</v>
+      </c>
+      <c r="AC176">
+        <v>1.51</v>
+      </c>
+      <c r="AD176">
+        <v>3.29</v>
+      </c>
+      <c r="AE176">
+        <v>5.77</v>
+      </c>
+      <c r="AF176">
+        <v>1.05</v>
+      </c>
+      <c r="AG176">
+        <v>8.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.25</v>
+      </c>
+      <c r="AI176">
+        <v>3.7</v>
+      </c>
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>2</v>
+      </c>
+      <c r="AL176">
+        <v>1.77</v>
+      </c>
+      <c r="AM176">
+        <v>1.85</v>
+      </c>
+      <c r="AN176">
+        <v>1.07</v>
+      </c>
+      <c r="AO176">
+        <v>1.22</v>
+      </c>
+      <c r="AP176">
+        <v>2.38</v>
+      </c>
+      <c r="AQ176">
+        <v>2.23</v>
+      </c>
+      <c r="AR176">
+        <v>1.25</v>
+      </c>
+      <c r="AS176">
+        <v>2.14</v>
+      </c>
+      <c r="AT176">
+        <v>1.23</v>
+      </c>
+      <c r="AU176">
+        <v>1.82</v>
+      </c>
+      <c r="AV176">
+        <v>1.28</v>
+      </c>
+      <c r="AW176">
+        <v>3.1</v>
+      </c>
+      <c r="AX176">
+        <v>1.35</v>
+      </c>
+      <c r="AY176">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ176">
+        <v>3.82</v>
+      </c>
+      <c r="BA176">
+        <v>1.22</v>
+      </c>
+      <c r="BB176">
+        <v>1.53</v>
+      </c>
+      <c r="BC176">
+        <v>1.88</v>
+      </c>
+      <c r="BD176">
+        <v>2.31</v>
+      </c>
+      <c r="BE176">
+        <v>2.93</v>
+      </c>
+      <c r="BF176">
+        <v>3</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>7</v>
+      </c>
+      <c r="BI176">
+        <v>2</v>
+      </c>
+      <c r="BJ176">
+        <v>10</v>
+      </c>
+      <c r="BK176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5242429</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45171.33333333334</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>66</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>190</v>
+      </c>
+      <c r="P177" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q177">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <v>4</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>3.4</v>
+      </c>
+      <c r="U177">
+        <v>2.05</v>
+      </c>
+      <c r="V177">
+        <v>3.4</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>2.8</v>
+      </c>
+      <c r="Y177">
+        <v>2.96</v>
+      </c>
+      <c r="Z177">
+        <v>1.41</v>
+      </c>
+      <c r="AA177">
+        <v>7.2</v>
+      </c>
+      <c r="AB177">
+        <v>1.08</v>
+      </c>
+      <c r="AC177">
+        <v>1.86</v>
+      </c>
+      <c r="AD177">
+        <v>4.39</v>
+      </c>
+      <c r="AE177">
+        <v>2.92</v>
+      </c>
+      <c r="AF177">
+        <v>1.02</v>
+      </c>
+      <c r="AG177">
+        <v>9</v>
+      </c>
+      <c r="AH177">
+        <v>1.3</v>
+      </c>
+      <c r="AI177">
+        <v>3.3</v>
+      </c>
+      <c r="AJ177">
+        <v>1.92</v>
+      </c>
+      <c r="AK177">
+        <v>1.88</v>
+      </c>
+      <c r="AL177">
+        <v>1.72</v>
+      </c>
+      <c r="AM177">
+        <v>2.05</v>
+      </c>
+      <c r="AN177">
+        <v>1.33</v>
+      </c>
+      <c r="AO177">
+        <v>1.25</v>
+      </c>
+      <c r="AP177">
+        <v>1.57</v>
+      </c>
+      <c r="AQ177">
+        <v>0.54</v>
+      </c>
+      <c r="AR177">
+        <v>0.5</v>
+      </c>
+      <c r="AS177">
+        <v>0.57</v>
+      </c>
+      <c r="AT177">
+        <v>0.54</v>
+      </c>
+      <c r="AU177">
+        <v>1.2</v>
+      </c>
+      <c r="AV177">
+        <v>1.32</v>
+      </c>
+      <c r="AW177">
+        <v>2.52</v>
+      </c>
+      <c r="AX177">
+        <v>1.73</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>2.49</v>
+      </c>
+      <c r="BA177">
+        <v>1.51</v>
+      </c>
+      <c r="BB177">
+        <v>1.88</v>
+      </c>
+      <c r="BC177">
+        <v>2.28</v>
+      </c>
+      <c r="BD177">
+        <v>3.2</v>
+      </c>
+      <c r="BE177">
+        <v>4.7</v>
+      </c>
+      <c r="BF177">
+        <v>3</v>
+      </c>
+      <c r="BG177">
+        <v>7</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>4</v>
+      </c>
+      <c r="BJ177">
+        <v>7</v>
+      </c>
+      <c r="BK177">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5242430</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45172.16666666666</v>
+      </c>
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>191</v>
+      </c>
+      <c r="P178" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q178">
+        <v>4</v>
+      </c>
+      <c r="R178">
+        <v>5</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>2.88</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
+        <v>4.33</v>
+      </c>
+      <c r="W178">
+        <v>1.48</v>
+      </c>
+      <c r="X178">
+        <v>2.45</v>
+      </c>
+      <c r="Y178">
+        <v>3.25</v>
+      </c>
+      <c r="Z178">
+        <v>1.3</v>
+      </c>
+      <c r="AA178">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB178">
+        <v>1.05</v>
+      </c>
+      <c r="AC178">
+        <v>2.11</v>
+      </c>
+      <c r="AD178">
+        <v>3.24</v>
+      </c>
+      <c r="AE178">
+        <v>3.49</v>
+      </c>
+      <c r="AF178">
+        <v>1.07</v>
+      </c>
+      <c r="AG178">
+        <v>7.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.5</v>
+      </c>
+      <c r="AI178">
+        <v>2.55</v>
+      </c>
+      <c r="AJ178">
+        <v>2.2</v>
+      </c>
+      <c r="AK178">
+        <v>1.62</v>
+      </c>
+      <c r="AL178">
+        <v>1.91</v>
+      </c>
+      <c r="AM178">
+        <v>1.73</v>
+      </c>
+      <c r="AN178">
+        <v>1.29</v>
+      </c>
+      <c r="AO178">
+        <v>1.29</v>
+      </c>
+      <c r="AP178">
+        <v>1.7</v>
+      </c>
+      <c r="AQ178">
+        <v>1.31</v>
+      </c>
+      <c r="AR178">
+        <v>1.23</v>
+      </c>
+      <c r="AS178">
+        <v>1.43</v>
+      </c>
+      <c r="AT178">
+        <v>1.14</v>
+      </c>
+      <c r="AU178">
+        <v>1.36</v>
+      </c>
+      <c r="AV178">
+        <v>1.29</v>
+      </c>
+      <c r="AW178">
+        <v>2.65</v>
+      </c>
+      <c r="AX178">
+        <v>1.83</v>
+      </c>
+      <c r="AY178">
+        <v>7.7</v>
+      </c>
+      <c r="AZ178">
+        <v>2.33</v>
+      </c>
+      <c r="BA178">
+        <v>1.67</v>
+      </c>
+      <c r="BB178">
+        <v>2.08</v>
+      </c>
+      <c r="BC178">
+        <v>2.75</v>
+      </c>
+      <c r="BD178">
+        <v>3.92</v>
+      </c>
+      <c r="BE178">
+        <v>5.9</v>
+      </c>
+      <c r="BF178">
+        <v>8</v>
+      </c>
+      <c r="BG178">
+        <v>7</v>
+      </c>
+      <c r="BH178">
+        <v>7</v>
+      </c>
+      <c r="BI178">
+        <v>2</v>
+      </c>
+      <c r="BJ178">
+        <v>15</v>
+      </c>
+      <c r="BK178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5242431</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45172.27083333334</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>67</v>
+      </c>
+      <c r="H179" t="s">
+        <v>68</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>80</v>
+      </c>
+      <c r="P179" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>8</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>2.05</v>
+      </c>
+      <c r="V179">
+        <v>3.75</v>
+      </c>
+      <c r="W179">
+        <v>1.45</v>
+      </c>
+      <c r="X179">
+        <v>2.55</v>
+      </c>
+      <c r="Y179">
+        <v>3.1</v>
+      </c>
+      <c r="Z179">
+        <v>1.33</v>
+      </c>
+      <c r="AA179">
+        <v>6.8</v>
+      </c>
+      <c r="AB179">
+        <v>1.08</v>
+      </c>
+      <c r="AC179">
+        <v>2.27</v>
+      </c>
+      <c r="AD179">
+        <v>3.28</v>
+      </c>
+      <c r="AE179">
+        <v>3.09</v>
+      </c>
+      <c r="AF179">
+        <v>1.06</v>
+      </c>
+      <c r="AG179">
+        <v>8</v>
+      </c>
+      <c r="AH179">
+        <v>1.36</v>
+      </c>
+      <c r="AI179">
+        <v>3</v>
+      </c>
+      <c r="AJ179">
+        <v>1.9</v>
+      </c>
+      <c r="AK179">
+        <v>1.9</v>
+      </c>
+      <c r="AL179">
+        <v>1.8</v>
+      </c>
+      <c r="AM179">
+        <v>1.83</v>
+      </c>
+      <c r="AN179">
+        <v>1.36</v>
+      </c>
+      <c r="AO179">
+        <v>1.25</v>
+      </c>
+      <c r="AP179">
+        <v>1.6</v>
+      </c>
+      <c r="AQ179">
+        <v>1.85</v>
+      </c>
+      <c r="AR179">
+        <v>1.23</v>
+      </c>
+      <c r="AS179">
+        <v>1.79</v>
+      </c>
+      <c r="AT179">
+        <v>1.21</v>
+      </c>
+      <c r="AU179">
+        <v>1.77</v>
+      </c>
+      <c r="AV179">
+        <v>1.48</v>
+      </c>
+      <c r="AW179">
+        <v>3.25</v>
+      </c>
+      <c r="AX179">
+        <v>1.82</v>
+      </c>
+      <c r="AY179">
+        <v>8.1</v>
+      </c>
+      <c r="AZ179">
+        <v>2.31</v>
+      </c>
+      <c r="BA179">
+        <v>1.44</v>
+      </c>
+      <c r="BB179">
+        <v>1.67</v>
+      </c>
+      <c r="BC179">
+        <v>2</v>
+      </c>
+      <c r="BD179">
+        <v>2.5</v>
+      </c>
+      <c r="BE179">
+        <v>4.2</v>
+      </c>
+      <c r="BF179">
+        <v>3</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>2</v>
+      </c>
+      <c r="BI179">
+        <v>3</v>
+      </c>
+      <c r="BJ179">
+        <v>5</v>
+      </c>
+      <c r="BK179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5242432</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45172.33333333334</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>80</v>
+      </c>
+      <c r="P180" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q180">
+        <v>3</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>7</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>2.05</v>
+      </c>
+      <c r="V180">
+        <v>3.75</v>
+      </c>
+      <c r="W180">
+        <v>1.45</v>
+      </c>
+      <c r="X180">
+        <v>2.55</v>
+      </c>
+      <c r="Y180">
+        <v>3.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.33</v>
+      </c>
+      <c r="AA180">
+        <v>7.8</v>
+      </c>
+      <c r="AB180">
+        <v>1.06</v>
+      </c>
+      <c r="AC180">
+        <v>2.75</v>
+      </c>
+      <c r="AD180">
+        <v>1.86</v>
+      </c>
+      <c r="AE180">
+        <v>4.81</v>
+      </c>
+      <c r="AF180">
+        <v>1.07</v>
+      </c>
+      <c r="AG180">
+        <v>7.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.38</v>
+      </c>
+      <c r="AI180">
+        <v>2.9</v>
+      </c>
+      <c r="AJ180">
+        <v>2.15</v>
+      </c>
+      <c r="AK180">
+        <v>1.67</v>
+      </c>
+      <c r="AL180">
+        <v>1.8</v>
+      </c>
+      <c r="AM180">
+        <v>1.83</v>
+      </c>
+      <c r="AN180">
+        <v>1.35</v>
+      </c>
+      <c r="AO180">
+        <v>1.29</v>
+      </c>
+      <c r="AP180">
+        <v>1.6</v>
+      </c>
+      <c r="AQ180">
+        <v>1.69</v>
+      </c>
+      <c r="AR180">
+        <v>1.79</v>
+      </c>
+      <c r="AS180">
+        <v>1.57</v>
+      </c>
+      <c r="AT180">
+        <v>1.87</v>
+      </c>
+      <c r="AU180">
+        <v>1.57</v>
+      </c>
+      <c r="AV180">
+        <v>1.62</v>
+      </c>
+      <c r="AW180">
+        <v>3.19</v>
+      </c>
+      <c r="AX180">
+        <v>1.69</v>
+      </c>
+      <c r="AY180">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ180">
+        <v>2.55</v>
+      </c>
+      <c r="BA180">
+        <v>1.5</v>
+      </c>
+      <c r="BB180">
+        <v>1.82</v>
+      </c>
+      <c r="BC180">
+        <v>2.27</v>
+      </c>
+      <c r="BD180">
+        <v>3.14</v>
+      </c>
+      <c r="BE180">
+        <v>4.6</v>
+      </c>
+      <c r="BF180">
+        <v>2</v>
+      </c>
+      <c r="BG180">
+        <v>5</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>7</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT3" t="n">
         <v>1.87</v>
@@ -1309,7 +1309,7 @@
         <v>1.79</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT8" t="n">
         <v>1.13</v>
@@ -2321,10 +2321,10 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.79</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU13" t="n">
         <v>1.39</v>
@@ -3339,7 +3339,7 @@
         <v>1.07</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU14" t="n">
         <v>1.33</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT15" t="n">
         <v>1.87</v>
@@ -3745,7 +3745,7 @@
         <v>1.43</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU16" t="n">
         <v>2.17</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>0.8</v>
@@ -4151,7 +4151,7 @@
         <v>0.73</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU18" t="n">
         <v>1.15</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU19" t="n">
         <v>1.08</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT21" t="n">
         <v>1.36</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.19</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT24" t="n">
         <v>1.13</v>
@@ -5572,7 +5572,7 @@
         <v>1.79</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU25" t="n">
         <v>1.53</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT26" t="n">
         <v>0.8</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1.36</v>
@@ -6181,7 +6181,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU28" t="n">
         <v>1.74</v>
@@ -6384,7 +6384,7 @@
         <v>2.14</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6990,10 +6990,10 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU32" t="n">
         <v>1.11</v>
@@ -7193,10 +7193,10 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU35" t="n">
         <v>1.15</v>
@@ -7805,7 +7805,7 @@
         <v>1.07</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.26</v>
@@ -8414,7 +8414,7 @@
         <v>2.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.95</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU40" t="n">
         <v>1.42</v>
@@ -8817,10 +8817,10 @@
         <v>2.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU41" t="n">
         <v>1.46</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>0.43</v>
@@ -9226,7 +9226,7 @@
         <v>0.73</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU43" t="n">
         <v>1.16</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT44" t="n">
         <v>0.8</v>
@@ -9629,10 +9629,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>1.28</v>
@@ -9832,10 +9832,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU46" t="n">
         <v>2.31</v>
@@ -10241,7 +10241,7 @@
         <v>2.14</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU48" t="n">
         <v>2.15</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -10644,10 +10644,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU50" t="n">
         <v>1.42</v>
@@ -10847,7 +10847,7 @@
         <v>1.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
         <v>1.87</v>
@@ -11053,7 +11053,7 @@
         <v>1.07</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU52" t="n">
         <v>1.25</v>
@@ -11256,7 +11256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU53" t="n">
         <v>1.35</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.23</v>
@@ -11662,7 +11662,7 @@
         <v>0.73</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU55" t="n">
         <v>1.35</v>
@@ -12065,10 +12065,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.35</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT58" t="n">
         <v>0.43</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT59" t="n">
         <v>1.36</v>
@@ -12677,7 +12677,7 @@
         <v>2.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU60" t="n">
         <v>2.14</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU63" t="n">
         <v>1.17</v>
@@ -13486,7 +13486,7 @@
         <v>0.8</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT64" t="n">
         <v>0.8</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU65" t="n">
         <v>2.02</v>
@@ -14098,7 +14098,7 @@
         <v>0.73</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14301,7 +14301,7 @@
         <v>0.73</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU68" t="n">
         <v>1.52</v>
@@ -14504,7 +14504,7 @@
         <v>1.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU69" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
         <v>0.43</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU71" t="n">
         <v>1.45</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT72" t="n">
         <v>1.87</v>
@@ -15313,10 +15313,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15722,7 +15722,7 @@
         <v>2.14</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU75" t="n">
         <v>1.98</v>
@@ -15922,10 +15922,10 @@
         <v>1.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.35</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT77" t="n">
         <v>1.13</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU78" t="n">
         <v>1.34</v>
@@ -16531,10 +16531,10 @@
         <v>0.4</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.28</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT81" t="n">
         <v>0.8</v>
@@ -17140,10 +17140,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -17346,7 +17346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU83" t="n">
         <v>1.28</v>
@@ -17546,7 +17546,7 @@
         <v>1.71</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT84" t="n">
         <v>1.87</v>
@@ -18155,10 +18155,10 @@
         <v>1.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18358,10 +18358,10 @@
         <v>1.83</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT89" t="n">
         <v>0.8</v>
@@ -18767,7 +18767,7 @@
         <v>0.73</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -18967,10 +18967,10 @@
         <v>2.67</v>
       </c>
       <c r="AS91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT91" t="n">
         <v>1.93</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.53</v>
@@ -19170,10 +19170,10 @@
         <v>1.86</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU92" t="n">
         <v>1.16</v>
@@ -19576,10 +19576,10 @@
         <v>1.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>1.79</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU97" t="n">
         <v>1.62</v>
@@ -20391,7 +20391,7 @@
         <v>2.14</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU98" t="n">
         <v>1.8</v>
@@ -20591,7 +20591,7 @@
         <v>0.88</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT99" t="n">
         <v>0.8</v>
@@ -20794,10 +20794,10 @@
         <v>2.29</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT100" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU100" t="n">
         <v>1.47</v>
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT101" t="n">
         <v>0.43</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU102" t="n">
         <v>1.37</v>
@@ -21403,10 +21403,10 @@
         <v>1.57</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU103" t="n">
         <v>1.52</v>
@@ -21606,7 +21606,7 @@
         <v>1.14</v>
       </c>
       <c r="AS104" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT104" t="n">
         <v>1.36</v>
@@ -21809,10 +21809,10 @@
         <v>1.38</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU105" t="n">
         <v>1.55</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22421,7 +22421,7 @@
         <v>1.43</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU108" t="n">
         <v>1.3</v>
@@ -22624,7 +22624,7 @@
         <v>1.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU109" t="n">
         <v>1.23</v>
@@ -23027,10 +23027,10 @@
         <v>2</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU111" t="n">
         <v>1.4</v>
@@ -23230,10 +23230,10 @@
         <v>2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU112" t="n">
         <v>1.53</v>
@@ -23636,7 +23636,7 @@
         <v>1.13</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT114" t="n">
         <v>1.13</v>
@@ -23842,7 +23842,7 @@
         <v>1.79</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.54</v>
@@ -24042,10 +24042,10 @@
         <v>2.13</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24245,10 +24245,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU117" t="n">
         <v>1.15</v>
@@ -24448,10 +24448,10 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.85</v>
@@ -24651,10 +24651,10 @@
         <v>2.13</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU119" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU120" t="n">
         <v>1.31</v>
@@ -25260,7 +25260,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25466,7 +25466,7 @@
         <v>1.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU123" t="n">
         <v>1.32</v>
@@ -25669,7 +25669,7 @@
         <v>0.73</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.6</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU125" t="n">
         <v>1.33</v>
@@ -26072,7 +26072,7 @@
         <v>1.11</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT126" t="n">
         <v>1.13</v>
@@ -26275,10 +26275,10 @@
         <v>1.11</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU127" t="n">
         <v>1.83</v>
@@ -26478,7 +26478,7 @@
         <v>1.11</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT128" t="n">
         <v>1.36</v>
@@ -26684,7 +26684,7 @@
         <v>1.07</v>
       </c>
       <c r="AT129" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU129" t="n">
         <v>1.22</v>
@@ -26884,7 +26884,7 @@
         <v>0.11</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT130" t="n">
         <v>0.43</v>
@@ -27087,10 +27087,10 @@
         <v>2.11</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU131" t="n">
         <v>1.49</v>
@@ -27293,7 +27293,7 @@
         <v>1.79</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.64</v>
@@ -27696,10 +27696,10 @@
         <v>1.6</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27899,10 +27899,10 @@
         <v>1.9</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU135" t="n">
         <v>1.82</v>
@@ -28105,7 +28105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU136" t="n">
         <v>1.33</v>
@@ -28305,7 +28305,7 @@
         <v>1.3</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT137" t="n">
         <v>1.13</v>
@@ -28511,7 +28511,7 @@
         <v>1.43</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.3</v>
@@ -28711,10 +28711,10 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -28914,10 +28914,10 @@
         <v>2.1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT140" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU140" t="n">
         <v>1.81</v>
@@ -29117,10 +29117,10 @@
         <v>1.3</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU141" t="n">
         <v>1.53</v>
@@ -29320,7 +29320,7 @@
         <v>1.91</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT142" t="n">
         <v>1.87</v>
@@ -29929,10 +29929,10 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU145" t="n">
         <v>1.58</v>
@@ -30135,7 +30135,7 @@
         <v>1.79</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU146" t="n">
         <v>1.73</v>
@@ -30335,7 +30335,7 @@
         <v>0.18</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT147" t="n">
         <v>0.43</v>
@@ -30541,7 +30541,7 @@
         <v>1.43</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU148" t="n">
         <v>1.35</v>
@@ -30744,7 +30744,7 @@
         <v>1.07</v>
       </c>
       <c r="AT149" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31350,10 +31350,10 @@
         <v>0.45</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.57</v>
@@ -31553,10 +31553,10 @@
         <v>2.09</v>
       </c>
       <c r="AS153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT153" t="n">
         <v>1.93</v>
-      </c>
-      <c r="AT153" t="n">
-        <v>2</v>
       </c>
       <c r="AU153" t="n">
         <v>1.35</v>
@@ -31756,10 +31756,10 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT154" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU154" t="n">
         <v>1.17</v>
@@ -31962,7 +31962,7 @@
         <v>2.14</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU155" t="n">
         <v>1.84</v>
@@ -32162,10 +32162,10 @@
         <v>1.18</v>
       </c>
       <c r="AS156" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -32568,10 +32568,10 @@
         <v>2.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT158" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU158" t="n">
         <v>1.31</v>
@@ -32977,7 +32977,7 @@
         <v>1.79</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU160" t="n">
         <v>1.73</v>
@@ -33177,10 +33177,10 @@
         <v>1.42</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU161" t="n">
         <v>1.58</v>
@@ -33380,7 +33380,7 @@
         <v>0.17</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT162" t="n">
         <v>0.43</v>
@@ -33786,7 +33786,7 @@
         <v>1.08</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -34192,10 +34192,10 @@
         <v>1.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34395,10 +34395,10 @@
         <v>1.08</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -34598,7 +34598,7 @@
         <v>1.27</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT168" t="n">
         <v>1.36</v>
@@ -34804,7 +34804,7 @@
         <v>1.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35007,7 +35007,7 @@
         <v>0.73</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU170" t="n">
         <v>1.43</v>
@@ -35207,10 +35207,10 @@
         <v>1.69</v>
       </c>
       <c r="AS171" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU171" t="n">
         <v>1.53</v>
@@ -35413,7 +35413,7 @@
         <v>1.07</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="AU172" t="n">
         <v>1.28</v>
@@ -35613,10 +35613,10 @@
         <v>1.92</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT173" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU173" t="n">
         <v>1.57</v>
@@ -35816,10 +35816,10 @@
         <v>1.67</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU174" t="n">
         <v>1.31</v>
@@ -36019,7 +36019,7 @@
         <v>0.86</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT175" t="n">
         <v>0.8</v>
@@ -36425,10 +36425,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU177" t="n">
         <v>1.2</v>
@@ -36631,7 +36631,7 @@
         <v>1.43</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU178" t="n">
         <v>1.36</v>
@@ -37034,7 +37034,7 @@
         <v>1.79</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT180" t="n">
         <v>1.87</v>
@@ -37643,7 +37643,7 @@
         <v>1.21</v>
       </c>
       <c r="AS183" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT183" t="n">
         <v>1.13</v>
@@ -37698,6 +37698,1833 @@
       </c>
       <c r="BK183" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5242436</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45186.0625</v>
+      </c>
+      <c r="F184" t="n">
+        <v>31</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>3</v>
+      </c>
+      <c r="N184" t="n">
+        <v>5</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['37', '90+7']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['27', '68', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>3</v>
+      </c>
+      <c r="R184" t="n">
+        <v>6</v>
+      </c>
+      <c r="S184" t="n">
+        <v>9</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5242437</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45186.16666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>31</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>3</v>
+      </c>
+      <c r="L185" t="n">
+        <v>4</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3</v>
+      </c>
+      <c r="N185" t="n">
+        <v>7</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['27', '40', '90', '90+1']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['7', '49', '56']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>3</v>
+      </c>
+      <c r="R185" t="n">
+        <v>5</v>
+      </c>
+      <c r="S185" t="n">
+        <v>8</v>
+      </c>
+      <c r="T185" t="n">
+        <v>4</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5242438</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45186.27083333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>5</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5242439</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45188.29166666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['59', '82']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5242440</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45188.3125</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>7</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>12</v>
+      </c>
+      <c r="T188" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5242441</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45188.3125</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>15</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>16</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5242442</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45189.29166666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>4</v>
+      </c>
+      <c r="S190" t="n">
+        <v>9</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5242443</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45189.3125</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7</v>
+      </c>
+      <c r="S191" t="n">
+        <v>13</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5242444</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45189.3125</v>
+      </c>
+      <c r="F192" t="n">
+        <v>32</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>7</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.07</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1.93</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT17" t="n">
         <v>0.8</v>
@@ -4151,7 +4151,7 @@
         <v>0.73</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.15</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU20" t="n">
         <v>1.52</v>
@@ -4760,7 +4760,7 @@
         <v>1.27</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU21" t="n">
         <v>2.02</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>1.93</v>
@@ -5975,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU27" t="n">
         <v>1.9</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.93</v>
@@ -7196,7 +7196,7 @@
         <v>1.87</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT34" t="n">
         <v>1.13</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU38" t="n">
         <v>1.66</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.72</v>
@@ -9835,7 +9835,7 @@
         <v>1.27</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>2.31</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT48" t="n">
         <v>1.19</v>
@@ -10847,7 +10847,7 @@
         <v>1.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>1.87</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>0.8</v>
@@ -12271,7 +12271,7 @@
         <v>1.27</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU58" t="n">
         <v>2.23</v>
@@ -12474,7 +12474,7 @@
         <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU59" t="n">
         <v>1.42</v>
@@ -12674,7 +12674,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT60" t="n">
         <v>1.93</v>
@@ -13080,7 +13080,7 @@
         <v>1.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT62" t="n">
         <v>1.87</v>
@@ -13286,7 +13286,7 @@
         <v>0.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.17</v>
@@ -14707,7 +14707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU70" t="n">
         <v>1.31</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT73" t="n">
         <v>1.47</v>
@@ -15519,7 +15519,7 @@
         <v>1.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU74" t="n">
         <v>1.09</v>
@@ -15719,10 +15719,10 @@
         <v>2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>1.98</v>
@@ -17749,10 +17749,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU85" t="n">
         <v>1.94</v>
@@ -17952,10 +17952,10 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU86" t="n">
         <v>1.67</v>
@@ -18358,10 +18358,10 @@
         <v>1.83</v>
       </c>
       <c r="AS88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT88" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>1.43</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -19782,7 +19782,7 @@
         <v>1.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU95" t="n">
         <v>1.29</v>
@@ -20185,7 +20185,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>1.47</v>
@@ -20388,7 +20388,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.5</v>
@@ -21000,7 +21000,7 @@
         <v>1.87</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU101" t="n">
         <v>1.44</v>
@@ -21403,7 +21403,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT103" t="n">
         <v>1.27</v>
@@ -21609,7 +21609,7 @@
         <v>2.07</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU104" t="n">
         <v>1.56</v>
@@ -21809,7 +21809,7 @@
         <v>1.38</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT105" t="n">
         <v>1.4</v>
@@ -22012,10 +22012,10 @@
         <v>0.13</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU106" t="n">
         <v>1.81</v>
@@ -22624,7 +22624,7 @@
         <v>1.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU109" t="n">
         <v>1.23</v>
@@ -23839,7 +23839,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
         <v>1.27</v>
@@ -24045,7 +24045,7 @@
         <v>1.6</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24651,7 +24651,7 @@
         <v>2.13</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT119" t="n">
         <v>1.93</v>
@@ -25057,7 +25057,7 @@
         <v>2.1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.87</v>
@@ -25263,7 +25263,7 @@
         <v>0.73</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU122" t="n">
         <v>1.11</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU125" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>1.87</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU128" t="n">
         <v>1.36</v>
@@ -26887,7 +26887,7 @@
         <v>1.53</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU130" t="n">
         <v>1.61</v>
@@ -27087,7 +27087,7 @@
         <v>2.11</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1.93</v>
@@ -27290,7 +27290,7 @@
         <v>0.22</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5</v>
@@ -27493,7 +27493,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT133" t="n">
         <v>0.8</v>
@@ -28714,7 +28714,7 @@
         <v>2.07</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -29117,7 +29117,7 @@
         <v>1.3</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT141" t="n">
         <v>1.19</v>
@@ -29526,7 +29526,7 @@
         <v>0.73</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU143" t="n">
         <v>1.54</v>
@@ -30132,7 +30132,7 @@
         <v>1.55</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT146" t="n">
         <v>1.4</v>
@@ -30338,7 +30338,7 @@
         <v>2.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU147" t="n">
         <v>1.57</v>
@@ -30541,7 +30541,7 @@
         <v>1.43</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU148" t="n">
         <v>1.35</v>
@@ -30944,7 +30944,7 @@
         <v>1.18</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT150" t="n">
         <v>1.13</v>
@@ -31150,7 +31150,7 @@
         <v>0.73</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU151" t="n">
         <v>1.5</v>
@@ -31959,7 +31959,7 @@
         <v>1.45</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT155" t="n">
         <v>1.27</v>
@@ -32974,7 +32974,7 @@
         <v>1.83</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT160" t="n">
         <v>1.47</v>
@@ -33177,7 +33177,7 @@
         <v>1.42</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT161" t="n">
         <v>1.4</v>
@@ -33383,7 +33383,7 @@
         <v>1.27</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU162" t="n">
         <v>1.75</v>
@@ -33583,7 +33583,7 @@
         <v>0.92</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT163" t="n">
         <v>0.8</v>
@@ -34601,7 +34601,7 @@
         <v>0.73</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU168" t="n">
         <v>1.19</v>
@@ -35613,7 +35613,7 @@
         <v>1.92</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT173" t="n">
         <v>1.93</v>
@@ -35819,7 +35819,7 @@
         <v>1.6</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU174" t="n">
         <v>1.31</v>
@@ -36222,10 +36222,10 @@
         <v>1.25</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU176" t="n">
         <v>1.82</v>
@@ -36831,7 +36831,7 @@
         <v>1.23</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT179" t="n">
         <v>1.13</v>
@@ -37240,7 +37240,7 @@
         <v>1.07</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU181" t="n">
         <v>1.35</v>
@@ -37443,7 +37443,7 @@
         <v>0.73</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU182" t="n">
         <v>1.48</v>
@@ -38052,7 +38052,7 @@
         <v>1.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU185" t="n">
         <v>1.3</v>
@@ -38658,7 +38658,7 @@
         <v>1.57</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT188" t="n">
         <v>1.47</v>
@@ -39525,6 +39525,615 @@
       </c>
       <c r="BK192" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5242445</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45192.0625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>33</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>8</v>
+      </c>
+      <c r="R193" t="n">
+        <v>4</v>
+      </c>
+      <c r="S193" t="n">
+        <v>12</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5242446</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45192.16666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>33</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>4</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['22', '31', '64', '90+4']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>4</v>
+      </c>
+      <c r="R194" t="n">
+        <v>9</v>
+      </c>
+      <c r="S194" t="n">
+        <v>13</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5242447</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45192.27083333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>33</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['23', '41', '69']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3</v>
+      </c>
+      <c r="R195" t="n">
+        <v>8</v>
+      </c>
+      <c r="S195" t="n">
+        <v>11</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.47</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT8" t="n">
         <v>1.13</v>
@@ -2527,7 +2527,7 @@
         <v>0.73</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT11" t="n">
         <v>0.6</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU13" t="n">
         <v>1.39</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1.19</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU16" t="n">
         <v>2.17</v>
@@ -3948,7 +3948,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>2.25</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.19</v>
@@ -5775,7 +5775,7 @@
         <v>1.53</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT28" t="n">
         <v>1.4</v>
@@ -6384,7 +6384,7 @@
         <v>2.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>1.26</v>
@@ -8820,7 +8820,7 @@
         <v>2.07</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU41" t="n">
         <v>1.46</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -9629,7 +9629,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT45" t="n">
         <v>1.27</v>
@@ -10035,7 +10035,7 @@
         <v>1.67</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT47" t="n">
         <v>1.87</v>
@@ -10444,7 +10444,7 @@
         <v>0.73</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>1.47</v>
@@ -11256,7 +11256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU53" t="n">
         <v>1.35</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.7</v>
@@ -12068,7 +12068,7 @@
         <v>2.07</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.35</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
         <v>1.13</v>
@@ -13486,10 +13486,10 @@
         <v>0.8</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.47</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT66" t="n">
         <v>1.13</v>
@@ -14301,7 +14301,7 @@
         <v>0.73</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU68" t="n">
         <v>1.52</v>
@@ -14501,7 +14501,7 @@
         <v>1.4</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT69" t="n">
         <v>1.27</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT71" t="n">
         <v>1.19</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>0.6</v>
@@ -16534,7 +16534,7 @@
         <v>1.6</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.28</v>
@@ -16940,7 +16940,7 @@
         <v>0.73</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>1.15</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>1.4</v>
@@ -18158,7 +18158,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18564,7 +18564,7 @@
         <v>2.07</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -18967,7 +18967,7 @@
         <v>2.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT91" t="n">
         <v>1.93</v>
@@ -19173,7 +19173,7 @@
         <v>0.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU92" t="n">
         <v>1.16</v>
@@ -19779,7 +19779,7 @@
         <v>0.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
         <v>1.47</v>
@@ -19982,7 +19982,7 @@
         <v>1.88</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.87</v>
@@ -20391,7 +20391,7 @@
         <v>2.2</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.8</v>
@@ -20594,7 +20594,7 @@
         <v>1.27</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.93</v>
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT101" t="n">
         <v>0.6</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22418,7 +22418,7 @@
         <v>0.86</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT108" t="n">
         <v>1.19</v>
@@ -22621,7 +22621,7 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>1.33</v>
@@ -23027,7 +23027,7 @@
         <v>2</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT111" t="n">
         <v>1.47</v>
@@ -23233,7 +23233,7 @@
         <v>1.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU112" t="n">
         <v>1.53</v>
@@ -23433,10 +23433,10 @@
         <v>0.78</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU113" t="n">
         <v>1.36</v>
@@ -24451,7 +24451,7 @@
         <v>1.27</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.85</v>
@@ -25463,7 +25463,7 @@
         <v>2.11</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT123" t="n">
         <v>1.47</v>
@@ -26478,7 +26478,7 @@
         <v>1.11</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT128" t="n">
         <v>1.47</v>
@@ -26681,7 +26681,7 @@
         <v>2</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.93</v>
@@ -27090,7 +27090,7 @@
         <v>1.25</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU131" t="n">
         <v>1.49</v>
@@ -27293,7 +27293,7 @@
         <v>1.67</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.64</v>
@@ -27496,7 +27496,7 @@
         <v>2.2</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU133" t="n">
         <v>1.87</v>
@@ -28508,10 +28508,10 @@
         <v>0.2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.3</v>
@@ -29320,7 +29320,7 @@
         <v>1.91</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT142" t="n">
         <v>1.87</v>
@@ -29726,10 +29726,10 @@
         <v>0.73</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU144" t="n">
         <v>1.29</v>
@@ -30538,7 +30538,7 @@
         <v>1.82</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT148" t="n">
         <v>1.33</v>
@@ -30741,10 +30741,10 @@
         <v>2</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31353,7 +31353,7 @@
         <v>1.53</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU152" t="n">
         <v>1.57</v>
@@ -31553,10 +31553,10 @@
         <v>2.09</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU153" t="n">
         <v>1.35</v>
@@ -32368,7 +32368,7 @@
         <v>0.73</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU157" t="n">
         <v>1.48</v>
@@ -32771,7 +32771,7 @@
         <v>1.83</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
         <v>1.87</v>
@@ -33586,7 +33586,7 @@
         <v>2.2</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33989,7 +33989,7 @@
         <v>1.69</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT165" t="n">
         <v>1.87</v>
@@ -34192,7 +34192,7 @@
         <v>1.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT166" t="n">
         <v>1.27</v>
@@ -34804,7 +34804,7 @@
         <v>1.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>1.19</v>
@@ -36019,10 +36019,10 @@
         <v>0.86</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU175" t="n">
         <v>1.31</v>
@@ -36428,7 +36428,7 @@
         <v>0.73</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU177" t="n">
         <v>1.2</v>
@@ -36628,7 +36628,7 @@
         <v>1.23</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT178" t="n">
         <v>1.27</v>
@@ -37237,7 +37237,7 @@
         <v>0.23</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT181" t="n">
         <v>0.6</v>
@@ -38252,7 +38252,7 @@
         <v>2</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT186" t="n">
         <v>1.93</v>
@@ -38458,7 +38458,7 @@
         <v>2.07</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU187" t="n">
         <v>1.53</v>
@@ -39067,7 +39067,7 @@
         <v>1.53</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU190" t="n">
         <v>1.52</v>
@@ -40134,6 +40134,615 @@
       </c>
       <c r="BK195" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5242448</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45193.0625</v>
+      </c>
+      <c r="F196" t="n">
+        <v>33</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>4</v>
+      </c>
+      <c r="R196" t="n">
+        <v>6</v>
+      </c>
+      <c r="S196" t="n">
+        <v>10</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5242449</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45193.16666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>33</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>3</v>
+      </c>
+      <c r="M197" t="n">
+        <v>4</v>
+      </c>
+      <c r="N197" t="n">
+        <v>7</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['33', '61', '90+5']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['69', '75', '87', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2</v>
+      </c>
+      <c r="R197" t="n">
+        <v>10</v>
+      </c>
+      <c r="S197" t="n">
+        <v>12</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5242450</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45193.27083333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>9</v>
+      </c>
+      <c r="R198" t="n">
+        <v>4</v>
+      </c>
+      <c r="S198" t="n">
+        <v>13</v>
+      </c>
+      <c r="T198" t="n">
+        <v>3</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ198"/>
+  <dimension ref="A1:AZ201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.47</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.33</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.6</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.13</v>
@@ -4749,7 +4749,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR25" t="n">
         <v>1.53</v>
@@ -4916,7 +4916,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.75</v>
@@ -5599,7 +5599,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -6449,7 +6449,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR35" t="n">
         <v>1.15</v>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.87</v>
@@ -7296,10 +7296,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR40" t="n">
         <v>1.42</v>
@@ -7806,10 +7806,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR43" t="n">
         <v>1.16</v>
@@ -8149,7 +8149,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR45" t="n">
         <v>1.28</v>
@@ -8996,10 +8996,10 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR50" t="n">
         <v>1.42</v>
@@ -9506,7 +9506,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.8</v>
@@ -9846,7 +9846,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.19</v>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.47</v>
@@ -10699,7 +10699,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR60" t="n">
         <v>2.14</v>
@@ -11549,7 +11549,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR65" t="n">
         <v>2.02</v>
@@ -11886,7 +11886,7 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.47</v>
@@ -12056,7 +12056,7 @@
         <v>1.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.8</v>
@@ -12229,7 +12229,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR69" t="n">
         <v>1.33</v>
@@ -12736,7 +12736,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.87</v>
@@ -13756,10 +13756,10 @@
         <v>2.6</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR78" t="n">
         <v>1.34</v>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.13</v>
@@ -14436,7 +14436,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.19</v>
@@ -15796,10 +15796,10 @@
         <v>1.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR90" t="n">
         <v>1.53</v>
@@ -15969,7 +15969,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -16306,7 +16306,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.13</v>
@@ -16476,7 +16476,7 @@
         <v>1.43</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.4</v>
@@ -17499,7 +17499,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR100" t="n">
         <v>1.47</v>
@@ -18009,7 +18009,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR103" t="n">
         <v>1.52</v>
@@ -18686,7 +18686,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.67</v>
@@ -19196,7 +19196,7 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.87</v>
@@ -19536,7 +19536,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.8</v>
@@ -20049,7 +20049,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR115" t="n">
         <v>1.54</v>
@@ -20389,7 +20389,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -20729,7 +20729,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR119" t="n">
         <v>1.5</v>
@@ -20896,7 +20896,7 @@
         <v>1.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.19</v>
@@ -21576,7 +21576,7 @@
         <v>1.56</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.4</v>
@@ -21746,7 +21746,7 @@
         <v>1.89</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.33</v>
@@ -22429,7 +22429,7 @@
         <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR129" t="n">
         <v>1.22</v>
@@ -22596,7 +22596,7 @@
         <v>0.11</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.6</v>
@@ -23279,7 +23279,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR134" t="n">
         <v>1.35</v>
@@ -23616,7 +23616,7 @@
         <v>1.7</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.4</v>
@@ -24299,7 +24299,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -24806,7 +24806,7 @@
         <v>0.2</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.6</v>
@@ -25146,7 +25146,7 @@
         <v>2</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.47</v>
@@ -26166,7 +26166,7 @@
         <v>1.1</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.47</v>
@@ -26336,7 +26336,7 @@
         <v>0.45</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.67</v>
@@ -26679,7 +26679,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR154" t="n">
         <v>1.17</v>
@@ -26849,7 +26849,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR155" t="n">
         <v>1.84</v>
@@ -27186,7 +27186,7 @@
         <v>0.75</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.75</v>
@@ -27359,7 +27359,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR158" t="n">
         <v>1.31</v>
@@ -28719,7 +28719,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR166" t="n">
         <v>1.33</v>
@@ -28886,7 +28886,7 @@
         <v>1.08</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.19</v>
@@ -29226,7 +29226,7 @@
         <v>1.92</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.8</v>
@@ -29396,7 +29396,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.4</v>
@@ -29909,7 +29909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR173" t="n">
         <v>1.57</v>
@@ -30759,7 +30759,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR178" t="n">
         <v>1.36</v>
@@ -31096,7 +31096,7 @@
         <v>1.79</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.87</v>
@@ -31436,7 +31436,7 @@
         <v>1.23</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.47</v>
@@ -31946,7 +31946,7 @@
         <v>1.54</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.33</v>
@@ -32119,7 +32119,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR186" t="n">
         <v>1.28</v>
@@ -32629,7 +32629,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR189" t="n">
         <v>1.33</v>
@@ -32796,7 +32796,7 @@
         <v>2</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.8</v>
@@ -32966,7 +32966,7 @@
         <v>1.07</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.19</v>
@@ -34187,6 +34187,516 @@
       </c>
       <c r="AZ198" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5242451</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45199.0625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>34</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S199" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X199" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5242452</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45199.16666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>34</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2</v>
+      </c>
+      <c r="S200" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X200" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5242453</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45199.27083333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>34</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2</v>
+      </c>
+      <c r="S201" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X201" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ201"/>
+  <dimension ref="A1:AZ204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR15" t="n">
         <v>1.03</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR19" t="n">
         <v>1.08</v>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.47</v>
@@ -4409,7 +4409,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR28" t="n">
         <v>1.74</v>
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.19</v>
@@ -5936,10 +5936,10 @@
         <v>2</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR32" t="n">
         <v>1.11</v>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.88</v>
@@ -6789,7 +6789,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -7129,7 +7129,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR39" t="n">
         <v>1.95</v>
@@ -7976,7 +7976,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.75</v>
@@ -8316,7 +8316,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -8489,7 +8489,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR47" t="n">
         <v>1.45</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.67</v>
@@ -9169,7 +9169,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR51" t="n">
         <v>1.68</v>
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR52" t="n">
         <v>1.25</v>
@@ -9676,10 +9676,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.6</v>
@@ -11039,7 +11039,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR62" t="n">
         <v>1.62</v>
@@ -11206,7 +11206,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -11546,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.19</v>
@@ -11889,7 +11889,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR67" t="n">
         <v>1.52</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.6</v>
@@ -12739,7 +12739,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR72" t="n">
         <v>1.52</v>
@@ -12909,7 +12909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR73" t="n">
         <v>1.67</v>
@@ -13419,7 +13419,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR76" t="n">
         <v>1.35</v>
@@ -13586,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.13</v>
@@ -13926,7 +13926,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.67</v>
@@ -14266,7 +14266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.75</v>
@@ -14609,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -14776,10 +14776,10 @@
         <v>1.71</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR84" t="n">
         <v>1.95</v>
@@ -15286,7 +15286,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.8</v>
@@ -16136,7 +16136,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.8</v>
@@ -16479,7 +16479,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR94" t="n">
         <v>1.47</v>
@@ -16819,7 +16819,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR96" t="n">
         <v>1.23</v>
@@ -16989,7 +16989,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -17326,7 +17326,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.75</v>
@@ -17836,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.19</v>
@@ -18349,7 +18349,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR105" t="n">
         <v>1.55</v>
@@ -19199,7 +19199,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR110" t="n">
         <v>1.66</v>
@@ -19369,7 +19369,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -19876,7 +19876,7 @@
         <v>1.13</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.13</v>
@@ -20216,7 +20216,7 @@
         <v>2.13</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.33</v>
@@ -20386,7 +20386,7 @@
         <v>1.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.19</v>
@@ -20556,7 +20556,7 @@
         <v>0.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.67</v>
@@ -21069,7 +21069,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR121" t="n">
         <v>1.83</v>
@@ -21236,7 +21236,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.47</v>
@@ -21409,7 +21409,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR123" t="n">
         <v>1.32</v>
@@ -21579,7 +21579,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR124" t="n">
         <v>1.6</v>
@@ -22086,7 +22086,7 @@
         <v>1.11</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.19</v>
@@ -23276,7 +23276,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.19</v>
@@ -23446,10 +23446,10 @@
         <v>1.9</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR135" t="n">
         <v>1.82</v>
@@ -23619,7 +23619,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR136" t="n">
         <v>1.33</v>
@@ -23786,7 +23786,7 @@
         <v>1.3</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.13</v>
@@ -24296,7 +24296,7 @@
         <v>2.1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.88</v>
@@ -24639,7 +24639,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR142" t="n">
         <v>1.31</v>
@@ -25149,7 +25149,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR145" t="n">
         <v>1.58</v>
@@ -25319,7 +25319,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR146" t="n">
         <v>1.73</v>
@@ -26676,7 +26676,7 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.88</v>
@@ -27356,7 +27356,7 @@
         <v>2.08</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.88</v>
@@ -27529,7 +27529,7 @@
         <v>1</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -27699,7 +27699,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR160" t="n">
         <v>1.73</v>
@@ -27869,7 +27869,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR161" t="n">
         <v>1.58</v>
@@ -28036,7 +28036,7 @@
         <v>0.17</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.6</v>
@@ -28376,7 +28376,7 @@
         <v>1.08</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.13</v>
@@ -28549,7 +28549,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR165" t="n">
         <v>1.34</v>
@@ -29056,7 +29056,7 @@
         <v>1.27</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.47</v>
@@ -29399,7 +29399,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR170" t="n">
         <v>1.43</v>
@@ -29569,7 +29569,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR171" t="n">
         <v>1.53</v>
@@ -30076,7 +30076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.33</v>
@@ -30586,7 +30586,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.67</v>
@@ -31099,7 +31099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR180" t="n">
         <v>1.57</v>
@@ -31776,7 +31776,7 @@
         <v>0.93</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.19</v>
@@ -32459,7 +32459,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR188" t="n">
         <v>1.54</v>
@@ -32626,7 +32626,7 @@
         <v>1.14</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.19</v>
@@ -33136,10 +33136,10 @@
         <v>1.5</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR192" t="n">
         <v>1.18</v>
@@ -34697,6 +34697,516 @@
       </c>
       <c r="AZ201" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5242454</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45200.0625</v>
+      </c>
+      <c r="F202" t="n">
+        <v>34</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X202" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5242455</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45200.16666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>34</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>3</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['57', '68', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5242456</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45200.27083333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>34</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X204" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.47</v>
@@ -2663,7 +2663,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.19</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR16" t="n">
         <v>2.17</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR17" t="n">
         <v>2.25</v>
@@ -4407,7 +4407,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>1.15</v>
@@ -4625,7 +4625,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR19" t="n">
         <v>1.08</v>
@@ -4843,7 +4843,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5279,7 +5279,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR22" t="n">
         <v>1.19</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.56</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.88</v>
@@ -6151,7 +6151,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR26" t="n">
         <v>1.42</v>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.47</v>
@@ -6584,10 +6584,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR28" t="n">
         <v>1.74</v>
@@ -6802,10 +6802,10 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.19</v>
@@ -7677,7 +7677,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR33" t="n">
         <v>1.23</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.13</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR36" t="n">
         <v>1.26</v>
@@ -8764,7 +8764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.47</v>
@@ -8982,10 +8982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR39" t="n">
         <v>1.95</v>
@@ -9418,10 +9418,10 @@
         <v>2.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR41" t="n">
         <v>1.46</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR42" t="n">
         <v>1.72</v>
@@ -10075,7 +10075,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -10511,7 +10511,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR46" t="n">
         <v>2.31</v>
@@ -10726,7 +10726,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.94</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.19</v>
@@ -11165,7 +11165,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR49" t="n">
         <v>1.13</v>
@@ -11598,7 +11598,7 @@
         <v>1.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.94</v>
@@ -11816,7 +11816,7 @@
         <v>2.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.56</v>
@@ -12037,7 +12037,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR53" t="n">
         <v>1.35</v>
@@ -12255,7 +12255,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR56" t="n">
         <v>1.7</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR57" t="n">
         <v>1.35</v>
@@ -13127,7 +13127,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR58" t="n">
         <v>2.23</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.88</v>
@@ -13778,7 +13778,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.13</v>
@@ -13996,7 +13996,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.94</v>
@@ -14217,7 +14217,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR63" t="n">
         <v>1.17</v>
@@ -14435,7 +14435,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR64" t="n">
         <v>1.47</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.13</v>
@@ -15307,7 +15307,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR68" t="n">
         <v>1.52</v>
@@ -15522,7 +15522,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.19</v>
@@ -15743,7 +15743,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -16394,7 +16394,7 @@
         <v>2.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.56</v>
@@ -16612,10 +16612,10 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -16830,10 +16830,10 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR75" t="n">
         <v>1.98</v>
@@ -17048,10 +17048,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR76" t="n">
         <v>1.35</v>
@@ -17705,7 +17705,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR79" t="n">
         <v>1.28</v>
@@ -18141,7 +18141,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -18574,10 +18574,10 @@
         <v>1.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -19010,7 +19010,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.47</v>
@@ -19228,10 +19228,10 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR87" t="n">
         <v>1.38</v>
@@ -19664,10 +19664,10 @@
         <v>1.83</v>
       </c>
       <c r="AP88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ88" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>1.33</v>
       </c>
       <c r="AR88" t="n">
         <v>1.59</v>
@@ -19882,10 +19882,10 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20539,7 +20539,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR92" t="n">
         <v>1.16</v>
@@ -20975,7 +20975,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR94" t="n">
         <v>1.47</v>
@@ -21190,7 +21190,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.47</v>
@@ -21408,7 +21408,7 @@
         <v>1.88</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.94</v>
@@ -21626,7 +21626,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.56</v>
@@ -21844,10 +21844,10 @@
         <v>0.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR98" t="n">
         <v>1.8</v>
@@ -22065,7 +22065,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR99" t="n">
         <v>1.93</v>
@@ -22280,7 +22280,7 @@
         <v>2.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.88</v>
@@ -22501,7 +22501,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR101" t="n">
         <v>1.44</v>
@@ -22934,7 +22934,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.19</v>
@@ -23152,7 +23152,7 @@
         <v>1.14</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.47</v>
@@ -23370,10 +23370,10 @@
         <v>1.38</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR105" t="n">
         <v>1.55</v>
@@ -23588,10 +23588,10 @@
         <v>0.13</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR106" t="n">
         <v>1.81</v>
@@ -23809,7 +23809,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR107" t="n">
         <v>1.29</v>
@@ -24024,7 +24024,7 @@
         <v>0.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.19</v>
@@ -24242,10 +24242,10 @@
         <v>2</v>
       </c>
       <c r="AP109" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR109" t="n">
         <v>1.23</v>
@@ -24899,7 +24899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR112" t="n">
         <v>1.53</v>
@@ -25114,10 +25114,10 @@
         <v>0.78</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR113" t="n">
         <v>1.36</v>
@@ -25550,7 +25550,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.19</v>
@@ -25771,7 +25771,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR116" t="n">
         <v>1.37</v>
@@ -26207,7 +26207,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR118" t="n">
         <v>1.85</v>
@@ -26422,7 +26422,7 @@
         <v>2.13</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.88</v>
@@ -26858,7 +26858,7 @@
         <v>2.1</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.94</v>
@@ -27294,7 +27294,7 @@
         <v>2.11</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.56</v>
@@ -27515,7 +27515,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR124" t="n">
         <v>1.6</v>
@@ -27733,7 +27733,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR125" t="n">
         <v>1.33</v>
@@ -27948,7 +27948,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.13</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.88</v>
@@ -28823,7 +28823,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR130" t="n">
         <v>1.61</v>
@@ -29038,10 +29038,10 @@
         <v>2.11</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR131" t="n">
         <v>1.49</v>
@@ -29256,10 +29256,10 @@
         <v>0.22</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR132" t="n">
         <v>1.64</v>
@@ -29474,10 +29474,10 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR133" t="n">
         <v>1.87</v>
@@ -30131,7 +30131,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR136" t="n">
         <v>1.33</v>
@@ -30564,10 +30564,10 @@
         <v>0.2</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR138" t="n">
         <v>1.3</v>
@@ -30782,10 +30782,10 @@
         <v>2</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR139" t="n">
         <v>1.58</v>
@@ -31218,7 +31218,7 @@
         <v>1.3</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.19</v>
@@ -31657,7 +31657,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR143" t="n">
         <v>1.54</v>
@@ -31872,10 +31872,10 @@
         <v>0.73</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR144" t="n">
         <v>1.29</v>
@@ -32308,10 +32308,10 @@
         <v>1.55</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR146" t="n">
         <v>1.73</v>
@@ -32526,10 +32526,10 @@
         <v>0.18</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR147" t="n">
         <v>1.57</v>
@@ -32744,10 +32744,10 @@
         <v>1.82</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR148" t="n">
         <v>1.35</v>
@@ -32962,10 +32962,10 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR149" t="n">
         <v>1.3</v>
@@ -33180,7 +33180,7 @@
         <v>1.18</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.13</v>
@@ -33619,7 +33619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR152" t="n">
         <v>1.57</v>
@@ -33837,7 +33837,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR153" t="n">
         <v>1.35</v>
@@ -34270,7 +34270,7 @@
         <v>1.45</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.19</v>
@@ -34488,7 +34488,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.19</v>
@@ -34709,7 +34709,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR157" t="n">
         <v>1.48</v>
@@ -35142,7 +35142,7 @@
         <v>1.83</v>
       </c>
       <c r="AP159" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.94</v>
@@ -35360,7 +35360,7 @@
         <v>1.83</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.56</v>
@@ -35578,10 +35578,10 @@
         <v>1.42</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR161" t="n">
         <v>1.58</v>
@@ -35799,7 +35799,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR162" t="n">
         <v>1.75</v>
@@ -36014,10 +36014,10 @@
         <v>0.92</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR163" t="n">
         <v>1.87</v>
@@ -36450,7 +36450,7 @@
         <v>1.69</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.94</v>
@@ -37325,7 +37325,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -37543,7 +37543,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR170" t="n">
         <v>1.43</v>
@@ -37758,7 +37758,7 @@
         <v>1.69</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.56</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.19</v>
@@ -38194,7 +38194,7 @@
         <v>1.92</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.88</v>
@@ -38415,7 +38415,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -38633,7 +38633,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR175" t="n">
         <v>1.31</v>
@@ -38848,7 +38848,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.47</v>
@@ -39069,7 +39069,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR177" t="n">
         <v>1.2</v>
@@ -39284,7 +39284,7 @@
         <v>1.23</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.19</v>
@@ -39502,7 +39502,7 @@
         <v>1.23</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.13</v>
@@ -39938,10 +39938,10 @@
         <v>0.23</v>
       </c>
       <c r="AP181" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR181" t="n">
         <v>1.35</v>
@@ -40374,7 +40374,7 @@
         <v>1.21</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.13</v>
@@ -40813,7 +40813,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -41246,10 +41246,10 @@
         <v>0.54</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR187" t="n">
         <v>1.53</v>
@@ -41464,7 +41464,7 @@
         <v>1.57</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.56</v>
@@ -41903,7 +41903,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR190" t="n">
         <v>1.52</v>
@@ -42339,7 +42339,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR192" t="n">
         <v>1.18</v>
@@ -42554,7 +42554,7 @@
         <v>1.36</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.47</v>
@@ -42772,10 +42772,10 @@
         <v>1.43</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR194" t="n">
         <v>1.8</v>
@@ -42990,10 +42990,10 @@
         <v>0.43</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR195" t="n">
         <v>1.71</v>
@@ -43208,10 +43208,10 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR196" t="n">
         <v>1.39</v>
@@ -43426,10 +43426,10 @@
         <v>0.5</v>
       </c>
       <c r="AP197" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR197" t="n">
         <v>1.36</v>
@@ -43647,7 +43647,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR198" t="n">
         <v>1.25</v>
@@ -44519,7 +44519,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -45031,6 +45031,1314 @@
       </c>
       <c r="BP204" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5242458</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45206.0625</v>
+      </c>
+      <c r="F205" t="n">
+        <v>35</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U205" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X205" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5242457</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45206.0625</v>
+      </c>
+      <c r="F206" t="n">
+        <v>35</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['39', '45+2', '90+5']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S206" t="n">
+        <v>5</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5242459</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45206.16666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>35</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['43', '45+2']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X207" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5242460</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45206.16666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>35</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>5</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['16', '56', '59']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['45+3', '75']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U208" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X208" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5242461</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45206.27083333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>35</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>3</v>
+      </c>
+      <c r="N209" t="n">
+        <v>4</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['44', '86', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X209" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5242462</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45206.27083333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>35</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>3</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['51', '81', '90+2']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X210" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.56</v>
@@ -2009,7 +2009,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.63</v>
@@ -5061,7 +5061,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR21" t="n">
         <v>2.02</v>
@@ -6369,7 +6369,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR27" t="n">
         <v>1.9</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.94</v>
@@ -8767,7 +8767,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR38" t="n">
         <v>1.66</v>
@@ -9200,7 +9200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.19</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.88</v>
@@ -13345,7 +13345,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR59" t="n">
         <v>1.42</v>
@@ -17484,7 +17484,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.88</v>
@@ -19013,7 +19013,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR85" t="n">
         <v>1.94</v>
@@ -20754,7 +20754,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.13</v>
@@ -21193,7 +21193,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR95" t="n">
         <v>1.29</v>
@@ -23155,7 +23155,7 @@
         <v>2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.63</v>
@@ -26640,7 +26640,7 @@
         <v>1.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.19</v>
@@ -27079,7 +27079,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR122" t="n">
         <v>1.11</v>
@@ -27730,7 +27730,7 @@
         <v>1.89</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.25</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR128" t="n">
         <v>1.36</v>
@@ -30128,7 +30128,7 @@
         <v>1.7</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.29</v>
@@ -33401,7 +33401,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -37107,7 +37107,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37322,7 +37322,7 @@
         <v>1.92</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.88</v>
@@ -38851,7 +38851,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -40159,7 +40159,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR182" t="n">
         <v>1.48</v>
@@ -40810,7 +40810,7 @@
         <v>1.54</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.25</v>
@@ -42118,7 +42118,7 @@
         <v>1.07</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.19</v>
@@ -42557,7 +42557,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -44298,7 +44298,7 @@
         <v>1.27</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.19</v>
@@ -46339,6 +46339,224 @@
       </c>
       <c r="BP210" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5242401</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45213.16666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>26</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>5</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['18', '87', '90+7']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['40', '80']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S211" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X211" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.71</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.63</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3535,7 +3535,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR14" t="n">
         <v>1.33</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR15" t="n">
         <v>1.03</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR16" t="n">
         <v>2.17</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR18" t="n">
         <v>1.15</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.29</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.63</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.63</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR24" t="n">
         <v>1.57</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.29</v>
@@ -6805,7 +6805,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR31" t="n">
         <v>1.08</v>
@@ -7456,10 +7456,10 @@
         <v>2</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR32" t="n">
         <v>1.11</v>
@@ -7674,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR33" t="n">
         <v>1.23</v>
@@ -7895,7 +7895,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR34" t="n">
         <v>1.38</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.88</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -9200,7 +9200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.19</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR41" t="n">
         <v>1.46</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.88</v>
@@ -10072,7 +10072,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.71</v>
@@ -10290,7 +10290,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.19</v>
@@ -10511,7 +10511,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR46" t="n">
         <v>2.31</v>
@@ -10726,10 +10726,10 @@
         <v>1.67</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.45</v>
@@ -10947,7 +10947,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR48" t="n">
         <v>2.15</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.63</v>
@@ -11601,7 +11601,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR51" t="n">
         <v>1.68</v>
@@ -11819,7 +11819,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR52" t="n">
         <v>1.25</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR53" t="n">
         <v>1.35</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.29</v>
@@ -12470,10 +12470,10 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR55" t="n">
         <v>1.35</v>
@@ -13781,7 +13781,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR61" t="n">
         <v>1.11</v>
@@ -13999,7 +13999,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.62</v>
@@ -14214,10 +14214,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR63" t="n">
         <v>1.17</v>
@@ -14432,7 +14432,7 @@
         <v>0.8</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.71</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR66" t="n">
         <v>1.41</v>
@@ -15086,10 +15086,10 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR67" t="n">
         <v>1.52</v>
@@ -15304,10 +15304,10 @@
         <v>1.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR68" t="n">
         <v>1.52</v>
@@ -15522,7 +15522,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.19</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.63</v>
@@ -15958,10 +15958,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR71" t="n">
         <v>1.45</v>
@@ -16179,7 +16179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR72" t="n">
         <v>1.52</v>
@@ -16397,7 +16397,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR73" t="n">
         <v>1.67</v>
@@ -16833,7 +16833,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR75" t="n">
         <v>1.98</v>
@@ -17269,7 +17269,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR77" t="n">
         <v>1.92</v>
@@ -17484,7 +17484,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.88</v>
@@ -17702,7 +17702,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.63</v>
@@ -17920,10 +17920,10 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR80" t="n">
         <v>1.49</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.71</v>
@@ -18359,7 +18359,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR82" t="n">
         <v>1.44</v>
@@ -18795,7 +18795,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.95</v>
@@ -19446,10 +19446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR87" t="n">
         <v>1.38</v>
@@ -19667,7 +19667,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR88" t="n">
         <v>1.59</v>
@@ -20100,7 +20100,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.19</v>
@@ -20318,7 +20318,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.88</v>
@@ -20536,10 +20536,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR92" t="n">
         <v>1.16</v>
@@ -20754,10 +20754,10 @@
         <v>1.29</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -21190,7 +21190,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.38</v>
@@ -21411,7 +21411,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.23</v>
@@ -21629,7 +21629,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.63</v>
@@ -22716,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR102" t="n">
         <v>1.37</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.63</v>
@@ -24024,10 +24024,10 @@
         <v>0.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24245,7 +24245,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR109" t="n">
         <v>1.23</v>
@@ -24460,10 +24460,10 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.66</v>
@@ -24678,10 +24678,10 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -24899,7 +24899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR112" t="n">
         <v>1.53</v>
@@ -25114,7 +25114,7 @@
         <v>0.78</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.71</v>
@@ -25332,10 +25332,10 @@
         <v>1.13</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR114" t="n">
         <v>1.38</v>
@@ -25768,10 +25768,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR116" t="n">
         <v>1.37</v>
@@ -25986,7 +25986,7 @@
         <v>1.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.19</v>
@@ -26640,10 +26640,10 @@
         <v>1.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR120" t="n">
         <v>1.31</v>
@@ -26861,7 +26861,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR121" t="n">
         <v>1.83</v>
@@ -27076,7 +27076,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.38</v>
@@ -27294,10 +27294,10 @@
         <v>2.11</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR123" t="n">
         <v>1.32</v>
@@ -27512,7 +27512,7 @@
         <v>1.56</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.29</v>
@@ -27730,10 +27730,10 @@
         <v>1.89</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR125" t="n">
         <v>1.33</v>
@@ -27951,7 +27951,7 @@
         <v>2</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR126" t="n">
         <v>1.55</v>
@@ -28169,7 +28169,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR127" t="n">
         <v>1.83</v>
@@ -28384,7 +28384,7 @@
         <v>1.11</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.38</v>
@@ -29041,7 +29041,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR131" t="n">
         <v>1.49</v>
@@ -29692,7 +29692,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.19</v>
@@ -29913,7 +29913,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR135" t="n">
         <v>1.82</v>
@@ -30128,7 +30128,7 @@
         <v>1.7</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.29</v>
@@ -30346,10 +30346,10 @@
         <v>1.3</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR137" t="n">
         <v>1.14</v>
@@ -30564,7 +30564,7 @@
         <v>0.2</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.63</v>
@@ -30785,7 +30785,7 @@
         <v>2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR139" t="n">
         <v>1.58</v>
@@ -31221,7 +31221,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31436,10 +31436,10 @@
         <v>1.91</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR142" t="n">
         <v>1.31</v>
@@ -31654,7 +31654,7 @@
         <v>0.2</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.63</v>
@@ -32093,7 +32093,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR145" t="n">
         <v>1.58</v>
@@ -32744,10 +32744,10 @@
         <v>1.82</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR148" t="n">
         <v>1.35</v>
@@ -32965,7 +32965,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR149" t="n">
         <v>1.3</v>
@@ -33183,7 +33183,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR150" t="n">
         <v>1.87</v>
@@ -33398,7 +33398,7 @@
         <v>1.1</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.38</v>
@@ -33834,10 +33834,10 @@
         <v>2.09</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR153" t="n">
         <v>1.35</v>
@@ -34052,7 +34052,7 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.88</v>
@@ -34491,7 +34491,7 @@
         <v>2</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -34706,7 +34706,7 @@
         <v>0.75</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.71</v>
@@ -34924,7 +34924,7 @@
         <v>2.08</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.88</v>
@@ -35145,7 +35145,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -35363,7 +35363,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR160" t="n">
         <v>1.73</v>
@@ -36235,7 +36235,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR164" t="n">
         <v>1.79</v>
@@ -36450,10 +36450,10 @@
         <v>1.69</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR165" t="n">
         <v>1.34</v>
@@ -36668,7 +36668,7 @@
         <v>1.33</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.19</v>
@@ -36889,7 +36889,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR167" t="n">
         <v>1.62</v>
@@ -37104,7 +37104,7 @@
         <v>1.27</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.38</v>
@@ -37322,10 +37322,10 @@
         <v>1.92</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -37540,7 +37540,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.29</v>
@@ -37761,7 +37761,7 @@
         <v>2</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR171" t="n">
         <v>1.53</v>
@@ -37979,7 +37979,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR172" t="n">
         <v>1.28</v>
@@ -38412,10 +38412,10 @@
         <v>1.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -38630,7 +38630,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.71</v>
@@ -39066,7 +39066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.63</v>
@@ -39284,7 +39284,7 @@
         <v>1.23</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.19</v>
@@ -39505,7 +39505,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR179" t="n">
         <v>1.77</v>
@@ -39723,7 +39723,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR180" t="n">
         <v>1.57</v>
@@ -40156,7 +40156,7 @@
         <v>1.23</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.38</v>
@@ -40377,7 +40377,7 @@
         <v>2</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR183" t="n">
         <v>1.54</v>
@@ -40595,7 +40595,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR184" t="n">
         <v>1.76</v>
@@ -40810,10 +40810,10 @@
         <v>1.54</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -41028,7 +41028,7 @@
         <v>2</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.88</v>
@@ -41467,7 +41467,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR188" t="n">
         <v>1.54</v>
@@ -41682,7 +41682,7 @@
         <v>1.14</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.19</v>
@@ -41903,7 +41903,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR190" t="n">
         <v>1.52</v>
@@ -42118,10 +42118,10 @@
         <v>1.07</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR191" t="n">
         <v>1.33</v>
@@ -42336,7 +42336,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.29</v>
@@ -42775,7 +42775,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR194" t="n">
         <v>1.8</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.71</v>
@@ -43644,10 +43644,10 @@
         <v>1.93</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR198" t="n">
         <v>1.25</v>
@@ -43865,7 +43865,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR199" t="n">
         <v>1.48</v>
@@ -44080,7 +44080,7 @@
         <v>1.93</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.88</v>
@@ -44298,7 +44298,7 @@
         <v>1.27</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.19</v>
@@ -44516,7 +44516,7 @@
         <v>1.4</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.29</v>
@@ -44734,10 +44734,10 @@
         <v>1.47</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR203" t="n">
         <v>1.19</v>
@@ -44955,7 +44955,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR204" t="n">
         <v>1.75</v>
@@ -46045,7 +46045,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR209" t="n">
         <v>1.36</v>
@@ -46260,10 +46260,10 @@
         <v>1.33</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR210" t="n">
         <v>1.38</v>
@@ -46478,7 +46478,7 @@
         <v>1.47</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.38</v>
@@ -46557,6 +46557,1314 @@
       </c>
       <c r="BP211" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5242463</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45220.0625</v>
+      </c>
+      <c r="F212" t="n">
+        <v>36</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>3</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>4</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['45+1', '56', '78']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>4</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X212" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5242464</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45220.16666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>36</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X213" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5242465</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45220.27083333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>36</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['6', '54']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X214" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5242466</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45221.0625</v>
+      </c>
+      <c r="F215" t="n">
+        <v>36</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>3</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['44', '88']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S215" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X215" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5242467</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45221.16666666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>36</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X216" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5242468</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45221.27083333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>36</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>4</v>
+      </c>
+      <c r="K217" t="n">
+        <v>6</v>
+      </c>
+      <c r="L217" t="n">
+        <v>3</v>
+      </c>
+      <c r="M217" t="n">
+        <v>7</v>
+      </c>
+      <c r="N217" t="n">
+        <v>10</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['29', '41', '68']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['17', '22', '24', '42', '57', '80', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X217" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -47707,7 +47707,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>['17', '22', '24', '42', '57', '80', '90+5']</t>
+          <t>['17', '22', '24', '42', '57', '78', '90+5']</t>
         </is>
       </c>
       <c r="Q217" t="n">

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.29</v>
@@ -1573,7 +1573,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.65</v>
@@ -2881,7 +2881,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.38</v>
@@ -5279,7 +5279,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR22" t="n">
         <v>1.19</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.06</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.71</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -8331,7 +8331,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR36" t="n">
         <v>1.26</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>2</v>
@@ -9200,10 +9200,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR40" t="n">
         <v>1.42</v>
@@ -9639,7 +9639,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR42" t="n">
         <v>1.72</v>
@@ -10293,7 +10293,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR45" t="n">
         <v>1.28</v>
@@ -10508,7 +10508,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.24</v>
@@ -11165,7 +11165,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR49" t="n">
         <v>1.13</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.88</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.82</v>
@@ -12909,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR57" t="n">
         <v>1.35</v>
@@ -13124,10 +13124,10 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR58" t="n">
         <v>2.23</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.38</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR65" t="n">
         <v>2.02</v>
@@ -15525,7 +15525,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR69" t="n">
         <v>1.33</v>
@@ -15743,7 +15743,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ72" t="n">
         <v>2</v>
@@ -16615,7 +16615,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.06</v>
@@ -17484,7 +17484,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.88</v>
@@ -17705,7 +17705,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR79" t="n">
         <v>1.28</v>
@@ -18356,7 +18356,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.12</v>
@@ -18792,7 +18792,7 @@
         <v>1.71</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84" t="n">
         <v>2</v>
@@ -19231,7 +19231,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -20103,7 +20103,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR90" t="n">
         <v>1.53</v>
@@ -20754,7 +20754,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.06</v>
@@ -20972,7 +20972,7 @@
         <v>1.43</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.29</v>
@@ -21847,7 +21847,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR98" t="n">
         <v>1.8</v>
@@ -22062,7 +22062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.71</v>
@@ -22501,7 +22501,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR101" t="n">
         <v>1.44</v>
@@ -22937,7 +22937,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR103" t="n">
         <v>1.52</v>
@@ -23591,7 +23591,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR106" t="n">
         <v>1.81</v>
@@ -23806,10 +23806,10 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR107" t="n">
         <v>1.29</v>
@@ -24896,7 +24896,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.82</v>
@@ -25553,7 +25553,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR115" t="n">
         <v>1.54</v>
@@ -25989,7 +25989,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26204,10 +26204,10 @@
         <v>0.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR118" t="n">
         <v>1.85</v>
@@ -26640,7 +26640,7 @@
         <v>1.13</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.12</v>
@@ -27730,7 +27730,7 @@
         <v>1.89</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.24</v>
@@ -28166,7 +28166,7 @@
         <v>1.11</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.12</v>
@@ -28820,10 +28820,10 @@
         <v>0.11</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR130" t="n">
         <v>1.61</v>
@@ -29259,7 +29259,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR132" t="n">
         <v>1.64</v>
@@ -29695,7 +29695,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR134" t="n">
         <v>1.35</v>
@@ -29910,7 +29910,7 @@
         <v>1.9</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.65</v>
@@ -30128,7 +30128,7 @@
         <v>1.7</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.29</v>
@@ -30567,7 +30567,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR138" t="n">
         <v>1.3</v>
@@ -31000,7 +31000,7 @@
         <v>2.1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.88</v>
@@ -31657,7 +31657,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR143" t="n">
         <v>1.54</v>
@@ -32090,7 +32090,7 @@
         <v>2</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.65</v>
@@ -32529,7 +32529,7 @@
         <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR147" t="n">
         <v>1.57</v>
@@ -33616,10 +33616,10 @@
         <v>0.45</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR152" t="n">
         <v>1.57</v>
@@ -34273,7 +34273,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR155" t="n">
         <v>1.84</v>
@@ -35796,10 +35796,10 @@
         <v>0.17</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR162" t="n">
         <v>1.75</v>
@@ -36232,7 +36232,7 @@
         <v>1.08</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.06</v>
@@ -36671,7 +36671,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR166" t="n">
         <v>1.33</v>
@@ -36886,7 +36886,7 @@
         <v>1.08</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.12</v>
@@ -37322,7 +37322,7 @@
         <v>1.92</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.82</v>
@@ -39069,7 +39069,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR177" t="n">
         <v>1.2</v>
@@ -39287,7 +39287,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR178" t="n">
         <v>1.36</v>
@@ -39720,7 +39720,7 @@
         <v>1.79</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ180" t="n">
         <v>2</v>
@@ -39941,7 +39941,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR181" t="n">
         <v>1.35</v>
@@ -40592,7 +40592,7 @@
         <v>0.93</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.12</v>
@@ -40810,7 +40810,7 @@
         <v>1.54</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.24</v>
@@ -41249,7 +41249,7 @@
         <v>2</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR187" t="n">
         <v>1.53</v>
@@ -41685,7 +41685,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR189" t="n">
         <v>1.33</v>
@@ -41900,7 +41900,7 @@
         <v>2</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.82</v>
@@ -42118,7 +42118,7 @@
         <v>1.07</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.12</v>
@@ -42993,7 +42993,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR195" t="n">
         <v>1.71</v>
@@ -43429,7 +43429,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR197" t="n">
         <v>1.36</v>
@@ -43862,7 +43862,7 @@
         <v>1.13</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.06</v>
@@ -44298,10 +44298,10 @@
         <v>1.27</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR201" t="n">
         <v>1.29</v>
@@ -44952,7 +44952,7 @@
         <v>1.87</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ204" t="n">
         <v>2</v>
@@ -45173,7 +45173,7 @@
         <v>2</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR205" t="n">
         <v>1.51</v>
@@ -45827,7 +45827,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR208" t="n">
         <v>1.67</v>
@@ -46478,7 +46478,7 @@
         <v>1.47</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.38</v>
@@ -47132,7 +47132,7 @@
         <v>1.94</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ214" t="n">
         <v>2</v>
@@ -47865,6 +47865,660 @@
       </c>
       <c r="BP217" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5242469</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45227.0625</v>
+      </c>
+      <c r="F218" t="n">
+        <v>37</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>4</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>6</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['16', '69', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['37', '58']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S218" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X218" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5242470</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45227.16666666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>37</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['16', '51']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X219" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5242471</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45227.27083333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>37</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>3</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['49', '74', '90+2']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S220" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X220" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.24</v>
@@ -2009,7 +2009,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.82</v>
@@ -4625,7 +4625,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR19" t="n">
         <v>1.08</v>
@@ -5061,7 +5061,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR21" t="n">
         <v>2.02</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.65</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR25" t="n">
         <v>1.53</v>
@@ -6369,7 +6369,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR27" t="n">
         <v>1.9</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR28" t="n">
         <v>1.74</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.82</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.12</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.06</v>
@@ -8113,7 +8113,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR35" t="n">
         <v>1.15</v>
@@ -8764,10 +8764,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR38" t="n">
         <v>1.66</v>
@@ -8982,10 +8982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR39" t="n">
         <v>1.95</v>
@@ -9418,7 +9418,7 @@
         <v>2.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.82</v>
@@ -9857,7 +9857,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR43" t="n">
         <v>1.16</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.12</v>
@@ -11383,7 +11383,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR50" t="n">
         <v>1.42</v>
@@ -12255,7 +12255,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.71</v>
@@ -12906,7 +12906,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.59</v>
@@ -13345,7 +13345,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR59" t="n">
         <v>1.42</v>
@@ -13560,10 +13560,10 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR60" t="n">
         <v>2.14</v>
@@ -13996,7 +13996,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ62" t="n">
         <v>2</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.24</v>
@@ -17048,10 +17048,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR76" t="n">
         <v>1.35</v>
@@ -17487,7 +17487,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR78" t="n">
         <v>1.34</v>
@@ -18577,7 +18577,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -19010,10 +19010,10 @@
         <v>0.8</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR85" t="n">
         <v>1.94</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.59</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.71</v>
@@ -20321,7 +20321,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -20975,7 +20975,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR94" t="n">
         <v>1.47</v>
@@ -21193,7 +21193,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR95" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.65</v>
@@ -21844,7 +21844,7 @@
         <v>0.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.59</v>
@@ -22280,10 +22280,10 @@
         <v>2.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR100" t="n">
         <v>1.47</v>
@@ -23152,10 +23152,10 @@
         <v>1.14</v>
       </c>
       <c r="AP104" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -23373,7 +23373,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR105" t="n">
         <v>1.55</v>
@@ -23588,7 +23588,7 @@
         <v>0.13</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.59</v>
@@ -25550,7 +25550,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.12</v>
@@ -26425,7 +26425,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR119" t="n">
         <v>1.5</v>
@@ -26858,7 +26858,7 @@
         <v>2.1</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ121" t="n">
         <v>2</v>
@@ -27079,7 +27079,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR122" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR124" t="n">
         <v>1.6</v>
@@ -27948,7 +27948,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.06</v>
@@ -28387,7 +28387,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR128" t="n">
         <v>1.36</v>
@@ -28605,7 +28605,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR129" t="n">
         <v>1.22</v>
@@ -29256,7 +29256,7 @@
         <v>0.22</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.59</v>
@@ -29474,7 +29474,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.71</v>
@@ -30131,7 +30131,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR136" t="n">
         <v>1.33</v>
@@ -30782,7 +30782,7 @@
         <v>2</v>
       </c>
       <c r="AP139" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.24</v>
@@ -31003,7 +31003,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -32308,10 +32308,10 @@
         <v>1.55</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR146" t="n">
         <v>1.73</v>
@@ -32526,7 +32526,7 @@
         <v>0.18</v>
       </c>
       <c r="AP147" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.59</v>
@@ -33180,7 +33180,7 @@
         <v>1.18</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.06</v>
@@ -33401,7 +33401,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -34055,7 +34055,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR154" t="n">
         <v>1.17</v>
@@ -34270,7 +34270,7 @@
         <v>1.45</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.12</v>
@@ -34488,7 +34488,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.12</v>
@@ -34927,7 +34927,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR158" t="n">
         <v>1.31</v>
@@ -35360,7 +35360,7 @@
         <v>1.83</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.65</v>
@@ -35581,7 +35581,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR161" t="n">
         <v>1.58</v>
@@ -36014,7 +36014,7 @@
         <v>0.92</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.71</v>
@@ -37107,7 +37107,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37543,7 +37543,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR170" t="n">
         <v>1.43</v>
@@ -37758,7 +37758,7 @@
         <v>1.69</v>
       </c>
       <c r="AP171" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.65</v>
@@ -38197,7 +38197,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR173" t="n">
         <v>1.57</v>
@@ -38848,10 +38848,10 @@
         <v>1.25</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -39502,7 +39502,7 @@
         <v>1.23</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.06</v>
@@ -40159,7 +40159,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR182" t="n">
         <v>1.48</v>
@@ -40374,7 +40374,7 @@
         <v>1.21</v>
       </c>
       <c r="AP183" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.06</v>
@@ -41031,7 +41031,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR186" t="n">
         <v>1.28</v>
@@ -41246,7 +41246,7 @@
         <v>0.54</v>
       </c>
       <c r="AP187" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.59</v>
@@ -42339,7 +42339,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR192" t="n">
         <v>1.18</v>
@@ -42557,7 +42557,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -42772,7 +42772,7 @@
         <v>1.43</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.24</v>
@@ -42990,7 +42990,7 @@
         <v>0.43</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.59</v>
@@ -44083,7 +44083,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR200" t="n">
         <v>1.49</v>
@@ -44519,7 +44519,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -45170,7 +45170,7 @@
         <v>0.6</v>
       </c>
       <c r="AP205" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.59</v>
@@ -45388,10 +45388,10 @@
         <v>1.38</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR206" t="n">
         <v>1.8</v>
@@ -45824,7 +45824,7 @@
         <v>0.67</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.59</v>
@@ -46481,7 +46481,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR211" t="n">
         <v>1.32</v>
@@ -48519,6 +48519,660 @@
       </c>
       <c r="BP220" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5242472</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45228.0625</v>
+      </c>
+      <c r="F221" t="n">
+        <v>37</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['38', '51', '63']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5242473</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45228.16666666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>37</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['70', '86']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X222" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5242474</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45228.27083333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['49', '76']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S223" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X223" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.22</v>
@@ -1791,7 +1791,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.29</v>
@@ -2227,7 +2227,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.12</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ15" t="n">
         <v>2</v>
@@ -4189,7 +4189,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR17" t="n">
         <v>2.25</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.29</v>
@@ -5497,7 +5497,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR24" t="n">
         <v>1.57</v>
@@ -6151,7 +6151,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR26" t="n">
         <v>1.42</v>
@@ -7459,7 +7459,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR32" t="n">
         <v>1.11</v>
@@ -7895,7 +7895,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR34" t="n">
         <v>1.38</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.76</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.59</v>
@@ -10072,10 +10072,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -10508,7 +10508,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.24</v>
@@ -11816,10 +11816,10 @@
         <v>2.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR52" t="n">
         <v>1.25</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.22</v>
@@ -12691,7 +12691,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.7</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.59</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR61" t="n">
         <v>1.11</v>
@@ -14435,7 +14435,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.47</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.12</v>
@@ -14871,7 +14871,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR66" t="n">
         <v>1.41</v>
@@ -15089,7 +15089,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR67" t="n">
         <v>1.52</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.59</v>
@@ -16397,7 +16397,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR73" t="n">
         <v>1.67</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.59</v>
@@ -17266,10 +17266,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR77" t="n">
         <v>1.92</v>
@@ -17702,7 +17702,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.59</v>
@@ -17923,7 +17923,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR80" t="n">
         <v>1.49</v>
@@ -18141,7 +18141,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -18574,7 +18574,7 @@
         <v>1.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.22</v>
@@ -18792,7 +18792,7 @@
         <v>1.71</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ84" t="n">
         <v>2</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.82</v>
@@ -19885,7 +19885,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -20757,7 +20757,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -21408,7 +21408,7 @@
         <v>1.88</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -21629,7 +21629,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR97" t="n">
         <v>1.62</v>
@@ -22062,10 +22062,10 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.93</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.12</v>
@@ -24242,7 +24242,7 @@
         <v>2</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.24</v>
@@ -24681,7 +24681,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR111" t="n">
         <v>1.4</v>
@@ -25117,7 +25117,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.36</v>
@@ -25332,10 +25332,10 @@
         <v>1.13</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR114" t="n">
         <v>1.38</v>
@@ -25768,7 +25768,7 @@
         <v>2.13</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.24</v>
@@ -26204,7 +26204,7 @@
         <v>0.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.59</v>
@@ -27297,7 +27297,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR123" t="n">
         <v>1.32</v>
@@ -27951,7 +27951,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR126" t="n">
         <v>1.55</v>
@@ -28166,7 +28166,7 @@
         <v>1.11</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.12</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.76</v>
@@ -29477,7 +29477,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.87</v>
@@ -29692,7 +29692,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.12</v>
@@ -29910,10 +29910,10 @@
         <v>1.9</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR135" t="n">
         <v>1.82</v>
@@ -30349,7 +30349,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR137" t="n">
         <v>1.14</v>
@@ -31000,7 +31000,7 @@
         <v>2.1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.76</v>
@@ -31872,10 +31872,10 @@
         <v>0.73</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR144" t="n">
         <v>1.29</v>
@@ -32093,7 +32093,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR145" t="n">
         <v>1.58</v>
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.82</v>
@@ -33183,7 +33183,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR150" t="n">
         <v>1.87</v>
@@ -34709,7 +34709,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR157" t="n">
         <v>1.48</v>
@@ -34924,7 +34924,7 @@
         <v>2.08</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.76</v>
@@ -35142,7 +35142,7 @@
         <v>1.83</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ159" t="n">
         <v>2</v>
@@ -35363,7 +35363,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR160" t="n">
         <v>1.73</v>
@@ -35796,7 +35796,7 @@
         <v>0.17</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.59</v>
@@ -36017,7 +36017,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR163" t="n">
         <v>1.87</v>
@@ -36232,10 +36232,10 @@
         <v>1.08</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR164" t="n">
         <v>1.79</v>
@@ -37761,7 +37761,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR171" t="n">
         <v>1.53</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.12</v>
@@ -38412,7 +38412,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.24</v>
@@ -38633,7 +38633,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR175" t="n">
         <v>1.31</v>
@@ -39505,7 +39505,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR179" t="n">
         <v>1.77</v>
@@ -39938,7 +39938,7 @@
         <v>0.23</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.59</v>
@@ -40377,7 +40377,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR183" t="n">
         <v>1.54</v>
@@ -40592,7 +40592,7 @@
         <v>0.93</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.12</v>
@@ -41467,7 +41467,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR188" t="n">
         <v>1.54</v>
@@ -41682,7 +41682,7 @@
         <v>1.14</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.12</v>
@@ -43211,7 +43211,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR196" t="n">
         <v>1.39</v>
@@ -43426,7 +43426,7 @@
         <v>0.5</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.59</v>
@@ -43865,7 +43865,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR199" t="n">
         <v>1.48</v>
@@ -44516,7 +44516,7 @@
         <v>1.4</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.22</v>
@@ -44737,7 +44737,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR203" t="n">
         <v>1.19</v>
@@ -44952,7 +44952,7 @@
         <v>1.87</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ204" t="n">
         <v>2</v>
@@ -45609,7 +45609,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR207" t="n">
         <v>1.6</v>
@@ -46042,7 +46042,7 @@
         <v>1.8</v>
       </c>
       <c r="AP209" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.82</v>
@@ -46699,7 +46699,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR212" t="n">
         <v>1.15</v>
@@ -47568,7 +47568,7 @@
         <v>1.88</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.82</v>
@@ -47789,7 +47789,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR217" t="n">
         <v>1.49</v>
@@ -48004,7 +48004,7 @@
         <v>0.63</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ218" t="n">
         <v>0.59</v>
@@ -49173,6 +49173,660 @@
       </c>
       <c r="BP223" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5242475</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45241.0625</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['42', '88']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X224" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5242476</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45241.16666666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>38</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Asan Mugunghwa</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X225" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5242477</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45241.27083333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>38</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.67</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.82</v>
@@ -3753,7 +3753,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR15" t="n">
         <v>1.03</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR18" t="n">
         <v>1.15</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.22</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR25" t="n">
         <v>1.53</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.12</v>
@@ -7456,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.61</v>
@@ -7677,7 +7677,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.23</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.17</v>
@@ -8113,7 +8113,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR35" t="n">
         <v>1.15</v>
@@ -8549,7 +8549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8764,7 +8764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.29</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR43" t="n">
         <v>1.16</v>
@@ -10511,7 +10511,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR46" t="n">
         <v>2.31</v>
@@ -10729,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR47" t="n">
         <v>1.45</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.59</v>
@@ -11383,7 +11383,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR50" t="n">
         <v>1.42</v>
@@ -11601,7 +11601,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR51" t="n">
         <v>1.68</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.12</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.67</v>
@@ -13563,7 +13563,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR60" t="n">
         <v>2.14</v>
@@ -13996,10 +13996,10 @@
         <v>1.6</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR62" t="n">
         <v>1.62</v>
@@ -14214,10 +14214,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>1.17</v>
@@ -15086,7 +15086,7 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.61</v>
@@ -15304,7 +15304,7 @@
         <v>1.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.82</v>
@@ -16179,7 +16179,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR72" t="n">
         <v>1.52</v>
@@ -16833,7 +16833,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR75" t="n">
         <v>1.98</v>
@@ -17487,7 +17487,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR78" t="n">
         <v>1.34</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.17</v>
@@ -18138,7 +18138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.67</v>
@@ -18795,7 +18795,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR84" t="n">
         <v>1.95</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.59</v>
@@ -19667,7 +19667,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR88" t="n">
         <v>1.59</v>
@@ -20100,7 +20100,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.12</v>
@@ -20321,7 +20321,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR91" t="n">
         <v>1.53</v>
@@ -20536,7 +20536,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.82</v>
@@ -21411,7 +21411,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR96" t="n">
         <v>1.23</v>
@@ -21626,7 +21626,7 @@
         <v>2.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.61</v>
@@ -22283,7 +22283,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR100" t="n">
         <v>1.47</v>
@@ -24245,7 +24245,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR109" t="n">
         <v>1.23</v>
@@ -24460,10 +24460,10 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR110" t="n">
         <v>1.66</v>
@@ -25550,7 +25550,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.12</v>
@@ -25771,7 +25771,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.37</v>
@@ -25986,7 +25986,7 @@
         <v>1.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.12</v>
@@ -26425,7 +26425,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR119" t="n">
         <v>1.5</v>
@@ -26861,7 +26861,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR121" t="n">
         <v>1.83</v>
@@ -27076,7 +27076,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.29</v>
@@ -27512,7 +27512,7 @@
         <v>1.56</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.22</v>
@@ -27733,7 +27733,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR125" t="n">
         <v>1.33</v>
@@ -28605,7 +28605,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR129" t="n">
         <v>1.22</v>
@@ -29256,7 +29256,7 @@
         <v>0.22</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.59</v>
@@ -30346,7 +30346,7 @@
         <v>1.3</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.17</v>
@@ -30785,7 +30785,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR139" t="n">
         <v>1.58</v>
@@ -31003,7 +31003,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31439,7 +31439,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ142" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR142" t="n">
         <v>1.31</v>
@@ -31654,7 +31654,7 @@
         <v>0.2</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.59</v>
@@ -32308,7 +32308,7 @@
         <v>1.55</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.22</v>
@@ -32747,7 +32747,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR148" t="n">
         <v>1.35</v>
@@ -33398,7 +33398,7 @@
         <v>1.1</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.29</v>
@@ -34052,10 +34052,10 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR154" t="n">
         <v>1.17</v>
@@ -34706,7 +34706,7 @@
         <v>0.75</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.67</v>
@@ -34927,7 +34927,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR158" t="n">
         <v>1.31</v>
@@ -35145,7 +35145,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ159" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -35360,7 +35360,7 @@
         <v>1.83</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.61</v>
@@ -36453,7 +36453,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ165" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR165" t="n">
         <v>1.34</v>
@@ -37104,7 +37104,7 @@
         <v>1.27</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.29</v>
@@ -37540,7 +37540,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.22</v>
@@ -38197,7 +38197,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR173" t="n">
         <v>1.57</v>
@@ -38415,7 +38415,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR174" t="n">
         <v>1.31</v>
@@ -39066,7 +39066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.59</v>
@@ -39502,7 +39502,7 @@
         <v>1.23</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.17</v>
@@ -39723,7 +39723,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ180" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR180" t="n">
         <v>1.57</v>
@@ -40156,7 +40156,7 @@
         <v>1.23</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.29</v>
@@ -40813,7 +40813,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR185" t="n">
         <v>1.3</v>
@@ -41031,7 +41031,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR186" t="n">
         <v>1.28</v>
@@ -42336,7 +42336,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.22</v>
@@ -42775,7 +42775,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR194" t="n">
         <v>1.8</v>
@@ -42990,7 +42990,7 @@
         <v>0.43</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.59</v>
@@ -44080,10 +44080,10 @@
         <v>1.93</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR200" t="n">
         <v>1.49</v>
@@ -44734,7 +44734,7 @@
         <v>1.47</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.61</v>
@@ -44955,7 +44955,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ204" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR204" t="n">
         <v>1.75</v>
@@ -45824,7 +45824,7 @@
         <v>0.67</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.59</v>
@@ -46263,7 +46263,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR210" t="n">
         <v>1.38</v>
@@ -46696,7 +46696,7 @@
         <v>1.13</v>
       </c>
       <c r="AP212" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.17</v>
@@ -46917,7 +46917,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR213" t="n">
         <v>1.26</v>
@@ -47135,7 +47135,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ214" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR214" t="n">
         <v>1.37</v>
@@ -47786,7 +47786,7 @@
         <v>1.56</v>
       </c>
       <c r="AP217" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.61</v>
@@ -48658,7 +48658,7 @@
         <v>1.38</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.29</v>
@@ -49097,7 +49097,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR223" t="n">
         <v>1.77</v>
@@ -49827,6 +49827,660 @@
       </c>
       <c r="BP226" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5242478</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45242.0625</v>
+      </c>
+      <c r="F227" t="n">
+        <v>38</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>3</v>
+      </c>
+      <c r="N227" t="n">
+        <v>5</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['48', '90+5']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['6', '82', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5242479</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45242.16666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>38</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X228" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5242480</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45242.27083333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>38</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['12', '17', '90+6']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X229" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.17</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3535,7 +3535,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR14" t="n">
         <v>1.33</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR16" t="n">
         <v>2.17</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.67</v>
@@ -4843,7 +4843,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20" t="n">
         <v>1.52</v>
@@ -5061,7 +5061,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR21" t="n">
         <v>2.02</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR22" t="n">
         <v>1.19</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.61</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.17</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.67</v>
@@ -6366,10 +6366,10 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR27" t="n">
         <v>1.9</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.22</v>
@@ -6802,10 +6802,10 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7020,10 +7020,10 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7241,7 +7241,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR31" t="n">
         <v>1.08</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.33</v>
@@ -8331,7 +8331,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR36" t="n">
         <v>1.26</v>
@@ -8767,7 +8767,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR38" t="n">
         <v>1.66</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.22</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR40" t="n">
         <v>1.42</v>
@@ -9418,10 +9418,10 @@
         <v>2.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR41" t="n">
         <v>1.46</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42" t="n">
         <v>1.72</v>
@@ -10290,10 +10290,10 @@
         <v>0.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR45" t="n">
         <v>1.28</v>
@@ -10726,7 +10726,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.89</v>
@@ -10944,10 +10944,10 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR48" t="n">
         <v>2.15</v>
@@ -11165,7 +11165,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR49" t="n">
         <v>1.13</v>
@@ -11380,7 +11380,7 @@
         <v>2.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.72</v>
@@ -11598,7 +11598,7 @@
         <v>1.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.89</v>
@@ -12037,7 +12037,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR53" t="n">
         <v>1.35</v>
@@ -12473,7 +12473,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR55" t="n">
         <v>1.35</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR57" t="n">
         <v>1.35</v>
@@ -13127,7 +13127,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR58" t="n">
         <v>2.23</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR59" t="n">
         <v>1.42</v>
@@ -13560,7 +13560,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.72</v>
@@ -14432,7 +14432,7 @@
         <v>0.8</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.67</v>
@@ -14653,7 +14653,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR65" t="n">
         <v>2.02</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.17</v>
@@ -15307,7 +15307,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR68" t="n">
         <v>1.52</v>
@@ -15522,10 +15522,10 @@
         <v>1.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR69" t="n">
         <v>1.33</v>
@@ -15743,7 +15743,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70" t="n">
         <v>1.31</v>
@@ -15958,10 +15958,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR71" t="n">
         <v>1.45</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.89</v>
@@ -16394,7 +16394,7 @@
         <v>2.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.61</v>
@@ -16615,7 +16615,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.33</v>
@@ -17048,7 +17048,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.22</v>
@@ -17705,7 +17705,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR79" t="n">
         <v>1.28</v>
@@ -18356,10 +18356,10 @@
         <v>1.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR82" t="n">
         <v>1.44</v>
@@ -19010,10 +19010,10 @@
         <v>0.8</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR85" t="n">
         <v>1.94</v>
@@ -19231,7 +19231,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR86" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR87" t="n">
         <v>1.38</v>
@@ -19664,7 +19664,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.33</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.67</v>
@@ -20103,7 +20103,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR90" t="n">
         <v>1.53</v>
@@ -20318,7 +20318,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.72</v>
@@ -20539,7 +20539,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR92" t="n">
         <v>1.16</v>
@@ -20972,7 +20972,7 @@
         <v>1.43</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.22</v>
@@ -21190,10 +21190,10 @@
         <v>0.83</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR95" t="n">
         <v>1.29</v>
@@ -21844,10 +21844,10 @@
         <v>0.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR98" t="n">
         <v>1.8</v>
@@ -22280,7 +22280,7 @@
         <v>2.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.72</v>
@@ -22498,10 +22498,10 @@
         <v>0</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR101" t="n">
         <v>1.44</v>
@@ -22719,7 +22719,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR102" t="n">
         <v>1.37</v>
@@ -22934,10 +22934,10 @@
         <v>1.57</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR103" t="n">
         <v>1.52</v>
@@ -23152,10 +23152,10 @@
         <v>1.14</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -23370,7 +23370,7 @@
         <v>1.38</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.22</v>
@@ -23588,10 +23588,10 @@
         <v>0.13</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR106" t="n">
         <v>1.81</v>
@@ -23809,7 +23809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR107" t="n">
         <v>1.29</v>
@@ -24024,10 +24024,10 @@
         <v>0.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24678,7 +24678,7 @@
         <v>2</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.61</v>
@@ -24896,10 +24896,10 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR112" t="n">
         <v>1.53</v>
@@ -25114,7 +25114,7 @@
         <v>0.78</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.67</v>
@@ -25553,7 +25553,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR115" t="n">
         <v>1.54</v>
@@ -25989,7 +25989,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR117" t="n">
         <v>1.15</v>
@@ -26207,7 +26207,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR118" t="n">
         <v>1.85</v>
@@ -26422,7 +26422,7 @@
         <v>2.13</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.72</v>
@@ -26643,7 +26643,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR120" t="n">
         <v>1.31</v>
@@ -26858,7 +26858,7 @@
         <v>2.1</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.89</v>
@@ -27079,7 +27079,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR122" t="n">
         <v>1.11</v>
@@ -27294,7 +27294,7 @@
         <v>2.11</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.61</v>
@@ -27948,7 +27948,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.17</v>
@@ -28169,7 +28169,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR127" t="n">
         <v>1.83</v>
@@ -28384,10 +28384,10 @@
         <v>1.11</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR128" t="n">
         <v>1.36</v>
@@ -28820,10 +28820,10 @@
         <v>0.11</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130" t="n">
         <v>1.61</v>
@@ -29038,10 +29038,10 @@
         <v>2.11</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR131" t="n">
         <v>1.49</v>
@@ -29259,7 +29259,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR132" t="n">
         <v>1.64</v>
@@ -29474,7 +29474,7 @@
         <v>0.8</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.67</v>
@@ -29695,7 +29695,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR134" t="n">
         <v>1.35</v>
@@ -30564,10 +30564,10 @@
         <v>0.2</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR138" t="n">
         <v>1.3</v>
@@ -30782,7 +30782,7 @@
         <v>2</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.33</v>
@@ -31218,10 +31218,10 @@
         <v>1.3</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31436,7 +31436,7 @@
         <v>1.91</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.89</v>
@@ -31657,7 +31657,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR143" t="n">
         <v>1.54</v>
@@ -32090,7 +32090,7 @@
         <v>2</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.61</v>
@@ -32526,10 +32526,10 @@
         <v>0.18</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147" t="n">
         <v>1.57</v>
@@ -32744,7 +32744,7 @@
         <v>1.82</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.33</v>
@@ -32965,7 +32965,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR149" t="n">
         <v>1.3</v>
@@ -33180,7 +33180,7 @@
         <v>1.18</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.17</v>
@@ -33401,7 +33401,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -33616,10 +33616,10 @@
         <v>0.45</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR152" t="n">
         <v>1.57</v>
@@ -33834,10 +33834,10 @@
         <v>2.09</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR153" t="n">
         <v>1.35</v>
@@ -34270,10 +34270,10 @@
         <v>1.45</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR155" t="n">
         <v>1.84</v>
@@ -34488,10 +34488,10 @@
         <v>1.18</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR156" t="n">
         <v>1.56</v>
@@ -35578,7 +35578,7 @@
         <v>1.42</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.22</v>
@@ -35799,7 +35799,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR162" t="n">
         <v>1.75</v>
@@ -36014,7 +36014,7 @@
         <v>0.92</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.67</v>
@@ -36450,7 +36450,7 @@
         <v>1.69</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.89</v>
@@ -36668,10 +36668,10 @@
         <v>1.33</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR166" t="n">
         <v>1.33</v>
@@ -36886,10 +36886,10 @@
         <v>1.08</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR167" t="n">
         <v>1.62</v>
@@ -37107,7 +37107,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37325,7 +37325,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -37758,7 +37758,7 @@
         <v>1.69</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.61</v>
@@ -37979,7 +37979,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR172" t="n">
         <v>1.28</v>
@@ -38194,7 +38194,7 @@
         <v>1.92</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.72</v>
@@ -38630,7 +38630,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.67</v>
@@ -38848,10 +38848,10 @@
         <v>1.25</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -39069,7 +39069,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR177" t="n">
         <v>1.2</v>
@@ -39284,10 +39284,10 @@
         <v>1.23</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR178" t="n">
         <v>1.36</v>
@@ -39720,7 +39720,7 @@
         <v>1.79</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.89</v>
@@ -39941,7 +39941,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR181" t="n">
         <v>1.35</v>
@@ -40159,7 +40159,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR182" t="n">
         <v>1.48</v>
@@ -40374,7 +40374,7 @@
         <v>1.21</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.17</v>
@@ -40595,7 +40595,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR184" t="n">
         <v>1.76</v>
@@ -41028,7 +41028,7 @@
         <v>2</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.72</v>
@@ -41246,10 +41246,10 @@
         <v>0.54</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR187" t="n">
         <v>1.53</v>
@@ -41464,7 +41464,7 @@
         <v>1.57</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.61</v>
@@ -41685,7 +41685,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR189" t="n">
         <v>1.33</v>
@@ -41900,10 +41900,10 @@
         <v>2</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR190" t="n">
         <v>1.52</v>
@@ -42121,7 +42121,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR191" t="n">
         <v>1.33</v>
@@ -42554,10 +42554,10 @@
         <v>1.36</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -42772,7 +42772,7 @@
         <v>1.43</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.33</v>
@@ -42993,7 +42993,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR195" t="n">
         <v>1.71</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.67</v>
@@ -43429,7 +43429,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR197" t="n">
         <v>1.36</v>
@@ -43644,10 +43644,10 @@
         <v>1.93</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR198" t="n">
         <v>1.25</v>
@@ -43862,7 +43862,7 @@
         <v>1.13</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.17</v>
@@ -44301,7 +44301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR201" t="n">
         <v>1.29</v>
@@ -45170,10 +45170,10 @@
         <v>0.6</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR205" t="n">
         <v>1.51</v>
@@ -45388,7 +45388,7 @@
         <v>1.38</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.22</v>
@@ -45606,7 +45606,7 @@
         <v>0.75</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.67</v>
@@ -45827,7 +45827,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR208" t="n">
         <v>1.67</v>
@@ -46045,7 +46045,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR209" t="n">
         <v>1.36</v>
@@ -46260,7 +46260,7 @@
         <v>1.33</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.33</v>
@@ -46481,7 +46481,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR211" t="n">
         <v>1.32</v>
@@ -46914,7 +46914,7 @@
         <v>1.25</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.33</v>
@@ -47350,10 +47350,10 @@
         <v>1.19</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -47571,7 +47571,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR216" t="n">
         <v>1.37</v>
@@ -48007,7 +48007,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR218" t="n">
         <v>1.69</v>
@@ -48225,7 +48225,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR219" t="n">
         <v>1.38</v>
@@ -48440,10 +48440,10 @@
         <v>1.19</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR220" t="n">
         <v>1.52</v>
@@ -48661,7 +48661,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR221" t="n">
         <v>1.7</v>
@@ -48876,7 +48876,7 @@
         <v>1.29</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.22</v>
@@ -49094,7 +49094,7 @@
         <v>1.88</v>
       </c>
       <c r="AP223" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.72</v>
@@ -50481,6 +50481,1314 @@
       </c>
       <c r="BP229" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5242484</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F230" t="n">
+        <v>39</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Jeonnam Dragons</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>4</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>5</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['38', '61', '78', '90+9']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X230" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5242483</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F231" t="n">
+        <v>39</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['7', '18']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>5</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5242485</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F232" t="n">
+        <v>39</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5242481</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F233" t="n">
+        <v>39</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Sangju Sangmu</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U233" t="n">
+        <v>4</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X233" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5242482</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F234" t="n">
+        <v>39</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Seongnam</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['10', '83']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X234" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5242486</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F235" t="n">
+        <v>39</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Busan I'Park</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Cheongju</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>2</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S235" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X235" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR21" t="n">
         <v>2.02</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.61</v>
@@ -6369,7 +6369,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR27" t="n">
         <v>1.9</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.06</v>
@@ -8767,7 +8767,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR38" t="n">
         <v>1.66</v>
@@ -9418,7 +9418,7 @@
         <v>2.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.89</v>
@@ -12774,7 +12774,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>5242306</v>
+        <v>5242305</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -12794,197 +12794,197 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Busan I'Park</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Cheonan City</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '32']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S57" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="T57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z57" t="n">
         <v>1.44</v>
       </c>
-      <c r="U57" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="V57" t="n">
-        <v>3</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA57" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AB57" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="AC57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK57" t="n">
         <v>1.08</v>
       </c>
-      <c r="AD57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AL57" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM57" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="AN57" t="n">
         <v>2.33</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.35</v>
+        <v>2.23</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.58</v>
+        <v>1.1</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.93</v>
+        <v>3.33</v>
       </c>
       <c r="AU57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV57" t="n">
         <v>5</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>4</v>
       </c>
       <c r="AW57" t="n">
         <v>5</v>
       </c>
       <c r="AX57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ57" t="n">
         <v>11</v>
       </c>
       <c r="BA57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC57" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD57" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="BE57" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="BF57" t="n">
-        <v>2.6</v>
+        <v>4.85</v>
       </c>
       <c r="BG57" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BH57" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="BI57" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="BJ57" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BK57" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="BL57" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="BM57" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="BN57" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="BO57" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BP57" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="58">
@@ -12992,7 +12992,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5242305</v>
+        <v>5242306</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -13012,197 +13012,197 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Busan I'Park</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['6', '32']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="T58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE58" t="n">
         <v>1.4</v>
       </c>
-      <c r="U58" t="n">
+      <c r="AF58" t="n">
         <v>2.75</v>
       </c>
-      <c r="V58" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AG58" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AI58" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AK58" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AL58" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM58" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="AN58" t="n">
         <v>2.33</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.28</v>
+        <v>2.06</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AR58" t="n">
-        <v>2.23</v>
+        <v>1.35</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.33</v>
+        <v>2.93</v>
       </c>
       <c r="AU58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV58" t="n">
         <v>4</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>5</v>
       </c>
       <c r="AW58" t="n">
         <v>5</v>
       </c>
       <c r="AX58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ58" t="n">
         <v>11</v>
       </c>
       <c r="BA58" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC58" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD58" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="BE58" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="BF58" t="n">
-        <v>4.85</v>
+        <v>2.6</v>
       </c>
       <c r="BG58" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BH58" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="BI58" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="BJ58" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BK58" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="BL58" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="BM58" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="BN58" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BO58" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BP58" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -13345,7 +13345,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR59" t="n">
         <v>1.42</v>
@@ -17048,7 +17048,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.22</v>
@@ -19013,7 +19013,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR85" t="n">
         <v>1.94</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.67</v>
@@ -21193,7 +21193,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR95" t="n">
         <v>1.29</v>
@@ -22280,7 +22280,7 @@
         <v>2.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.72</v>
@@ -23152,10 +23152,10 @@
         <v>1.14</v>
       </c>
       <c r="AP104" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -27079,7 +27079,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR122" t="n">
         <v>1.11</v>
@@ -27948,7 +27948,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.17</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR128" t="n">
         <v>1.36</v>
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>5242379</v>
+        <v>5242380</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28926,197 +28926,197 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
         <v>1</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['8', '30', '43', '68', '90+1']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['19', '90+2']</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="R131" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S131" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T131" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="U131" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="V131" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W131" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X131" t="n">
         <v>7.5</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z131" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AA131" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AB131" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="AC131" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD131" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AE131" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF131" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AG131" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AH131" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AI131" t="n">
         <v>1.83</v>
       </c>
       <c r="AJ131" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AM131" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="AN131" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO131" t="n">
-        <v>2.11</v>
+        <v>0.22</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.89</v>
+        <v>0.72</v>
       </c>
       <c r="AR131" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="AU131" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AV131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW131" t="n">
         <v>6</v>
       </c>
-      <c r="AW131" t="n">
+      <c r="AX131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ131" t="n">
         <v>10</v>
       </c>
-      <c r="AX131" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY131" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ131" t="n">
-        <v>19</v>
-      </c>
       <c r="BA131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB131" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD131" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="BE131" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="BF131" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="BG131" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="BH131" t="n">
-        <v>3.88</v>
+        <v>2.75</v>
       </c>
       <c r="BI131" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="BJ131" t="n">
-        <v>2.67</v>
+        <v>2.01</v>
       </c>
       <c r="BK131" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="BL131" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BM131" t="n">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="BN131" t="n">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="BO131" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="BP131" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="132">
@@ -29124,7 +29124,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>5242380</v>
+        <v>5242379</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -29144,197 +29144,197 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
         <v>1</v>
       </c>
-      <c r="K132" t="n">
-        <v>4</v>
-      </c>
       <c r="L132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['8', '30', '43', '68', '90+1']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['19', '90+2']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="R132" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S132" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T132" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="U132" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="V132" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W132" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X132" t="n">
         <v>7.5</v>
       </c>
       <c r="Y132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC132" t="n">
         <v>1.08</v>
       </c>
-      <c r="Z132" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AD132" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AE132" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AF132" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AG132" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AH132" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AI132" t="n">
         <v>1.83</v>
       </c>
       <c r="AJ132" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AK132" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AL132" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AM132" t="n">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="AN132" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO132" t="n">
-        <v>0.22</v>
+        <v>2.11</v>
       </c>
       <c r="AP132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ132" t="n">
         <v>1.89</v>
       </c>
-      <c r="AQ132" t="n">
-        <v>0.72</v>
-      </c>
       <c r="AR132" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AT132" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AU132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX132" t="n">
         <v>13</v>
       </c>
-      <c r="AV132" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW132" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX132" t="n">
-        <v>5</v>
-      </c>
       <c r="AY132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ132" t="n">
         <v>19</v>
       </c>
-      <c r="AZ132" t="n">
-        <v>10</v>
-      </c>
       <c r="BA132" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB132" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC132" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD132" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="BE132" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="BF132" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="BG132" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="BH132" t="n">
-        <v>2.75</v>
+        <v>3.88</v>
       </c>
       <c r="BI132" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="BJ132" t="n">
-        <v>2.01</v>
+        <v>2.67</v>
       </c>
       <c r="BK132" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="BL132" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BM132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO132" t="n">
         <v>2.88</v>
       </c>
-      <c r="BN132" t="n">
+      <c r="BP132" t="n">
         <v>1.34</v>
-      </c>
-      <c r="BO132" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BP132" t="n">
-        <v>1.18</v>
       </c>
     </row>
     <row r="133">
@@ -30782,7 +30782,7 @@
         <v>2</v>
       </c>
       <c r="AP139" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.33</v>
@@ -32526,7 +32526,7 @@
         <v>0.18</v>
       </c>
       <c r="AP147" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.5600000000000001</v>
@@ -33401,7 +33401,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -34488,7 +34488,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.06</v>
@@ -37107,7 +37107,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37758,7 +37758,7 @@
         <v>1.69</v>
       </c>
       <c r="AP171" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.61</v>
@@ -38062,7 +38062,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>5242425</v>
+        <v>5242426</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -38082,197 +38082,197 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Gimpo Citizen</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="n">
         <v>1</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['62', '90+4']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X173" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX173" t="n">
         <v>1</v>
       </c>
-      <c r="L173" t="n">
-        <v>2</v>
-      </c>
-      <c r="M173" t="n">
-        <v>4</v>
-      </c>
-      <c r="N173" t="n">
-        <v>6</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>['4', '67']</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>['71', '82', '87', '90+2']</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R173" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S173" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T173" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U173" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V173" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W173" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X173" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y173" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z173" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA173" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AB173" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD173" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE173" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH173" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI173" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL173" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM173" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AN173" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO173" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AP173" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ173" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AR173" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AS173" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT173" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU173" t="n">
+      <c r="AY173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ173" t="n">
         <v>5</v>
       </c>
-      <c r="AV173" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW173" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX173" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY173" t="n">
+      <c r="BA173" t="n">
         <v>9</v>
       </c>
-      <c r="AZ173" t="n">
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
         <v>11</v>
       </c>
-      <c r="BA173" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB173" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC173" t="n">
-        <v>9</v>
-      </c>
       <c r="BD173" t="n">
-        <v>1.83</v>
+        <v>2.9</v>
       </c>
       <c r="BE173" t="n">
         <v>6.5</v>
       </c>
       <c r="BF173" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="BG173" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="BH173" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="BI173" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="BJ173" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="BK173" t="n">
-        <v>2.43</v>
+        <v>3.04</v>
       </c>
       <c r="BL173" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="BM173" t="n">
-        <v>3.94</v>
+        <v>4.1</v>
       </c>
       <c r="BN173" t="n">
         <v>1.19</v>
       </c>
       <c r="BO173" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="BP173" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="174">
@@ -38280,7 +38280,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>5242426</v>
+        <v>5242425</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -38300,197 +38300,197 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Gimpo Citizen</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" t="n">
         <v>2</v>
       </c>
       <c r="M174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N174" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>['62', '90+4']</t>
+          <t>['4', '67']</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>['90+7']</t>
+          <t>['71', '82', '87', '90+2']</t>
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R174" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X174" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF174" t="n">
         <v>2.8</v>
       </c>
-      <c r="T174" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U174" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V174" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W174" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X174" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y174" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z174" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA174" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB174" t="n">
+      <c r="AG174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI174" t="n">
         <v>1.91</v>
       </c>
-      <c r="AC174" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD174" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE174" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF174" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AG174" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH174" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AJ174" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AK174" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AL174" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AM174" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AN174" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="AO174" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="AR174" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="AT174" t="n">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW174" t="n">
         <v>4</v>
       </c>
-      <c r="AV174" t="n">
+      <c r="AX174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA174" t="n">
         <v>4</v>
       </c>
-      <c r="AW174" t="n">
+      <c r="BB174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC174" t="n">
         <v>9</v>
       </c>
-      <c r="AX174" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY174" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ174" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA174" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB174" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC174" t="n">
-        <v>11</v>
-      </c>
       <c r="BD174" t="n">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="BE174" t="n">
         <v>6.5</v>
       </c>
       <c r="BF174" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="BG174" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="BH174" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="BI174" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="BJ174" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="BK174" t="n">
-        <v>3.04</v>
+        <v>2.43</v>
       </c>
       <c r="BL174" t="n">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="BM174" t="n">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="BN174" t="n">
         <v>1.19</v>
       </c>
       <c r="BO174" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="BP174" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="175">
@@ -38851,7 +38851,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -40159,7 +40159,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR182" t="n">
         <v>1.48</v>
@@ -40374,7 +40374,7 @@
         <v>1.21</v>
       </c>
       <c r="AP183" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.17</v>
@@ -41246,7 +41246,7 @@
         <v>0.54</v>
       </c>
       <c r="AP187" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.72</v>
@@ -41332,7 +41332,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>5242440</v>
+        <v>5242441</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -41352,197 +41352,197 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
         <v>1</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
       </c>
       <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
         <v>1</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0</v>
       </c>
       <c r="N188" t="n">
         <v>1</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X188" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG188" t="n">
         <v>2.1</v>
       </c>
-      <c r="S188" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T188" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U188" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V188" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W188" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X188" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y188" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z188" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA188" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB188" t="n">
+      <c r="AH188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI188" t="n">
         <v>1.88</v>
       </c>
-      <c r="AC188" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD188" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE188" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF188" t="n">
+      <c r="AJ188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM188" t="n">
         <v>3.4</v>
       </c>
-      <c r="AG188" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH188" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI188" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ188" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK188" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AL188" t="n">
+      <c r="BN188" t="n">
         <v>1.27</v>
       </c>
-      <c r="AM188" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AN188" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO188" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AP188" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ188" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AR188" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AS188" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT188" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU188" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW188" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX188" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY188" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ188" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA188" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB188" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC188" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD188" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE188" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF188" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BG188" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BH188" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="BI188" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BJ188" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BK188" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BL188" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BM188" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BN188" t="n">
-        <v>1.68</v>
-      </c>
       <c r="BO188" t="n">
-        <v>2.37</v>
+        <v>5.1</v>
       </c>
       <c r="BP188" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="189">
@@ -41550,7 +41550,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>5242441</v>
+        <v>5242440</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -41570,197 +41570,197 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
         <v>1</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
         <v>1</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>['28']</t>
-        </is>
-      </c>
       <c r="Q189" t="n">
-        <v>2.85</v>
+        <v>4.1</v>
       </c>
       <c r="R189" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S189" t="n">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="T189" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U189" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V189" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="W189" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X189" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z189" t="n">
-        <v>2.29</v>
+        <v>3.5</v>
       </c>
       <c r="AA189" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB189" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="AC189" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD189" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE189" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AF189" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AG189" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AH189" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AI189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF189" t="n">
         <v>1.88</v>
       </c>
-      <c r="AJ189" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK189" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL189" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM189" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN189" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO189" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP189" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AQ189" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR189" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS189" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AT189" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU189" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV189" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW189" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX189" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY189" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ189" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA189" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB189" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC189" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD189" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BE189" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BF189" t="n">
+      <c r="BG189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM189" t="n">
         <v>2.18</v>
       </c>
-      <c r="BG189" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BH189" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BI189" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BJ189" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BK189" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BL189" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BM189" t="n">
-        <v>3.4</v>
-      </c>
       <c r="BN189" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="BO189" t="n">
-        <v>5.1</v>
+        <v>2.37</v>
       </c>
       <c r="BP189" t="n">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="190">
@@ -42557,7 +42557,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -45038,7 +45038,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>5242458</v>
+        <v>5242457</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -45058,197 +45058,197 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Busan I'Park</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Bucheon 1995</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['39', '45+2', '90+5']</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R205" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S205" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="T205" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U205" t="n">
-        <v>3.07</v>
+        <v>2.75</v>
       </c>
       <c r="V205" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="W205" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X205" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y205" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AA205" t="n">
-        <v>4.43</v>
+        <v>3.8</v>
       </c>
       <c r="AB205" t="n">
-        <v>4.04</v>
+        <v>4.65</v>
       </c>
       <c r="AC205" t="n">
         <v>1.04</v>
       </c>
       <c r="AD205" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE205" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF205" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG205" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AH205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR205" t="n">
         <v>1.8</v>
       </c>
-      <c r="AI205" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK205" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AL205" t="n">
+      <c r="AS205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG205" t="n">
         <v>1.17</v>
       </c>
-      <c r="AM205" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AN205" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AO205" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AP205" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ205" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR205" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AS205" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AT205" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU205" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW205" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY205" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ205" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA205" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB205" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC205" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD205" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BE205" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF205" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BG205" t="n">
-        <v>1.43</v>
-      </c>
       <c r="BH205" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="BI205" t="n">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="BJ205" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="BK205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL205" t="n">
         <v>2.21</v>
       </c>
-      <c r="BL205" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BM205" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="BN205" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="BO205" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="BP205" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="206">
@@ -45256,7 +45256,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>5242457</v>
+        <v>5242458</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -45276,197 +45276,197 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Busan I'Park</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Bucheon 1995</t>
+          <t>Cheonan City</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>['39', '45+2', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R206" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S206" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="T206" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U206" t="n">
-        <v>2.75</v>
+        <v>3.07</v>
       </c>
       <c r="V206" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="W206" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X206" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y206" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z206" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AA206" t="n">
-        <v>3.8</v>
+        <v>4.43</v>
       </c>
       <c r="AB206" t="n">
-        <v>4.65</v>
+        <v>4.04</v>
       </c>
       <c r="AC206" t="n">
         <v>1.04</v>
       </c>
       <c r="AD206" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW206" t="n">
         <v>12</v>
       </c>
-      <c r="AE206" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF206" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG206" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH206" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AI206" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AJ206" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK206" t="n">
+      <c r="AX206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP206" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AL206" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM206" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN206" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO206" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP206" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ206" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR206" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS206" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT206" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU206" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV206" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW206" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX206" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY206" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ206" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA206" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB206" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC206" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD206" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BE206" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF206" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BG206" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BH206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI206" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BJ206" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BK206" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BL206" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BM206" t="n">
-        <v>2</v>
-      </c>
-      <c r="BN206" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BO206" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BP206" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="207">
@@ -45910,7 +45910,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>5242461</v>
+        <v>5242462</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -45930,197 +45930,197 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Gimpo Citizen</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>['18']</t>
+          <t>['51', '81', '90+2']</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>['44', '86', '90+7']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R209" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S209" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X209" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK209" t="n">
         <v>1.42</v>
-      </c>
-      <c r="U209" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V209" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W209" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X209" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y209" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z209" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AA209" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB209" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AC209" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD209" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE209" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF209" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AG209" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH209" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AI209" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ209" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK209" t="n">
-        <v>1.55</v>
       </c>
       <c r="AL209" t="n">
         <v>1.28</v>
       </c>
       <c r="AM209" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AN209" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AO209" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>0.89</v>
+        <v>1.61</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AR209" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="AU209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV209" t="n">
         <v>6</v>
       </c>
-      <c r="AV209" t="n">
-        <v>14</v>
-      </c>
       <c r="AW209" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ209" t="n">
         <v>10</v>
       </c>
-      <c r="AY209" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ209" t="n">
-        <v>24</v>
-      </c>
       <c r="BA209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC209" t="n">
         <v>6</v>
       </c>
-      <c r="BB209" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC209" t="n">
-        <v>18</v>
-      </c>
       <c r="BD209" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="BE209" t="n">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="BF209" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BG209" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="BH209" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="BI209" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="BJ209" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="BK209" t="n">
-        <v>1.82</v>
+        <v>2.5</v>
       </c>
       <c r="BL209" t="n">
-        <v>1.99</v>
+        <v>1.52</v>
       </c>
       <c r="BM209" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="BN209" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="BO209" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="BP209" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="210">
@@ -46128,7 +46128,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>5242462</v>
+        <v>5242461</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -46148,197 +46148,197 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Gimpo Citizen</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>['51', '81', '90+2']</t>
+          <t>['18']</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['44', '86', '90+7']</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X210" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ210" t="n">
         <v>1.95</v>
       </c>
-      <c r="S210" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T210" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U210" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V210" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W210" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X210" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z210" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AA210" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AB210" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AC210" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD210" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE210" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF210" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AH210" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AI210" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ210" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AK210" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AL210" t="n">
         <v>1.28</v>
       </c>
       <c r="AM210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR210" t="n">
         <v>1.36</v>
       </c>
-      <c r="AN210" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AO210" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP210" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AQ210" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR210" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AS210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN210" t="n">
         <v>1.63</v>
       </c>
-      <c r="AT210" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AU210" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ210" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA210" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB210" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC210" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD210" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="BE210" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF210" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BG210" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BH210" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BI210" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="BJ210" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BK210" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BL210" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BM210" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BN210" t="n">
-        <v>1.29</v>
-      </c>
       <c r="BO210" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="BP210" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="211">
@@ -46481,7 +46481,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR211" t="n">
         <v>1.32</v>
@@ -48661,7 +48661,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AR221" t="n">
         <v>1.7</v>
@@ -48876,7 +48876,7 @@
         <v>1.29</v>
       </c>
       <c r="AP222" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.22</v>
@@ -50488,7 +50488,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>5242484</v>
+        <v>5242481</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -50508,95 +50508,95 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Bucheon 1995</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="I230" t="n">
         <v>1</v>
       </c>
       <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
         <v>1</v>
       </c>
-      <c r="K230" t="n">
-        <v>2</v>
-      </c>
       <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S230" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U230" t="n">
         <v>4</v>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="n">
+      <c r="V230" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF230" t="n">
         <v>5</v>
       </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>['38', '61', '78', '90+9']</t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>['22']</t>
-        </is>
-      </c>
-      <c r="Q230" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R230" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S230" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T230" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U230" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V230" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W230" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X230" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y230" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z230" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AA230" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB230" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AC230" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD230" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE230" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF230" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AG230" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="AH230" t="n">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="AI230" t="n">
         <v>1.72</v>
@@ -50605,100 +50605,100 @@
         <v>2</v>
       </c>
       <c r="AK230" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="AL230" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AM230" t="n">
-        <v>1.52</v>
+        <v>3</v>
       </c>
       <c r="AN230" t="n">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="AO230" t="n">
         <v>1.12</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.06</v>
       </c>
       <c r="AR230" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AT230" t="n">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="AU230" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV230" t="n">
         <v>4</v>
       </c>
       <c r="AW230" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX230" t="n">
         <v>3</v>
       </c>
       <c r="AY230" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ230" t="n">
         <v>7</v>
       </c>
       <c r="BA230" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC230" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BD230" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="BE230" t="n">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="BF230" t="n">
-        <v>2.27</v>
+        <v>4.6</v>
       </c>
       <c r="BG230" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BH230" t="n">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="BI230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN230" t="n">
         <v>1.65</v>
       </c>
-      <c r="BJ230" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BK230" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL230" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BM230" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="BN230" t="n">
-        <v>1.43</v>
-      </c>
       <c r="BO230" t="n">
-        <v>3.48</v>
+        <v>2.84</v>
       </c>
       <c r="BP230" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="231">
@@ -50706,7 +50706,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>5242483</v>
+        <v>5242482</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -50726,197 +50726,197 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>['7', '18']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['10', '83']</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X231" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH231" t="n">
         <v>2.2</v>
       </c>
-      <c r="S231" t="n">
-        <v>5</v>
-      </c>
-      <c r="T231" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U231" t="n">
-        <v>3</v>
-      </c>
-      <c r="V231" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W231" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X231" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z231" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA231" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AB231" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AC231" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD231" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE231" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF231" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG231" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH231" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AI231" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AJ231" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AK231" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AL231" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AM231" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AN231" t="n">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="AO231" t="n">
         <v>0.59</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AR231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD231" t="n">
         <v>1.52</v>
-      </c>
-      <c r="AS231" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AT231" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AU231" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV231" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW231" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX231" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY231" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ231" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA231" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB231" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC231" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD231" t="n">
-        <v>1.42</v>
       </c>
       <c r="BE231" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="BF231" t="n">
-        <v>3.42</v>
+        <v>2.95</v>
       </c>
       <c r="BG231" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BH231" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BI231" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="BJ231" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="BK231" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="BL231" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BM231" t="n">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="BN231" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="BO231" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="BP231" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="232">
@@ -50924,7 +50924,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>5242485</v>
+        <v>5242483</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -50944,137 +50944,137 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Gimpo Citizen</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Cheonan City</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7', '18']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q232" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="R232" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S232" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T232" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="U232" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="V232" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W232" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X232" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y232" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z232" t="n">
-        <v>2.59</v>
+        <v>1.56</v>
       </c>
       <c r="AA232" t="n">
-        <v>3.3</v>
+        <v>4.12</v>
       </c>
       <c r="AB232" t="n">
-        <v>2.83</v>
+        <v>5.36</v>
       </c>
       <c r="AC232" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD232" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE232" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF232" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AG232" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AH232" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AI232" t="n">
         <v>1.83</v>
       </c>
       <c r="AJ232" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK232" t="n">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AL232" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM232" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="AN232" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AO232" t="n">
-        <v>1.82</v>
+        <v>0.59</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR232" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="AU232" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV232" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW232" t="n">
         <v>2</v>
@@ -51083,52 +51083,52 @@
         <v>3</v>
       </c>
       <c r="AY232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC232" t="n">
         <v>4</v>
       </c>
-      <c r="AZ232" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA232" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB232" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC232" t="n">
-        <v>16</v>
-      </c>
       <c r="BD232" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="BE232" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF232" t="n">
-        <v>2.28</v>
+        <v>3.42</v>
       </c>
       <c r="BG232" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BH232" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="BI232" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="BJ232" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BK232" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="BL232" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BM232" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BN232" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BO232" t="n">
         <v>3.74</v>
@@ -51142,7 +51142,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>5242481</v>
+        <v>5242484</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -51162,95 +51162,95 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Bucheon 1995</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="I233" t="n">
         <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233" t="n">
+        <v>2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4</v>
+      </c>
+      <c r="M233" t="n">
         <v>1</v>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0</v>
-      </c>
       <c r="N233" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['38', '61', '78', '90+9']</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q233" t="n">
-        <v>1.72</v>
+        <v>2.95</v>
       </c>
       <c r="R233" t="n">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="S233" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="T233" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="U233" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="V233" t="n">
-        <v>2.11</v>
+        <v>2.8</v>
       </c>
       <c r="W233" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="X233" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="Y233" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="Z233" t="n">
-        <v>1.32</v>
+        <v>2.51</v>
       </c>
       <c r="AA233" t="n">
-        <v>5.63</v>
+        <v>3.35</v>
       </c>
       <c r="AB233" t="n">
-        <v>7.39</v>
+        <v>2.89</v>
       </c>
       <c r="AC233" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD233" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AE233" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AF233" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AG233" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="AH233" t="n">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI233" t="n">
         <v>1.72</v>
@@ -51259,100 +51259,100 @@
         <v>2</v>
       </c>
       <c r="AK233" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="AL233" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AM233" t="n">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="AN233" t="n">
-        <v>2.29</v>
+        <v>1.88</v>
       </c>
       <c r="AO233" t="n">
         <v>1.12</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.06</v>
       </c>
       <c r="AR233" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="AT233" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="AU233" t="n">
         <v>3</v>
       </c>
       <c r="AV233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW233" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY233" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ233" t="n">
         <v>7</v>
       </c>
       <c r="BA233" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE233" t="n">
         <v>7</v>
       </c>
-      <c r="BD233" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BE233" t="n">
-        <v>9.9</v>
-      </c>
       <c r="BF233" t="n">
-        <v>4.6</v>
+        <v>2.27</v>
       </c>
       <c r="BG233" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BH233" t="n">
-        <v>3.65</v>
+        <v>3.18</v>
       </c>
       <c r="BI233" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="BJ233" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="BK233" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="BL233" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="BM233" t="n">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
       <c r="BN233" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="BO233" t="n">
-        <v>2.84</v>
+        <v>3.48</v>
       </c>
       <c r="BP233" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="234">
@@ -51360,7 +51360,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>5242482</v>
+        <v>5242485</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -51380,32 +51380,32 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Gimpo Citizen</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
         <v>1</v>
       </c>
-      <c r="K234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
-      <c r="L234" t="n">
-        <v>0</v>
-      </c>
-      <c r="M234" t="n">
-        <v>2</v>
-      </c>
-      <c r="N234" t="n">
-        <v>2</v>
-      </c>
       <c r="O234" t="inlineStr">
         <is>
           <t>[]</t>
@@ -51413,381 +51413,163 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>['10', '83']</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R234" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S234" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="T234" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="U234" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="V234" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="W234" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW234" t="n">
         <v>5</v>
       </c>
-      <c r="Y234" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z234" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA234" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AB234" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AC234" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD234" t="n">
+      <c r="AX234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY234" t="n">
         <v>11</v>
       </c>
-      <c r="AE234" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF234" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG234" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH234" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI234" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AJ234" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK234" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL234" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM234" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN234" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO234" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AP234" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ234" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AR234" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS234" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AT234" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU234" t="n">
+      <c r="AZ234" t="n">
         <v>10</v>
       </c>
-      <c r="AV234" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW234" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX234" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY234" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ234" t="n">
-        <v>14</v>
-      </c>
       <c r="BA234" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB234" t="n">
         <v>4</v>
       </c>
       <c r="BC234" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD234" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="BE234" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="BF234" t="n">
-        <v>2.95</v>
+        <v>2.28</v>
       </c>
       <c r="BG234" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH234" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="BI234" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BJ234" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BK234" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BL234" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="BM234" t="n">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="BN234" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="BO234" t="n">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
       <c r="BP234" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" t="n">
-        <v>5242486</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>South Korea K League 2</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="n">
-        <v>45256.125</v>
-      </c>
-      <c r="F235" t="n">
-        <v>39</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Busan I'Park</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Cheongju</t>
-        </is>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>0</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0</v>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="n">
-        <v>2</v>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>['69']</t>
-        </is>
-      </c>
-      <c r="P235" t="inlineStr">
-        <is>
-          <t>['90+5']</t>
-        </is>
-      </c>
-      <c r="Q235" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R235" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S235" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T235" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U235" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V235" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W235" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X235" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y235" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z235" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA235" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AB235" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AC235" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD235" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE235" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AG235" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH235" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI235" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ235" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK235" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AL235" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AM235" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AN235" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AO235" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP235" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ235" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AR235" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AS235" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AT235" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU235" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV235" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW235" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX235" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY235" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ235" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA235" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB235" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC235" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD235" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BE235" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF235" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BG235" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BH235" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BI235" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BJ235" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BK235" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="BL235" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BM235" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN235" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BO235" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BP235" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR19" t="n">
         <v>1.08</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.28</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.29</v>
       </c>
       <c r="AR21" t="n">
         <v>2.02</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.61</v>
@@ -6369,7 +6369,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR27" t="n">
         <v>1.9</v>
@@ -6587,7 +6587,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR28" t="n">
         <v>1.74</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.06</v>
@@ -8767,7 +8767,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR38" t="n">
         <v>1.66</v>
@@ -8985,7 +8985,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR39" t="n">
         <v>1.95</v>
@@ -9418,7 +9418,7 @@
         <v>2.33</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.89</v>
@@ -10508,7 +10508,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -12255,7 +12255,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR54" t="n">
         <v>1.23</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.5600000000000001</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.72</v>
@@ -13345,7 +13345,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR59" t="n">
         <v>1.42</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.06</v>
@@ -17048,10 +17048,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR76" t="n">
         <v>1.35</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.17</v>
@@ -18577,7 +18577,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -18792,7 +18792,7 @@
         <v>1.71</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.89</v>
@@ -19013,7 +19013,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR85" t="n">
         <v>1.94</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.67</v>
@@ -20975,7 +20975,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR94" t="n">
         <v>1.47</v>
@@ -21193,7 +21193,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR95" t="n">
         <v>1.29</v>
@@ -22062,7 +22062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.67</v>
@@ -22280,7 +22280,7 @@
         <v>2.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.72</v>
@@ -23152,10 +23152,10 @@
         <v>1.14</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR104" t="n">
         <v>1.56</v>
@@ -23373,7 +23373,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR105" t="n">
         <v>1.55</v>
@@ -26204,7 +26204,7 @@
         <v>0.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.72</v>
@@ -27079,7 +27079,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR122" t="n">
         <v>1.11</v>
@@ -27515,7 +27515,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR124" t="n">
         <v>1.6</v>
@@ -27948,7 +27948,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.17</v>
@@ -28166,7 +28166,7 @@
         <v>1.11</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.06</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR128" t="n">
         <v>1.36</v>
@@ -29910,7 +29910,7 @@
         <v>1.9</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.61</v>
@@ -30131,7 +30131,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR136" t="n">
         <v>1.33</v>
@@ -30782,7 +30782,7 @@
         <v>2</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.33</v>
@@ -31000,7 +31000,7 @@
         <v>2.1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.72</v>
@@ -32311,7 +32311,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR146" t="n">
         <v>1.73</v>
@@ -32526,7 +32526,7 @@
         <v>0.18</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.5600000000000001</v>
@@ -33401,7 +33401,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -34488,7 +34488,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.06</v>
@@ -35581,7 +35581,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR161" t="n">
         <v>1.58</v>
@@ -35796,7 +35796,7 @@
         <v>0.17</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.5600000000000001</v>
@@ -36232,7 +36232,7 @@
         <v>1.08</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.17</v>
@@ -37107,7 +37107,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37543,7 +37543,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR170" t="n">
         <v>1.43</v>
@@ -37758,7 +37758,7 @@
         <v>1.69</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.61</v>
@@ -38851,7 +38851,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR176" t="n">
         <v>1.82</v>
@@ -40159,7 +40159,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR182" t="n">
         <v>1.48</v>
@@ -40374,7 +40374,7 @@
         <v>1.21</v>
       </c>
       <c r="AP183" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.17</v>
@@ -40592,7 +40592,7 @@
         <v>0.93</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.06</v>
@@ -41246,7 +41246,7 @@
         <v>0.54</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.72</v>
@@ -41332,7 +41332,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>5242441</v>
+        <v>5242440</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -41352,197 +41352,197 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
         <v>1</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>['28']</t>
-        </is>
-      </c>
       <c r="Q188" t="n">
-        <v>2.85</v>
+        <v>4.1</v>
       </c>
       <c r="R188" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S188" t="n">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="T188" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U188" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V188" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="W188" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X188" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z188" t="n">
-        <v>2.29</v>
+        <v>3.5</v>
       </c>
       <c r="AA188" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB188" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="AC188" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD188" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE188" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AF188" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AG188" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AH188" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AI188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF188" t="n">
         <v>1.88</v>
       </c>
-      <c r="AJ188" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK188" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL188" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM188" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN188" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO188" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP188" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AQ188" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR188" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS188" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AT188" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU188" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV188" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW188" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX188" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY188" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ188" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA188" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB188" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC188" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD188" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BE188" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BF188" t="n">
+      <c r="BG188" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM188" t="n">
         <v>2.18</v>
       </c>
-      <c r="BG188" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BH188" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BI188" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BJ188" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BK188" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BL188" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BM188" t="n">
-        <v>3.4</v>
-      </c>
       <c r="BN188" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="BO188" t="n">
-        <v>5.1</v>
+        <v>2.37</v>
       </c>
       <c r="BP188" t="n">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="189">
@@ -41550,7 +41550,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>5242440</v>
+        <v>5242441</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -41570,197 +41570,197 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>1</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
       </c>
       <c r="K189" t="n">
         <v>1</v>
       </c>
       <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
         <v>1</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0</v>
       </c>
       <c r="N189" t="n">
         <v>1</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="R189" t="n">
+        <v>2</v>
+      </c>
+      <c r="S189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X189" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG189" t="n">
         <v>2.1</v>
       </c>
-      <c r="S189" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T189" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U189" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V189" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W189" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X189" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y189" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z189" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA189" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB189" t="n">
+      <c r="AH189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI189" t="n">
         <v>1.88</v>
       </c>
-      <c r="AC189" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD189" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE189" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF189" t="n">
+      <c r="AJ189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM189" t="n">
         <v>3.4</v>
       </c>
-      <c r="AG189" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH189" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI189" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ189" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK189" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AL189" t="n">
+      <c r="BN189" t="n">
         <v>1.27</v>
       </c>
-      <c r="AM189" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AN189" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO189" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AP189" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ189" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AR189" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AS189" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT189" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU189" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV189" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW189" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX189" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY189" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ189" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA189" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB189" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC189" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD189" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE189" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF189" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BG189" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BH189" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="BI189" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BJ189" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BK189" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BL189" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BM189" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BN189" t="n">
-        <v>1.68</v>
-      </c>
       <c r="BO189" t="n">
-        <v>2.37</v>
+        <v>5.1</v>
       </c>
       <c r="BP189" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="190">
@@ -42339,7 +42339,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR192" t="n">
         <v>1.18</v>
@@ -42557,7 +42557,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR193" t="n">
         <v>1.55</v>
@@ -44519,7 +44519,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -44952,7 +44952,7 @@
         <v>1.87</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.89</v>
@@ -45173,7 +45173,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR205" t="n">
         <v>1.8</v>
@@ -45388,7 +45388,7 @@
         <v>0.6</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.5600000000000001</v>
@@ -46481,7 +46481,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR211" t="n">
         <v>1.32</v>
@@ -48004,7 +48004,7 @@
         <v>0.63</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ218" t="n">
         <v>0.72</v>
@@ -48661,7 +48661,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR221" t="n">
         <v>1.7</v>
@@ -48876,10 +48876,10 @@
         <v>1.29</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR222" t="n">
         <v>1.52</v>
@@ -49748,7 +49748,7 @@
         <v>1.65</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.61</v>
@@ -50488,7 +50488,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>5242481</v>
+        <v>5242485</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -50508,197 +50508,197 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Gimpo Citizen</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
         <v>1</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0</v>
-      </c>
-      <c r="K230" t="n">
-        <v>1</v>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>1</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>1.72</v>
+        <v>3.1</v>
       </c>
       <c r="R230" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="S230" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="T230" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="U230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY230" t="n">
         <v>4</v>
       </c>
-      <c r="V230" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W230" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X230" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y230" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z230" t="n">
+      <c r="AZ230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG230" t="n">
         <v>1.32</v>
       </c>
-      <c r="AA230" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AB230" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="AC230" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD230" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE230" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF230" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG230" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AH230" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AI230" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AJ230" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK230" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AL230" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AM230" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN230" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AO230" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AP230" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ230" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR230" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS230" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT230" t="n">
+      <c r="BH230" t="n">
         <v>2.98</v>
       </c>
-      <c r="AU230" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV230" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW230" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX230" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY230" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ230" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA230" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB230" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC230" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD230" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BE230" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="BF230" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BG230" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH230" t="n">
-        <v>3.65</v>
-      </c>
       <c r="BI230" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="BJ230" t="n">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="BK230" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="BL230" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="BM230" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="BN230" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="BO230" t="n">
-        <v>2.84</v>
+        <v>3.74</v>
       </c>
       <c r="BP230" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="231">
@@ -50706,7 +50706,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>5242482</v>
+        <v>5242484</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -50726,197 +50726,197 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Bucheon 1995</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
       </c>
       <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>4</v>
+      </c>
+      <c r="M231" t="n">
         <v>1</v>
       </c>
-      <c r="L231" t="n">
-        <v>0</v>
-      </c>
-      <c r="M231" t="n">
-        <v>2</v>
-      </c>
       <c r="N231" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['38', '61', '78', '90+9']</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>['10', '83']</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X231" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ231" t="n">
         <v>2.25</v>
       </c>
-      <c r="R231" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S231" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T231" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U231" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V231" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W231" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X231" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z231" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA231" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AB231" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AC231" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD231" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE231" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF231" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG231" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH231" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI231" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AJ231" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK231" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL231" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM231" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN231" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO231" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AP231" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ231" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AR231" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS231" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AT231" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU231" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV231" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW231" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX231" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY231" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ231" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA231" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB231" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC231" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD231" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BE231" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF231" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BG231" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BH231" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI231" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BJ231" t="n">
-        <v>2.33</v>
-      </c>
       <c r="BK231" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BL231" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM231" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="BN231" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="BO231" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BP231" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="232">
@@ -50924,7 +50924,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>5242483</v>
+        <v>5242486</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -50944,191 +50944,191 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Busan I'Park</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['7', '18']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="Q232" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R232" t="n">
         <v>2.2</v>
       </c>
       <c r="S232" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T232" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U232" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V232" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W232" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X232" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y232" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z232" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AA232" t="n">
-        <v>4.12</v>
+        <v>3.93</v>
       </c>
       <c r="AB232" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="AC232" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE232" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF232" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AG232" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH232" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AI232" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ232" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AK232" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AL232" t="n">
         <v>1.18</v>
       </c>
       <c r="AM232" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AN232" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="AO232" t="n">
-        <v>0.59</v>
+        <v>1.29</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="AR232" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS232" t="n">
         <v>1.41</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV232" t="n">
         <v>4</v>
       </c>
-      <c r="AV232" t="n">
-        <v>3</v>
-      </c>
       <c r="AW232" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY232" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AZ232" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA232" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC232" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD232" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BE232" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="BF232" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="BG232" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BH232" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="BI232" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="BJ232" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="BK232" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="BL232" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BM232" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BN232" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BO232" t="n">
         <v>3.74</v>
@@ -51142,7 +51142,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>5242484</v>
+        <v>5242482</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -51162,197 +51162,197 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Bucheon 1995</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
         <v>1</v>
       </c>
       <c r="K233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['10', '83']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S233" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X233" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX233" t="n">
         <v>4</v>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="n">
-        <v>5</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>['38', '61', '78', '90+9']</t>
-        </is>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>['22']</t>
-        </is>
-      </c>
-      <c r="Q233" t="n">
+      <c r="AY233" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF233" t="n">
         <v>2.95</v>
       </c>
-      <c r="R233" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S233" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T233" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U233" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V233" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W233" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X233" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB233" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AC233" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD233" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG233" t="n">
+      <c r="BG233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK233" t="n">
         <v>1.93</v>
       </c>
-      <c r="AH233" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI233" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AJ233" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK233" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL233" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM233" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN233" t="n">
+      <c r="BL233" t="n">
         <v>1.88</v>
       </c>
-      <c r="AO233" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AP233" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AQ233" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR233" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS233" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT233" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AU233" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV233" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW233" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX233" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY233" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ233" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA233" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB233" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC233" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD233" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BE233" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF233" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BG233" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BH233" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BI233" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BJ233" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BK233" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL233" t="n">
-        <v>1.8</v>
-      </c>
       <c r="BM233" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="BN233" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BO233" t="n">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BP233" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="234">
@@ -51360,7 +51360,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>5242485</v>
+        <v>5242481</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -51380,197 +51380,633 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Gimpo Citizen</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N234" t="n">
         <v>1</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>['67']</t>
-        </is>
-      </c>
       <c r="Q234" t="n">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="R234" t="n">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="S234" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="T234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U234" t="n">
+        <v>4</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X234" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI234" t="n">
         <v>1.41</v>
       </c>
-      <c r="U234" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V234" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W234" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X234" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y234" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z234" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA234" t="n">
+      <c r="BJ234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5242483</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45256.125</v>
+      </c>
+      <c r="F235" t="n">
+        <v>39</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Cheonan City</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['7', '18']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S235" t="n">
+        <v>5</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U235" t="n">
+        <v>3</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X235" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>7272027</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45259.29166666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Bucheon 1995</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S236" t="n">
+        <v>4</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X236" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB236" t="n">
         <v>3.3</v>
       </c>
-      <c r="AB234" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC234" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD234" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE234" t="n">
+      <c r="AC236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK236" t="n">
         <v>1.33</v>
       </c>
-      <c r="AF234" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG234" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH234" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AI234" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AJ234" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK234" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL234" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM234" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN234" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO234" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AP234" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AQ234" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AR234" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS234" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT234" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AU234" t="n">
+      <c r="AL236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ236" t="n">
         <v>6</v>
       </c>
-      <c r="AV234" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW234" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX234" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY234" t="n">
+      <c r="BA236" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC236" t="n">
         <v>11</v>
       </c>
-      <c r="AZ234" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA234" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB234" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC234" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD234" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BE234" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="BF234" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BG234" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH234" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BI234" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BJ234" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BK234" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BL234" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BM234" t="n">
+      <c r="BD236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO236" t="n">
         <v>2.67</v>
       </c>
-      <c r="BN234" t="n">
+      <c r="BP236" t="n">
         <v>1.39</v>
-      </c>
-      <c r="BO234" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BP234" t="n">
-        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -41986,7 +41986,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>5242443</v>
+        <v>5242444</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -42006,86 +42006,86 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Asan Mugunghwa</t>
+          <t>Cheonan City</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>Bucheon 1995</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
         <v>1</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>['55']</t>
-        </is>
-      </c>
       <c r="Q191" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="R191" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S191" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="T191" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="U191" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="V191" t="n">
         <v>3.2</v>
       </c>
       <c r="W191" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X191" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y191" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z191" t="n">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="AA191" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB191" t="n">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="AC191" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD191" t="n">
-        <v>8.5</v>
+        <v>7.25</v>
       </c>
       <c r="AE191" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF191" t="n">
         <v>3</v>
@@ -42103,100 +42103,100 @@
         <v>1.9</v>
       </c>
       <c r="AK191" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AL191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM191" t="n">
         <v>1.25</v>
       </c>
-      <c r="AM191" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AN191" t="n">
-        <v>1.62</v>
+        <v>0.57</v>
       </c>
       <c r="AO191" t="n">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="AR191" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.94</v>
+        <v>2.5</v>
       </c>
       <c r="AU191" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV191" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY191" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ191" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC191" t="n">
         <v>7</v>
       </c>
-      <c r="BA191" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB191" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC191" t="n">
-        <v>13</v>
-      </c>
       <c r="BD191" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BE191" t="n">
         <v>7</v>
       </c>
       <c r="BF191" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="BG191" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="BH191" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BI191" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="BJ191" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="BK191" t="n">
-        <v>2.29</v>
+        <v>2.47</v>
       </c>
       <c r="BL191" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="BM191" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BN191" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BO191" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="BP191" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="192">
@@ -42204,7 +42204,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>5242444</v>
+        <v>5242443</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -42224,86 +42224,86 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Asan Mugunghwa</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Bucheon 1995</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
         <v>1</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0</v>
-      </c>
-      <c r="K192" t="n">
-        <v>1</v>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0</v>
       </c>
       <c r="N192" t="n">
         <v>1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="R192" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S192" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="T192" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="U192" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="V192" t="n">
         <v>3.2</v>
       </c>
       <c r="W192" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X192" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z192" t="n">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="AA192" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB192" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="AC192" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD192" t="n">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE192" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF192" t="n">
         <v>3</v>
@@ -42321,100 +42321,100 @@
         <v>1.9</v>
       </c>
       <c r="AK192" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AL192" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM192" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AN192" t="n">
-        <v>0.57</v>
+        <v>1.62</v>
       </c>
       <c r="AO192" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="AR192" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="AU192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX192" t="n">
         <v>5</v>
       </c>
-      <c r="AV192" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW192" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX192" t="n">
+      <c r="AY192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA192" t="n">
         <v>6</v>
       </c>
-      <c r="AY192" t="n">
+      <c r="BB192" t="n">
         <v>7</v>
       </c>
-      <c r="AZ192" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA192" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB192" t="n">
-        <v>3</v>
-      </c>
       <c r="BC192" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD192" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BE192" t="n">
         <v>7</v>
       </c>
       <c r="BF192" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="BG192" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="BH192" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BI192" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ192" t="n">
         <v>1.96</v>
       </c>
-      <c r="BJ192" t="n">
-        <v>1.85</v>
-      </c>
       <c r="BK192" t="n">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="BL192" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="BM192" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BN192" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BO192" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="BP192" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="193">
@@ -45038,7 +45038,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>5242457</v>
+        <v>5242458</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -45058,197 +45058,197 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Busan I'Park</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Bucheon 1995</t>
+          <t>Cheonan City</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>['39', '45+2', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R205" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S205" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="T205" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U205" t="n">
-        <v>2.75</v>
+        <v>3.07</v>
       </c>
       <c r="V205" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="W205" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X205" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y205" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AA205" t="n">
-        <v>3.8</v>
+        <v>4.43</v>
       </c>
       <c r="AB205" t="n">
-        <v>4.65</v>
+        <v>4.04</v>
       </c>
       <c r="AC205" t="n">
         <v>1.04</v>
       </c>
       <c r="AD205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW205" t="n">
         <v>12</v>
       </c>
-      <c r="AE205" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF205" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG205" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH205" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AI205" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK205" t="n">
+      <c r="AX205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP205" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AL205" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM205" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN205" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO205" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP205" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ205" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AR205" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS205" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT205" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU205" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW205" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY205" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ205" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA205" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB205" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC205" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD205" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BE205" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF205" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BG205" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BH205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI205" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BJ205" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BK205" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BL205" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BM205" t="n">
-        <v>2</v>
-      </c>
-      <c r="BN205" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BO205" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BP205" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="206">
@@ -45256,7 +45256,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>5242458</v>
+        <v>5242457</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -45276,197 +45276,197 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Busan I'Park</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Bucheon 1995</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['39', '45+2', '90+5']</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R206" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S206" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="T206" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U206" t="n">
-        <v>3.07</v>
+        <v>2.75</v>
       </c>
       <c r="V206" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="W206" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X206" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y206" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z206" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AA206" t="n">
-        <v>4.43</v>
+        <v>3.8</v>
       </c>
       <c r="AB206" t="n">
-        <v>4.04</v>
+        <v>4.65</v>
       </c>
       <c r="AC206" t="n">
         <v>1.04</v>
       </c>
       <c r="AD206" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE206" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF206" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG206" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AH206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR206" t="n">
         <v>1.8</v>
       </c>
-      <c r="AI206" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ206" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK206" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AL206" t="n">
+      <c r="AS206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG206" t="n">
         <v>1.17</v>
       </c>
-      <c r="AM206" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AN206" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AO206" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AP206" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ206" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR206" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AS206" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AT206" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU206" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV206" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW206" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX206" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY206" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ206" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA206" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB206" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC206" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD206" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BE206" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF206" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BG206" t="n">
-        <v>1.43</v>
-      </c>
       <c r="BH206" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="BI206" t="n">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="BJ206" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="BK206" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL206" t="n">
         <v>2.21</v>
       </c>
-      <c r="BL206" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BM206" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="BN206" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="BO206" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="BP206" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="207">
@@ -45474,7 +45474,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>5242459</v>
+        <v>5242460</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -45494,197 +45494,197 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Asan Mugunghwa</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="n">
         <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N207" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>['43', '45+2']</t>
+          <t>['16', '56', '59']</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+3', '75']</t>
         </is>
       </c>
       <c r="Q207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S207" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X207" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH207" t="n">
         <v>3.1</v>
       </c>
-      <c r="R207" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S207" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T207" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U207" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V207" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W207" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X207" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y207" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z207" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB207" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AC207" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD207" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE207" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF207" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG207" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AH207" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AI207" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ207" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK207" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL207" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM207" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AN207" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO207" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP207" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ207" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR207" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AS207" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AT207" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU207" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV207" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW207" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX207" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY207" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ207" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA207" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB207" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC207" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD207" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BE207" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="BF207" t="n">
+      <c r="BI207" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ207" t="n">
         <v>2.25</v>
       </c>
-      <c r="BG207" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BH207" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BI207" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BJ207" t="n">
-        <v>1.83</v>
-      </c>
       <c r="BK207" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="BL207" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="BM207" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="BN207" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BO207" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="BP207" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="208">
@@ -45692,7 +45692,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>5242460</v>
+        <v>5242459</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -45712,197 +45712,197 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Asan Mugunghwa</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
         <v>2</v>
       </c>
       <c r="L208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['43', '45+2']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X208" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX208" t="n">
         <v>5</v>
       </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>['16', '56', '59']</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>['45+3', '75']</t>
-        </is>
-      </c>
-      <c r="Q208" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R208" t="n">
+      <c r="AY208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF208" t="n">
         <v>2.25</v>
       </c>
-      <c r="S208" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T208" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U208" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V208" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W208" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X208" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z208" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA208" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AB208" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AC208" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD208" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE208" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF208" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AG208" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH208" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AI208" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ208" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK208" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AL208" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM208" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN208" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO208" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AP208" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AQ208" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AR208" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS208" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AT208" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AU208" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX208" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY208" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ208" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA208" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB208" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC208" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD208" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BE208" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="BF208" t="n">
-        <v>3.08</v>
-      </c>
       <c r="BG208" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="BH208" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="BI208" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="BJ208" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="BK208" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="BL208" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="BM208" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BN208" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="BO208" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="BP208" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="209">
@@ -50488,7 +50488,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>5242485</v>
+        <v>5242481</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -50508,197 +50508,197 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Gimpo Citizen</t>
+          <t>Sangju Sangmu</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>1</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>['67']</t>
-        </is>
-      </c>
       <c r="Q230" t="n">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="R230" t="n">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="S230" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="T230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U230" t="n">
+        <v>4</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI230" t="n">
         <v>1.41</v>
       </c>
-      <c r="U230" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V230" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W230" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X230" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y230" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z230" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA230" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB230" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC230" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD230" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE230" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF230" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG230" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH230" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AI230" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AJ230" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK230" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL230" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM230" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN230" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO230" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AP230" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AQ230" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AR230" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS230" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT230" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AU230" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV230" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW230" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX230" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY230" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ230" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA230" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB230" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC230" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD230" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BE230" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="BF230" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BG230" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH230" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BI230" t="n">
-        <v>1.66</v>
-      </c>
       <c r="BJ230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM230" t="n">
         <v>2.23</v>
       </c>
-      <c r="BK230" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BL230" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BM230" t="n">
-        <v>2.67</v>
-      </c>
       <c r="BN230" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="BO230" t="n">
-        <v>3.74</v>
+        <v>2.84</v>
       </c>
       <c r="BP230" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="231">
@@ -50706,7 +50706,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>5242484</v>
+        <v>5242482</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -50726,197 +50726,197 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Bucheon 1995</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
       </c>
       <c r="K231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['10', '83']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X231" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX231" t="n">
         <v>4</v>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="n">
-        <v>5</v>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>['38', '61', '78', '90+9']</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>['22']</t>
-        </is>
-      </c>
-      <c r="Q231" t="n">
+      <c r="AY231" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF231" t="n">
         <v>2.95</v>
       </c>
-      <c r="R231" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S231" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T231" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U231" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V231" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W231" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X231" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z231" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AA231" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB231" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AC231" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD231" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE231" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF231" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG231" t="n">
+      <c r="BG231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK231" t="n">
         <v>1.93</v>
       </c>
-      <c r="AH231" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI231" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AJ231" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK231" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL231" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM231" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN231" t="n">
+      <c r="BL231" t="n">
         <v>1.88</v>
       </c>
-      <c r="AO231" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AP231" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AQ231" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR231" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS231" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT231" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AU231" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV231" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW231" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX231" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY231" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ231" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA231" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB231" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC231" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD231" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BE231" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF231" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BG231" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BH231" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BI231" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BJ231" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BK231" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL231" t="n">
-        <v>1.8</v>
-      </c>
       <c r="BM231" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="BN231" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BO231" t="n">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BP231" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="232">
@@ -50924,7 +50924,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>5242486</v>
+        <v>5242483</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -50944,191 +50944,191 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Busan I'Park</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Cheonan City</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['7', '18']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q232" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R232" t="n">
         <v>2.2</v>
       </c>
       <c r="S232" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T232" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U232" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="V232" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W232" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y232" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z232" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AA232" t="n">
-        <v>3.93</v>
+        <v>4.12</v>
       </c>
       <c r="AB232" t="n">
-        <v>5.25</v>
+        <v>5.36</v>
       </c>
       <c r="AC232" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD232" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE232" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF232" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG232" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AH232" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI232" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ232" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AK232" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AL232" t="n">
         <v>1.18</v>
       </c>
       <c r="AM232" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AN232" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="AO232" t="n">
-        <v>1.29</v>
+        <v>0.59</v>
       </c>
       <c r="AP232" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR232" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS232" t="n">
         <v>1.41</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU232" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV232" t="n">
         <v>4</v>
       </c>
       <c r="AW232" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX232" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY232" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC232" t="n">
         <v>4</v>
       </c>
-      <c r="BA232" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB232" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC232" t="n">
-        <v>13</v>
-      </c>
       <c r="BD232" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BE232" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="BF232" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="BG232" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BH232" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="BI232" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="BJ232" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="BK232" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="BL232" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BM232" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BN232" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BO232" t="n">
         <v>3.74</v>
@@ -51142,7 +51142,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>5242482</v>
+        <v>5242484</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -51162,197 +51162,197 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Bucheon 1995</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="n">
         <v>1</v>
       </c>
       <c r="K233" t="n">
+        <v>2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4</v>
+      </c>
+      <c r="M233" t="n">
         <v>1</v>
       </c>
-      <c r="L233" t="n">
-        <v>0</v>
-      </c>
-      <c r="M233" t="n">
-        <v>2</v>
-      </c>
       <c r="N233" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['38', '61', '78', '90+9']</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>['10', '83']</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X233" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ233" t="n">
         <v>2.25</v>
       </c>
-      <c r="R233" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S233" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T233" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U233" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V233" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W233" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X233" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AB233" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AC233" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD233" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG233" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH233" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI233" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AJ233" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK233" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL233" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM233" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN233" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO233" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AP233" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ233" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AR233" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS233" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AT233" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU233" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV233" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW233" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX233" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY233" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ233" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA233" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB233" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC233" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD233" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BE233" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF233" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BG233" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BH233" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI233" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BJ233" t="n">
-        <v>2.33</v>
-      </c>
       <c r="BK233" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BL233" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM233" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="BN233" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="BO233" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BP233" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="234">
@@ -51360,7 +51360,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>5242481</v>
+        <v>5242485</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -51380,197 +51380,197 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Sangju Sangmu</t>
+          <t>Gimpo Citizen</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
         <v>1</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0</v>
-      </c>
-      <c r="K234" t="n">
-        <v>1</v>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0</v>
       </c>
       <c r="N234" t="n">
         <v>1</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>1.72</v>
+        <v>3.1</v>
       </c>
       <c r="R234" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="S234" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="T234" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="U234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY234" t="n">
         <v>4</v>
       </c>
-      <c r="V234" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W234" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X234" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y234" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z234" t="n">
+      <c r="AZ234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG234" t="n">
         <v>1.32</v>
       </c>
-      <c r="AA234" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AB234" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="AC234" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD234" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE234" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF234" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG234" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AH234" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AI234" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AJ234" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK234" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AL234" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AM234" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN234" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AO234" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AP234" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ234" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AR234" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS234" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT234" t="n">
+      <c r="BH234" t="n">
         <v>2.98</v>
       </c>
-      <c r="AU234" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV234" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW234" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX234" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY234" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ234" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA234" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB234" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC234" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD234" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BE234" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="BF234" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BG234" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH234" t="n">
-        <v>3.65</v>
-      </c>
       <c r="BI234" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="BJ234" t="n">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="BK234" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="BL234" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="BM234" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="BN234" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="BO234" t="n">
-        <v>2.84</v>
+        <v>3.74</v>
       </c>
       <c r="BP234" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="235">
@@ -51578,7 +51578,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>5242483</v>
+        <v>5242486</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -51598,191 +51598,191 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Busan I'Park</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Cheonan City</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
       <c r="N235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>['7', '18']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R235" t="n">
         <v>2.2</v>
       </c>
       <c r="S235" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T235" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U235" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V235" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W235" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X235" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y235" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z235" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AA235" t="n">
-        <v>4.12</v>
+        <v>3.93</v>
       </c>
       <c r="AB235" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="AC235" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD235" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE235" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF235" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AG235" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH235" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AI235" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ235" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AK235" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AL235" t="n">
         <v>1.18</v>
       </c>
       <c r="AM235" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AN235" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="AO235" t="n">
-        <v>0.59</v>
+        <v>1.29</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="AR235" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS235" t="n">
         <v>1.41</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU235" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV235" t="n">
         <v>4</v>
       </c>
       <c r="AW235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB235" t="n">
         <v>5</v>
       </c>
-      <c r="AX235" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY235" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ235" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA235" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB235" t="n">
-        <v>1</v>
-      </c>
       <c r="BC235" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD235" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BE235" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="BF235" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="BG235" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BH235" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="BI235" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="BJ235" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="BK235" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="BL235" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BM235" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BN235" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BO235" t="n">
         <v>3.74</v>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP236"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.5600000000000001</v>
@@ -3317,7 +3317,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR16" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.21</v>
@@ -6805,7 +6805,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR41" t="n">
         <v>1.46</v>
@@ -10726,7 +10726,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.89</v>
@@ -12037,7 +12037,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR53" t="n">
         <v>1.35</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.17</v>
@@ -15307,7 +15307,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR68" t="n">
         <v>1.52</v>
@@ -15522,7 +15522,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.06</v>
@@ -19449,7 +19449,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR87" t="n">
         <v>1.38</v>
@@ -20539,7 +20539,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR92" t="n">
         <v>1.16</v>
@@ -21190,7 +21190,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.28</v>
@@ -24024,7 +24024,7 @@
         <v>0.86</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.06</v>
@@ -24899,7 +24899,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR112" t="n">
         <v>1.53</v>
@@ -25114,7 +25114,7 @@
         <v>0.78</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.67</v>
@@ -27294,7 +27294,7 @@
         <v>2.11</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.61</v>
@@ -29259,7 +29259,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR132" t="n">
         <v>1.49</v>
@@ -30564,7 +30564,7 @@
         <v>0.2</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.72</v>
@@ -32744,7 +32744,7 @@
         <v>1.82</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.33</v>
@@ -32965,7 +32965,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR149" t="n">
         <v>1.3</v>
@@ -33837,7 +33837,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR153" t="n">
         <v>1.35</v>
@@ -36450,7 +36450,7 @@
         <v>1.69</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.89</v>
@@ -37325,7 +37325,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR169" t="n">
         <v>1.32</v>
@@ -39284,7 +39284,7 @@
         <v>1.23</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.06</v>
@@ -41903,7 +41903,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR190" t="n">
         <v>1.52</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.67</v>
@@ -43647,7 +43647,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR198" t="n">
         <v>1.25</v>
@@ -46042,7 +46042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.33</v>
@@ -46263,7 +46263,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR210" t="n">
         <v>1.36</v>
@@ -47350,7 +47350,7 @@
         <v>1.19</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.06</v>
@@ -47571,7 +47571,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR216" t="n">
         <v>1.37</v>
@@ -51492,10 +51492,10 @@
         <v>1.82</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AR234" t="n">
         <v>1.4</v>
@@ -51928,7 +51928,7 @@
         <v>1.58</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.57</v>
@@ -52007,6 +52007,224 @@
       </c>
       <c r="BP236" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>7273589</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>South Korea K League 2</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45262.1875</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Gimpo Citizen</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Gyeongnam</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>2</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>3</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['30', '45+1']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X237" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 2_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
